--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\電気研究会\github\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E128861-CAEC-4BB0-892B-AB3A32A4D670}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3E6F45-666E-4D59-A2B4-517423EA14F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="12735" windowHeight="8340" xr2:uid="{31200951-AE9B-4843-A38A-9409D86E87BD}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="12735" windowHeight="8340" xr2:uid="{31200951-AE9B-4843-A38A-9409D86E87BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,19 +398,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>-148.22</v>
+        <v>0</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -431,30 +431,30 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>12.77</v>
+        <v>25.54</v>
       </c>
       <c r="B2">
-        <v>16.2</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.63</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -463,36 +463,36 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>-0.19</v>
       </c>
       <c r="K2">
-        <v>0.02</v>
+        <v>-1.71</v>
       </c>
       <c r="L2">
-        <v>28.47</v>
+        <v>20.94</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>29.8</v>
+        <v>25.54</v>
       </c>
       <c r="B3">
-        <v>34.200000000000003</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-9.74</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,36 +501,36 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02</v>
+        <v>-0.22</v>
       </c>
       <c r="K3">
-        <v>0.02</v>
+        <v>1.72</v>
       </c>
       <c r="L3">
-        <v>31.66</v>
+        <v>83.05</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>38.31</v>
+        <v>51.08</v>
       </c>
       <c r="B4">
-        <v>52.2</v>
+        <v>63</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.81</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.24</v>
+        <v>-8.9700000000000006</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.26</v>
+        <v>0.11</v>
       </c>
       <c r="K4">
-        <v>-1.91</v>
+        <v>1.91</v>
       </c>
       <c r="L4">
-        <v>62.75</v>
+        <v>64.319999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -553,22 +553,22 @@
         <v>63.85</v>
       </c>
       <c r="B5">
-        <v>70.2</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.29</v>
+        <v>-9.61</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -577,36 +577,36 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.18</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K5">
-        <v>0.28000000000000003</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L5">
-        <v>46.42</v>
+        <v>84.38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>68.11</v>
+        <v>72.37</v>
       </c>
       <c r="B6">
-        <v>88.2</v>
+        <v>99</v>
       </c>
       <c r="C6">
-        <v>1.72</v>
+        <v>2.19</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-6.5</v>
+        <v>-12.3</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.01</v>
+        <v>-0.21</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -615,13 +615,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03</v>
+        <v>1.05</v>
       </c>
       <c r="K6">
-        <v>1.33</v>
+        <v>3.51</v>
       </c>
       <c r="L6">
-        <v>93.54</v>
+        <v>118.34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -629,22 +629,22 @@
         <v>85.14</v>
       </c>
       <c r="B7">
-        <v>106.2</v>
+        <v>117</v>
       </c>
       <c r="C7">
-        <v>2.4900000000000002</v>
+        <v>3.03</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-5.37</v>
+        <v>-7.05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.09</v>
+        <v>-0.32</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -653,36 +653,36 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.43</v>
+        <v>1.62</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>3.03</v>
       </c>
       <c r="L7">
-        <v>103.23</v>
+        <v>141.16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>106.42</v>
+        <v>123.45</v>
       </c>
       <c r="B8">
-        <v>124.2</v>
+        <v>135</v>
       </c>
       <c r="C8">
-        <v>3.44</v>
+        <v>4.09</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-3.63</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>-0.08</v>
+        <v>-0.4</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.42</v>
+        <v>1.98</v>
       </c>
       <c r="K8">
-        <v>0.42</v>
+        <v>2.7</v>
       </c>
       <c r="L8">
-        <v>98.52</v>
+        <v>86.31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -705,22 +705,22 @@
         <v>131.96</v>
       </c>
       <c r="B9">
-        <v>142.19999999999999</v>
+        <v>153</v>
       </c>
       <c r="C9">
-        <v>4.6399999999999997</v>
+        <v>5.39</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-1.62</v>
+        <v>-6.32</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-0.1</v>
+        <v>-0.43</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +729,36 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>2.16</v>
       </c>
       <c r="K9">
-        <v>0.83</v>
+        <v>3.42</v>
       </c>
       <c r="L9">
-        <v>80.81</v>
+        <v>119.95</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>148.99</v>
+        <v>157.5</v>
       </c>
       <c r="B10">
-        <v>160.19999999999999</v>
+        <v>171</v>
       </c>
       <c r="C10">
-        <v>6.04</v>
+        <v>6.92</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-2.35</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.13</v>
+        <v>-0.44</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,36 +767,36 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.66</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="K10">
-        <v>1.1299999999999999</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L10">
-        <v>87.71</v>
+        <v>99.12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>170.27</v>
+        <v>174.53</v>
       </c>
       <c r="B11">
-        <v>178.2</v>
+        <v>189</v>
       </c>
       <c r="C11">
-        <v>7.62</v>
+        <v>8.6</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-3.54</v>
+        <v>3.45</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.16</v>
+        <v>-0.46</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -805,36 +805,36 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.82</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K11">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="L11">
-        <v>81.709999999999994</v>
+        <v>105.35</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>191.56</v>
+        <v>195.81</v>
       </c>
       <c r="B12">
-        <v>196.2</v>
+        <v>207</v>
       </c>
       <c r="C12">
-        <v>9.3699999999999992</v>
+        <v>10.48</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-1.98</v>
+        <v>-5.22</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-0.18</v>
+        <v>-0.48</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.91</v>
+        <v>2.41</v>
       </c>
       <c r="K12">
-        <v>1.31</v>
+        <v>3.45</v>
       </c>
       <c r="L12">
-        <v>75.75</v>
+        <v>100.73</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -857,22 +857,22 @@
         <v>208.58</v>
       </c>
       <c r="B13">
-        <v>214.2</v>
+        <v>225</v>
       </c>
       <c r="C13">
-        <v>11.31</v>
+        <v>12.52</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.23</v>
+        <v>-8.51</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.21</v>
+        <v>-0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -881,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.04</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="L13">
-        <v>81.61</v>
+        <v>120.97</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -895,22 +895,22 @@
         <v>225.61</v>
       </c>
       <c r="B14">
-        <v>232.2</v>
+        <v>243</v>
       </c>
       <c r="C14">
-        <v>13.44</v>
+        <v>14.75</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.28</v>
+        <v>-3.08</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.21</v>
+        <v>-0.53</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.05</v>
+        <v>2.63</v>
       </c>
       <c r="K14">
-        <v>0.8</v>
+        <v>3.25</v>
       </c>
       <c r="L14">
-        <v>88.11</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -933,22 +933,22 @@
         <v>246.89</v>
       </c>
       <c r="B15">
-        <v>250.2</v>
+        <v>261</v>
       </c>
       <c r="C15">
-        <v>15.74</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.66</v>
+        <v>0.89</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.19</v>
+        <v>-0.53</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -957,36 +957,36 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.97</v>
+        <v>2.65</v>
       </c>
       <c r="K15">
-        <v>0.44</v>
+        <v>2.44</v>
       </c>
       <c r="L15">
-        <v>81.41</v>
+        <v>119.24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>251.15</v>
+        <v>268.18</v>
       </c>
       <c r="B16">
-        <v>268.2</v>
+        <v>279</v>
       </c>
       <c r="C16">
-        <v>18.25</v>
+        <v>19.8</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.83</v>
+        <v>9.06</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.16</v>
+        <v>-0.49</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -995,36 +995,36 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K16">
-        <v>0.44</v>
+        <v>0.74</v>
       </c>
       <c r="L16">
-        <v>125.38</v>
+        <v>110.07</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>285.20999999999998</v>
+        <v>289.45999999999998</v>
       </c>
       <c r="B17">
-        <v>286.2</v>
+        <v>297</v>
       </c>
       <c r="C17">
-        <v>20.93</v>
+        <v>22.6</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.9400000000000004</v>
+        <v>10.68</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-0.12</v>
+        <v>-0.39</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1033,36 +1033,36 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.59</v>
+        <v>1.93</v>
       </c>
       <c r="K17">
-        <v>-0.4</v>
+        <v>-0.16</v>
       </c>
       <c r="L17">
-        <v>79.27</v>
+        <v>101.89</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>289.45999999999998</v>
+        <v>297.98</v>
       </c>
       <c r="B18">
-        <v>304.2</v>
+        <v>315</v>
       </c>
       <c r="C18">
-        <v>23.78</v>
+        <v>25.54</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.29</v>
+        <v>13.37</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.08</v>
+        <v>-0.26</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1071,36 +1071,36 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.39</v>
+        <v>1.3</v>
       </c>
       <c r="K18">
-        <v>-7.0000000000000007E-2</v>
+        <v>-1.39</v>
       </c>
       <c r="L18">
-        <v>124.15</v>
+        <v>132.69</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>310.75</v>
+        <v>315</v>
       </c>
       <c r="B19">
-        <v>322.2</v>
+        <v>333</v>
       </c>
       <c r="C19">
-        <v>26.79</v>
+        <v>28.66</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-2.35</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.09</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1109,36 +1109,36 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.43</v>
+        <v>0.69</v>
       </c>
       <c r="K19">
-        <v>0.9</v>
+        <v>-1.24</v>
       </c>
       <c r="L19">
-        <v>119.1</v>
+        <v>139.38</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>327.77</v>
+        <v>336.29</v>
       </c>
       <c r="B20">
-        <v>340.2</v>
+        <v>351</v>
       </c>
       <c r="C20">
-        <v>29.99</v>
+        <v>31.96</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-7.17</v>
+        <v>1.25</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-0.14000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1147,36 +1147,36 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="K20">
-        <v>2.16</v>
+        <v>-0.04</v>
       </c>
       <c r="L20">
-        <v>127.11</v>
+        <v>134.38</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>344.8</v>
+        <v>357.57</v>
       </c>
       <c r="B21">
-        <v>358.2</v>
+        <v>369</v>
       </c>
       <c r="C21">
-        <v>33.36</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-2.84</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.2</v>
+        <v>-0.09</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1185,36 +1185,36 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="K21">
-        <v>1.57</v>
+        <v>0.86</v>
       </c>
       <c r="L21">
-        <v>133.32</v>
+        <v>127.99</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>361.83</v>
+        <v>383.11</v>
       </c>
       <c r="B22">
-        <v>376.2</v>
+        <v>387</v>
       </c>
       <c r="C22">
-        <v>36.93</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.2</v>
+        <v>-0.11</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1223,36 +1223,36 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.02</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K22">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L22">
-        <v>138.99</v>
+        <v>107.28</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>383.11</v>
+        <v>370.34</v>
       </c>
       <c r="B23">
-        <v>394.2</v>
+        <v>405</v>
       </c>
       <c r="C23">
-        <v>40.69</v>
+        <v>42.99</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.59</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1261,36 +1261,36 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K23">
-        <v>-0.56999999999999995</v>
+        <v>-0.26</v>
       </c>
       <c r="L23">
-        <v>130.76</v>
+        <v>125.94</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>400.14</v>
+        <v>391.62</v>
       </c>
       <c r="B24">
-        <v>412.2</v>
+        <v>423</v>
       </c>
       <c r="C24">
-        <v>44.6</v>
+        <v>46.85</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.41</v>
+        <v>2.62</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-0.11</v>
+        <v>-0.05</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1299,36 +1299,36 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.56000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="K24">
-        <v>0.08</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="L24">
-        <v>137.99</v>
+        <v>124.46</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>421.42</v>
+        <v>412.91</v>
       </c>
       <c r="B25">
-        <v>430.2</v>
+        <v>441</v>
       </c>
       <c r="C25">
-        <v>48.72</v>
+        <v>50.85</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-3.39</v>
+        <v>-1.31</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>-0.13</v>
+        <v>-0.05</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1337,36 +1337,36 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.64</v>
+        <v>0.25</v>
       </c>
       <c r="K25">
-        <v>1.32</v>
+        <v>0.43</v>
       </c>
       <c r="L25">
-        <v>132.43</v>
+        <v>125.55</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>438.45</v>
+        <v>425.68</v>
       </c>
       <c r="B26">
-        <v>448.2</v>
+        <v>459</v>
       </c>
       <c r="C26">
-        <v>53.03</v>
+        <v>55.07</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.92</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>-0.16</v>
+        <v>-0.1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1375,36 +1375,36 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.81</v>
+        <v>0.47</v>
       </c>
       <c r="K26">
-        <v>0.99</v>
+        <v>1.33</v>
       </c>
       <c r="L26">
-        <v>138</v>
+        <v>150.69</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>455.48</v>
+        <v>446.96</v>
       </c>
       <c r="B27">
-        <v>466.2</v>
+        <v>477</v>
       </c>
       <c r="C27">
-        <v>57.5</v>
+        <v>59.49</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>12.02</v>
+        <v>1.77</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1413,36 +1413,36 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.56999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="K27">
-        <v>-1.83</v>
+        <v>0.49</v>
       </c>
       <c r="L27">
-        <v>141.22</v>
+        <v>148.13</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>468.25</v>
+        <v>459.73</v>
       </c>
       <c r="B28">
-        <v>484.2</v>
+        <v>495</v>
       </c>
       <c r="C28">
-        <v>62.13</v>
+        <v>64.06</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5.65</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1451,36 +1451,36 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="K28">
-        <v>-1.04</v>
+        <v>-0.63</v>
       </c>
       <c r="L28">
-        <v>161.38999999999999</v>
+        <v>171.51</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>489.53</v>
+        <v>485.27</v>
       </c>
       <c r="B29">
         <v>500.4</v>
       </c>
       <c r="C29">
-        <v>66.94</v>
+        <v>68.790000000000006</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-5.28</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1489,36 +1489,36 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="K29">
-        <v>1.23</v>
+        <v>0.42</v>
       </c>
       <c r="L29">
-        <v>152.44</v>
+        <v>120.33</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>493.79</v>
+        <v>485.27</v>
       </c>
       <c r="B30">
         <v>500</v>
       </c>
       <c r="C30">
-        <v>71.88</v>
+        <v>73.63</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1.46</v>
+        <v>-0.64</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1527,24 +1527,24 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.28999999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="K30">
-        <v>-0.01</v>
+        <v>0.68</v>
       </c>
       <c r="L30">
-        <v>121.09</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>493.79</v>
+        <v>481.02</v>
       </c>
       <c r="B31">
         <v>500</v>
       </c>
       <c r="C31">
-        <v>76.84</v>
+        <v>78.45</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1565,36 +1565,36 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
       <c r="K31">
-        <v>-1.38</v>
+        <v>-0.85</v>
       </c>
       <c r="L31">
-        <v>120.96</v>
+        <v>122.78</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>502.3</v>
+        <v>481.02</v>
       </c>
       <c r="B32">
         <v>500</v>
       </c>
       <c r="C32">
-        <v>81.81</v>
+        <v>83.3</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>-1.28</v>
+        <v>2.84</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1603,74 +1603,74 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>-0.14000000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="K32">
-        <v>0.11</v>
+        <v>-0.87</v>
       </c>
       <c r="L32">
-        <v>97.56</v>
+        <v>127.16</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>502.3</v>
+        <v>493.79</v>
       </c>
       <c r="B33">
         <v>500</v>
       </c>
       <c r="C33">
-        <v>86.83</v>
+        <v>88.2</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-5.37</v>
+        <v>-7.35</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
+        <v>0.01</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>-0.04</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0.18</v>
-      </c>
       <c r="K33">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="L33">
-        <v>98.4</v>
+        <v>94.19</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>506.56</v>
+        <v>485.27</v>
       </c>
       <c r="B34">
         <v>500</v>
       </c>
       <c r="C34">
-        <v>1.5</v>
+        <v>2.95</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E34">
-        <v>7.23</v>
+        <v>-2.59</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1679,36 +1679,36 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.13</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K34">
-        <v>-1.32</v>
+        <v>0.96</v>
       </c>
       <c r="L34">
-        <v>82.97</v>
+        <v>122.05</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>498.04</v>
+        <v>493.79</v>
       </c>
       <c r="B35">
         <v>500</v>
       </c>
       <c r="C35">
-        <v>6.53</v>
+        <v>7.87</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="E35">
-        <v>10.59</v>
+        <v>13.18</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1717,36 +1717,36 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>-0.41</v>
+        <v>0.12</v>
       </c>
       <c r="K35">
-        <v>-2.5299999999999998</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="L35">
-        <v>106.13</v>
+        <v>95.56</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>502.3</v>
+        <v>493.79</v>
       </c>
       <c r="B36">
         <v>500</v>
       </c>
       <c r="C36">
-        <v>11.57</v>
+        <v>12.78</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="E36">
-        <v>-4</v>
+        <v>5.86</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1755,36 +1755,36 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>-0.67</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="K36">
-        <v>0.13</v>
+        <v>-1.72</v>
       </c>
       <c r="L36">
-        <v>94.85</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>498.04</v>
+        <v>506.56</v>
       </c>
       <c r="B37">
         <v>500</v>
       </c>
       <c r="C37">
-        <v>16.57</v>
+        <v>17.77</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="E37">
-        <v>-16.97</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.02</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1793,127 +1793,127 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.09</v>
+        <v>-0.61</v>
       </c>
       <c r="K37">
-        <v>3.48</v>
+        <v>-0.61</v>
       </c>
       <c r="L37">
-        <v>111.22</v>
+        <v>61.63</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>498.04</v>
+        <v>493.79</v>
       </c>
       <c r="B38">
         <v>500</v>
       </c>
       <c r="C38">
-        <v>21.58</v>
+        <v>22.73</v>
       </c>
       <c r="D38">
-        <v>20.93</v>
+        <v>21.93</v>
       </c>
       <c r="E38">
-        <v>-7.75</v>
+        <v>-12.6</v>
       </c>
       <c r="F38">
-        <v>-71.62</v>
+        <v>-100.27</v>
       </c>
       <c r="G38">
-        <v>-0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H38">
-        <v>-0.18</v>
+        <v>-0.35</v>
       </c>
       <c r="I38">
         <v>-14323.91</v>
       </c>
       <c r="J38">
-        <v>-1.52</v>
+        <v>-0.59</v>
       </c>
       <c r="K38">
-        <v>-59.07</v>
+        <v>-64.63</v>
       </c>
       <c r="L38">
-        <v>48.2</v>
+        <v>35.130000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>489.53</v>
+        <v>493.79</v>
       </c>
       <c r="B39">
         <v>500</v>
       </c>
       <c r="C39">
-        <v>26.57</v>
+        <v>27.71</v>
       </c>
       <c r="D39">
-        <v>25.93</v>
+        <v>26.93</v>
       </c>
       <c r="E39">
-        <v>-24.41</v>
+        <v>-52.28</v>
       </c>
       <c r="F39">
-        <v>-214.86</v>
+        <v>-243.51</v>
       </c>
       <c r="G39">
-        <v>-0.12</v>
+        <v>-0.16</v>
       </c>
       <c r="H39">
-        <v>-1.61</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="I39">
         <v>-14323.91</v>
       </c>
       <c r="J39">
-        <v>-23.43</v>
+        <v>-0.59</v>
       </c>
       <c r="K39">
-        <v>-194.82</v>
+        <v>-140.19</v>
       </c>
       <c r="L39">
-        <v>-68.75</v>
+        <v>-52.05</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>498.04</v>
+        <v>493.79</v>
       </c>
       <c r="B40">
         <v>500</v>
       </c>
       <c r="C40">
-        <v>31.56</v>
+        <v>32.6</v>
       </c>
       <c r="D40">
-        <v>30.93</v>
+        <v>31.93</v>
       </c>
       <c r="E40">
-        <v>-323.97000000000003</v>
+        <v>-270.02</v>
       </c>
       <c r="F40">
-        <v>-358.1</v>
+        <v>-386.75</v>
       </c>
       <c r="G40">
-        <v>-2.0499999999999998</v>
+        <v>-1.88</v>
       </c>
       <c r="H40">
-        <v>-4.4800000000000004</v>
+        <v>-5.22</v>
       </c>
       <c r="I40">
         <v>-14323.91</v>
       </c>
       <c r="J40">
-        <v>-37.93</v>
+        <v>-0.59</v>
       </c>
       <c r="K40">
-        <v>-68.62</v>
+        <v>-85.79</v>
       </c>
       <c r="L40">
-        <v>27.47</v>
+        <v>-19.36</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
@@ -1924,19 +1924,19 @@
         <v>500</v>
       </c>
       <c r="C41">
-        <v>36.54</v>
+        <v>37.56</v>
       </c>
       <c r="D41">
         <v>34.43</v>
       </c>
       <c r="E41">
-        <v>-419.46</v>
+        <v>-416.5</v>
       </c>
       <c r="F41">
         <v>-458.37</v>
       </c>
       <c r="G41">
-        <v>-5.91</v>
+        <v>-5.43</v>
       </c>
       <c r="H41">
         <v>-7.33</v>
@@ -1945,13 +1945,13 @@
         <v>-14323.91</v>
       </c>
       <c r="J41">
-        <v>-44.15</v>
+        <v>-0.59</v>
       </c>
       <c r="K41">
-        <v>-79.13</v>
+        <v>-31.12</v>
       </c>
       <c r="L41">
-        <v>35.299999999999997</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
@@ -1962,148 +1962,148 @@
         <v>500</v>
       </c>
       <c r="C42">
-        <v>41.5</v>
+        <v>42.48</v>
       </c>
       <c r="D42">
-        <v>36.93</v>
+        <v>36.43</v>
       </c>
       <c r="E42">
-        <v>-510.1</v>
+        <v>-524.75</v>
       </c>
       <c r="F42">
         <v>-458.37</v>
       </c>
       <c r="G42">
-        <v>-10.65</v>
+        <v>-10.26</v>
       </c>
       <c r="H42">
-        <v>-9.6300000000000008</v>
+        <v>-9.17</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>-41.83</v>
+        <v>-0.59</v>
       </c>
       <c r="K42">
-        <v>4.74</v>
+        <v>47.88</v>
       </c>
       <c r="L42">
-        <v>132.78</v>
+        <v>103.01</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>498.04</v>
+        <v>485.27</v>
       </c>
       <c r="B43">
         <v>500</v>
       </c>
       <c r="C43">
-        <v>46.45</v>
+        <v>47.37</v>
       </c>
       <c r="D43">
-        <v>41.93</v>
+        <v>41.43</v>
       </c>
       <c r="E43">
-        <v>-454.13</v>
+        <v>-507.75</v>
       </c>
       <c r="F43">
         <v>-458.37</v>
       </c>
       <c r="G43">
-        <v>-15.58</v>
+        <v>-15.52</v>
       </c>
       <c r="H43">
-        <v>-14.21</v>
+        <v>-13.75</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>-36.86</v>
+        <v>-0.59</v>
       </c>
       <c r="K43">
-        <v>-40.71</v>
+        <v>35.44</v>
       </c>
       <c r="L43">
-        <v>77.5</v>
+        <v>132.75</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>489.53</v>
+        <v>510.82</v>
       </c>
       <c r="B44">
         <v>500</v>
       </c>
       <c r="C44">
-        <v>51.45</v>
+        <v>52.36</v>
       </c>
       <c r="D44">
-        <v>46.93</v>
+        <v>46.43</v>
       </c>
       <c r="E44">
-        <v>-379.82</v>
+        <v>-412.96</v>
       </c>
       <c r="F44">
         <v>-458.37</v>
       </c>
       <c r="G44">
-        <v>-19.559999999999999</v>
+        <v>-20.05</v>
       </c>
       <c r="H44">
-        <v>-18.79</v>
+        <v>-18.329999999999998</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>-45.65</v>
+        <v>-0.59</v>
       </c>
       <c r="K44">
-        <v>-116.32</v>
+        <v>-33.76</v>
       </c>
       <c r="L44">
-        <v>24.47</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>506.56</v>
+        <v>485.27</v>
       </c>
       <c r="B45">
         <v>500</v>
       </c>
       <c r="C45">
-        <v>56.45</v>
+        <v>57.28</v>
       </c>
       <c r="D45">
-        <v>51.93</v>
+        <v>51.43</v>
       </c>
       <c r="E45">
-        <v>-520.6</v>
+        <v>-424.13</v>
       </c>
       <c r="F45">
         <v>-458.37</v>
       </c>
       <c r="G45">
-        <v>-24.12</v>
+        <v>-24.09</v>
       </c>
       <c r="H45">
-        <v>-23.38</v>
+        <v>-22.92</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>-45.89</v>
+        <v>-0.59</v>
       </c>
       <c r="K45">
-        <v>10.15</v>
+        <v>-25.56</v>
       </c>
       <c r="L45">
-        <v>99.85</v>
+        <v>98.95</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
@@ -2114,323 +2114,323 @@
         <v>500</v>
       </c>
       <c r="C46">
-        <v>61.46</v>
+        <v>62.27</v>
       </c>
       <c r="D46">
-        <v>56.93</v>
+        <v>56.43</v>
       </c>
       <c r="E46">
-        <v>-475.46</v>
+        <v>-453.86</v>
       </c>
       <c r="F46">
         <v>-458.37</v>
       </c>
       <c r="G46">
-        <v>-29.23</v>
+        <v>-28.64</v>
       </c>
       <c r="H46">
-        <v>-27.96</v>
+        <v>-27.5</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>-38.299999999999997</v>
+        <v>-0.59</v>
       </c>
       <c r="K46">
-        <v>-22.97</v>
+        <v>-3.89</v>
       </c>
       <c r="L46">
-        <v>94.59</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>489.53</v>
+        <v>502.3</v>
       </c>
       <c r="B47">
         <v>500</v>
       </c>
       <c r="C47">
-        <v>66.42</v>
+        <v>67.33</v>
       </c>
       <c r="D47">
-        <v>61.93</v>
+        <v>61.43</v>
       </c>
       <c r="E47">
-        <v>-377.29</v>
+        <v>-405.06</v>
       </c>
       <c r="F47">
         <v>-458.37</v>
       </c>
       <c r="G47">
-        <v>-33.25</v>
+        <v>-32.97</v>
       </c>
       <c r="H47">
-        <v>-32.54</v>
+        <v>-32.090000000000003</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>-46.46</v>
+        <v>-0.59</v>
       </c>
       <c r="K47">
-        <v>-119.42</v>
+        <v>-39.53</v>
       </c>
       <c r="L47">
-        <v>22.09</v>
+        <v>49.23</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>498.04</v>
+        <v>485.27</v>
       </c>
       <c r="B48">
         <v>500</v>
       </c>
       <c r="C48">
-        <v>71.41</v>
+        <v>72.27</v>
       </c>
       <c r="D48">
-        <v>66.930000000000007</v>
+        <v>66.430000000000007</v>
       </c>
       <c r="E48">
-        <v>-502.99</v>
+        <v>-370.67</v>
       </c>
       <c r="F48">
         <v>-458.37</v>
       </c>
       <c r="G48">
-        <v>-37.67</v>
+        <v>-36.76</v>
       </c>
       <c r="H48">
-        <v>-37.130000000000003</v>
+        <v>-36.67</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>-48.9</v>
+        <v>-0.59</v>
       </c>
       <c r="K48">
-        <v>-8.6999999999999993</v>
+        <v>-64.61</v>
       </c>
       <c r="L48">
-        <v>106.63</v>
+        <v>79.260000000000005</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>498.04</v>
+        <v>493.79</v>
       </c>
       <c r="B49">
         <v>500</v>
       </c>
       <c r="C49">
-        <v>76.41</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="D49">
-        <v>71.930000000000007</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="E49">
-        <v>-491.21</v>
+        <v>-413.24</v>
       </c>
       <c r="F49">
         <v>-458.37</v>
       </c>
       <c r="G49">
-        <v>-42.73</v>
+        <v>-40.68</v>
       </c>
       <c r="H49">
-        <v>-41.71</v>
+        <v>-41.25</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>-41.9</v>
+        <v>-0.59</v>
       </c>
       <c r="K49">
-        <v>-12.36</v>
+        <v>-33.53</v>
       </c>
       <c r="L49">
-        <v>105.59</v>
+        <v>79.680000000000007</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>502.3</v>
+        <v>498.04</v>
       </c>
       <c r="B50">
         <v>500</v>
       </c>
       <c r="C50">
-        <v>81.41</v>
+        <v>82.22</v>
       </c>
       <c r="D50">
-        <v>76.930000000000007</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E50">
-        <v>-411.9</v>
+        <v>-431.79</v>
       </c>
       <c r="F50">
         <v>-458.37</v>
       </c>
       <c r="G50">
-        <v>-47.17</v>
+        <v>-44.92</v>
       </c>
       <c r="H50">
-        <v>-46.29</v>
+        <v>-45.84</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>-44.03</v>
+        <v>-0.59</v>
       </c>
       <c r="K50">
-        <v>-85.86</v>
+        <v>-19.989999999999998</v>
       </c>
       <c r="L50">
-        <v>18.53</v>
+        <v>74.14</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>506.56</v>
+        <v>493.79</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
       <c r="C51">
-        <v>86.4</v>
+        <v>87.2</v>
       </c>
       <c r="D51">
-        <v>81.93</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="E51">
-        <v>-453.77</v>
+        <v>-423.03</v>
       </c>
       <c r="F51">
         <v>-458.37</v>
       </c>
       <c r="G51">
-        <v>-51.38</v>
+        <v>-49.24</v>
       </c>
       <c r="H51">
-        <v>-50.88</v>
+        <v>-50.42</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>-49.51</v>
+        <v>-0.59</v>
       </c>
       <c r="K51">
-        <v>-53.6</v>
+        <v>-26.4</v>
       </c>
       <c r="L51">
-        <v>36.200000000000003</v>
+        <v>71.86</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>502.3</v>
+        <v>485.27</v>
       </c>
       <c r="B52">
         <v>500</v>
       </c>
       <c r="C52">
-        <v>91.41</v>
+        <v>92.17</v>
       </c>
       <c r="D52">
-        <v>86.93</v>
+        <v>86.43</v>
       </c>
       <c r="E52">
-        <v>-507.11</v>
+        <v>-404.79</v>
       </c>
       <c r="F52">
         <v>-458.37</v>
       </c>
       <c r="G52">
-        <v>-56.35</v>
+        <v>-53.33</v>
       </c>
       <c r="H52">
-        <v>-55.46</v>
+        <v>-55</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>-43.85</v>
+        <v>-0.59</v>
       </c>
       <c r="K52">
-        <v>0.02</v>
+        <v>-39.71</v>
       </c>
       <c r="L52">
-        <v>104.24</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>502.3</v>
+        <v>489.53</v>
       </c>
       <c r="B53">
         <v>500</v>
       </c>
       <c r="C53">
-        <v>96.35</v>
+        <v>97.14</v>
       </c>
       <c r="D53">
-        <v>91.93</v>
+        <v>91.43</v>
       </c>
       <c r="E53">
-        <v>-447.88</v>
+        <v>-463.62</v>
       </c>
       <c r="F53">
         <v>-458.37</v>
       </c>
       <c r="G53">
-        <v>-61.18</v>
+        <v>-57.65</v>
       </c>
       <c r="H53">
-        <v>-60.05</v>
+        <v>-59.59</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>-40.200000000000003</v>
+        <v>-0.59</v>
       </c>
       <c r="K53">
-        <v>-49.68</v>
+        <v>3.26</v>
       </c>
       <c r="L53">
-        <v>57.66</v>
+        <v>88.32</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>515.07000000000005</v>
+        <v>498.04</v>
       </c>
       <c r="B54">
         <v>500</v>
       </c>
       <c r="C54">
-        <v>100.9</v>
+        <v>102.16</v>
       </c>
       <c r="D54">
         <v>96.43</v>
       </c>
       <c r="E54">
-        <v>-391.85</v>
+        <v>-475.22</v>
       </c>
       <c r="F54">
         <v>-458.37</v>
       </c>
       <c r="G54">
-        <v>-64.89</v>
+        <v>-62.42</v>
       </c>
       <c r="H54">
         <v>-64.17</v>
@@ -2439,36 +2439,36 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>-46.26</v>
+        <v>-0.59</v>
       </c>
       <c r="K54">
-        <v>-104.6</v>
+        <v>11.71</v>
       </c>
       <c r="L54">
-        <v>-39.04</v>
+        <v>56.16</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>506.56</v>
+        <v>498.04</v>
       </c>
       <c r="B55">
         <v>500</v>
       </c>
       <c r="C55">
-        <v>105.88</v>
+        <v>107.11</v>
       </c>
       <c r="D55">
         <v>101.43</v>
       </c>
       <c r="E55">
-        <v>-513</v>
+        <v>-471.71</v>
       </c>
       <c r="F55">
         <v>-458.37</v>
       </c>
       <c r="G55">
-        <v>-69.23</v>
+        <v>-67.099999999999994</v>
       </c>
       <c r="H55">
         <v>-68.75</v>
@@ -2477,36 +2477,36 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>-49.8</v>
+        <v>-0.59</v>
       </c>
       <c r="K55">
-        <v>-11.28</v>
+        <v>9.16</v>
       </c>
       <c r="L55">
-        <v>79.05</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>515.07000000000005</v>
+        <v>498.04</v>
       </c>
       <c r="B56">
         <v>500</v>
       </c>
       <c r="C56">
-        <v>110.92</v>
+        <v>112.1</v>
       </c>
       <c r="D56">
         <v>106.43</v>
       </c>
       <c r="E56">
-        <v>-493.84</v>
+        <v>-506.01</v>
       </c>
       <c r="F56">
         <v>-458.37</v>
       </c>
       <c r="G56">
-        <v>-74.41</v>
+        <v>-72.05</v>
       </c>
       <c r="H56">
         <v>-73.34</v>
@@ -2515,36 +2515,36 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>-41.22</v>
+        <v>-0.59</v>
       </c>
       <c r="K56">
-        <v>0.54</v>
+        <v>34.19</v>
       </c>
       <c r="L56">
-        <v>67.22</v>
+        <v>55.95</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>493.79</v>
+        <v>506.56</v>
       </c>
       <c r="B57">
         <v>500</v>
       </c>
       <c r="C57">
-        <v>115.97</v>
+        <v>117.14</v>
       </c>
       <c r="D57">
         <v>111.43</v>
       </c>
       <c r="E57">
-        <v>-369.05</v>
+        <v>-505.4</v>
       </c>
       <c r="F57">
         <v>-458.37</v>
       </c>
       <c r="G57">
-        <v>-78.680000000000007</v>
+        <v>-77.12</v>
       </c>
       <c r="H57">
         <v>-77.92</v>
@@ -2553,127 +2553,127 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>-45.66</v>
+        <v>-0.59</v>
       </c>
       <c r="K57">
-        <v>-122.03</v>
+        <v>33.74</v>
       </c>
       <c r="L57">
-        <v>5.51</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B58">
         <v>500</v>
       </c>
       <c r="C58">
-        <v>120.93</v>
+        <v>122.13</v>
       </c>
       <c r="D58">
         <v>116.43</v>
       </c>
       <c r="E58">
-        <v>-511.05</v>
+        <v>-531.95000000000005</v>
       </c>
       <c r="F58">
         <v>-458.37</v>
       </c>
       <c r="G58">
-        <v>-82.83</v>
+        <v>-82.3</v>
       </c>
       <c r="H58">
         <v>-82.51</v>
       </c>
       <c r="I58">
-        <v>14323.91</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>-51.94</v>
+        <v>-0.59</v>
       </c>
       <c r="K58">
-        <v>-18.21</v>
+        <v>53.13</v>
       </c>
       <c r="L58">
-        <v>95.49</v>
+        <v>51.23</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>489.53</v>
+        <v>498.04</v>
       </c>
       <c r="B59">
         <v>500</v>
       </c>
       <c r="C59">
-        <v>125.89</v>
+        <v>127.14</v>
       </c>
       <c r="D59">
-        <v>120.93</v>
+        <v>120.43</v>
       </c>
       <c r="E59">
-        <v>-489.69</v>
+        <v>-526.37</v>
       </c>
       <c r="F59">
-        <v>-329.45</v>
+        <v>-343.77</v>
       </c>
       <c r="G59">
-        <v>-88.04</v>
+        <v>-87.62</v>
       </c>
       <c r="H59">
-        <v>-86.21</v>
+        <v>-85.87</v>
       </c>
       <c r="I59">
         <v>14323.91</v>
       </c>
       <c r="J59">
-        <v>-33.619999999999997</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>123.71</v>
+        <v>133.33000000000001</v>
       </c>
       <c r="L59">
-        <v>271.79000000000002</v>
+        <v>155.94999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>493.79</v>
+        <v>489.53</v>
       </c>
       <c r="B60">
         <v>500</v>
       </c>
       <c r="C60">
-        <v>130.86000000000001</v>
+        <v>132.13999999999999</v>
       </c>
       <c r="D60">
-        <v>125.93</v>
+        <v>125.43</v>
       </c>
       <c r="E60">
-        <v>-234.34</v>
+        <v>-410.8</v>
       </c>
       <c r="F60">
-        <v>-186.21</v>
+        <v>-200.53</v>
       </c>
       <c r="G60">
-        <v>-91.74</v>
+        <v>-92.46</v>
       </c>
       <c r="H60">
-        <v>-88.79</v>
+        <v>-88.6</v>
       </c>
       <c r="I60">
         <v>14323.91</v>
       </c>
       <c r="J60">
-        <v>-16.28</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>41.83</v>
+        <v>153.47</v>
       </c>
       <c r="L60">
-        <v>183.6</v>
+        <v>229.02</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
@@ -2684,34 +2684,34 @@
         <v>500</v>
       </c>
       <c r="C61">
-        <v>135.86000000000001</v>
+        <v>137.1</v>
       </c>
       <c r="D61">
-        <v>134.93</v>
+        <v>136.43</v>
       </c>
       <c r="E61">
-        <v>-130.1</v>
+        <v>-221.04</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>-93.55</v>
+        <v>-95.46</v>
       </c>
       <c r="H61">
-        <v>-89.42</v>
+        <v>-88.79</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>-7.82</v>
+        <v>13.06</v>
       </c>
       <c r="K61">
-        <v>18.2</v>
+        <v>57.27</v>
       </c>
       <c r="L61">
-        <v>140.44</v>
+        <v>178.59</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
@@ -2722,133 +2722,133 @@
         <v>500</v>
       </c>
       <c r="C62">
-        <v>140.87</v>
+        <v>142.08000000000001</v>
       </c>
       <c r="D62">
-        <v>139.93</v>
+        <v>141.43</v>
       </c>
       <c r="E62">
-        <v>-53.44</v>
+        <v>-78.16</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>-94.39</v>
+        <v>-96.83</v>
       </c>
       <c r="H62">
-        <v>-89.42</v>
+        <v>-88.79</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>-3.59</v>
+        <v>19.89</v>
       </c>
       <c r="K62">
-        <v>7.1</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="L62">
-        <v>130.84</v>
+        <v>160.16999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>502.3</v>
+        <v>493.79</v>
       </c>
       <c r="B63">
         <v>500</v>
       </c>
       <c r="C63">
-        <v>145.88999999999999</v>
+        <v>147.04</v>
       </c>
       <c r="D63">
-        <v>144.93</v>
+        <v>146.43</v>
       </c>
       <c r="E63">
-        <v>-13.03</v>
+        <v>17</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>-94.65</v>
+        <v>-97.05</v>
       </c>
       <c r="H63">
-        <v>-89.42</v>
+        <v>-88.79</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>-2.29</v>
+        <v>20.99</v>
       </c>
       <c r="K63">
-        <v>0.31</v>
+        <v>17.59</v>
       </c>
       <c r="L63">
-        <v>111.11</v>
+        <v>156.66999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>498.04</v>
+        <v>506.56</v>
       </c>
       <c r="B64">
         <v>500</v>
       </c>
       <c r="C64">
-        <v>150.9</v>
+        <v>152.03</v>
       </c>
       <c r="D64">
-        <v>149.93</v>
+        <v>151.43</v>
       </c>
       <c r="E64">
-        <v>-2.78</v>
+        <v>62.93</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>-94.72</v>
+        <v>-96.56</v>
       </c>
       <c r="H64">
-        <v>-89.42</v>
+        <v>-88.79</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>-1.88</v>
+        <v>18.52</v>
       </c>
       <c r="K64">
-        <v>-1.1599999999999999</v>
+        <v>5.94</v>
       </c>
       <c r="L64">
-        <v>122.24</v>
+        <v>106.06</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>502.3</v>
+        <v>498.04</v>
       </c>
       <c r="B65">
         <v>500</v>
       </c>
       <c r="C65">
-        <v>3.49</v>
+        <v>4.51</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>11.35</v>
+        <v>77.09</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.03</v>
+        <v>0.67</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2857,36 +2857,36 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>-1.26</v>
+        <v>14.84</v>
       </c>
       <c r="K65">
-        <v>-3.05</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="L65">
-        <v>96.71</v>
+        <v>108.21</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>498.04</v>
+        <v>506.56</v>
       </c>
       <c r="B66">
         <v>500</v>
       </c>
       <c r="C66">
-        <v>8.51</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>19.62</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.19</v>
+        <v>1.42</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2895,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>-2.0499999999999998</v>
+        <v>11.1</v>
       </c>
       <c r="K66">
-        <v>-5.88</v>
+        <v>-3.72</v>
       </c>
       <c r="L66">
-        <v>105.9</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
@@ -2912,19 +2912,19 @@
         <v>500</v>
       </c>
       <c r="C67">
-        <v>13.46</v>
+        <v>14.53</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>-3.78</v>
+        <v>59.11</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.28000000000000003</v>
+        <v>2.11</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2933,36 +2933,36 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>-2.52</v>
+        <v>7.63</v>
       </c>
       <c r="K67">
-        <v>-2</v>
+        <v>-4.2</v>
       </c>
       <c r="L67">
-        <v>111.2</v>
+        <v>100.97</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>506.56</v>
+        <v>498.04</v>
       </c>
       <c r="B68">
         <v>500</v>
       </c>
       <c r="C68">
-        <v>18.48</v>
+        <v>19.53</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-8.27</v>
+        <v>17.97</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.22</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2971,13 +2971,13 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>-2.2200000000000002</v>
+        <v>6.03</v>
       </c>
       <c r="K68">
-        <v>-0.48</v>
+        <v>2.44</v>
       </c>
       <c r="L68">
-        <v>86.61</v>
+        <v>106.92</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
@@ -2985,22 +2985,22 @@
         <v>489.53</v>
       </c>
       <c r="B69">
-        <v>492.8</v>
+        <v>489.2</v>
       </c>
       <c r="C69">
-        <v>23.48</v>
+        <v>24.51</v>
       </c>
       <c r="D69">
-        <v>22.54</v>
+        <v>23.52</v>
       </c>
       <c r="E69">
-        <v>-5.98</v>
+        <v>14.28</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.14000000000000001</v>
+        <v>2.58</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3009,36 +3009,36 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>-1.84</v>
+        <v>5.31</v>
       </c>
       <c r="K69">
-        <v>-0.49</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L69">
-        <v>105.14</v>
+        <v>86.53</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>476.76</v>
+        <v>459.73</v>
       </c>
       <c r="B70">
-        <v>474.8</v>
+        <v>471.2</v>
       </c>
       <c r="C70">
-        <v>28.34</v>
+        <v>29.05</v>
       </c>
       <c r="D70">
-        <v>27.38</v>
+        <v>28.33</v>
       </c>
       <c r="E70">
-        <v>-0.92</v>
+        <v>16.27</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.12</v>
+        <v>2.74</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3047,36 +3047,36 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>-1.72</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="K70">
-        <v>-1.72</v>
+        <v>1.23</v>
       </c>
       <c r="L70">
-        <v>77.77</v>
+        <v>17.920000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>468.25</v>
+        <v>434.19</v>
       </c>
       <c r="B71">
-        <v>456.8</v>
+        <v>453.2</v>
       </c>
       <c r="C71">
-        <v>33.07</v>
+        <v>33.54</v>
       </c>
       <c r="D71">
-        <v>32.04</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="E71">
-        <v>-12.36</v>
+        <v>6.9</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.08</v>
+        <v>2.86</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3085,36 +3085,36 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>-1.5</v>
+        <v>3.89</v>
       </c>
       <c r="K71">
-        <v>0.62</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="L71">
-        <v>39.22</v>
+        <v>39.35</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>442.71</v>
+        <v>417.17</v>
       </c>
       <c r="B72">
-        <v>438.8</v>
+        <v>435.2</v>
       </c>
       <c r="C72">
-        <v>37.64</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D72">
-        <v>36.520000000000003</v>
+        <v>37.39</v>
       </c>
       <c r="E72">
-        <v>-11.23</v>
+        <v>-7.45</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>-0.08</v>
+        <v>2.84</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3123,36 +3123,36 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>-0.73</v>
+        <v>3.97</v>
       </c>
       <c r="K72">
-        <v>1.97</v>
+        <v>5.46</v>
       </c>
       <c r="L72">
-        <v>-51.89</v>
+        <v>40.67</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>400.14</v>
+        <v>395.88</v>
       </c>
       <c r="B73">
-        <v>420.8</v>
+        <v>417.2</v>
       </c>
       <c r="C73">
-        <v>41.75</v>
+        <v>41.91</v>
       </c>
       <c r="D73">
-        <v>40.81</v>
+        <v>41.65</v>
       </c>
       <c r="E73">
-        <v>4.79</v>
+        <v>-7.69</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>-0.11</v>
+        <v>2.75</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3161,36 +3161,36 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-0.55000000000000004</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="K73">
-        <v>-1.1599999999999999</v>
+        <v>5.98</v>
       </c>
       <c r="L73">
-        <v>15.11</v>
+        <v>53.14</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>370.34</v>
+        <v>378.85</v>
       </c>
       <c r="B74">
-        <v>402.8</v>
+        <v>399.2</v>
       </c>
       <c r="C74">
-        <v>45.61</v>
+        <v>45.82</v>
       </c>
       <c r="D74">
-        <v>44.93</v>
+        <v>45.73</v>
       </c>
       <c r="E74">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>-7.0000000000000007E-2</v>
+        <v>2.7</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3199,36 +3199,36 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>-0.76</v>
+        <v>4.7</v>
       </c>
       <c r="K74">
-        <v>-1.08</v>
+        <v>4.7</v>
       </c>
       <c r="L74">
-        <v>51.33</v>
+        <v>53.55</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>357.57</v>
+        <v>366.08</v>
       </c>
       <c r="B75">
-        <v>384.8</v>
+        <v>381.2</v>
       </c>
       <c r="C75">
-        <v>49.25</v>
+        <v>49.59</v>
       </c>
       <c r="D75">
-        <v>48.87</v>
+        <v>49.64</v>
       </c>
       <c r="E75">
-        <v>-4.67</v>
+        <v>-3.91</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>-7.0000000000000007E-2</v>
+        <v>2.69</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3237,36 +3237,36 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>-0.76</v>
+        <v>4.75</v>
       </c>
       <c r="K75">
-        <v>-0.28000000000000003</v>
+        <v>5.53</v>
       </c>
       <c r="L75">
-        <v>41.92</v>
+        <v>75.11</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>340.54</v>
+        <v>353.31</v>
       </c>
       <c r="B76">
-        <v>366.8</v>
+        <v>363.2</v>
       </c>
       <c r="C76">
-        <v>52.74</v>
+        <v>53.21</v>
       </c>
       <c r="D76">
-        <v>52.63</v>
+        <v>53.36</v>
       </c>
       <c r="E76">
-        <v>-10.1</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>-0.18</v>
+        <v>2.66</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3275,36 +3275,36 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>-0.2</v>
+        <v>4.91</v>
       </c>
       <c r="K76">
-        <v>2.0099999999999998</v>
+        <v>4.91</v>
       </c>
       <c r="L76">
-        <v>48.41</v>
+        <v>63.27</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>336.29</v>
+        <v>340.54</v>
       </c>
       <c r="B77">
-        <v>348.8</v>
+        <v>345.2</v>
       </c>
       <c r="C77">
-        <v>56.18</v>
+        <v>56.69</v>
       </c>
       <c r="D77">
-        <v>56.21</v>
+        <v>56.9</v>
       </c>
       <c r="E77">
-        <v>-7.42</v>
+        <v>-5.68</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>-0.27</v>
+        <v>2.62</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3313,36 +3313,36 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.22</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="K77">
-        <v>1.75</v>
+        <v>6.24</v>
       </c>
       <c r="L77">
-        <v>72.5</v>
+        <v>20.309999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>327.77</v>
+        <v>323.52</v>
       </c>
       <c r="B78">
-        <v>330.8</v>
+        <v>327.2</v>
       </c>
       <c r="C78">
-        <v>59.49</v>
+        <v>60</v>
       </c>
       <c r="D78">
-        <v>59.6</v>
+        <v>60.26</v>
       </c>
       <c r="E78">
-        <v>1.01</v>
+        <v>3.39</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>-0.28999999999999998</v>
+        <v>2.62</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3351,36 +3351,36 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.33</v>
+        <v>5.08</v>
       </c>
       <c r="K78">
-        <v>7.0000000000000007E-2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L78">
-        <v>46.03</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>310.75</v>
+        <v>297.98</v>
       </c>
       <c r="B79">
-        <v>312.8</v>
+        <v>309.2</v>
       </c>
       <c r="C79">
-        <v>62.67</v>
+        <v>63.1</v>
       </c>
       <c r="D79">
-        <v>62.82</v>
+        <v>63.44</v>
       </c>
       <c r="E79">
-        <v>11.75</v>
+        <v>1.74</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>-0.23</v>
+        <v>2.67</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3389,36 +3389,36 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.03</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="K79">
-        <v>-2.33</v>
+        <v>4.51</v>
       </c>
       <c r="L79">
-        <v>42.88</v>
+        <v>47.79</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>289.45999999999998</v>
+        <v>285.20999999999998</v>
       </c>
       <c r="B80">
-        <v>294.8</v>
+        <v>291.2</v>
       </c>
       <c r="C80">
-        <v>65.64</v>
+        <v>66.040000000000006</v>
       </c>
       <c r="D80">
-        <v>65.86</v>
+        <v>66.45</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>-2.38</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>-0.18</v>
+        <v>2.67</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3427,36 +3427,36 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>-0.2</v>
+        <v>4.84</v>
       </c>
       <c r="K80">
-        <v>-0.2</v>
+        <v>5.31</v>
       </c>
       <c r="L80">
-        <v>21.68</v>
+        <v>38.86</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>272.43</v>
+        <v>263.92</v>
       </c>
       <c r="B81">
-        <v>276.8</v>
+        <v>273.2</v>
       </c>
       <c r="C81">
-        <v>68.47</v>
+        <v>68.8</v>
       </c>
       <c r="D81">
-        <v>68.72</v>
+        <v>69.27</v>
       </c>
       <c r="E81">
-        <v>-6.9</v>
+        <v>-1.86</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>-0.21</v>
+        <v>2.64</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3465,36 +3465,36 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>-0.08</v>
+        <v>5.01</v>
       </c>
       <c r="K81">
-        <v>1.19</v>
+        <v>5.38</v>
       </c>
       <c r="L81">
-        <v>23.19</v>
+        <v>48.51</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>255.41</v>
+        <v>251.15</v>
       </c>
       <c r="B82">
-        <v>258.8</v>
+        <v>255.2</v>
       </c>
       <c r="C82">
-        <v>71.12</v>
+        <v>71.41</v>
       </c>
       <c r="D82">
-        <v>71.400000000000006</v>
+        <v>71.91</v>
       </c>
       <c r="E82">
-        <v>-2.84</v>
+        <v>-8.67</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>-0.24</v>
+        <v>2.58</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3503,36 +3503,36 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.1</v>
+        <v>5.29</v>
       </c>
       <c r="K82">
-        <v>0.46</v>
+        <v>7.02</v>
       </c>
       <c r="L82">
-        <v>21.7</v>
+        <v>38.25</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>238.38</v>
+        <v>242.64</v>
       </c>
       <c r="B83">
-        <v>240.8</v>
+        <v>237.2</v>
       </c>
       <c r="C83">
-        <v>73.58</v>
+        <v>73.89</v>
       </c>
       <c r="D83">
-        <v>73.89</v>
+        <v>74.37</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>-2.66</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>-0.28000000000000003</v>
+        <v>2.52</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3541,36 +3541,36 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.27</v>
+        <v>5.61</v>
       </c>
       <c r="K83">
-        <v>0.52</v>
+        <v>6.14</v>
       </c>
       <c r="L83">
-        <v>22.99</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>217.1</v>
+        <v>229.87</v>
       </c>
       <c r="B84">
-        <v>222.8</v>
+        <v>219.2</v>
       </c>
       <c r="C84">
-        <v>75.86</v>
+        <v>76.2</v>
       </c>
       <c r="D84">
-        <v>76.209999999999994</v>
+        <v>76.650000000000006</v>
       </c>
       <c r="E84">
-        <v>0.85</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>-0.27</v>
+        <v>2.52</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.21</v>
+        <v>5.61</v>
       </c>
       <c r="K84">
-        <v>0.08</v>
+        <v>5.15</v>
       </c>
       <c r="L84">
-        <v>36.76</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
@@ -3593,22 +3593,22 @@
         <v>208.58</v>
       </c>
       <c r="B85">
-        <v>204.8</v>
+        <v>201.2</v>
       </c>
       <c r="C85">
-        <v>78</v>
+        <v>78.349999999999994</v>
       </c>
       <c r="D85">
-        <v>78.349999999999994</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="E85">
-        <v>2.14</v>
+        <v>5.37</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>-0.23</v>
+        <v>2.57</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3617,36 +3617,36 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.05</v>
+        <v>5.36</v>
       </c>
       <c r="K85">
-        <v>-0.43</v>
+        <v>4.28</v>
       </c>
       <c r="L85">
-        <v>11.08</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>187.3</v>
+        <v>191.56</v>
       </c>
       <c r="B86">
-        <v>186.8</v>
+        <v>183.2</v>
       </c>
       <c r="C86">
-        <v>79.95</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="D86">
-        <v>80.31</v>
+        <v>80.680000000000007</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>-0.22</v>
+        <v>2.59</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3655,36 +3655,36 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>-0.03</v>
+        <v>5.24</v>
       </c>
       <c r="K86">
-        <v>-0.03</v>
+        <v>4.62</v>
       </c>
       <c r="L86">
-        <v>23.12</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>178.79</v>
+        <v>161.76</v>
       </c>
       <c r="B87">
-        <v>168.8</v>
+        <v>165.2</v>
       </c>
       <c r="C87">
-        <v>81.760000000000005</v>
+        <v>82.14</v>
       </c>
       <c r="D87">
-        <v>82.09</v>
+        <v>82.42</v>
       </c>
       <c r="E87">
-        <v>2.2599999999999998</v>
+        <v>2.62</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>-0.2</v>
+        <v>2.63</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3693,36 +3693,36 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>-0.14000000000000001</v>
+        <v>5.03</v>
       </c>
       <c r="K87">
-        <v>-0.85</v>
+        <v>4.51</v>
       </c>
       <c r="L87">
-        <v>-4.17</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>161.76</v>
+        <v>157.5</v>
       </c>
       <c r="B88">
-        <v>150.80000000000001</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="C88">
-        <v>83.4</v>
+        <v>83.8</v>
       </c>
       <c r="D88">
-        <v>83.68</v>
+        <v>83.98</v>
       </c>
       <c r="E88">
-        <v>-2.3199999999999998</v>
+        <v>-1.89</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>-0.21</v>
+        <v>2.63</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3731,36 +3731,36 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>-0.05</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="K88">
-        <v>0.46</v>
+        <v>5.4</v>
       </c>
       <c r="L88">
-        <v>-4.43</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>136.22</v>
+        <v>144.72999999999999</v>
       </c>
       <c r="B89">
-        <v>132.80000000000001</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="C89">
-        <v>84.89</v>
+        <v>85.28</v>
       </c>
       <c r="D89">
-        <v>85.1</v>
+        <v>85.36</v>
       </c>
       <c r="E89">
-        <v>-4.03</v>
+        <v>1.37</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>-0.26</v>
+        <v>2.66</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3769,36 +3769,36 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.2</v>
+        <v>4.88</v>
       </c>
       <c r="K89">
-        <v>1.23</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L89">
-        <v>18.579999999999998</v>
+        <v>-11.07</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>123.45</v>
+        <v>110.68</v>
       </c>
       <c r="B90">
-        <v>114.8</v>
+        <v>111.2</v>
       </c>
       <c r="C90">
-        <v>86.23</v>
+        <v>86.57</v>
       </c>
       <c r="D90">
-        <v>86.34</v>
+        <v>86.57</v>
       </c>
       <c r="E90">
-        <v>-3.27</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>-0.28000000000000003</v>
+        <v>2.66</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3807,36 +3807,36 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0.3</v>
+        <v>4.87</v>
       </c>
       <c r="K90">
-        <v>0.98</v>
+        <v>4.87</v>
       </c>
       <c r="L90">
-        <v>0.45</v>
+        <v>-11.25</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>102.16</v>
+        <v>97.91</v>
       </c>
       <c r="B91">
-        <v>96.8</v>
+        <v>93.2</v>
       </c>
       <c r="C91">
-        <v>87.37</v>
+        <v>87.65</v>
       </c>
       <c r="D91">
-        <v>87.4</v>
+        <v>87.59</v>
       </c>
       <c r="E91">
-        <v>3.2</v>
+        <v>-3.75</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>-0.27</v>
+        <v>2.65</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3845,36 +3845,36 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0.24</v>
+        <v>4.95</v>
       </c>
       <c r="K91">
-        <v>-0.54</v>
+        <v>5.71</v>
       </c>
       <c r="L91">
-        <v>-27.27</v>
+        <v>-15.54</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>89.39</v>
+        <v>76.62</v>
       </c>
       <c r="B92">
-        <v>78.8</v>
+        <v>75.2</v>
       </c>
       <c r="C92">
-        <v>88.3</v>
+        <v>88.54</v>
       </c>
       <c r="D92">
-        <v>88.28</v>
+        <v>88.43</v>
       </c>
       <c r="E92">
-        <v>-3.02</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>-0.27</v>
+        <v>2.59</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3883,36 +3883,36 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.21</v>
+        <v>5.23</v>
       </c>
       <c r="K92">
-        <v>0.71</v>
+        <v>5.69</v>
       </c>
       <c r="L92">
-        <v>-31.05</v>
+        <v>-8.34</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>63.85</v>
+        <v>68.11</v>
       </c>
       <c r="B93">
-        <v>60.8</v>
+        <v>57.2</v>
       </c>
       <c r="C93">
-        <v>89.05</v>
+        <v>89.24</v>
       </c>
       <c r="D93">
-        <v>88.97</v>
+        <v>89.09</v>
       </c>
       <c r="E93">
-        <v>3.3</v>
+        <v>-1.07</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>-0.26</v>
+        <v>2.57</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3921,36 +3921,36 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0.17</v>
+        <v>5.34</v>
       </c>
       <c r="K93">
-        <v>-0.65</v>
+        <v>5.55</v>
       </c>
       <c r="L93">
-        <v>-12.24</v>
+        <v>-40.08</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>51.08</v>
+        <v>46.82</v>
       </c>
       <c r="B94">
-        <v>42.8</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C94">
-        <v>89.62</v>
+        <v>89.79</v>
       </c>
       <c r="D94">
-        <v>89.49</v>
+        <v>89.57</v>
       </c>
       <c r="E94">
-        <v>2.3199999999999998</v>
+        <v>-4.3899999999999997</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>-0.24</v>
+        <v>2.57</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3959,36 +3959,36 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0.1</v>
+        <v>5.36</v>
       </c>
       <c r="K94">
-        <v>-0.33</v>
+        <v>6.24</v>
       </c>
       <c r="L94">
-        <v>-27.43</v>
+        <v>-29.58</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>34.049999999999997</v>
+        <v>25.54</v>
       </c>
       <c r="B95">
-        <v>24.8</v>
+        <v>21.2</v>
       </c>
       <c r="C95">
-        <v>90.02</v>
+        <v>90.15</v>
       </c>
       <c r="D95">
-        <v>89.83</v>
+        <v>89.88</v>
       </c>
       <c r="E95">
-        <v>-3.14</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>-0.25</v>
+        <v>2.57</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3997,36 +3997,36 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0.14000000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="K95">
-        <v>0.84</v>
+        <v>4.33</v>
       </c>
       <c r="L95">
-        <v>-33.46</v>
+        <v>-26.43</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>12.77</v>
+        <v>4.26</v>
       </c>
       <c r="B96">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="C96">
-        <v>90.23</v>
+        <v>90.32</v>
       </c>
       <c r="D96">
-        <v>89.99</v>
+        <v>90</v>
       </c>
       <c r="E96">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>-0.26</v>
+        <v>2.59</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4035,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0.17</v>
+        <v>5.25</v>
       </c>
       <c r="K96">
-        <v>-0.03</v>
+        <v>4.97</v>
       </c>
       <c r="L96">
-        <v>-28.77</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
@@ -4052,19 +4052,19 @@
         <v>-0.4</v>
       </c>
       <c r="C97">
-        <v>90.28</v>
+        <v>90.35</v>
       </c>
       <c r="D97">
         <v>90</v>
       </c>
       <c r="E97">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>-0.23</v>
+        <v>2.6</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4073,36 +4073,36 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.02</v>
+        <v>5.21</v>
       </c>
       <c r="K97">
-        <v>-0.73</v>
+        <v>5.21</v>
       </c>
       <c r="L97">
-        <v>-11.26</v>
+        <v>-16.82</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>0</v>
+        <v>-4.26</v>
       </c>
       <c r="B98">
         <v>-0.4</v>
       </c>
       <c r="C98">
-        <v>90.29</v>
+        <v>90.35</v>
       </c>
       <c r="D98">
         <v>90</v>
       </c>
       <c r="E98">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>-0.21</v>
+        <v>2.6</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4111,13 +4111,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>-7.0000000000000007E-2</v>
+        <v>5.21</v>
       </c>
       <c r="K98">
-        <v>-0.27</v>
+        <v>5.21</v>
       </c>
       <c r="L98">
-        <v>-13.73</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
@@ -4128,19 +4128,19 @@
         <v>-0.4</v>
       </c>
       <c r="C99">
-        <v>90.29</v>
+        <v>90.31</v>
       </c>
       <c r="D99">
         <v>90</v>
       </c>
       <c r="E99">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>-0.21</v>
+        <v>2.6</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4149,36 +4149,36 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>-0.08</v>
+        <v>5.18</v>
       </c>
       <c r="K99">
-        <v>-0.25</v>
+        <v>4.95</v>
       </c>
       <c r="L99">
-        <v>-16.579999999999998</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>0</v>
+        <v>-4.26</v>
       </c>
       <c r="B100">
         <v>-0.4</v>
       </c>
       <c r="C100">
-        <v>90.29</v>
+        <v>90.27</v>
       </c>
       <c r="D100">
         <v>90</v>
       </c>
       <c r="E100">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>-0.19</v>
+        <v>2.61</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4187,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>-0.16</v>
+        <v>5.14</v>
       </c>
       <c r="K100">
-        <v>-0.59</v>
+        <v>5.14</v>
       </c>
       <c r="L100">
-        <v>-19.809999999999999</v>
+        <v>-12.59</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
@@ -4204,19 +4204,19 @@
         <v>-0.4</v>
       </c>
       <c r="C101">
-        <v>90.25</v>
+        <v>90.24</v>
       </c>
       <c r="D101">
         <v>90</v>
       </c>
       <c r="E101">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>-0.17</v>
+        <v>2.61</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4225,36 +4225,36 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>-0.25</v>
+        <v>5.14</v>
       </c>
       <c r="K101">
-        <v>-0.52</v>
+        <v>5.14</v>
       </c>
       <c r="L101">
-        <v>-21.97</v>
+        <v>-27.6</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>0</v>
+        <v>-8.51</v>
       </c>
       <c r="B102">
         <v>-0.4</v>
       </c>
       <c r="C102">
-        <v>90.21</v>
+        <v>90.2</v>
       </c>
       <c r="D102">
         <v>90</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>-0.17</v>
+        <v>2.61</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4263,13 +4263,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>-0.28000000000000003</v>
+        <v>5.15</v>
       </c>
       <c r="K102">
-        <v>-0.28000000000000003</v>
+        <v>5.3</v>
       </c>
       <c r="L102">
-        <v>-23.99</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
@@ -4280,7 +4280,7 @@
         <v>-0.4</v>
       </c>
       <c r="C103">
-        <v>90.16</v>
+        <v>90.15</v>
       </c>
       <c r="D103">
         <v>90</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>-0.17</v>
+        <v>2.6</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4301,24 +4301,24 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>-0.28000000000000003</v>
+        <v>5.19</v>
       </c>
       <c r="K103">
-        <v>-0.28000000000000003</v>
+        <v>5.19</v>
       </c>
       <c r="L103">
-        <v>-11.87</v>
+        <v>-17.559999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>-8.51</v>
+        <v>-4.26</v>
       </c>
       <c r="B104">
         <v>-0.4</v>
       </c>
       <c r="C104">
-        <v>90.13</v>
+        <v>90.11</v>
       </c>
       <c r="D104">
         <v>90</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>-0.17</v>
+        <v>2.6</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>-0.28000000000000003</v>
+        <v>5.19</v>
       </c>
       <c r="K104">
-        <v>-0.28000000000000003</v>
+        <v>5.19</v>
       </c>
       <c r="L104">
-        <v>-0.96</v>
+        <v>-18.86</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">

--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\電気研究会\github\mouse\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\デスクトップ\git\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3E6F45-666E-4D59-A2B4-517423EA14F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="12735" windowHeight="8340" xr2:uid="{31200951-AE9B-4843-A38A-9409D86E87BD}"/>
+    <workbookView xWindow="2748" yWindow="0" windowWidth="12732" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +28,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,113 +390,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A19007-B0BB-4EC9-BF79-23D1CEF2A8D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:L201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1">
-        <v>4.26</v>
+        <v>8.51</v>
       </c>
       <c r="B1">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="C1">
+        <v>0.01</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>17.03</v>
+      </c>
+      <c r="B2">
+        <v>25.2</v>
+      </c>
+      <c r="C2">
+        <v>0.11</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3.39</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.01</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-0.06</v>
+      </c>
+      <c r="K2">
+        <v>-0.74</v>
+      </c>
+      <c r="L2">
+        <v>44.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="B3">
+        <v>43.2</v>
+      </c>
+      <c r="C3">
+        <v>0.34</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1.65</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.02</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>32.53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>25.54</v>
-      </c>
-      <c r="B2">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>0.17</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>7.63</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.04</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>-0.19</v>
-      </c>
-      <c r="K2">
-        <v>-1.71</v>
-      </c>
-      <c r="L2">
-        <v>20.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>25.54</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>0.38</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-9.74</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.04</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -501,36 +504,36 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.22</v>
+        <v>-0.11</v>
       </c>
       <c r="K3">
-        <v>1.72</v>
+        <v>-0.44</v>
       </c>
       <c r="L3">
-        <v>83.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>50.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>51.08</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>61.2</v>
       </c>
       <c r="C4">
-        <v>0.81</v>
+        <v>0.77</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-8.9700000000000006</v>
+        <v>1.43</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,36 +542,36 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.11</v>
+        <v>-0.2</v>
       </c>
       <c r="K4">
-        <v>1.91</v>
+        <v>-0.48</v>
       </c>
       <c r="L4">
-        <v>64.319999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>56.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
-        <v>63.85</v>
+        <v>68.11</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>79.2</v>
       </c>
       <c r="C5">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-9.61</v>
+        <v>2.81</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -577,36 +580,36 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.56999999999999995</v>
+        <v>-0.34</v>
       </c>
       <c r="K5">
-        <v>2.4900000000000002</v>
+        <v>-0.9</v>
       </c>
       <c r="L5">
-        <v>84.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>63.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
-        <v>72.37</v>
+        <v>76.62</v>
       </c>
       <c r="B6">
-        <v>99</v>
+        <v>97.2</v>
       </c>
       <c r="C6">
-        <v>2.19</v>
+        <v>2.04</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-12.3</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.21</v>
+        <v>0.08</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -615,36 +618,36 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.05</v>
+        <v>-0.38</v>
       </c>
       <c r="K6">
-        <v>3.51</v>
+        <v>-0.38</v>
       </c>
       <c r="L6">
-        <v>118.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>98.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
-        <v>85.14</v>
+        <v>102.16</v>
       </c>
       <c r="B7">
-        <v>117</v>
+        <v>115.2</v>
       </c>
       <c r="C7">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-7.05</v>
+        <v>-5.83</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.32</v>
+        <v>0.06</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -653,188 +656,188 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.62</v>
+        <v>-0.3</v>
       </c>
       <c r="K7">
-        <v>3.03</v>
+        <v>0.67</v>
       </c>
       <c r="L7">
-        <v>141.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>83.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
-        <v>123.45</v>
+        <v>119.19</v>
       </c>
       <c r="B8">
-        <v>135</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="C8">
+        <v>3.98</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-4.7</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-0.01</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.04</v>
+      </c>
+      <c r="K8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L8">
+        <v>91.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>140.47</v>
+      </c>
+      <c r="B9">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="C9">
+        <v>5.28</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-6.9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-0.06</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K9">
+        <v>1.47</v>
+      </c>
+      <c r="L9">
+        <v>86.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>148.99</v>
+      </c>
+      <c r="B10">
+        <v>169.2</v>
+      </c>
+      <c r="C10">
+        <v>6.76</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-4.58</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-0.13</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.66</v>
+      </c>
+      <c r="K10">
+        <v>1.63</v>
+      </c>
+      <c r="L10">
+        <v>118.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>166.01</v>
+      </c>
+      <c r="B11">
+        <v>187.2</v>
+      </c>
+      <c r="C11">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-13.37</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>-0.23</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K11">
         <v>4.09</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>-3.63</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>-0.4</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1.98</v>
-      </c>
-      <c r="K8">
-        <v>2.7</v>
-      </c>
-      <c r="L8">
-        <v>86.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>131.96</v>
-      </c>
-      <c r="B9">
-        <v>153</v>
-      </c>
-      <c r="C9">
-        <v>5.39</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>-6.32</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-0.43</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>2.16</v>
-      </c>
-      <c r="K9">
-        <v>3.42</v>
-      </c>
-      <c r="L9">
-        <v>119.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>157.5</v>
-      </c>
-      <c r="B10">
-        <v>171</v>
-      </c>
-      <c r="C10">
-        <v>6.92</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-0.44</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="K10">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="L10">
-        <v>99.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>174.53</v>
-      </c>
-      <c r="B11">
-        <v>189</v>
-      </c>
-      <c r="C11">
-        <v>8.6</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3.45</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>-0.46</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K11">
-        <v>1.62</v>
-      </c>
       <c r="L11">
-        <v>105.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>127.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>195.81</v>
       </c>
       <c r="B12">
-        <v>207</v>
+        <v>205.2</v>
       </c>
       <c r="C12">
-        <v>10.48</v>
+        <v>10.31</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-5.22</v>
+        <v>-13.73</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-0.48</v>
+        <v>-0.32</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -843,36 +846,36 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2.41</v>
+        <v>1.62</v>
       </c>
       <c r="K12">
-        <v>3.45</v>
+        <v>4.09</v>
       </c>
       <c r="L12">
-        <v>100.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
-        <v>208.58</v>
+        <v>217.1</v>
       </c>
       <c r="B13">
-        <v>225</v>
+        <v>223.2</v>
       </c>
       <c r="C13">
-        <v>12.52</v>
+        <v>12.34</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-8.51</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.5</v>
+        <v>-0.42</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -881,36 +884,36 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.4900000000000002</v>
+        <v>2.08</v>
       </c>
       <c r="K13">
-        <v>4.2</v>
+        <v>3.29</v>
       </c>
       <c r="L13">
-        <v>120.97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>88.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
-        <v>225.61</v>
+        <v>234.12</v>
       </c>
       <c r="B14">
-        <v>243</v>
+        <v>241.2</v>
       </c>
       <c r="C14">
-        <v>14.75</v>
+        <v>14.57</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-3.08</v>
+        <v>-6.04</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.53</v>
+        <v>-0.51</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -919,36 +922,36 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="K14">
-        <v>3.25</v>
+        <v>3.78</v>
       </c>
       <c r="L14">
-        <v>126.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>95.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>246.89</v>
       </c>
       <c r="B15">
-        <v>261</v>
+        <v>259.2</v>
       </c>
       <c r="C15">
-        <v>17.170000000000002</v>
+        <v>16.95</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.89</v>
+        <v>-6.38</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.53</v>
+        <v>-0.59</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -957,36 +960,36 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2.65</v>
+        <v>2.93</v>
       </c>
       <c r="K15">
-        <v>2.44</v>
+        <v>4.21</v>
       </c>
       <c r="L15">
-        <v>119.24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>115.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
-        <v>268.18</v>
+        <v>263.92</v>
       </c>
       <c r="B16">
-        <v>279</v>
+        <v>277.2</v>
       </c>
       <c r="C16">
-        <v>19.8</v>
+        <v>19.53</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.06</v>
+        <v>-2.78</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.49</v>
+        <v>-0.65</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -995,36 +998,36 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.4300000000000002</v>
+        <v>3.24</v>
       </c>
       <c r="K16">
-        <v>0.74</v>
+        <v>3.92</v>
       </c>
       <c r="L16">
-        <v>110.07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>121.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
-        <v>289.45999999999998</v>
+        <v>285.20999999999998</v>
       </c>
       <c r="B17">
-        <v>297</v>
+        <v>295.2</v>
       </c>
       <c r="C17">
-        <v>22.6</v>
+        <v>22.29</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.68</v>
+        <v>1.19</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-0.39</v>
+        <v>-0.67</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1033,36 +1036,36 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.93</v>
+        <v>3.35</v>
       </c>
       <c r="K17">
-        <v>-0.16</v>
+        <v>3.35</v>
       </c>
       <c r="L17">
-        <v>101.89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>114.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
-        <v>297.98</v>
+        <v>306.49</v>
       </c>
       <c r="B18">
-        <v>315</v>
+        <v>313.2</v>
       </c>
       <c r="C18">
-        <v>25.54</v>
+        <v>25.23</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.37</v>
+        <v>11.29</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.26</v>
+        <v>-0.6</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1071,36 +1074,36 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>-1.39</v>
+        <v>0.72</v>
       </c>
       <c r="L18">
-        <v>132.69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+        <v>105.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
-        <v>315</v>
+        <v>319.26</v>
       </c>
       <c r="B19">
-        <v>333</v>
+        <v>331.2</v>
       </c>
       <c r="C19">
-        <v>28.66</v>
+        <v>28.34</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.8800000000000008</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.14000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1109,36 +1112,36 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.69</v>
+        <v>2.48</v>
       </c>
       <c r="K19">
-        <v>-1.24</v>
+        <v>0.79</v>
       </c>
       <c r="L19">
-        <v>139.38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+        <v>124.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
-        <v>336.29</v>
+        <v>344.8</v>
       </c>
       <c r="B20">
-        <v>351</v>
+        <v>349.2</v>
       </c>
       <c r="C20">
-        <v>31.96</v>
+        <v>31.64</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.25</v>
+        <v>8.67</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-0.08</v>
+        <v>-0.41</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1147,36 +1150,36 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4</v>
+        <v>2.04</v>
       </c>
       <c r="K20">
-        <v>-0.04</v>
+        <v>0.26</v>
       </c>
       <c r="L20">
-        <v>134.38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>104.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
-        <v>357.57</v>
+        <v>349.06</v>
       </c>
       <c r="B21">
-        <v>369</v>
+        <v>367.2</v>
       </c>
       <c r="C21">
-        <v>35.479999999999997</v>
+        <v>35.11</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-2.2000000000000002</v>
+        <v>-0.92</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.09</v>
+        <v>-0.36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1185,36 +1188,36 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.46</v>
+        <v>1.82</v>
       </c>
       <c r="K21">
-        <v>0.86</v>
+        <v>1.82</v>
       </c>
       <c r="L21">
-        <v>127.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+        <v>150.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
-        <v>383.11</v>
+        <v>370.34</v>
       </c>
       <c r="B22">
-        <v>387</v>
+        <v>385.2</v>
       </c>
       <c r="C22">
-        <v>39.200000000000003</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.11</v>
+        <v>-0.37</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1223,36 +1226,36 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.55000000000000004</v>
+        <v>1.87</v>
       </c>
       <c r="K22">
-        <v>0.55000000000000004</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>107.28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+        <v>144.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
-        <v>370.34</v>
+        <v>395.88</v>
       </c>
       <c r="B23">
-        <v>405</v>
+        <v>403.2</v>
       </c>
       <c r="C23">
-        <v>42.99</v>
+        <v>42.61</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>7.97</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.1</v>
+        <v>-0.36</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1261,36 +1264,36 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="K23">
-        <v>-0.26</v>
+        <v>0.43</v>
       </c>
       <c r="L23">
-        <v>125.94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+        <v>123.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
-        <v>391.62</v>
+        <v>404.4</v>
       </c>
       <c r="B24">
-        <v>423</v>
+        <v>421.2</v>
       </c>
       <c r="C24">
-        <v>46.85</v>
+        <v>46.66</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.62</v>
+        <v>6.87</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-0.05</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1299,36 +1302,36 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.25</v>
+        <v>1.46</v>
       </c>
       <c r="K24">
-        <v>-0.56999999999999995</v>
+        <v>0.21</v>
       </c>
       <c r="L24">
-        <v>124.46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+        <v>70.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
-        <v>412.91</v>
+        <v>408.65</v>
       </c>
       <c r="B25">
-        <v>441</v>
+        <v>439.2</v>
       </c>
       <c r="C25">
-        <v>50.85</v>
+        <v>50.72</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-1.31</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>-0.05</v>
+        <v>-0.23</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1337,36 +1340,36 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.25</v>
+        <v>1.17</v>
       </c>
       <c r="K25">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
       <c r="L25">
-        <v>125.55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+        <v>119.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
-        <v>425.68</v>
+        <v>421.42</v>
       </c>
       <c r="B26">
-        <v>459</v>
+        <v>457.2</v>
       </c>
       <c r="C26">
-        <v>55.07</v>
+        <v>54.89</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-2.2599999999999998</v>
+        <v>-7.75</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1375,36 +1378,36 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.47</v>
+        <v>1.48</v>
       </c>
       <c r="K26">
-        <v>1.33</v>
+        <v>3.2</v>
       </c>
       <c r="L26">
-        <v>150.69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+        <v>147.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
-        <v>446.96</v>
+        <v>442.71</v>
       </c>
       <c r="B27">
-        <v>477</v>
+        <v>475.2</v>
       </c>
       <c r="C27">
-        <v>59.49</v>
+        <v>59.25</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>-0.1</v>
+        <v>-0.33</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1413,36 +1416,36 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.49</v>
+        <v>1.66</v>
       </c>
       <c r="K27">
-        <v>0.49</v>
+        <v>1.66</v>
       </c>
       <c r="L27">
-        <v>148.13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+        <v>144.94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
-        <v>459.73</v>
+        <v>463.99</v>
       </c>
       <c r="B28">
-        <v>495</v>
+        <v>493.2</v>
       </c>
       <c r="C28">
-        <v>64.06</v>
+        <v>63.81</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>4.3899999999999997</v>
+        <v>5.86</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.05</v>
+        <v>-0.27</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1451,36 +1454,36 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.26</v>
+        <v>1.35</v>
       </c>
       <c r="K28">
-        <v>-0.63</v>
+        <v>0.13</v>
       </c>
       <c r="L28">
-        <v>171.51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+        <v>142.19999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
-        <v>485.27</v>
+        <v>468.25</v>
       </c>
       <c r="B29">
         <v>500.4</v>
       </c>
       <c r="C29">
-        <v>68.790000000000006</v>
+        <v>68.53</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-2.0099999999999998</v>
+        <v>-1.71</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.04</v>
+        <v>-0.21</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1489,36 +1492,36 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.2</v>
+        <v>1.06</v>
       </c>
       <c r="K29">
-        <v>0.42</v>
+        <v>0.94</v>
       </c>
       <c r="L29">
-        <v>120.33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+        <v>159.88999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
-        <v>485.27</v>
+        <v>489.53</v>
       </c>
       <c r="B30">
         <v>500</v>
       </c>
       <c r="C30">
-        <v>73.63</v>
+        <v>73.31</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.64</v>
+        <v>-6.62</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.08</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1527,36 +1530,36 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.37</v>
+        <v>1.43</v>
       </c>
       <c r="K30">
-        <v>0.68</v>
+        <v>3.02</v>
       </c>
       <c r="L30">
-        <v>106.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+        <v>85.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
-        <v>481.02</v>
+        <v>489.53</v>
       </c>
       <c r="B31">
         <v>500</v>
       </c>
       <c r="C31">
-        <v>78.45</v>
+        <v>78.11</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>6.93</v>
+        <v>5.13</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>-0.06</v>
+        <v>-0.3</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1565,36 +1568,36 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.27</v>
+        <v>1.51</v>
       </c>
       <c r="K31">
-        <v>-0.85</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>122.78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+        <v>89.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
-        <v>481.02</v>
+        <v>472.5</v>
       </c>
       <c r="B32">
         <v>500</v>
       </c>
       <c r="C32">
-        <v>83.3</v>
+        <v>82.94</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2.84</v>
+        <v>5.98</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.02</v>
+        <v>-0.25</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1603,36 +1606,36 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>-0.12</v>
+        <v>1.25</v>
       </c>
       <c r="K32">
-        <v>-0.87</v>
+        <v>0.08</v>
       </c>
       <c r="L32">
-        <v>127.16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+        <v>145.13999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
-        <v>493.79</v>
+        <v>489.53</v>
       </c>
       <c r="B33">
         <v>500</v>
       </c>
       <c r="C33">
-        <v>88.2</v>
+        <v>87.79</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-7.35</v>
+        <v>-5.77</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.01</v>
+        <v>-0.23</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1641,36 +1644,36 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>-0.04</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K33">
-        <v>1.43</v>
+        <v>1.97</v>
       </c>
       <c r="L33">
-        <v>94.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+        <v>100.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
-        <v>485.27</v>
+        <v>481.02</v>
       </c>
       <c r="B34">
         <v>500</v>
       </c>
       <c r="C34">
-        <v>2.95</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="D34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>-2.59</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1679,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.28000000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="K34">
-        <v>0.96</v>
+        <v>2.79</v>
       </c>
       <c r="L34">
-        <v>122.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+        <v>130.56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>493.79</v>
       </c>
@@ -1696,19 +1699,19 @@
         <v>500</v>
       </c>
       <c r="C35">
-        <v>7.87</v>
+        <v>7.34</v>
       </c>
       <c r="D35">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>13.18</v>
+        <v>7.66</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1717,36 +1720,36 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.12</v>
+        <v>1.38</v>
       </c>
       <c r="K35">
-        <v>-2.1800000000000002</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>95.56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+        <v>92.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
-        <v>493.79</v>
+        <v>498.04</v>
       </c>
       <c r="B36">
         <v>500</v>
       </c>
       <c r="C36">
-        <v>12.78</v>
+        <v>12.27</v>
       </c>
       <c r="D36">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>5.86</v>
+        <v>7.23</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1755,30 +1758,30 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>-0.55000000000000004</v>
+        <v>1.03</v>
       </c>
       <c r="K36">
-        <v>-1.72</v>
+        <v>-0.37</v>
       </c>
       <c r="L36">
-        <v>98.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+        <v>80.89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
-        <v>506.56</v>
+        <v>493.79</v>
       </c>
       <c r="B37">
         <v>500</v>
       </c>
       <c r="C37">
-        <v>17.77</v>
+        <v>17.21</v>
       </c>
       <c r="D37">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1793,150 +1796,150 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>-0.61</v>
+        <v>0.59</v>
       </c>
       <c r="K37">
-        <v>-0.61</v>
+        <v>-1.47</v>
       </c>
       <c r="L37">
-        <v>61.63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+        <v>94.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
-        <v>493.79</v>
+        <v>481.02</v>
       </c>
       <c r="B38">
         <v>500</v>
       </c>
       <c r="C38">
-        <v>22.73</v>
+        <v>22.08</v>
       </c>
       <c r="D38">
-        <v>21.93</v>
+        <v>21.43</v>
       </c>
       <c r="E38">
-        <v>-12.6</v>
+        <v>-7.72</v>
       </c>
       <c r="F38">
-        <v>-100.27</v>
+        <v>-85.94</v>
       </c>
       <c r="G38">
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
       <c r="H38">
-        <v>-0.35</v>
+        <v>-0.26</v>
       </c>
       <c r="I38">
         <v>-14323.91</v>
       </c>
       <c r="J38">
-        <v>-0.59</v>
+        <v>-3.17</v>
       </c>
       <c r="K38">
-        <v>-64.63</v>
+        <v>-53.33</v>
       </c>
       <c r="L38">
-        <v>35.130000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
-        <v>493.79</v>
+        <v>481.02</v>
       </c>
       <c r="B39">
         <v>500</v>
       </c>
       <c r="C39">
-        <v>27.71</v>
+        <v>26.97</v>
       </c>
       <c r="D39">
-        <v>26.93</v>
+        <v>26.43</v>
       </c>
       <c r="E39">
-        <v>-52.28</v>
+        <v>-60.12</v>
       </c>
       <c r="F39">
-        <v>-243.51</v>
+        <v>-229.18</v>
       </c>
       <c r="G39">
-        <v>-0.16</v>
+        <v>-0.06</v>
       </c>
       <c r="H39">
-        <v>-2.0699999999999998</v>
+        <v>-1.83</v>
       </c>
       <c r="I39">
         <v>-14323.91</v>
       </c>
       <c r="J39">
-        <v>-0.59</v>
+        <v>-19.260000000000002</v>
       </c>
       <c r="K39">
-        <v>-140.19</v>
+        <v>-129.65</v>
       </c>
       <c r="L39">
-        <v>-52.05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-48.97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
-        <v>493.79</v>
+        <v>472.5</v>
       </c>
       <c r="B40">
         <v>500</v>
       </c>
       <c r="C40">
-        <v>32.6</v>
+        <v>31.71</v>
       </c>
       <c r="D40">
-        <v>31.93</v>
+        <v>31.43</v>
       </c>
       <c r="E40">
-        <v>-270.02</v>
+        <v>-257.93</v>
       </c>
       <c r="F40">
-        <v>-386.75</v>
+        <v>-372.42</v>
       </c>
       <c r="G40">
-        <v>-1.88</v>
+        <v>-1.43</v>
       </c>
       <c r="H40">
-        <v>-5.22</v>
+        <v>-4.84</v>
       </c>
       <c r="I40">
         <v>-14323.91</v>
       </c>
       <c r="J40">
-        <v>-0.59</v>
+        <v>-38.93</v>
       </c>
       <c r="K40">
-        <v>-85.79</v>
+        <v>-124.43</v>
       </c>
       <c r="L40">
-        <v>-19.36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-13.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
-        <v>493.79</v>
+        <v>481.02</v>
       </c>
       <c r="B41">
         <v>500</v>
       </c>
       <c r="C41">
-        <v>37.56</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="D41">
-        <v>34.43</v>
+        <v>36.43</v>
       </c>
       <c r="E41">
-        <v>-416.5</v>
+        <v>-421.39</v>
       </c>
       <c r="F41">
         <v>-458.37</v>
       </c>
       <c r="G41">
-        <v>-5.43</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="H41">
         <v>-7.33</v>
@@ -1945,814 +1948,814 @@
         <v>-14323.91</v>
       </c>
       <c r="J41">
-        <v>-0.59</v>
+        <v>-49.79</v>
       </c>
       <c r="K41">
-        <v>-31.12</v>
+        <v>-79.489999999999995</v>
       </c>
       <c r="L41">
-        <v>13.87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
-        <v>493.79</v>
+        <v>510.82</v>
       </c>
       <c r="B42">
         <v>500</v>
       </c>
       <c r="C42">
-        <v>42.48</v>
+        <v>41.34</v>
       </c>
       <c r="D42">
-        <v>36.43</v>
+        <v>35.93</v>
       </c>
       <c r="E42">
-        <v>-524.75</v>
+        <v>-499.24</v>
       </c>
       <c r="F42">
         <v>-458.37</v>
       </c>
       <c r="G42">
-        <v>-10.26</v>
+        <v>-9.48</v>
       </c>
       <c r="H42">
-        <v>-9.17</v>
+        <v>-8.7100000000000009</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>-0.59</v>
+        <v>-49.28</v>
       </c>
       <c r="K42">
-        <v>47.88</v>
+        <v>-26.31</v>
       </c>
       <c r="L42">
-        <v>103.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+        <v>46.36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
-        <v>485.27</v>
+        <v>498.04</v>
       </c>
       <c r="B43">
         <v>500</v>
       </c>
       <c r="C43">
-        <v>47.37</v>
+        <v>46.25</v>
       </c>
       <c r="D43">
-        <v>41.43</v>
+        <v>40.93</v>
       </c>
       <c r="E43">
-        <v>-507.75</v>
+        <v>-497.34</v>
       </c>
       <c r="F43">
         <v>-458.37</v>
       </c>
       <c r="G43">
-        <v>-15.52</v>
+        <v>-14.53</v>
       </c>
       <c r="H43">
-        <v>-13.75</v>
+        <v>-13.29</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>-0.59</v>
+        <v>-43.93</v>
       </c>
       <c r="K43">
-        <v>35.44</v>
+        <v>-17.239999999999998</v>
       </c>
       <c r="L43">
-        <v>132.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
-        <v>510.82</v>
+        <v>502.3</v>
       </c>
       <c r="B44">
         <v>500</v>
       </c>
       <c r="C44">
-        <v>52.36</v>
+        <v>51.21</v>
       </c>
       <c r="D44">
-        <v>46.43</v>
+        <v>45.93</v>
       </c>
       <c r="E44">
-        <v>-412.96</v>
+        <v>-441.77</v>
       </c>
       <c r="F44">
         <v>-458.37</v>
       </c>
       <c r="G44">
-        <v>-20.05</v>
+        <v>-19.25</v>
       </c>
       <c r="H44">
-        <v>-18.329999999999998</v>
+        <v>-17.88</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>-0.59</v>
+        <v>-42.42</v>
       </c>
       <c r="K44">
-        <v>-33.76</v>
+        <v>-49.66</v>
       </c>
       <c r="L44">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
-        <v>485.27</v>
+        <v>493.79</v>
       </c>
       <c r="B45">
         <v>500</v>
       </c>
       <c r="C45">
-        <v>57.28</v>
+        <v>56.17</v>
       </c>
       <c r="D45">
-        <v>51.43</v>
+        <v>50.93</v>
       </c>
       <c r="E45">
-        <v>-424.13</v>
+        <v>-431.12</v>
       </c>
       <c r="F45">
         <v>-458.37</v>
       </c>
       <c r="G45">
-        <v>-24.09</v>
+        <v>-23.54</v>
       </c>
       <c r="H45">
-        <v>-22.92</v>
+        <v>-22.46</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>-0.59</v>
+        <v>-45.78</v>
       </c>
       <c r="K45">
-        <v>-25.56</v>
+        <v>-65</v>
       </c>
       <c r="L45">
-        <v>98.95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+        <v>64.45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
-        <v>498.04</v>
+        <v>506.56</v>
       </c>
       <c r="B46">
         <v>500</v>
       </c>
       <c r="C46">
-        <v>62.27</v>
+        <v>61.19</v>
       </c>
       <c r="D46">
-        <v>56.43</v>
+        <v>55.93</v>
       </c>
       <c r="E46">
-        <v>-453.86</v>
+        <v>-478.15</v>
       </c>
       <c r="F46">
         <v>-458.37</v>
       </c>
       <c r="G46">
-        <v>-28.64</v>
+        <v>-28.1</v>
       </c>
       <c r="H46">
-        <v>-27.5</v>
+        <v>-27.04</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>-0.59</v>
+        <v>-46.06</v>
       </c>
       <c r="K46">
-        <v>-3.89</v>
+        <v>-34.64</v>
       </c>
       <c r="L46">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+        <v>55.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
-        <v>502.3</v>
+        <v>498.04</v>
       </c>
       <c r="B47">
         <v>500</v>
       </c>
       <c r="C47">
-        <v>67.33</v>
+        <v>66.22</v>
       </c>
       <c r="D47">
-        <v>61.43</v>
+        <v>60.93</v>
       </c>
       <c r="E47">
-        <v>-405.06</v>
+        <v>-465.7</v>
       </c>
       <c r="F47">
         <v>-458.37</v>
       </c>
       <c r="G47">
-        <v>-32.97</v>
+        <v>-32.83</v>
       </c>
       <c r="H47">
-        <v>-32.090000000000003</v>
+        <v>-31.63</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>-0.59</v>
+        <v>-44.35</v>
       </c>
       <c r="K47">
-        <v>-39.53</v>
+        <v>-39.14</v>
       </c>
       <c r="L47">
-        <v>49.23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+        <v>76.27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
-        <v>485.27</v>
+        <v>502.3</v>
       </c>
       <c r="B48">
         <v>500</v>
       </c>
       <c r="C48">
-        <v>72.27</v>
+        <v>71.25</v>
       </c>
       <c r="D48">
-        <v>66.430000000000007</v>
+        <v>65.930000000000007</v>
       </c>
       <c r="E48">
-        <v>-370.67</v>
+        <v>-451.63</v>
       </c>
       <c r="F48">
         <v>-458.37</v>
       </c>
       <c r="G48">
-        <v>-36.76</v>
+        <v>-37.43</v>
       </c>
       <c r="H48">
-        <v>-36.67</v>
+        <v>-36.21</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>-0.59</v>
+        <v>-44.13</v>
       </c>
       <c r="K48">
-        <v>-64.61</v>
+        <v>-47.21</v>
       </c>
       <c r="L48">
-        <v>79.260000000000005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+        <v>54.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B49">
         <v>500</v>
       </c>
       <c r="C49">
-        <v>77.239999999999995</v>
+        <v>76.23</v>
       </c>
       <c r="D49">
-        <v>71.430000000000007</v>
+        <v>70.930000000000007</v>
       </c>
       <c r="E49">
-        <v>-413.24</v>
+        <v>-452.76</v>
       </c>
       <c r="F49">
         <v>-458.37</v>
       </c>
       <c r="G49">
-        <v>-40.68</v>
+        <v>-41.91</v>
       </c>
       <c r="H49">
-        <v>-41.25</v>
+        <v>-40.79</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>-0.59</v>
+        <v>-45.32</v>
       </c>
       <c r="K49">
-        <v>-33.53</v>
+        <v>-50.16</v>
       </c>
       <c r="L49">
-        <v>79.680000000000007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+        <v>51.83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B50">
         <v>500</v>
       </c>
       <c r="C50">
-        <v>82.22</v>
+        <v>81.239999999999995</v>
       </c>
       <c r="D50">
-        <v>76.430000000000007</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="E50">
-        <v>-431.79</v>
+        <v>-455.63</v>
       </c>
       <c r="F50">
         <v>-458.37</v>
       </c>
       <c r="G50">
-        <v>-44.92</v>
+        <v>-46.47</v>
       </c>
       <c r="H50">
-        <v>-45.84</v>
+        <v>-45.38</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>-0.59</v>
+        <v>-45.6</v>
       </c>
       <c r="K50">
-        <v>-19.989999999999998</v>
+        <v>-47.3</v>
       </c>
       <c r="L50">
-        <v>74.14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+        <v>54.58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
       <c r="C51">
-        <v>87.2</v>
+        <v>86.22</v>
       </c>
       <c r="D51">
-        <v>81.430000000000007</v>
+        <v>80.930000000000007</v>
       </c>
       <c r="E51">
-        <v>-423.03</v>
+        <v>-461.49</v>
       </c>
       <c r="F51">
         <v>-458.37</v>
       </c>
       <c r="G51">
-        <v>-49.24</v>
+        <v>-51.03</v>
       </c>
       <c r="H51">
-        <v>-50.42</v>
+        <v>-49.96</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>-0.59</v>
+        <v>-45.92</v>
       </c>
       <c r="K51">
-        <v>-26.4</v>
+        <v>-43.98</v>
       </c>
       <c r="L51">
-        <v>71.86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
-        <v>485.27</v>
+        <v>502.3</v>
       </c>
       <c r="B52">
         <v>500</v>
       </c>
       <c r="C52">
-        <v>92.17</v>
+        <v>91.26</v>
       </c>
       <c r="D52">
-        <v>86.43</v>
+        <v>85.93</v>
       </c>
       <c r="E52">
-        <v>-404.79</v>
+        <v>-463.1</v>
       </c>
       <c r="F52">
         <v>-458.37</v>
       </c>
       <c r="G52">
-        <v>-53.33</v>
+        <v>-55.68</v>
       </c>
       <c r="H52">
-        <v>-55</v>
+        <v>-54.55</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>-0.59</v>
+        <v>-45.15</v>
       </c>
       <c r="K52">
-        <v>-39.71</v>
+        <v>-42.21</v>
       </c>
       <c r="L52">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>489.53</v>
+        <v>493.79</v>
       </c>
       <c r="B53">
         <v>500</v>
       </c>
       <c r="C53">
-        <v>97.14</v>
+        <v>96.27</v>
       </c>
       <c r="D53">
-        <v>91.43</v>
+        <v>90.93</v>
       </c>
       <c r="E53">
-        <v>-463.62</v>
+        <v>-451.35</v>
       </c>
       <c r="F53">
         <v>-458.37</v>
       </c>
       <c r="G53">
-        <v>-57.65</v>
+        <v>-60.22</v>
       </c>
       <c r="H53">
-        <v>-59.59</v>
+        <v>-59.13</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>-0.59</v>
+        <v>-45.66</v>
       </c>
       <c r="K53">
-        <v>3.26</v>
+        <v>-50</v>
       </c>
       <c r="L53">
-        <v>88.32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+        <v>76.489999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
-        <v>498.04</v>
+        <v>506.56</v>
       </c>
       <c r="B54">
         <v>500</v>
       </c>
       <c r="C54">
-        <v>102.16</v>
+        <v>101.29</v>
       </c>
       <c r="D54">
-        <v>96.43</v>
+        <v>95.93</v>
       </c>
       <c r="E54">
-        <v>-475.22</v>
+        <v>-470.4</v>
       </c>
       <c r="F54">
         <v>-458.37</v>
       </c>
       <c r="G54">
-        <v>-62.42</v>
+        <v>-64.87</v>
       </c>
       <c r="H54">
-        <v>-64.17</v>
+        <v>-63.71</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>-0.59</v>
+        <v>-44.83</v>
       </c>
       <c r="K54">
-        <v>11.71</v>
+        <v>-37.369999999999997</v>
       </c>
       <c r="L54">
-        <v>56.16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+        <v>50.27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B55">
         <v>500</v>
       </c>
       <c r="C55">
-        <v>107.11</v>
+        <v>106.3</v>
       </c>
       <c r="D55">
-        <v>101.43</v>
+        <v>100.93</v>
       </c>
       <c r="E55">
-        <v>-471.71</v>
+        <v>-452.76</v>
       </c>
       <c r="F55">
         <v>-458.37</v>
       </c>
       <c r="G55">
-        <v>-67.099999999999994</v>
+        <v>-69.489999999999995</v>
       </c>
       <c r="H55">
-        <v>-68.75</v>
+        <v>-68.3</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>-0.59</v>
+        <v>-44.44</v>
       </c>
       <c r="K55">
-        <v>9.16</v>
+        <v>-47.91</v>
       </c>
       <c r="L55">
-        <v>41.86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+        <v>52.13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B56">
         <v>500</v>
       </c>
       <c r="C56">
-        <v>112.1</v>
+        <v>111.25</v>
       </c>
       <c r="D56">
-        <v>106.43</v>
+        <v>105.93</v>
       </c>
       <c r="E56">
-        <v>-506.01</v>
+        <v>-453.55</v>
       </c>
       <c r="F56">
         <v>-458.37</v>
       </c>
       <c r="G56">
-        <v>-72.05</v>
+        <v>-73.959999999999994</v>
       </c>
       <c r="H56">
-        <v>-73.34</v>
+        <v>-72.88</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>-0.59</v>
+        <v>-45.71</v>
       </c>
       <c r="K56">
-        <v>34.19</v>
+        <v>-48.7</v>
       </c>
       <c r="L56">
-        <v>55.95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
-        <v>506.56</v>
+        <v>510.82</v>
       </c>
       <c r="B57">
         <v>500</v>
       </c>
       <c r="C57">
-        <v>117.14</v>
+        <v>116.28</v>
       </c>
       <c r="D57">
-        <v>111.43</v>
+        <v>110.93</v>
       </c>
       <c r="E57">
-        <v>-505.4</v>
+        <v>-459.81</v>
       </c>
       <c r="F57">
         <v>-458.37</v>
       </c>
       <c r="G57">
-        <v>-77.12</v>
+        <v>-78.569999999999993</v>
       </c>
       <c r="H57">
-        <v>-77.92</v>
+        <v>-77.459999999999994</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>-0.59</v>
+        <v>-45.41</v>
       </c>
       <c r="K57">
-        <v>33.74</v>
+        <v>-44.52</v>
       </c>
       <c r="L57">
-        <v>21.58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
-        <v>502.3</v>
+        <v>498.04</v>
       </c>
       <c r="B58">
         <v>500</v>
       </c>
       <c r="C58">
-        <v>122.13</v>
+        <v>121.29</v>
       </c>
       <c r="D58">
-        <v>116.43</v>
+        <v>115.93</v>
       </c>
       <c r="E58">
-        <v>-531.95000000000005</v>
+        <v>-442.54</v>
       </c>
       <c r="F58">
         <v>-458.37</v>
       </c>
       <c r="G58">
-        <v>-82.3</v>
+        <v>-83.06</v>
       </c>
       <c r="H58">
-        <v>-82.51</v>
+        <v>-82.05</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>14323.91</v>
       </c>
       <c r="J58">
-        <v>-0.59</v>
+        <v>-46.57</v>
       </c>
       <c r="K58">
-        <v>53.13</v>
+        <v>-56.38</v>
       </c>
       <c r="L58">
-        <v>51.23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+        <v>56.41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B59">
         <v>500</v>
       </c>
       <c r="C59">
-        <v>127.14</v>
+        <v>126.3</v>
       </c>
       <c r="D59">
-        <v>120.43</v>
+        <v>120.93</v>
       </c>
       <c r="E59">
-        <v>-526.37</v>
+        <v>-472.87</v>
       </c>
       <c r="F59">
-        <v>-343.77</v>
+        <v>-329.45</v>
       </c>
       <c r="G59">
-        <v>-87.62</v>
+        <v>-87.69</v>
       </c>
       <c r="H59">
-        <v>-85.87</v>
+        <v>-86.21</v>
       </c>
       <c r="I59">
         <v>14323.91</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="K59">
-        <v>133.33000000000001</v>
+        <v>90.57</v>
       </c>
       <c r="L59">
-        <v>155.94999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+        <v>222.87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
-        <v>489.53</v>
+        <v>506.56</v>
       </c>
       <c r="B60">
         <v>500</v>
       </c>
       <c r="C60">
-        <v>132.13999999999999</v>
+        <v>131.33000000000001</v>
       </c>
       <c r="D60">
-        <v>125.43</v>
+        <v>125.93</v>
       </c>
       <c r="E60">
-        <v>-410.8</v>
+        <v>-230.74</v>
       </c>
       <c r="F60">
-        <v>-200.53</v>
+        <v>-186.21</v>
       </c>
       <c r="G60">
-        <v>-92.46</v>
+        <v>-91.35</v>
       </c>
       <c r="H60">
-        <v>-88.6</v>
+        <v>-88.79</v>
       </c>
       <c r="I60">
         <v>14323.91</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="K60">
-        <v>153.47</v>
+        <v>28.12</v>
       </c>
       <c r="L60">
-        <v>229.02</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+        <v>214.67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B61">
         <v>500</v>
       </c>
       <c r="C61">
-        <v>137.1</v>
+        <v>136.34</v>
       </c>
       <c r="D61">
-        <v>136.43</v>
+        <v>135.43</v>
       </c>
       <c r="E61">
-        <v>-221.04</v>
+        <v>-8.91</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>-95.46</v>
+        <v>-92.38</v>
       </c>
       <c r="H61">
-        <v>-88.79</v>
+        <v>-89.28</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>13.06</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K61">
-        <v>57.27</v>
+        <v>4.21</v>
       </c>
       <c r="L61">
-        <v>178.59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+        <v>107.01</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
-        <v>498.04</v>
+        <v>493.79</v>
       </c>
       <c r="B62">
         <v>500</v>
       </c>
       <c r="C62">
-        <v>142.08000000000001</v>
+        <v>141.33000000000001</v>
       </c>
       <c r="D62">
-        <v>141.43</v>
+        <v>140.43</v>
       </c>
       <c r="E62">
-        <v>-78.16</v>
+        <v>32.32</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>-96.83</v>
+        <v>-92.11</v>
       </c>
       <c r="H62">
-        <v>-88.79</v>
+        <v>-89.28</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>19.89</v>
+        <v>1.07</v>
       </c>
       <c r="K62">
-        <v>35.520000000000003</v>
+        <v>-5.4</v>
       </c>
       <c r="L62">
-        <v>160.16999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+        <v>122.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>493.79</v>
       </c>
@@ -2760,95 +2763,95 @@
         <v>500</v>
       </c>
       <c r="C63">
-        <v>147.04</v>
+        <v>146.31</v>
       </c>
       <c r="D63">
-        <v>146.43</v>
+        <v>145.43</v>
       </c>
       <c r="E63">
-        <v>17</v>
+        <v>29.05</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>-97.05</v>
+        <v>-91.86</v>
       </c>
       <c r="H63">
-        <v>-88.79</v>
+        <v>-89.28</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>20.99</v>
+        <v>-0.17</v>
       </c>
       <c r="K63">
-        <v>17.59</v>
+        <v>-5.98</v>
       </c>
       <c r="L63">
-        <v>156.66999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+        <v>122.24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
-        <v>506.56</v>
+        <v>510.82</v>
       </c>
       <c r="B64">
         <v>500</v>
       </c>
       <c r="C64">
-        <v>152.03</v>
+        <v>151.32</v>
       </c>
       <c r="D64">
-        <v>151.43</v>
+        <v>150.43</v>
       </c>
       <c r="E64">
-        <v>62.93</v>
+        <v>25.67</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>-96.56</v>
+        <v>-91.55</v>
       </c>
       <c r="H64">
-        <v>-88.79</v>
+        <v>-89.28</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>18.52</v>
+        <v>-1.7</v>
       </c>
       <c r="K64">
-        <v>5.94</v>
+        <v>-6.84</v>
       </c>
       <c r="L64">
-        <v>106.06</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+        <v>69.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
-        <v>498.04</v>
+        <v>493.79</v>
       </c>
       <c r="B65">
         <v>500</v>
       </c>
       <c r="C65">
-        <v>4.51</v>
+        <v>3.98</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>77.09</v>
+        <v>1.28</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.67</v>
+        <v>0.09</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2857,36 +2860,36 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>14.84</v>
+        <v>-2.4</v>
       </c>
       <c r="K65">
-        <v>-0.57999999999999996</v>
+        <v>-2.66</v>
       </c>
       <c r="L65">
-        <v>108.21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+        <v>120.85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
-        <v>506.56</v>
+        <v>502.3</v>
       </c>
       <c r="B66">
         <v>500</v>
       </c>
       <c r="C66">
-        <v>9.5399999999999991</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>74.069999999999993</v>
+        <v>4.91</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1.42</v>
+        <v>0.1</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2895,16 +2898,16 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>11.1</v>
+        <v>-2.4300000000000002</v>
       </c>
       <c r="K66">
-        <v>-3.72</v>
+        <v>-3.41</v>
       </c>
       <c r="L66">
-        <v>77.22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+        <v>95.01</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>498.04</v>
       </c>
@@ -2912,19 +2915,19 @@
         <v>500</v>
       </c>
       <c r="C67">
-        <v>14.53</v>
+        <v>13.98</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>59.11</v>
+        <v>7.35</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>2.11</v>
+        <v>0.18</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2933,36 +2936,36 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>7.63</v>
+        <v>-2.83</v>
       </c>
       <c r="K67">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="L67">
-        <v>100.97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B68">
         <v>500</v>
       </c>
       <c r="C68">
-        <v>19.53</v>
+        <v>18.96</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>17.97</v>
+        <v>-3.3</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>2.4300000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2971,36 +2974,36 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>6.03</v>
+        <v>-3</v>
       </c>
       <c r="K68">
-        <v>2.44</v>
+        <v>-2.34</v>
       </c>
       <c r="L68">
-        <v>106.92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+        <v>95.88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
-        <v>489.53</v>
+        <v>498.04</v>
       </c>
       <c r="B69">
-        <v>489.2</v>
+        <v>491</v>
       </c>
       <c r="C69">
-        <v>24.51</v>
+        <v>23.95</v>
       </c>
       <c r="D69">
-        <v>23.52</v>
+        <v>23.03</v>
       </c>
       <c r="E69">
-        <v>14.28</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>2.58</v>
+        <v>0.09</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3009,36 +3012,36 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>5.31</v>
+        <v>-2.38</v>
       </c>
       <c r="K69">
-        <v>2.4500000000000002</v>
+        <v>0.94</v>
       </c>
       <c r="L69">
-        <v>86.53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+        <v>73.67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
-        <v>459.73</v>
+        <v>455.48</v>
       </c>
       <c r="B70">
-        <v>471.2</v>
+        <v>473</v>
       </c>
       <c r="C70">
-        <v>29.05</v>
+        <v>28.57</v>
       </c>
       <c r="D70">
-        <v>28.33</v>
+        <v>27.85</v>
       </c>
       <c r="E70">
-        <v>16.27</v>
+        <v>-16.239999999999998</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>2.74</v>
+        <v>-0.08</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3047,36 +3050,36 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>4.4800000000000004</v>
+        <v>-1.54</v>
       </c>
       <c r="K70">
-        <v>1.23</v>
+        <v>1.7</v>
       </c>
       <c r="L70">
-        <v>17.920000000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+        <v>42.14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>434.19</v>
       </c>
       <c r="B71">
-        <v>453.2</v>
+        <v>455</v>
       </c>
       <c r="C71">
-        <v>33.54</v>
+        <v>33.08</v>
       </c>
       <c r="D71">
-        <v>32.950000000000003</v>
+        <v>32.49</v>
       </c>
       <c r="E71">
-        <v>6.9</v>
+        <v>10.53</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>2.86</v>
+        <v>-0.13</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3085,36 +3088,36 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>3.89</v>
+        <v>-1.28</v>
       </c>
       <c r="K71">
-        <v>2.5099999999999998</v>
+        <v>-3.39</v>
       </c>
       <c r="L71">
-        <v>39.35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+        <v>45.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
-        <v>417.17</v>
+        <v>421.42</v>
       </c>
       <c r="B72">
-        <v>435.2</v>
+        <v>437</v>
       </c>
       <c r="C72">
-        <v>37.799999999999997</v>
+        <v>37.39</v>
       </c>
       <c r="D72">
-        <v>37.39</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="E72">
-        <v>-7.45</v>
+        <v>-5.31</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>2.84</v>
+        <v>-0.08</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3123,36 +3126,36 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>3.97</v>
+        <v>-1.53</v>
       </c>
       <c r="K72">
-        <v>5.46</v>
+        <v>-0.46</v>
       </c>
       <c r="L72">
-        <v>40.67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+        <v>32.08</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
-        <v>395.88</v>
+        <v>400.14</v>
       </c>
       <c r="B73">
-        <v>417.2</v>
+        <v>419</v>
       </c>
       <c r="C73">
-        <v>41.91</v>
+        <v>41.47</v>
       </c>
       <c r="D73">
-        <v>41.65</v>
+        <v>41.23</v>
       </c>
       <c r="E73">
-        <v>-7.69</v>
+        <v>-14.68</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>2.75</v>
+        <v>-0.2</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3161,74 +3164,74 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>4.4400000000000004</v>
+        <v>-0.96</v>
       </c>
       <c r="K73">
+        <v>1.97</v>
+      </c>
+      <c r="L73">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>387.37</v>
+      </c>
+      <c r="B74">
+        <v>401</v>
+      </c>
+      <c r="C74">
+        <v>45.39</v>
+      </c>
+      <c r="D74">
+        <v>45.33</v>
+      </c>
+      <c r="E74">
+        <v>-4.76</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>-0.51</v>
+      </c>
+      <c r="K74">
+        <v>0.44</v>
+      </c>
+      <c r="L74">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>370.34</v>
+      </c>
+      <c r="B75">
+        <v>383</v>
+      </c>
+      <c r="C75">
+        <v>49.19</v>
+      </c>
+      <c r="D75">
+        <v>49.25</v>
+      </c>
+      <c r="E75">
         <v>5.98</v>
       </c>
-      <c r="L73">
-        <v>53.14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74">
-        <v>378.85</v>
-      </c>
-      <c r="B74">
-        <v>399.2</v>
-      </c>
-      <c r="C74">
-        <v>45.82</v>
-      </c>
-      <c r="D74">
-        <v>45.73</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>2.7</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>4.7</v>
-      </c>
-      <c r="K74">
-        <v>4.7</v>
-      </c>
-      <c r="L74">
-        <v>53.55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <v>366.08</v>
-      </c>
-      <c r="B75">
-        <v>381.2</v>
-      </c>
-      <c r="C75">
-        <v>49.59</v>
-      </c>
-      <c r="D75">
-        <v>49.64</v>
-      </c>
-      <c r="E75">
-        <v>-3.91</v>
-      </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>2.69</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3237,36 +3240,36 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>4.75</v>
+        <v>-0.48</v>
       </c>
       <c r="K75">
-        <v>5.53</v>
+        <v>-1.68</v>
       </c>
       <c r="L75">
-        <v>75.11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
-        <v>353.31</v>
+        <v>344.8</v>
       </c>
       <c r="B76">
-        <v>363.2</v>
+        <v>365</v>
       </c>
       <c r="C76">
-        <v>53.21</v>
+        <v>52.81</v>
       </c>
       <c r="D76">
-        <v>53.36</v>
+        <v>52.99</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>2.66</v>
+        <v>-0.23</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3275,36 +3278,36 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>4.91</v>
+        <v>-0.79</v>
       </c>
       <c r="K76">
-        <v>4.91</v>
+        <v>-0.99</v>
       </c>
       <c r="L76">
-        <v>63.27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+        <v>67.61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>340.54</v>
       </c>
       <c r="B77">
-        <v>345.2</v>
+        <v>347</v>
       </c>
       <c r="C77">
-        <v>56.69</v>
+        <v>56.27</v>
       </c>
       <c r="D77">
-        <v>56.9</v>
+        <v>56.55</v>
       </c>
       <c r="E77">
-        <v>-5.68</v>
+        <v>-10.53</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>2.62</v>
+        <v>-0.31</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3313,36 +3316,36 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>5.1100000000000003</v>
+        <v>-0.41</v>
       </c>
       <c r="K77">
-        <v>6.24</v>
+        <v>1.7</v>
       </c>
       <c r="L77">
-        <v>20.309999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>323.52</v>
       </c>
       <c r="B78">
-        <v>327.2</v>
+        <v>329</v>
       </c>
       <c r="C78">
-        <v>60</v>
+        <v>59.55</v>
       </c>
       <c r="D78">
-        <v>60.26</v>
+        <v>59.93</v>
       </c>
       <c r="E78">
-        <v>3.39</v>
+        <v>-7.17</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>2.62</v>
+        <v>-0.39</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3351,36 +3354,36 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>5.08</v>
+        <v>0.01</v>
       </c>
       <c r="K78">
-        <v>4.4000000000000004</v>
+        <v>1.44</v>
       </c>
       <c r="L78">
-        <v>19.61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
-        <v>297.98</v>
+        <v>310.75</v>
       </c>
       <c r="B79">
-        <v>309.2</v>
+        <v>311</v>
       </c>
       <c r="C79">
-        <v>63.1</v>
+        <v>62.71</v>
       </c>
       <c r="D79">
-        <v>63.44</v>
+        <v>63.13</v>
       </c>
       <c r="E79">
-        <v>1.74</v>
+        <v>2.29</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>2.67</v>
+        <v>-0.41</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3389,36 +3392,36 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>4.8499999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="K79">
-        <v>4.51</v>
+        <v>-0.34</v>
       </c>
       <c r="L79">
-        <v>47.79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
-        <v>285.20999999999998</v>
+        <v>289.45999999999998</v>
       </c>
       <c r="B80">
-        <v>291.2</v>
+        <v>293</v>
       </c>
       <c r="C80">
-        <v>66.040000000000006</v>
+        <v>65.7</v>
       </c>
       <c r="D80">
-        <v>66.45</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="E80">
-        <v>-2.38</v>
+        <v>11.51</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>2.67</v>
+        <v>-0.36</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3427,36 +3430,36 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>4.84</v>
+        <v>-0.16</v>
       </c>
       <c r="K80">
-        <v>5.31</v>
+        <v>-2.46</v>
       </c>
       <c r="L80">
-        <v>38.86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+        <v>27.38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
-        <v>263.92</v>
+        <v>280.95</v>
       </c>
       <c r="B81">
-        <v>273.2</v>
+        <v>275</v>
       </c>
       <c r="C81">
-        <v>68.8</v>
+        <v>68.52</v>
       </c>
       <c r="D81">
-        <v>69.27</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="E81">
-        <v>-1.86</v>
+        <v>7.17</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>2.64</v>
+        <v>-0.24</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3465,36 +3468,36 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>5.01</v>
+        <v>-0.74</v>
       </c>
       <c r="K81">
-        <v>5.38</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="L81">
-        <v>48.51</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
-        <v>251.15</v>
+        <v>259.66000000000003</v>
       </c>
       <c r="B82">
-        <v>255.2</v>
+        <v>257</v>
       </c>
       <c r="C82">
-        <v>71.41</v>
+        <v>71.17</v>
       </c>
       <c r="D82">
-        <v>71.91</v>
+        <v>71.650000000000006</v>
       </c>
       <c r="E82">
-        <v>-8.67</v>
+        <v>-2.23</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>2.58</v>
+        <v>-0.22</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3503,36 +3506,36 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>5.29</v>
+        <v>-0.86</v>
       </c>
       <c r="K82">
-        <v>7.02</v>
+        <v>-0.42</v>
       </c>
       <c r="L82">
-        <v>38.25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
-        <v>242.64</v>
+        <v>238.38</v>
       </c>
       <c r="B83">
-        <v>237.2</v>
+        <v>239</v>
       </c>
       <c r="C83">
-        <v>73.89</v>
+        <v>73.64</v>
       </c>
       <c r="D83">
-        <v>74.37</v>
+        <v>74.13</v>
       </c>
       <c r="E83">
-        <v>-2.66</v>
+        <v>-5.19</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>2.52</v>
+        <v>-0.26</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3541,36 +3544,36 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>5.61</v>
+        <v>-0.64</v>
       </c>
       <c r="K83">
-        <v>6.14</v>
+        <v>0.4</v>
       </c>
       <c r="L83">
-        <v>12.83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+        <v>35.590000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
-        <v>229.87</v>
+        <v>217.1</v>
       </c>
       <c r="B84">
-        <v>219.2</v>
+        <v>221</v>
       </c>
       <c r="C84">
-        <v>76.2</v>
+        <v>75.959999999999994</v>
       </c>
       <c r="D84">
-        <v>76.650000000000006</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="E84">
-        <v>2.3199999999999998</v>
+        <v>-8.09</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>2.52</v>
+        <v>-0.33</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3579,36 +3582,36 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>5.61</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="K84">
-        <v>5.15</v>
+        <v>1.32</v>
       </c>
       <c r="L84">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+        <v>50.49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>208.58</v>
       </c>
       <c r="B85">
-        <v>201.2</v>
+        <v>203</v>
       </c>
       <c r="C85">
-        <v>78.349999999999994</v>
+        <v>78.13</v>
       </c>
       <c r="D85">
-        <v>78.760000000000005</v>
+        <v>78.55</v>
       </c>
       <c r="E85">
-        <v>5.37</v>
+        <v>-4.46</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>2.57</v>
+        <v>-0.38</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3617,36 +3620,36 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>5.36</v>
+        <v>-0.06</v>
       </c>
       <c r="K85">
-        <v>4.28</v>
+        <v>0.83</v>
       </c>
       <c r="L85">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
-        <v>191.56</v>
+        <v>195.81</v>
       </c>
       <c r="B86">
-        <v>183.2</v>
+        <v>185</v>
       </c>
       <c r="C86">
-        <v>80.319999999999993</v>
+        <v>80.16</v>
       </c>
       <c r="D86">
-        <v>80.680000000000007</v>
+        <v>80.489999999999995</v>
       </c>
       <c r="E86">
-        <v>3.08</v>
+        <v>-3.75</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>2.59</v>
+        <v>-0.39</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3655,36 +3658,36 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>5.24</v>
+        <v>-0.01</v>
       </c>
       <c r="K86">
-        <v>4.62</v>
+        <v>0.74</v>
       </c>
       <c r="L86">
-        <v>14.84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
-        <v>161.76</v>
+        <v>178.79</v>
       </c>
       <c r="B87">
-        <v>165.2</v>
+        <v>167</v>
       </c>
       <c r="C87">
-        <v>82.14</v>
+        <v>82.01</v>
       </c>
       <c r="D87">
-        <v>82.42</v>
+        <v>82.25</v>
       </c>
       <c r="E87">
-        <v>2.62</v>
+        <v>4.46</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>2.63</v>
+        <v>-0.35</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3693,36 +3696,36 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>5.03</v>
+        <v>-0.18</v>
       </c>
       <c r="K87">
-        <v>4.51</v>
+        <v>-1.07</v>
       </c>
       <c r="L87">
-        <v>49.88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>157.5</v>
       </c>
       <c r="B88">
-        <v>147.19999999999999</v>
+        <v>149</v>
       </c>
       <c r="C88">
-        <v>83.8</v>
+        <v>83.69</v>
       </c>
       <c r="D88">
-        <v>83.98</v>
+        <v>83.83</v>
       </c>
       <c r="E88">
-        <v>-1.89</v>
+        <v>13.24</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>2.63</v>
+        <v>-0.24</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3731,36 +3734,36 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>5.0199999999999996</v>
+        <v>-0.73</v>
       </c>
       <c r="K88">
-        <v>5.4</v>
+        <v>-3.38</v>
       </c>
       <c r="L88">
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
-        <v>144.72999999999999</v>
+        <v>136.22</v>
       </c>
       <c r="B89">
-        <v>129.19999999999999</v>
+        <v>131</v>
       </c>
       <c r="C89">
-        <v>85.28</v>
+        <v>85.2</v>
       </c>
       <c r="D89">
-        <v>85.36</v>
+        <v>85.23</v>
       </c>
       <c r="E89">
-        <v>1.37</v>
+        <v>12.15</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>2.66</v>
+        <v>-0.18</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3769,36 +3772,36 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>4.88</v>
+        <v>-1.04</v>
       </c>
       <c r="K89">
-        <v>4.5999999999999996</v>
+        <v>-3.47</v>
       </c>
       <c r="L89">
-        <v>-11.07</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-33.869999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
-        <v>110.68</v>
+        <v>127.7</v>
       </c>
       <c r="B90">
-        <v>111.2</v>
+        <v>113</v>
       </c>
       <c r="C90">
-        <v>86.57</v>
+        <v>86.48</v>
       </c>
       <c r="D90">
-        <v>86.57</v>
+        <v>86.45</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>-3.02</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>2.66</v>
+        <v>-0.16</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3807,36 +3810,36 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>4.87</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="K90">
-        <v>4.87</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="L90">
-        <v>-11.25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-46.81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
-        <v>97.91</v>
+        <v>102.16</v>
       </c>
       <c r="B91">
-        <v>93.2</v>
+        <v>95</v>
       </c>
       <c r="C91">
-        <v>87.65</v>
+        <v>87.55</v>
       </c>
       <c r="D91">
-        <v>87.59</v>
+        <v>87.49</v>
       </c>
       <c r="E91">
-        <v>-3.75</v>
+        <v>-2.38</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>2.65</v>
+        <v>-0.13</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3845,36 +3848,36 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>4.95</v>
+        <v>-1.31</v>
       </c>
       <c r="K91">
-        <v>5.71</v>
+        <v>-0.83</v>
       </c>
       <c r="L91">
-        <v>-15.54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-22.67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
-        <v>76.62</v>
+        <v>80.88</v>
       </c>
       <c r="B92">
-        <v>75.2</v>
+        <v>77</v>
       </c>
       <c r="C92">
-        <v>88.54</v>
+        <v>88.45</v>
       </c>
       <c r="D92">
-        <v>88.43</v>
+        <v>88.35</v>
       </c>
       <c r="E92">
-        <v>-2.3199999999999998</v>
+        <v>-0.73</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>2.59</v>
+        <v>-0.17</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3883,36 +3886,36 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>5.23</v>
+        <v>-1.07</v>
       </c>
       <c r="K92">
-        <v>5.69</v>
+        <v>-0.92</v>
       </c>
       <c r="L92">
-        <v>-8.34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-15.26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
-        <v>68.11</v>
+        <v>63.85</v>
       </c>
       <c r="B93">
-        <v>57.2</v>
+        <v>59</v>
       </c>
       <c r="C93">
-        <v>89.24</v>
+        <v>89.18</v>
       </c>
       <c r="D93">
-        <v>89.09</v>
+        <v>89.03</v>
       </c>
       <c r="E93">
-        <v>-1.07</v>
+        <v>0.82</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>2.57</v>
+        <v>-0.18</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3921,36 +3924,36 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>5.34</v>
+        <v>-1.06</v>
       </c>
       <c r="K93">
-        <v>5.55</v>
+        <v>-1.22</v>
       </c>
       <c r="L93">
-        <v>-40.08</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-21.87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>46.82</v>
       </c>
       <c r="B94">
-        <v>39.200000000000003</v>
+        <v>41</v>
       </c>
       <c r="C94">
-        <v>89.79</v>
+        <v>89.74</v>
       </c>
       <c r="D94">
-        <v>89.57</v>
+        <v>89.53</v>
       </c>
       <c r="E94">
-        <v>-4.3899999999999997</v>
+        <v>-2.99</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>2.57</v>
+        <v>-0.19</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3959,36 +3962,36 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>5.36</v>
+        <v>-1.01</v>
       </c>
       <c r="K94">
-        <v>6.24</v>
+        <v>-0.41</v>
       </c>
       <c r="L94">
-        <v>-29.58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-28.27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
-        <v>25.54</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="B95">
-        <v>21.2</v>
+        <v>23</v>
       </c>
       <c r="C95">
-        <v>90.15</v>
+        <v>90.12</v>
       </c>
       <c r="D95">
-        <v>89.88</v>
+        <v>89.85</v>
       </c>
       <c r="E95">
-        <v>5.0999999999999996</v>
+        <v>-4.6100000000000003</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>2.57</v>
+        <v>-0.25</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3997,62 +4000,62 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>5.35</v>
+        <v>-0.7</v>
       </c>
       <c r="K95">
-        <v>4.33</v>
+        <v>0.22</v>
       </c>
       <c r="L95">
-        <v>-26.43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-47.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
+        <v>8.51</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>90.3</v>
+      </c>
+      <c r="D96">
+        <v>89.99</v>
+      </c>
+      <c r="E96">
+        <v>-3.2</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>-0.54</v>
+      </c>
+      <c r="K96">
+        <v>0.1</v>
+      </c>
+      <c r="L96">
+        <v>-29.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
         <v>4.26</v>
-      </c>
-      <c r="B96">
-        <v>3.2</v>
-      </c>
-      <c r="C96">
-        <v>90.32</v>
-      </c>
-      <c r="D96">
-        <v>90</v>
-      </c>
-      <c r="E96">
-        <v>1.37</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>2.59</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>5.25</v>
-      </c>
-      <c r="K96">
-        <v>4.97</v>
-      </c>
-      <c r="L96">
-        <v>-20.84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <v>0</v>
       </c>
       <c r="B97">
         <v>-0.4</v>
       </c>
       <c r="C97">
-        <v>90.35</v>
+        <v>90.33</v>
       </c>
       <c r="D97">
         <v>90</v>
@@ -4064,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>2.6</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4073,24 +4076,24 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>5.21</v>
+        <v>-0.48</v>
       </c>
       <c r="K97">
-        <v>5.21</v>
+        <v>-0.48</v>
       </c>
       <c r="L97">
-        <v>-16.82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-28.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
-        <v>-4.26</v>
+        <v>0</v>
       </c>
       <c r="B98">
         <v>-0.4</v>
       </c>
       <c r="C98">
-        <v>90.35</v>
+        <v>90.33</v>
       </c>
       <c r="D98">
         <v>90</v>
@@ -4102,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>2.6</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4111,36 +4114,36 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>5.21</v>
+        <v>-0.52</v>
       </c>
       <c r="K98">
-        <v>5.21</v>
+        <v>-0.52</v>
       </c>
       <c r="L98">
-        <v>-6.99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-18.89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
-        <v>0</v>
+        <v>-8.51</v>
       </c>
       <c r="B99">
         <v>-0.4</v>
       </c>
       <c r="C99">
-        <v>90.31</v>
+        <v>90.29</v>
       </c>
       <c r="D99">
         <v>90</v>
       </c>
       <c r="E99">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>2.6</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4149,36 +4152,36 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>5.18</v>
+        <v>-0.52</v>
       </c>
       <c r="K99">
-        <v>4.95</v>
+        <v>-0.52</v>
       </c>
       <c r="L99">
-        <v>-23.03</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
-        <v>-4.26</v>
+        <v>-8.51</v>
       </c>
       <c r="B100">
         <v>-0.4</v>
       </c>
       <c r="C100">
-        <v>90.27</v>
+        <v>90.25</v>
       </c>
       <c r="D100">
         <v>90</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>2.61</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4187,24 +4190,24 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>5.14</v>
+        <v>-0.53</v>
       </c>
       <c r="K100">
-        <v>5.14</v>
+        <v>-0.68</v>
       </c>
       <c r="L100">
-        <v>-12.59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
-        <v>0</v>
+        <v>-8.51</v>
       </c>
       <c r="B101">
         <v>-0.4</v>
       </c>
       <c r="C101">
-        <v>90.24</v>
+        <v>90.21</v>
       </c>
       <c r="D101">
         <v>90</v>
@@ -4216,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>2.61</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4225,36 +4228,36 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>5.14</v>
+        <v>-0.54</v>
       </c>
       <c r="K101">
-        <v>5.14</v>
+        <v>-0.54</v>
       </c>
       <c r="L101">
-        <v>-27.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
-        <v>-8.51</v>
+        <v>0</v>
       </c>
       <c r="B102">
         <v>-0.4</v>
       </c>
       <c r="C102">
-        <v>90.2</v>
+        <v>90.18</v>
       </c>
       <c r="D102">
         <v>90</v>
       </c>
       <c r="E102">
-        <v>-0.73</v>
+        <v>-0.64</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>2.61</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4263,36 +4266,36 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>5.15</v>
+        <v>-0.51</v>
       </c>
       <c r="K102">
-        <v>5.3</v>
+        <v>-0.39</v>
       </c>
       <c r="L102">
-        <v>-3.9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-27.47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
-        <v>-4.26</v>
+        <v>0</v>
       </c>
       <c r="B103">
         <v>-0.4</v>
       </c>
       <c r="C103">
-        <v>90.15</v>
+        <v>90.13</v>
       </c>
       <c r="D103">
         <v>90</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>2.6</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4301,16 +4304,16 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>5.19</v>
+        <v>-0.52</v>
       </c>
       <c r="K103">
-        <v>5.19</v>
+        <v>-0.67</v>
       </c>
       <c r="L103">
-        <v>-17.559999999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-28.89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>-4.26</v>
       </c>
@@ -4318,19 +4321,19 @@
         <v>-0.4</v>
       </c>
       <c r="C104">
-        <v>90.11</v>
+        <v>90.09</v>
       </c>
       <c r="D104">
         <v>90</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>2.6</v>
+        <v>-0.27</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4339,16 +4342,16 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>5.19</v>
+        <v>-0.59</v>
       </c>
       <c r="K104">
-        <v>5.19</v>
+        <v>-0.87</v>
       </c>
       <c r="L104">
-        <v>-18.86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-17.46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>0</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>0</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>0</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>0</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>0</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>0</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>0</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>0</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>0</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>0</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>0</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>0</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>0</v>
       </c>
@@ -4842,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>0</v>
       </c>
@@ -4880,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>0</v>
       </c>
@@ -4918,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>0</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>0</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>0</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12">
       <c r="A123">
         <v>0</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12">
       <c r="A124">
         <v>0</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12">
       <c r="A125">
         <v>0</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12">
       <c r="A126">
         <v>0</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12">
       <c r="A127">
         <v>0</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12">
       <c r="A128">
         <v>0</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12">
       <c r="A129">
         <v>0</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12">
       <c r="A130">
         <v>0</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12">
       <c r="A131">
         <v>0</v>
       </c>
@@ -5374,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12">
       <c r="A132">
         <v>0</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12">
       <c r="A133">
         <v>0</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12">
       <c r="A134">
         <v>0</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12">
       <c r="A135">
         <v>0</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12">
       <c r="A136">
         <v>0</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12">
       <c r="A137">
         <v>0</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12">
       <c r="A138">
         <v>0</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12">
       <c r="A139">
         <v>0</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12">
       <c r="A140">
         <v>0</v>
       </c>
@@ -5716,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12">
       <c r="A141">
         <v>0</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12">
       <c r="A142">
         <v>0</v>
       </c>
@@ -5792,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12">
       <c r="A143">
         <v>0</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12">
       <c r="A144">
         <v>0</v>
       </c>
@@ -5868,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12">
       <c r="A145">
         <v>0</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12">
       <c r="A146">
         <v>0</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12">
       <c r="A147">
         <v>0</v>
       </c>
@@ -5982,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12">
       <c r="A148">
         <v>0</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12">
       <c r="A149">
         <v>0</v>
       </c>
@@ -6058,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12">
       <c r="A150">
         <v>0</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12">
       <c r="A151">
         <v>0</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12">
       <c r="A152">
         <v>0</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12">
       <c r="A153">
         <v>0</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12">
       <c r="A154">
         <v>0</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12">
       <c r="A155">
         <v>0</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12">
       <c r="A156">
         <v>0</v>
       </c>
@@ -6324,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12">
       <c r="A157">
         <v>0</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12">
       <c r="A158">
         <v>0</v>
       </c>
@@ -6400,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12">
       <c r="A159">
         <v>0</v>
       </c>
@@ -6438,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12">
       <c r="A160">
         <v>0</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12">
       <c r="A161">
         <v>0</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12">
       <c r="A162">
         <v>0</v>
       </c>
@@ -6552,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12">
       <c r="A163">
         <v>0</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12">
       <c r="A164">
         <v>0</v>
       </c>
@@ -6628,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12">
       <c r="A165">
         <v>0</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12">
       <c r="A166">
         <v>0</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:12">
       <c r="A167">
         <v>0</v>
       </c>
@@ -6742,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12">
       <c r="A168">
         <v>0</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12">
       <c r="A169">
         <v>0</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:12">
       <c r="A170">
         <v>0</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:12">
       <c r="A171">
         <v>0</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12">
       <c r="A172">
         <v>0</v>
       </c>
@@ -6932,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12">
       <c r="A173">
         <v>0</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:12">
       <c r="A174">
         <v>0</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12">
       <c r="A175">
         <v>0</v>
       </c>
@@ -7046,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:12">
       <c r="A176">
         <v>0</v>
       </c>
@@ -7084,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12">
       <c r="A177">
         <v>0</v>
       </c>
@@ -7122,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12">
       <c r="A178">
         <v>0</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:12">
       <c r="A179">
         <v>0</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:12">
       <c r="A180">
         <v>0</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12">
       <c r="A181">
         <v>0</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12">
       <c r="A182">
         <v>0</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12">
       <c r="A183">
         <v>0</v>
       </c>
@@ -7350,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12">
       <c r="A184">
         <v>0</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:12">
       <c r="A185">
         <v>0</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:12">
       <c r="A186">
         <v>0</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:12">
       <c r="A187">
         <v>0</v>
       </c>
@@ -7502,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:12">
       <c r="A188">
         <v>0</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:12">
       <c r="A189">
         <v>0</v>
       </c>
@@ -7578,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12">
       <c r="A190">
         <v>0</v>
       </c>
@@ -7616,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:12">
       <c r="A191">
         <v>0</v>
       </c>
@@ -7654,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:12">
       <c r="A192">
         <v>0</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:12">
       <c r="A193">
         <v>0</v>
       </c>
@@ -7730,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:12">
       <c r="A194">
         <v>0</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:12">
       <c r="A195">
         <v>0</v>
       </c>
@@ -7806,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:12">
       <c r="A196">
         <v>0</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:12">
       <c r="A197">
         <v>0</v>
       </c>
@@ -7882,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:12">
       <c r="A198">
         <v>0</v>
       </c>
@@ -7920,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:12">
       <c r="A199">
         <v>0</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:12">
       <c r="A200">
         <v>0</v>
       </c>
@@ -7999,5 +8002,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\デスクトップ\git\mouse\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\電気研究会\github\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7800B78-BA8B-4E28-9539-B7AD631F8793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2748" yWindow="0" windowWidth="12732" windowHeight="8340"/>
+    <workbookView xWindow="3675" yWindow="0" windowWidth="12735" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,22 +20,13 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,24 +382,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:L201"/>
+      <selection sqref="A1:L200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>8.51</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="C1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -434,30 +426,30 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>14.22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>34.520000000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>17.03</v>
       </c>
       <c r="B2">
-        <v>25.2</v>
+        <v>23.4</v>
       </c>
       <c r="C2">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -466,36 +458,36 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-0.74</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>44.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>37.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>34.049999999999997</v>
+        <v>25.54</v>
       </c>
       <c r="B3">
-        <v>43.2</v>
+        <v>41.4</v>
       </c>
       <c r="C3">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.65</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,36 +496,36 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.11</v>
+        <v>-0.36</v>
       </c>
       <c r="K3">
-        <v>-0.44</v>
+        <v>-2.02</v>
       </c>
       <c r="L3">
-        <v>50.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>66.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>51.08</v>
+        <v>42.57</v>
       </c>
       <c r="B4">
-        <v>61.2</v>
+        <v>59.4</v>
       </c>
       <c r="C4">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.43</v>
+        <v>-7.6</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,36 +534,36 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.2</v>
+        <v>-0.02</v>
       </c>
       <c r="K4">
-        <v>-0.48</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>56.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>77.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>68.11</v>
+        <v>63.85</v>
       </c>
       <c r="B5">
-        <v>79.2</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C5">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.81</v>
+        <v>-10.1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -580,36 +572,36 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.34</v>
+        <v>0.49</v>
       </c>
       <c r="K5">
-        <v>-0.9</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="L5">
-        <v>63.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>71.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>76.62</v>
+        <v>72.37</v>
       </c>
       <c r="B6">
-        <v>97.2</v>
+        <v>95.4</v>
       </c>
       <c r="C6">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-10.53</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.08</v>
+        <v>-0.21</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -618,36 +610,36 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.38</v>
+        <v>1.03</v>
       </c>
       <c r="K6">
-        <v>-0.38</v>
+        <v>3.13</v>
       </c>
       <c r="L6">
-        <v>98.22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>102.16</v>
+        <v>93.65</v>
       </c>
       <c r="B7">
-        <v>115.2</v>
+        <v>113.4</v>
       </c>
       <c r="C7">
-        <v>2.89</v>
+        <v>2.84</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-5.83</v>
+        <v>-12.6</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.06</v>
+        <v>-0.32</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -656,36 +648,36 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.3</v>
+        <v>1.58</v>
       </c>
       <c r="K7">
-        <v>0.67</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L7">
-        <v>83.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>105.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>119.19</v>
       </c>
       <c r="B8">
-        <v>133.19999999999999</v>
+        <v>131.4</v>
       </c>
       <c r="C8">
-        <v>3.98</v>
+        <v>3.88</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-4.7</v>
+        <v>-11.35</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>-0.01</v>
+        <v>-0.42</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -694,36 +686,36 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04</v>
+        <v>2.11</v>
       </c>
       <c r="K8">
-        <v>1.0900000000000001</v>
+        <v>4.38</v>
       </c>
       <c r="L8">
-        <v>91.71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>140.47</v>
+        <v>136.22</v>
       </c>
       <c r="B9">
-        <v>151.19999999999999</v>
+        <v>149.4</v>
       </c>
       <c r="C9">
-        <v>5.28</v>
+        <v>5.14</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-6.9</v>
+        <v>-4.76</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-0.06</v>
+        <v>-0.5</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,36 +724,36 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.28000000000000003</v>
+        <v>2.52</v>
       </c>
       <c r="K9">
-        <v>1.47</v>
+        <v>3.48</v>
       </c>
       <c r="L9">
-        <v>86.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>148.99</v>
+        <v>161.76</v>
       </c>
       <c r="B10">
-        <v>169.2</v>
+        <v>167.4</v>
       </c>
       <c r="C10">
-        <v>6.76</v>
+        <v>6.62</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-4.58</v>
+        <v>-6.87</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.13</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +762,36 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.66</v>
+        <v>2.79</v>
       </c>
       <c r="K10">
-        <v>1.63</v>
+        <v>4.16</v>
       </c>
       <c r="L10">
-        <v>118.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>77.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>166.01</v>
+        <v>178.79</v>
       </c>
       <c r="B11">
-        <v>187.2</v>
+        <v>185.4</v>
       </c>
       <c r="C11">
-        <v>8.4499999999999993</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-13.37</v>
+        <v>2.96</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.23</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,36 +800,36 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.1599999999999999</v>
+        <v>2.82</v>
       </c>
       <c r="K11">
-        <v>4.09</v>
+        <v>2.23</v>
       </c>
       <c r="L11">
-        <v>127.58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>81.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>195.81</v>
       </c>
       <c r="B12">
-        <v>205.2</v>
+        <v>203.4</v>
       </c>
       <c r="C12">
-        <v>10.31</v>
+        <v>10.14</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-13.73</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-0.32</v>
+        <v>-0.54</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -846,36 +838,36 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.62</v>
+        <v>2.72</v>
       </c>
       <c r="K12">
-        <v>4.09</v>
+        <v>0.89</v>
       </c>
       <c r="L12">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>217.1</v>
       </c>
       <c r="B13">
-        <v>223.2</v>
+        <v>221.4</v>
       </c>
       <c r="C13">
-        <v>12.34</v>
+        <v>12.16</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-8.0299999999999994</v>
+        <v>5.31</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.42</v>
+        <v>-0.48</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -884,36 +876,36 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="K13">
-        <v>3.29</v>
+        <v>1.35</v>
       </c>
       <c r="L13">
-        <v>88.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>79.540000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>234.12</v>
+        <v>238.38</v>
       </c>
       <c r="B14">
-        <v>241.2</v>
+        <v>239.4</v>
       </c>
       <c r="C14">
-        <v>14.57</v>
+        <v>14.36</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-6.04</v>
+        <v>3.08</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.51</v>
+        <v>-0.41</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -922,36 +914,36 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.56</v>
+        <v>2.04</v>
       </c>
       <c r="K14">
-        <v>3.78</v>
+        <v>1.43</v>
       </c>
       <c r="L14">
-        <v>95.46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>246.89</v>
+        <v>242.64</v>
       </c>
       <c r="B15">
-        <v>259.2</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="C15">
-        <v>16.95</v>
+        <v>16.72</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-6.38</v>
+        <v>3.85</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.59</v>
+        <v>-0.36</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -960,36 +952,36 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2.93</v>
+        <v>1.78</v>
       </c>
       <c r="K15">
-        <v>4.21</v>
+        <v>1.01</v>
       </c>
       <c r="L15">
-        <v>115.42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>117.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>263.92</v>
       </c>
       <c r="B16">
-        <v>277.2</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="C16">
-        <v>19.53</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-2.78</v>
+        <v>0.98</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.65</v>
+        <v>-0.32</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -998,36 +990,36 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.24</v>
+        <v>1.6</v>
       </c>
       <c r="K16">
-        <v>3.92</v>
+        <v>1.3</v>
       </c>
       <c r="L16">
-        <v>121.64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>106.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>285.20999999999998</v>
       </c>
       <c r="B17">
-        <v>295.2</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="C17">
-        <v>22.29</v>
+        <v>21.71</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.19</v>
+        <v>-7.05</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-0.67</v>
+        <v>-0.35</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1036,36 +1028,36 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.35</v>
+        <v>1.76</v>
       </c>
       <c r="K17">
-        <v>3.35</v>
+        <v>3.14</v>
       </c>
       <c r="L17">
-        <v>114.64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>102.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>306.49</v>
+        <v>297.98</v>
       </c>
       <c r="B18">
-        <v>313.2</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="C18">
-        <v>25.23</v>
+        <v>24.59</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.29</v>
+        <v>-7.11</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.6</v>
+        <v>-0.42</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1074,341 +1066,341 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>2.09</v>
       </c>
       <c r="K18">
-        <v>0.72</v>
+        <v>3.44</v>
       </c>
       <c r="L18">
-        <v>105.43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>122.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>319.26</v>
       </c>
       <c r="B19">
-        <v>331.2</v>
+        <v>327.60000000000002</v>
       </c>
       <c r="C19">
-        <v>28.34</v>
+        <v>27.69</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.5399999999999991</v>
+        <v>-3.57</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
+        <v>-0.49</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2.44</v>
+      </c>
+      <c r="K19">
+        <v>3.37</v>
+      </c>
+      <c r="L19">
+        <v>115.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>327.77</v>
+      </c>
+      <c r="B20">
+        <v>345.6</v>
+      </c>
+      <c r="C20">
+        <v>30.96</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.62</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>-0.5</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>2.48</v>
-      </c>
-      <c r="K19">
-        <v>0.79</v>
-      </c>
-      <c r="L19">
-        <v>124.56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>344.8</v>
-      </c>
-      <c r="B20">
-        <v>349.2</v>
-      </c>
-      <c r="C20">
-        <v>31.64</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>8.67</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2.5</v>
+      </c>
+      <c r="K20">
+        <v>2.36</v>
+      </c>
+      <c r="L20">
+        <v>145.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>357.57</v>
+      </c>
+      <c r="B21">
+        <v>363.6</v>
+      </c>
+      <c r="C21">
+        <v>34.42</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>7.14</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>-0.46</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K21">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L21">
+        <v>112.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>361.83</v>
+      </c>
+      <c r="B22">
+        <v>381.6</v>
+      </c>
+      <c r="C22">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>-0.38</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.92</v>
+      </c>
+      <c r="K22">
+        <v>0.84</v>
+      </c>
+      <c r="L22">
+        <v>156.97999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>391.62</v>
+      </c>
+      <c r="B23">
+        <v>399.6</v>
+      </c>
+      <c r="C23">
+        <v>41.79</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-1.5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>-0.38</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.91</v>
+      </c>
+      <c r="K23">
+        <v>2.14</v>
+      </c>
+      <c r="L23">
+        <v>127.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>412.91</v>
+      </c>
+      <c r="B24">
+        <v>417.6</v>
+      </c>
+      <c r="C24">
+        <v>45.8</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>-4.33</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>-0.41</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>2.04</v>
       </c>
-      <c r="K20">
-        <v>0.26</v>
-      </c>
-      <c r="L20">
-        <v>104.46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>349.06</v>
-      </c>
-      <c r="B21">
-        <v>367.2</v>
-      </c>
-      <c r="C21">
-        <v>35.11</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>-0.92</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>-0.36</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1.82</v>
-      </c>
-      <c r="K21">
-        <v>1.82</v>
-      </c>
-      <c r="L21">
-        <v>150.69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>370.34</v>
-      </c>
-      <c r="B22">
-        <v>385.2</v>
-      </c>
-      <c r="C22">
-        <v>38.770000000000003</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>-1.07</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="K24">
+        <v>2.88</v>
+      </c>
+      <c r="L24">
+        <v>120.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>421.42</v>
+      </c>
+      <c r="B25">
+        <v>435.6</v>
+      </c>
+      <c r="C25">
+        <v>49.97</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0.76</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>-0.42</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2.08</v>
+      </c>
+      <c r="K25">
+        <v>1.92</v>
+      </c>
+      <c r="L25">
+        <v>151.30000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>442.71</v>
+      </c>
+      <c r="B26">
+        <v>453.6</v>
+      </c>
+      <c r="C26">
+        <v>54.31</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>6.71</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>-0.38</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.91</v>
+      </c>
+      <c r="K26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L26">
+        <v>143.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>463.99</v>
+      </c>
+      <c r="B27">
+        <v>471.6</v>
+      </c>
+      <c r="C27">
+        <v>58.82</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>-0.37</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1.87</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>144.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>395.88</v>
-      </c>
-      <c r="B23">
-        <v>403.2</v>
-      </c>
-      <c r="C23">
-        <v>42.61</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>7.97</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>-0.36</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1.8</v>
-      </c>
-      <c r="K23">
-        <v>0.43</v>
-      </c>
-      <c r="L23">
-        <v>123.59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>404.4</v>
-      </c>
-      <c r="B24">
-        <v>421.2</v>
-      </c>
-      <c r="C24">
-        <v>46.66</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>6.87</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1.46</v>
-      </c>
-      <c r="K24">
-        <v>0.21</v>
-      </c>
-      <c r="L24">
-        <v>70.03</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>408.65</v>
-      </c>
-      <c r="B25">
-        <v>439.2</v>
-      </c>
-      <c r="C25">
-        <v>50.72</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>-0.23</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1.17</v>
-      </c>
-      <c r="K25">
-        <v>0.78</v>
-      </c>
-      <c r="L25">
-        <v>119.22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>421.42</v>
-      </c>
-      <c r="B26">
-        <v>457.2</v>
-      </c>
-      <c r="C26">
-        <v>54.89</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>-7.75</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>-0.3</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1.48</v>
-      </c>
-      <c r="K26">
-        <v>3.2</v>
-      </c>
-      <c r="L26">
-        <v>147.16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>442.71</v>
-      </c>
-      <c r="B27">
-        <v>475.2</v>
-      </c>
-      <c r="C27">
-        <v>59.25</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1.53</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>-0.33</v>
-      </c>
       <c r="H27">
         <v>0</v>
       </c>
@@ -1416,36 +1408,36 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="K27">
-        <v>1.66</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="L27">
-        <v>144.94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>139.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>463.99</v>
       </c>
       <c r="B28">
-        <v>493.2</v>
+        <v>489.6</v>
       </c>
       <c r="C28">
-        <v>63.81</v>
+        <v>63.42</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5.86</v>
+        <v>-1.8</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.27</v>
+        <v>-0.39</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1454,16 +1446,16 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1.35</v>
+        <v>1.96</v>
       </c>
       <c r="K28">
-        <v>0.13</v>
+        <v>2.31</v>
       </c>
       <c r="L28">
-        <v>142.19999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>103.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>468.25</v>
       </c>
@@ -1471,19 +1463,19 @@
         <v>500.4</v>
       </c>
       <c r="C29">
-        <v>68.53</v>
+        <v>68.09</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-1.71</v>
+        <v>5.68</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.21</v>
+        <v>-0.39</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1492,30 +1484,30 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.06</v>
+        <v>1.93</v>
       </c>
       <c r="K29">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="L29">
-        <v>159.88999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>130.91999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>489.53</v>
+        <v>463.99</v>
       </c>
       <c r="B30">
         <v>500</v>
       </c>
       <c r="C30">
-        <v>73.31</v>
+        <v>72.790000000000006</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-6.62</v>
+        <v>11.72</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1530,36 +1522,36 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="K30">
-        <v>3.02</v>
+        <v>-1.08</v>
       </c>
       <c r="L30">
-        <v>85.94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>131.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>489.53</v>
+        <v>481.02</v>
       </c>
       <c r="B31">
         <v>500</v>
       </c>
       <c r="C31">
-        <v>78.11</v>
+        <v>77.52</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>5.13</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>-0.3</v>
+        <v>-0.24</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1568,36 +1560,36 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="K31">
-        <v>0.75</v>
+        <v>1.34</v>
       </c>
       <c r="L31">
-        <v>89.52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>90.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>472.5</v>
+        <v>481.02</v>
       </c>
       <c r="B32">
         <v>500</v>
       </c>
       <c r="C32">
-        <v>82.94</v>
+        <v>82.32</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>5.98</v>
+        <v>-2.4700000000000002</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1606,30 +1598,30 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="K32">
-        <v>0.08</v>
+        <v>1.68</v>
       </c>
       <c r="L32">
-        <v>145.13999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>489.53</v>
+        <v>472.5</v>
       </c>
       <c r="B33">
         <v>500</v>
       </c>
       <c r="C33">
-        <v>87.79</v>
+        <v>87.11</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-5.77</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1644,36 +1636,36 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.1299999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K33">
-        <v>1.97</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="L33">
-        <v>100.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>481.02</v>
+        <v>489.53</v>
       </c>
       <c r="B34">
         <v>500</v>
       </c>
       <c r="C34">
-        <v>2.4300000000000002</v>
+        <v>1.45</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>-4.9400000000000004</v>
+        <v>11.32</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>-0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1682,36 +1674,36 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="K34">
-        <v>2.79</v>
+        <v>-2.38</v>
       </c>
       <c r="L34">
-        <v>130.56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>78.650000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>493.79</v>
+        <v>489.53</v>
       </c>
       <c r="B35">
         <v>500</v>
       </c>
       <c r="C35">
-        <v>7.34</v>
+        <v>6.31</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>7.66</v>
+        <v>1.65</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>-0.01</v>
+        <v>0.09</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1720,36 +1712,36 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.38</v>
+        <v>0.18</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="L35">
-        <v>92.04</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>84.96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>498.04</v>
+        <v>485.27</v>
       </c>
       <c r="B36">
         <v>500</v>
       </c>
       <c r="C36">
-        <v>12.27</v>
+        <v>11.18</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>7.23</v>
+        <v>-1.8</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1758,36 +1750,36 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.03</v>
+        <v>0.19</v>
       </c>
       <c r="K36">
-        <v>-0.37</v>
+        <v>0.53</v>
       </c>
       <c r="L36">
-        <v>80.89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>493.79</v>
+        <v>489.53</v>
       </c>
       <c r="B37">
         <v>500</v>
       </c>
       <c r="C37">
-        <v>17.21</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>9.9499999999999993</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1796,150 +1788,150 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.59</v>
+        <v>0.26</v>
       </c>
       <c r="K37">
-        <v>-1.47</v>
+        <v>0.26</v>
       </c>
       <c r="L37">
-        <v>94.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>92.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>481.02</v>
+        <v>476.76</v>
       </c>
       <c r="B38">
         <v>500</v>
       </c>
       <c r="C38">
-        <v>22.08</v>
+        <v>20.92</v>
       </c>
       <c r="D38">
-        <v>21.43</v>
+        <v>20.43</v>
       </c>
       <c r="E38">
-        <v>-7.72</v>
+        <v>3.08</v>
       </c>
       <c r="F38">
-        <v>-85.94</v>
+        <v>-57.3</v>
       </c>
       <c r="G38">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="H38">
-        <v>-0.26</v>
+        <v>-0.11</v>
       </c>
       <c r="I38">
         <v>-14323.91</v>
       </c>
       <c r="J38">
-        <v>-3.17</v>
+        <v>-1.51</v>
       </c>
       <c r="K38">
-        <v>-53.33</v>
+        <v>-50.91</v>
       </c>
       <c r="L38">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>81.92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>481.02</v>
+        <v>489.53</v>
       </c>
       <c r="B39">
         <v>500</v>
       </c>
       <c r="C39">
-        <v>26.97</v>
+        <v>25.75</v>
       </c>
       <c r="D39">
-        <v>26.43</v>
+        <v>25.43</v>
       </c>
       <c r="E39">
-        <v>-60.12</v>
+        <v>-51.21</v>
       </c>
       <c r="F39">
-        <v>-229.18</v>
+        <v>-200.53</v>
       </c>
       <c r="G39">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="H39">
-        <v>-1.83</v>
+        <v>-1.4</v>
       </c>
       <c r="I39">
         <v>-14323.91</v>
       </c>
       <c r="J39">
-        <v>-19.260000000000002</v>
+        <v>-15.1</v>
       </c>
       <c r="K39">
-        <v>-129.65</v>
+        <v>-144.43</v>
       </c>
       <c r="L39">
-        <v>-48.97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>-45.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>472.5</v>
+        <v>476.76</v>
       </c>
       <c r="B40">
         <v>500</v>
       </c>
       <c r="C40">
-        <v>31.71</v>
+        <v>30.67</v>
       </c>
       <c r="D40">
-        <v>31.43</v>
+        <v>30.43</v>
       </c>
       <c r="E40">
-        <v>-257.93</v>
+        <v>-252.99</v>
       </c>
       <c r="F40">
-        <v>-372.42</v>
+        <v>-343.77</v>
       </c>
       <c r="G40">
-        <v>-1.43</v>
+        <v>-1.4</v>
       </c>
       <c r="H40">
-        <v>-4.84</v>
+        <v>-4.13</v>
       </c>
       <c r="I40">
         <v>-14323.91</v>
       </c>
       <c r="J40">
-        <v>-38.93</v>
+        <v>-30.77</v>
       </c>
       <c r="K40">
-        <v>-124.43</v>
+        <v>-119.98</v>
       </c>
       <c r="L40">
-        <v>-13.62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>481.02</v>
+        <v>485.27</v>
       </c>
       <c r="B41">
         <v>500</v>
       </c>
       <c r="C41">
-        <v>36.479999999999997</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="D41">
-        <v>36.43</v>
+        <v>35.43</v>
       </c>
       <c r="E41">
-        <v>-421.39</v>
+        <v>-416.69</v>
       </c>
       <c r="F41">
         <v>-458.37</v>
       </c>
       <c r="G41">
-        <v>-4.8600000000000003</v>
+        <v>-4.7300000000000004</v>
       </c>
       <c r="H41">
         <v>-7.33</v>
@@ -1948,36 +1940,36 @@
         <v>-14323.91</v>
       </c>
       <c r="J41">
-        <v>-49.79</v>
+        <v>-40.11</v>
       </c>
       <c r="K41">
-        <v>-79.489999999999995</v>
+        <v>-83.31</v>
       </c>
       <c r="L41">
-        <v>14.49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>28.84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>510.82</v>
+        <v>489.53</v>
       </c>
       <c r="B42">
         <v>500</v>
       </c>
       <c r="C42">
-        <v>41.34</v>
+        <v>40.39</v>
       </c>
       <c r="D42">
         <v>35.93</v>
       </c>
       <c r="E42">
-        <v>-499.24</v>
+        <v>-496.86</v>
       </c>
       <c r="F42">
         <v>-458.37</v>
       </c>
       <c r="G42">
-        <v>-9.48</v>
+        <v>-9.36</v>
       </c>
       <c r="H42">
         <v>-8.7100000000000009</v>
@@ -1986,36 +1978,36 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>-49.28</v>
+        <v>-39.58</v>
       </c>
       <c r="K42">
-        <v>-26.31</v>
+        <v>-9.64</v>
       </c>
       <c r="L42">
-        <v>46.36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>81.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>498.04</v>
+        <v>481.02</v>
       </c>
       <c r="B43">
         <v>500</v>
       </c>
       <c r="C43">
-        <v>46.25</v>
+        <v>45.25</v>
       </c>
       <c r="D43">
         <v>40.93</v>
       </c>
       <c r="E43">
-        <v>-497.34</v>
+        <v>-469.45</v>
       </c>
       <c r="F43">
         <v>-458.37</v>
       </c>
       <c r="G43">
-        <v>-14.53</v>
+        <v>-14.24</v>
       </c>
       <c r="H43">
         <v>-13.29</v>
@@ -2024,36 +2016,36 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>-43.93</v>
+        <v>-36.32</v>
       </c>
       <c r="K43">
-        <v>-17.239999999999998</v>
+        <v>-23.69</v>
       </c>
       <c r="L43">
-        <v>97.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>99.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>502.3</v>
+        <v>489.53</v>
       </c>
       <c r="B44">
         <v>500</v>
       </c>
       <c r="C44">
-        <v>51.21</v>
+        <v>50.14</v>
       </c>
       <c r="D44">
         <v>45.93</v>
       </c>
       <c r="E44">
-        <v>-441.77</v>
+        <v>-414.03</v>
       </c>
       <c r="F44">
         <v>-458.37</v>
       </c>
       <c r="G44">
-        <v>-19.25</v>
+        <v>-18.66</v>
       </c>
       <c r="H44">
         <v>-17.88</v>
@@ -2062,36 +2054,36 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>-42.42</v>
+        <v>-38.17</v>
       </c>
       <c r="K44">
-        <v>-49.66</v>
+        <v>-71.09</v>
       </c>
       <c r="L44">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>31.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B45">
         <v>500</v>
       </c>
       <c r="C45">
-        <v>56.17</v>
+        <v>55.01</v>
       </c>
       <c r="D45">
         <v>50.93</v>
       </c>
       <c r="E45">
-        <v>-431.12</v>
+        <v>-440.16</v>
       </c>
       <c r="F45">
         <v>-458.37</v>
       </c>
       <c r="G45">
-        <v>-23.54</v>
+        <v>-22.81</v>
       </c>
       <c r="H45">
         <v>-22.46</v>
@@ -2100,36 +2092,36 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>-45.78</v>
+        <v>-42.94</v>
       </c>
       <c r="K45">
-        <v>-65</v>
+        <v>-63.65</v>
       </c>
       <c r="L45">
-        <v>64.45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>506.56</v>
+        <v>485.27</v>
       </c>
       <c r="B46">
         <v>500</v>
       </c>
       <c r="C46">
-        <v>61.19</v>
+        <v>59.94</v>
       </c>
       <c r="D46">
         <v>55.93</v>
       </c>
       <c r="E46">
-        <v>-478.15</v>
+        <v>-484.41</v>
       </c>
       <c r="F46">
         <v>-458.37</v>
       </c>
       <c r="G46">
-        <v>-28.1</v>
+        <v>-27.48</v>
       </c>
       <c r="H46">
         <v>-27.04</v>
@@ -2138,36 +2130,36 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>-46.06</v>
+        <v>-42.01</v>
       </c>
       <c r="K46">
-        <v>-34.64</v>
+        <v>-22.17</v>
       </c>
       <c r="L46">
-        <v>55.88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>101.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>498.04</v>
+        <v>481.02</v>
       </c>
       <c r="B47">
         <v>500</v>
       </c>
       <c r="C47">
-        <v>66.22</v>
+        <v>64.84</v>
       </c>
       <c r="D47">
         <v>60.93</v>
       </c>
       <c r="E47">
-        <v>-465.7</v>
+        <v>-465.88</v>
       </c>
       <c r="F47">
         <v>-458.37</v>
       </c>
       <c r="G47">
-        <v>-32.83</v>
+        <v>-32.29</v>
       </c>
       <c r="H47">
         <v>-31.63</v>
@@ -2176,36 +2168,36 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>-44.35</v>
+        <v>-39.479999999999997</v>
       </c>
       <c r="K47">
-        <v>-39.14</v>
+        <v>-29.27</v>
       </c>
       <c r="L47">
-        <v>76.27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>111.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>502.3</v>
+        <v>493.79</v>
       </c>
       <c r="B48">
         <v>500</v>
       </c>
       <c r="C48">
-        <v>71.25</v>
+        <v>69.75</v>
       </c>
       <c r="D48">
         <v>65.930000000000007</v>
       </c>
       <c r="E48">
-        <v>-451.63</v>
+        <v>-410.8</v>
       </c>
       <c r="F48">
         <v>-458.37</v>
       </c>
       <c r="G48">
-        <v>-37.43</v>
+        <v>-36.659999999999997</v>
       </c>
       <c r="H48">
         <v>-36.21</v>
@@ -2214,36 +2206,36 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>-44.13</v>
+        <v>-41.81</v>
       </c>
       <c r="K48">
-        <v>-47.21</v>
+        <v>-77.72</v>
       </c>
       <c r="L48">
-        <v>54.53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>502.3</v>
+        <v>498.04</v>
       </c>
       <c r="B49">
         <v>500</v>
       </c>
       <c r="C49">
-        <v>76.23</v>
+        <v>74.63</v>
       </c>
       <c r="D49">
         <v>70.930000000000007</v>
       </c>
       <c r="E49">
-        <v>-452.76</v>
+        <v>-459.99</v>
       </c>
       <c r="F49">
         <v>-458.37</v>
       </c>
       <c r="G49">
-        <v>-41.91</v>
+        <v>-40.85</v>
       </c>
       <c r="H49">
         <v>-40.79</v>
@@ -2252,36 +2244,36 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>-45.32</v>
+        <v>-46.21</v>
       </c>
       <c r="K49">
-        <v>-50.16</v>
+        <v>-53.85</v>
       </c>
       <c r="L49">
-        <v>51.83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>502.3</v>
+        <v>498.04</v>
       </c>
       <c r="B50">
         <v>500</v>
       </c>
       <c r="C50">
-        <v>81.239999999999995</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="D50">
         <v>75.930000000000007</v>
       </c>
       <c r="E50">
-        <v>-455.63</v>
+        <v>-482.24</v>
       </c>
       <c r="F50">
         <v>-458.37</v>
       </c>
       <c r="G50">
-        <v>-46.47</v>
+        <v>-45.67</v>
       </c>
       <c r="H50">
         <v>-45.38</v>
@@ -2290,36 +2282,36 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>-45.6</v>
+        <v>-43.57</v>
       </c>
       <c r="K50">
-        <v>-47.3</v>
+        <v>-22.64</v>
       </c>
       <c r="L50">
-        <v>54.58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>70.34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>502.3</v>
+        <v>493.79</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
       <c r="C51">
-        <v>86.22</v>
+        <v>84.57</v>
       </c>
       <c r="D51">
         <v>80.930000000000007</v>
       </c>
       <c r="E51">
-        <v>-461.49</v>
+        <v>-458.01</v>
       </c>
       <c r="F51">
         <v>-458.37</v>
       </c>
       <c r="G51">
-        <v>-51.03</v>
+        <v>-50.39</v>
       </c>
       <c r="H51">
         <v>-49.96</v>
@@ -2328,36 +2320,36 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>-45.92</v>
+        <v>-42.04</v>
       </c>
       <c r="K51">
-        <v>-43.98</v>
+        <v>-40.020000000000003</v>
       </c>
       <c r="L51">
-        <v>58.31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>502.3</v>
+        <v>485.27</v>
       </c>
       <c r="B52">
         <v>500</v>
       </c>
       <c r="C52">
-        <v>91.26</v>
+        <v>89.5</v>
       </c>
       <c r="D52">
         <v>85.93</v>
       </c>
       <c r="E52">
-        <v>-463.1</v>
+        <v>-430.63</v>
       </c>
       <c r="F52">
         <v>-458.37</v>
       </c>
       <c r="G52">
-        <v>-55.68</v>
+        <v>-54.83</v>
       </c>
       <c r="H52">
         <v>-54.55</v>
@@ -2366,36 +2358,36 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>-45.15</v>
+        <v>-43.66</v>
       </c>
       <c r="K52">
-        <v>-42.21</v>
+        <v>-65.38</v>
       </c>
       <c r="L52">
-        <v>59.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>70.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B53">
         <v>500</v>
       </c>
       <c r="C53">
-        <v>96.27</v>
+        <v>94.45</v>
       </c>
       <c r="D53">
         <v>90.93</v>
       </c>
       <c r="E53">
-        <v>-451.35</v>
+        <v>-453.52</v>
       </c>
       <c r="F53">
         <v>-458.37</v>
       </c>
       <c r="G53">
-        <v>-60.22</v>
+        <v>-59.22</v>
       </c>
       <c r="H53">
         <v>-59.13</v>
@@ -2404,36 +2396,36 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>-45.66</v>
+        <v>-45.78</v>
       </c>
       <c r="K53">
-        <v>-50</v>
+        <v>-51.84</v>
       </c>
       <c r="L53">
-        <v>76.489999999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>506.56</v>
+        <v>489.53</v>
       </c>
       <c r="B54">
         <v>500</v>
       </c>
       <c r="C54">
-        <v>101.29</v>
+        <v>99.38</v>
       </c>
       <c r="D54">
         <v>95.93</v>
       </c>
       <c r="E54">
-        <v>-470.4</v>
+        <v>-478.82</v>
       </c>
       <c r="F54">
         <v>-458.37</v>
       </c>
       <c r="G54">
-        <v>-64.87</v>
+        <v>-63.89</v>
       </c>
       <c r="H54">
         <v>-63.71</v>
@@ -2442,36 +2434,36 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>-44.83</v>
+        <v>-44.81</v>
       </c>
       <c r="K54">
-        <v>-37.369999999999997</v>
+        <v>-28.94</v>
       </c>
       <c r="L54">
-        <v>50.27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>96.98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>502.3</v>
+        <v>493.79</v>
       </c>
       <c r="B55">
         <v>500</v>
       </c>
       <c r="C55">
-        <v>106.3</v>
+        <v>104.37</v>
       </c>
       <c r="D55">
         <v>100.93</v>
       </c>
       <c r="E55">
-        <v>-452.76</v>
+        <v>-467.07</v>
       </c>
       <c r="F55">
         <v>-458.37</v>
       </c>
       <c r="G55">
-        <v>-69.489999999999995</v>
+        <v>-68.650000000000006</v>
       </c>
       <c r="H55">
         <v>-68.3</v>
@@ -2480,36 +2472,36 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>-44.44</v>
+        <v>-42.86</v>
       </c>
       <c r="K55">
-        <v>-47.91</v>
+        <v>-34.03</v>
       </c>
       <c r="L55">
-        <v>52.13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>80.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>502.3</v>
+        <v>506.56</v>
       </c>
       <c r="B56">
         <v>500</v>
       </c>
       <c r="C56">
-        <v>111.25</v>
+        <v>109.37</v>
       </c>
       <c r="D56">
         <v>105.93</v>
       </c>
       <c r="E56">
-        <v>-453.55</v>
+        <v>-439.36</v>
       </c>
       <c r="F56">
         <v>-458.37</v>
       </c>
       <c r="G56">
-        <v>-73.959999999999994</v>
+        <v>-73.2</v>
       </c>
       <c r="H56">
         <v>-72.88</v>
@@ -2518,36 +2510,36 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>-45.71</v>
+        <v>-43.23</v>
       </c>
       <c r="K56">
-        <v>-48.7</v>
+        <v>-56.1</v>
       </c>
       <c r="L56">
-        <v>52.73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>510.82</v>
+        <v>493.79</v>
       </c>
       <c r="B57">
         <v>500</v>
       </c>
       <c r="C57">
-        <v>116.28</v>
+        <v>114.35</v>
       </c>
       <c r="D57">
         <v>110.93</v>
       </c>
       <c r="E57">
-        <v>-459.81</v>
+        <v>-433.38</v>
       </c>
       <c r="F57">
         <v>-458.37</v>
       </c>
       <c r="G57">
-        <v>-78.569999999999993</v>
+        <v>-77.5</v>
       </c>
       <c r="H57">
         <v>-77.459999999999994</v>
@@ -2556,54 +2548,54 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>-45.41</v>
+        <v>-46.44</v>
       </c>
       <c r="K57">
-        <v>-44.52</v>
+        <v>-71.489999999999995</v>
       </c>
       <c r="L57">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B58">
         <v>500</v>
       </c>
       <c r="C58">
-        <v>121.29</v>
+        <v>119.36</v>
       </c>
       <c r="D58">
         <v>115.93</v>
       </c>
       <c r="E58">
-        <v>-442.54</v>
+        <v>-491.36</v>
       </c>
       <c r="F58">
         <v>-458.37</v>
       </c>
       <c r="G58">
-        <v>-83.06</v>
+        <v>-82.19</v>
       </c>
       <c r="H58">
         <v>-82.05</v>
       </c>
       <c r="I58">
-        <v>14323.91</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>-46.57</v>
+        <v>-45.2</v>
       </c>
       <c r="K58">
-        <v>-56.38</v>
+        <v>-18.07</v>
       </c>
       <c r="L58">
-        <v>56.41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>70.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>502.3</v>
       </c>
@@ -2611,247 +2603,247 @@
         <v>500</v>
       </c>
       <c r="C59">
-        <v>126.3</v>
+        <v>124.3</v>
       </c>
       <c r="D59">
-        <v>120.93</v>
+        <v>120.43</v>
       </c>
       <c r="E59">
-        <v>-472.87</v>
+        <v>-456.63</v>
       </c>
       <c r="F59">
-        <v>-329.45</v>
+        <v>-343.77</v>
       </c>
       <c r="G59">
-        <v>-87.69</v>
+        <v>-87</v>
       </c>
       <c r="H59">
-        <v>-86.21</v>
+        <v>-85.87</v>
       </c>
       <c r="I59">
         <v>14323.91</v>
       </c>
       <c r="J59">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="K59">
-        <v>90.57</v>
+        <v>98.11</v>
       </c>
       <c r="L59">
-        <v>222.87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>210.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>506.56</v>
+        <v>498.04</v>
       </c>
       <c r="B60">
         <v>500</v>
       </c>
       <c r="C60">
-        <v>131.33000000000001</v>
+        <v>129.27000000000001</v>
       </c>
       <c r="D60">
-        <v>125.93</v>
+        <v>125.43</v>
       </c>
       <c r="E60">
-        <v>-230.74</v>
+        <v>-227.97</v>
       </c>
       <c r="F60">
-        <v>-186.21</v>
+        <v>-200.53</v>
       </c>
       <c r="G60">
-        <v>-91.35</v>
+        <v>-90.68</v>
       </c>
       <c r="H60">
-        <v>-88.79</v>
+        <v>-88.6</v>
       </c>
       <c r="I60">
         <v>14323.91</v>
       </c>
       <c r="J60">
-        <v>0.51</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K60">
-        <v>28.12</v>
+        <v>42.45</v>
       </c>
       <c r="L60">
-        <v>214.67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>228.78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>502.3</v>
+        <v>506.56</v>
       </c>
       <c r="B61">
         <v>500</v>
       </c>
       <c r="C61">
-        <v>136.34</v>
+        <v>134.28</v>
       </c>
       <c r="D61">
-        <v>135.43</v>
+        <v>133.43</v>
       </c>
       <c r="E61">
-        <v>-8.91</v>
+        <v>-4.79</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>-92.38</v>
+        <v>-91.93</v>
       </c>
       <c r="H61">
-        <v>-89.28</v>
+        <v>-89.65</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>2.4300000000000002</v>
+        <v>0.72</v>
       </c>
       <c r="K61">
-        <v>4.21</v>
+        <v>6.02</v>
       </c>
       <c r="L61">
-        <v>107.01</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>105.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>493.79</v>
+        <v>485.27</v>
       </c>
       <c r="B62">
         <v>500</v>
       </c>
       <c r="C62">
-        <v>141.33000000000001</v>
+        <v>139.29</v>
       </c>
       <c r="D62">
-        <v>140.43</v>
+        <v>138.43</v>
       </c>
       <c r="E62">
-        <v>32.32</v>
+        <v>96.65</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>-92.11</v>
+        <v>-91.29</v>
       </c>
       <c r="H62">
-        <v>-89.28</v>
+        <v>-89.65</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1.07</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="K62">
-        <v>-5.4</v>
+        <v>-22.49</v>
       </c>
       <c r="L62">
-        <v>122.6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>139.46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>493.79</v>
+        <v>506.56</v>
       </c>
       <c r="B63">
         <v>500</v>
       </c>
       <c r="C63">
-        <v>146.31</v>
+        <v>144.25</v>
       </c>
       <c r="D63">
-        <v>145.43</v>
+        <v>143.43</v>
       </c>
       <c r="E63">
-        <v>29.05</v>
+        <v>27.68</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>-91.86</v>
+        <v>-90.63</v>
       </c>
       <c r="H63">
-        <v>-89.28</v>
+        <v>-89.65</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>-0.17</v>
+        <v>-5.8</v>
       </c>
       <c r="K63">
-        <v>-5.98</v>
+        <v>-12.12</v>
       </c>
       <c r="L63">
-        <v>122.24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>85.63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>510.82</v>
+        <v>502.3</v>
       </c>
       <c r="B64">
         <v>500</v>
       </c>
       <c r="C64">
-        <v>151.32</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="D64">
-        <v>150.43</v>
+        <v>148.43</v>
       </c>
       <c r="E64">
-        <v>25.67</v>
+        <v>12.79</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>-91.55</v>
+        <v>-90.42</v>
       </c>
       <c r="H64">
-        <v>-89.28</v>
+        <v>-89.65</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>-1.7</v>
+        <v>-6.81</v>
       </c>
       <c r="K64">
-        <v>-6.84</v>
+        <v>-9.68</v>
       </c>
       <c r="L64">
-        <v>69.38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>98.98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>493.79</v>
+        <v>498.04</v>
       </c>
       <c r="B65">
         <v>500</v>
       </c>
       <c r="C65">
-        <v>3.98</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2860,36 +2852,36 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>-2.4</v>
+        <v>-7.17</v>
       </c>
       <c r="K65">
-        <v>-2.66</v>
+        <v>-7.54</v>
       </c>
       <c r="L65">
-        <v>120.85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>502.3</v>
+        <v>498.04</v>
       </c>
       <c r="B66">
         <v>500</v>
       </c>
       <c r="C66">
-        <v>8.9600000000000009</v>
+        <v>6.99</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>4.91</v>
+        <v>-6.1</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2898,36 +2890,36 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>-2.4300000000000002</v>
+        <v>-6.98</v>
       </c>
       <c r="K66">
-        <v>-3.41</v>
+        <v>-5.95</v>
       </c>
       <c r="L66">
-        <v>95.01</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>114.09</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>498.04</v>
+        <v>510.82</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67">
-        <v>13.98</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>7.35</v>
+        <v>-25.88</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2936,36 +2928,36 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>-2.83</v>
+        <v>-6.15</v>
       </c>
       <c r="K67">
-        <v>-4.3</v>
+        <v>-1.19</v>
       </c>
       <c r="L67">
-        <v>106.42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>80.56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>502.3</v>
+        <v>498.04</v>
       </c>
       <c r="B68">
         <v>500</v>
       </c>
       <c r="C68">
-        <v>18.96</v>
+        <v>17.03</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-3.3</v>
+        <v>-15.41</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.21</v>
+        <v>-0.41</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2974,36 +2966,36 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>-3</v>
+        <v>-5.0599999999999996</v>
       </c>
       <c r="K68">
-        <v>-2.34</v>
+        <v>-1.93</v>
       </c>
       <c r="L68">
-        <v>95.88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>117.49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B69">
-        <v>491</v>
+        <v>496.4</v>
       </c>
       <c r="C69">
-        <v>23.95</v>
+        <v>22.08</v>
       </c>
       <c r="D69">
-        <v>23.03</v>
+        <v>21.55</v>
       </c>
       <c r="E69">
-        <v>-16.600000000000001</v>
+        <v>-8.15</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.09</v>
+        <v>-0.53</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3012,150 +3004,150 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>-2.38</v>
+        <v>-4.45</v>
       </c>
       <c r="K69">
-        <v>0.94</v>
+        <v>-2.61</v>
       </c>
       <c r="L69">
-        <v>73.67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>87.12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70">
+        <v>493.79</v>
+      </c>
+      <c r="B70">
+        <v>478.4</v>
+      </c>
+      <c r="C70">
+        <v>27.01</v>
+      </c>
+      <c r="D70">
+        <v>26.43</v>
+      </c>
+      <c r="E70">
+        <v>-6.2</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>-0.6</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>-4.08</v>
+      </c>
+      <c r="K70">
+        <v>-2.74</v>
+      </c>
+      <c r="L70">
+        <v>51.01</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>468.25</v>
+      </c>
+      <c r="B71">
+        <v>460.4</v>
+      </c>
+      <c r="C71">
+        <v>31.77</v>
+      </c>
+      <c r="D71">
+        <v>31.12</v>
+      </c>
+      <c r="E71">
+        <v>-24.41</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>-0.7</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>-3.62</v>
+      </c>
+      <c r="K71">
+        <v>0.26</v>
+      </c>
+      <c r="L71">
+        <v>67.760000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72">
         <v>455.48</v>
       </c>
-      <c r="B70">
-        <v>473</v>
-      </c>
-      <c r="C70">
-        <v>28.57</v>
-      </c>
-      <c r="D70">
-        <v>27.85</v>
-      </c>
-      <c r="E70">
-        <v>-16.239999999999998</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>-0.08</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
+      <c r="B72">
+        <v>442.4</v>
+      </c>
+      <c r="C72">
+        <v>36.44</v>
+      </c>
+      <c r="D72">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="E72">
+        <v>-1.98</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>-0.91</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>-2.54</v>
+      </c>
+      <c r="K72">
         <v>-1.54</v>
       </c>
-      <c r="K70">
-        <v>1.7</v>
-      </c>
-      <c r="L70">
-        <v>42.14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71">
+      <c r="L72">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73">
         <v>434.19</v>
       </c>
-      <c r="B71">
-        <v>455</v>
-      </c>
-      <c r="C71">
-        <v>33.08</v>
-      </c>
-      <c r="D71">
-        <v>32.49</v>
-      </c>
-      <c r="E71">
-        <v>10.53</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>-0.13</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>-1.28</v>
-      </c>
-      <c r="K71">
-        <v>-3.39</v>
-      </c>
-      <c r="L71">
-        <v>45.11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72">
-        <v>421.42</v>
-      </c>
-      <c r="B72">
-        <v>437</v>
-      </c>
-      <c r="C72">
-        <v>37.39</v>
-      </c>
-      <c r="D72">
-        <v>36.950000000000003</v>
-      </c>
-      <c r="E72">
-        <v>-5.31</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>-0.08</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>-1.53</v>
-      </c>
-      <c r="K72">
-        <v>-0.46</v>
-      </c>
-      <c r="L72">
-        <v>32.08</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73">
-        <v>400.14</v>
-      </c>
       <c r="B73">
-        <v>419</v>
+        <v>424.4</v>
       </c>
       <c r="C73">
-        <v>41.47</v>
+        <v>40.89</v>
       </c>
       <c r="D73">
-        <v>41.23</v>
+        <v>39.97</v>
       </c>
       <c r="E73">
-        <v>-14.68</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>-0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3164,36 +3156,36 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-0.96</v>
+        <v>-2.6</v>
       </c>
       <c r="K73">
-        <v>1.97</v>
+        <v>-2.6</v>
       </c>
       <c r="L73">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>33.03</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>387.37</v>
+        <v>404.4</v>
       </c>
       <c r="B74">
-        <v>401</v>
+        <v>406.4</v>
       </c>
       <c r="C74">
-        <v>45.39</v>
+        <v>45.06</v>
       </c>
       <c r="D74">
-        <v>45.33</v>
+        <v>44.12</v>
       </c>
       <c r="E74">
-        <v>-4.76</v>
+        <v>-9.2200000000000006</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>-0.28999999999999998</v>
+        <v>-0.92</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3202,36 +3194,36 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>-0.51</v>
+        <v>-2.52</v>
       </c>
       <c r="K74">
-        <v>0.44</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="L74">
-        <v>35.96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>59.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>370.34</v>
       </c>
       <c r="B75">
-        <v>383</v>
+        <v>388.4</v>
       </c>
       <c r="C75">
-        <v>49.19</v>
+        <v>48.88</v>
       </c>
       <c r="D75">
-        <v>49.25</v>
+        <v>48.1</v>
       </c>
       <c r="E75">
-        <v>5.98</v>
+        <v>-8.42</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>-0.28999999999999998</v>
+        <v>-1.03</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3240,36 +3232,36 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>-0.48</v>
+        <v>-1.95</v>
       </c>
       <c r="K75">
-        <v>-1.68</v>
+        <v>-0.26</v>
       </c>
       <c r="L75">
-        <v>39.24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>344.8</v>
+        <v>353.31</v>
       </c>
       <c r="B76">
-        <v>365</v>
+        <v>370.4</v>
       </c>
       <c r="C76">
-        <v>52.81</v>
+        <v>52.46</v>
       </c>
       <c r="D76">
-        <v>52.99</v>
+        <v>51.89</v>
       </c>
       <c r="E76">
-        <v>1.04</v>
+        <v>-5.52</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>-0.23</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3278,36 +3270,36 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>-0.79</v>
+        <v>-1.6</v>
       </c>
       <c r="K76">
-        <v>-0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="L76">
-        <v>67.61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>340.54</v>
+        <v>327.77</v>
       </c>
       <c r="B77">
-        <v>347</v>
+        <v>352.4</v>
       </c>
       <c r="C77">
-        <v>56.27</v>
+        <v>55.83</v>
       </c>
       <c r="D77">
-        <v>56.55</v>
+        <v>55.5</v>
       </c>
       <c r="E77">
-        <v>-10.53</v>
+        <v>-1.56</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>-0.31</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3316,36 +3308,36 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>-0.41</v>
+        <v>-1.46</v>
       </c>
       <c r="K77">
-        <v>1.7</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="L77">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>32.159999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>323.52</v>
+        <v>302.23</v>
       </c>
       <c r="B78">
-        <v>329</v>
+        <v>334.4</v>
       </c>
       <c r="C78">
-        <v>59.55</v>
+        <v>58.98</v>
       </c>
       <c r="D78">
-        <v>59.93</v>
+        <v>58.94</v>
       </c>
       <c r="E78">
-        <v>-7.17</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>-0.39</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3354,36 +3346,36 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.01</v>
+        <v>-1.46</v>
       </c>
       <c r="K78">
-        <v>1.44</v>
+        <v>-1.24</v>
       </c>
       <c r="L78">
-        <v>38.9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>62.78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>310.75</v>
       </c>
       <c r="B79">
-        <v>311</v>
+        <v>316.39999999999998</v>
       </c>
       <c r="C79">
-        <v>62.71</v>
+        <v>62.12</v>
       </c>
       <c r="D79">
-        <v>63.13</v>
+        <v>62.19</v>
       </c>
       <c r="E79">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>-0.41</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3392,36 +3384,36 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.12</v>
+        <v>-1.47</v>
       </c>
       <c r="K79">
-        <v>-0.34</v>
+        <v>-1.47</v>
       </c>
       <c r="L79">
-        <v>15.72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>47.12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>289.45999999999998</v>
+        <v>297.98</v>
       </c>
       <c r="B80">
-        <v>293</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="C80">
-        <v>65.7</v>
+        <v>65.13</v>
       </c>
       <c r="D80">
-        <v>66.150000000000006</v>
+        <v>65.27</v>
       </c>
       <c r="E80">
-        <v>11.51</v>
+        <v>-5.58</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>-0.36</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3430,36 +3422,36 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>-0.16</v>
+        <v>-1.41</v>
       </c>
       <c r="K80">
-        <v>-2.46</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="L80">
-        <v>27.38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>35.92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>280.95</v>
       </c>
       <c r="B81">
-        <v>275</v>
+        <v>280.39999999999998</v>
       </c>
       <c r="C81">
-        <v>68.52</v>
+        <v>67.97</v>
       </c>
       <c r="D81">
-        <v>68.989999999999995</v>
+        <v>68.16</v>
       </c>
       <c r="E81">
-        <v>7.17</v>
+        <v>3.14</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>-0.24</v>
+        <v>-1.18</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3468,36 +3460,36 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>-0.74</v>
+        <v>-1.19</v>
       </c>
       <c r="K81">
-        <v>-2.1800000000000002</v>
+        <v>-1.81</v>
       </c>
       <c r="L81">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>259.66000000000003</v>
       </c>
       <c r="B82">
-        <v>257</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="C82">
-        <v>71.17</v>
+        <v>70.64</v>
       </c>
       <c r="D82">
-        <v>71.650000000000006</v>
+        <v>70.87</v>
       </c>
       <c r="E82">
-        <v>-2.23</v>
+        <v>7.29</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>-0.22</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3506,36 +3498,36 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>-0.86</v>
+        <v>-1.48</v>
       </c>
       <c r="K82">
-        <v>-0.42</v>
+        <v>-2.94</v>
       </c>
       <c r="L82">
-        <v>20.18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>238.38</v>
+        <v>242.64</v>
       </c>
       <c r="B83">
-        <v>239</v>
+        <v>244.4</v>
       </c>
       <c r="C83">
-        <v>73.64</v>
+        <v>73.13</v>
       </c>
       <c r="D83">
-        <v>74.13</v>
+        <v>73.41</v>
       </c>
       <c r="E83">
-        <v>-5.19</v>
+        <v>6.32</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>-0.26</v>
+        <v>-1.06</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3544,36 +3536,36 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>-0.64</v>
+        <v>-1.78</v>
       </c>
       <c r="K83">
-        <v>0.4</v>
+        <v>-3.05</v>
       </c>
       <c r="L83">
-        <v>35.590000000000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>217.1</v>
       </c>
       <c r="B84">
-        <v>221</v>
+        <v>226.4</v>
       </c>
       <c r="C84">
-        <v>75.959999999999994</v>
+        <v>75.42</v>
       </c>
       <c r="D84">
-        <v>76.430000000000007</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="E84">
-        <v>-8.09</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>-0.33</v>
+        <v>-1.02</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3582,36 +3574,36 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>-0.28999999999999998</v>
+        <v>-2.02</v>
       </c>
       <c r="K84">
-        <v>1.32</v>
+        <v>-2.02</v>
       </c>
       <c r="L84">
-        <v>50.49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>41.26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>208.58</v>
+        <v>204.33</v>
       </c>
       <c r="B85">
-        <v>203</v>
+        <v>208.4</v>
       </c>
       <c r="C85">
-        <v>78.13</v>
+        <v>77.56</v>
       </c>
       <c r="D85">
-        <v>78.55</v>
+        <v>77.94</v>
       </c>
       <c r="E85">
-        <v>-4.46</v>
+        <v>0.95</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>-0.38</v>
+        <v>-1.01</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3620,36 +3612,36 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>-0.06</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="K85">
-        <v>0.83</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="L85">
-        <v>23.81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>195.81</v>
+        <v>191.56</v>
       </c>
       <c r="B86">
-        <v>185</v>
+        <v>190.4</v>
       </c>
       <c r="C86">
-        <v>80.16</v>
+        <v>79.569999999999993</v>
       </c>
       <c r="D86">
-        <v>80.489999999999995</v>
+        <v>79.930000000000007</v>
       </c>
       <c r="E86">
-        <v>-3.75</v>
+        <v>-6.53</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>-0.39</v>
+        <v>-1.04</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3658,36 +3650,36 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>-0.01</v>
+        <v>-1.9</v>
       </c>
       <c r="K86">
-        <v>0.74</v>
+        <v>-0.59</v>
       </c>
       <c r="L86">
-        <v>8.6199999999999992</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>178.79</v>
       </c>
       <c r="B87">
-        <v>167</v>
+        <v>172.4</v>
       </c>
       <c r="C87">
-        <v>82.01</v>
+        <v>81.41</v>
       </c>
       <c r="D87">
-        <v>82.25</v>
+        <v>81.739999999999995</v>
       </c>
       <c r="E87">
-        <v>4.46</v>
+        <v>-4.18</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>-0.35</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3696,36 +3688,36 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>-0.18</v>
+        <v>-1.59</v>
       </c>
       <c r="K87">
-        <v>-1.07</v>
+        <v>-0.75</v>
       </c>
       <c r="L87">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>157.5</v>
       </c>
       <c r="B88">
-        <v>149</v>
+        <v>154.4</v>
       </c>
       <c r="C88">
-        <v>83.69</v>
+        <v>83.07</v>
       </c>
       <c r="D88">
-        <v>83.83</v>
+        <v>83.38</v>
       </c>
       <c r="E88">
-        <v>13.24</v>
+        <v>-1.62</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>-0.24</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3734,36 +3726,36 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>-0.73</v>
+        <v>-1.35</v>
       </c>
       <c r="K88">
-        <v>-3.38</v>
+        <v>-1.03</v>
       </c>
       <c r="L88">
-        <v>8.41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>136.22</v>
+        <v>140.47</v>
       </c>
       <c r="B89">
-        <v>131</v>
+        <v>136.4</v>
       </c>
       <c r="C89">
-        <v>85.2</v>
+        <v>84.58</v>
       </c>
       <c r="D89">
-        <v>85.23</v>
+        <v>84.83</v>
       </c>
       <c r="E89">
-        <v>12.15</v>
+        <v>-5.49</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>-0.18</v>
+        <v>-1.22</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3772,36 +3764,36 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>-1.04</v>
+        <v>-0.99</v>
       </c>
       <c r="K89">
-        <v>-3.47</v>
+        <v>0.11</v>
       </c>
       <c r="L89">
-        <v>-33.869999999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>127.7</v>
       </c>
       <c r="B90">
-        <v>113</v>
+        <v>118.4</v>
       </c>
       <c r="C90">
-        <v>86.48</v>
+        <v>85.93</v>
       </c>
       <c r="D90">
-        <v>86.45</v>
+        <v>86.11</v>
       </c>
       <c r="E90">
-        <v>-3.02</v>
+        <v>-11.23</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>-0.16</v>
+        <v>-1.27</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3810,36 +3802,36 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>-1.1499999999999999</v>
+        <v>-0.73</v>
       </c>
       <c r="K90">
-        <v>-0.55000000000000004</v>
+        <v>1.51</v>
       </c>
       <c r="L90">
-        <v>-46.81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>102.16</v>
+        <v>106.42</v>
       </c>
       <c r="B91">
-        <v>95</v>
+        <v>100.4</v>
       </c>
       <c r="C91">
-        <v>87.55</v>
+        <v>87.1</v>
       </c>
       <c r="D91">
-        <v>87.49</v>
+        <v>87.2</v>
       </c>
       <c r="E91">
-        <v>-2.38</v>
+        <v>-2.44</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>-0.13</v>
+        <v>-1.32</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3848,36 +3840,36 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>-1.31</v>
+        <v>-0.51</v>
       </c>
       <c r="K91">
-        <v>-0.83</v>
+        <v>-0.02</v>
       </c>
       <c r="L91">
-        <v>-22.67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>80.88</v>
+        <v>76.62</v>
       </c>
       <c r="B92">
-        <v>77</v>
+        <v>82.4</v>
       </c>
       <c r="C92">
-        <v>88.45</v>
+        <v>88.09</v>
       </c>
       <c r="D92">
-        <v>88.35</v>
+        <v>88.11</v>
       </c>
       <c r="E92">
-        <v>-0.73</v>
+        <v>-7.05</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>-0.17</v>
+        <v>-1.39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3886,36 +3878,36 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>-1.07</v>
+        <v>-0.11</v>
       </c>
       <c r="K92">
-        <v>-0.92</v>
+        <v>1.49</v>
       </c>
       <c r="L92">
-        <v>-15.26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>63.85</v>
       </c>
       <c r="B93">
-        <v>59</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="C93">
-        <v>89.18</v>
+        <v>88.87</v>
       </c>
       <c r="D93">
-        <v>89.03</v>
+        <v>88.85</v>
       </c>
       <c r="E93">
-        <v>0.82</v>
+        <v>4.7</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>-0.18</v>
+        <v>-1.39</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3924,36 +3916,36 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>-1.06</v>
+        <v>-0.11</v>
       </c>
       <c r="K93">
-        <v>-1.22</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="L93">
-        <v>-21.87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>-9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>46.82</v>
       </c>
       <c r="B94">
-        <v>41</v>
+        <v>46.4</v>
       </c>
       <c r="C94">
-        <v>89.74</v>
+        <v>89.47</v>
       </c>
       <c r="D94">
-        <v>89.53</v>
+        <v>89.4</v>
       </c>
       <c r="E94">
-        <v>-2.99</v>
+        <v>7.87</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>-0.19</v>
+        <v>-1.34</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3962,36 +3954,36 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>-1.01</v>
+        <v>-0.34</v>
       </c>
       <c r="K94">
-        <v>-0.41</v>
+        <v>-1.8</v>
       </c>
       <c r="L94">
-        <v>-28.27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>-2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>34.049999999999997</v>
       </c>
       <c r="B95">
-        <v>23</v>
+        <v>28.4</v>
       </c>
       <c r="C95">
-        <v>90.12</v>
+        <v>89.9</v>
       </c>
       <c r="D95">
-        <v>89.85</v>
+        <v>89.78</v>
       </c>
       <c r="E95">
-        <v>-4.6100000000000003</v>
+        <v>8.39</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>-0.25</v>
+        <v>-1.27</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4000,36 +3992,36 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>-0.7</v>
+        <v>-0.72</v>
       </c>
       <c r="K95">
-        <v>0.22</v>
+        <v>-2.29</v>
       </c>
       <c r="L95">
-        <v>-47.8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>-20.59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>8.51</v>
+        <v>21.28</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>10.4</v>
       </c>
       <c r="C96">
-        <v>90.3</v>
+        <v>90.17</v>
       </c>
       <c r="D96">
-        <v>89.99</v>
+        <v>89.97</v>
       </c>
       <c r="E96">
-        <v>-3.2</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>-0.28000000000000003</v>
+        <v>-1.19</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4038,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>-0.54</v>
+        <v>-1.08</v>
       </c>
       <c r="K96">
-        <v>0.1</v>
+        <v>-2.04</v>
       </c>
       <c r="L96">
-        <v>-29.9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>-40.74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>4.26</v>
       </c>
@@ -4055,19 +4047,19 @@
         <v>-0.4</v>
       </c>
       <c r="C97">
-        <v>90.33</v>
+        <v>90.26</v>
       </c>
       <c r="D97">
         <v>90</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>-0.28999999999999998</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4076,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>-0.48</v>
+        <v>-1.36</v>
       </c>
       <c r="K97">
-        <v>-0.48</v>
+        <v>-2.42</v>
       </c>
       <c r="L97">
-        <v>-28.41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>-27.22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>0</v>
       </c>
@@ -4093,19 +4085,19 @@
         <v>-0.4</v>
       </c>
       <c r="C98">
-        <v>90.33</v>
+        <v>90.27</v>
       </c>
       <c r="D98">
         <v>90</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>-0.28000000000000003</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4114,36 +4106,36 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>-0.52</v>
+        <v>-1.5</v>
       </c>
       <c r="K98">
-        <v>-0.52</v>
+        <v>-1.87</v>
       </c>
       <c r="L98">
-        <v>-18.89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>-10.27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>-8.51</v>
+        <v>0</v>
       </c>
       <c r="B99">
         <v>-0.4</v>
       </c>
       <c r="C99">
-        <v>90.29</v>
+        <v>90.27</v>
       </c>
       <c r="D99">
         <v>90</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>-0.28000000000000003</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4152,36 +4144,36 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>-0.52</v>
+        <v>-1.6</v>
       </c>
       <c r="K99">
-        <v>-0.52</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="L99">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>-13.16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>-8.51</v>
+        <v>0</v>
       </c>
       <c r="B100">
         <v>-0.4</v>
       </c>
       <c r="C100">
-        <v>90.25</v>
+        <v>90.27</v>
       </c>
       <c r="D100">
         <v>90</v>
       </c>
       <c r="E100">
-        <v>0.7</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>-0.28000000000000003</v>
+        <v>-1.07</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4190,36 +4182,36 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>-0.53</v>
+        <v>-1.72</v>
       </c>
       <c r="K100">
-        <v>-0.68</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="L100">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>-16.100000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>-8.51</v>
+        <v>0</v>
       </c>
       <c r="B101">
         <v>-0.4</v>
       </c>
       <c r="C101">
-        <v>90.21</v>
+        <v>90.27</v>
       </c>
       <c r="D101">
         <v>90</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>-0.28000000000000003</v>
+        <v>-1.04</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4228,36 +4220,36 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>-0.54</v>
+        <v>-1.84</v>
       </c>
       <c r="K101">
-        <v>-0.54</v>
+        <v>-2.29</v>
       </c>
       <c r="L101">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>-18.91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>0</v>
+        <v>-4.26</v>
       </c>
       <c r="B102">
         <v>-0.4</v>
       </c>
       <c r="C102">
-        <v>90.18</v>
+        <v>90.24</v>
       </c>
       <c r="D102">
         <v>90</v>
       </c>
       <c r="E102">
-        <v>-0.64</v>
+        <v>1.95</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>-0.28999999999999998</v>
+        <v>-1.02</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4266,16 +4258,16 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>-0.51</v>
+        <v>-1.95</v>
       </c>
       <c r="K102">
-        <v>-0.39</v>
+        <v>-2.34</v>
       </c>
       <c r="L102">
-        <v>-27.47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>-8.49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>0</v>
       </c>
@@ -4283,19 +4275,19 @@
         <v>-0.4</v>
       </c>
       <c r="C103">
-        <v>90.13</v>
+        <v>90.21</v>
       </c>
       <c r="D103">
         <v>90</v>
       </c>
       <c r="E103">
-        <v>0.76</v>
+        <v>1.4</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>-0.28000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4304,36 +4296,36 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>-0.52</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="K103">
-        <v>-0.67</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="L103">
-        <v>-28.89</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>-23.21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>-4.26</v>
+        <v>-8.51</v>
       </c>
       <c r="B104">
         <v>-0.4</v>
       </c>
       <c r="C104">
-        <v>90.09</v>
+        <v>90.17</v>
       </c>
       <c r="D104">
         <v>90</v>
       </c>
       <c r="E104">
-        <v>1.37</v>
+        <v>0.98</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>-0.27</v>
+        <v>-0.99</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4342,16 +4334,16 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>-0.59</v>
+        <v>-2.09</v>
       </c>
       <c r="K104">
-        <v>-0.87</v>
+        <v>-2.29</v>
       </c>
       <c r="L104">
-        <v>-17.46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>0</v>
       </c>
@@ -4389,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>0</v>
       </c>
@@ -4427,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>0</v>
       </c>
@@ -4465,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>0</v>
       </c>
@@ -4503,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>0</v>
       </c>
@@ -4541,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>0</v>
       </c>
@@ -4579,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>0</v>
       </c>
@@ -4617,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>0</v>
       </c>
@@ -4655,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>0</v>
       </c>
@@ -4693,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>0</v>
       </c>
@@ -4731,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>0</v>
       </c>
@@ -4769,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>0</v>
       </c>
@@ -4807,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>0</v>
       </c>
@@ -4845,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>0</v>
       </c>
@@ -4883,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>0</v>
       </c>
@@ -4921,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>0</v>
       </c>
@@ -4959,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>0</v>
       </c>
@@ -4997,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>0</v>
       </c>
@@ -5035,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>0</v>
       </c>
@@ -5073,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>0</v>
       </c>
@@ -5111,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>0</v>
       </c>
@@ -5149,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>0</v>
       </c>
@@ -5187,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>0</v>
       </c>
@@ -5225,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>0</v>
       </c>
@@ -5263,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>0</v>
       </c>
@@ -5301,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>0</v>
       </c>
@@ -5339,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>0</v>
       </c>
@@ -5377,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>0</v>
       </c>
@@ -5415,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>0</v>
       </c>
@@ -5453,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>0</v>
       </c>
@@ -5491,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>0</v>
       </c>
@@ -5529,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>0</v>
       </c>
@@ -5567,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>0</v>
       </c>
@@ -5605,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>0</v>
       </c>
@@ -5643,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>0</v>
       </c>
@@ -5681,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>0</v>
       </c>
@@ -5719,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>0</v>
       </c>
@@ -5757,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>0</v>
       </c>
@@ -5795,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>0</v>
       </c>
@@ -5833,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>0</v>
       </c>
@@ -5871,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>0</v>
       </c>
@@ -5909,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>0</v>
       </c>
@@ -5947,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>0</v>
       </c>
@@ -5985,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>0</v>
       </c>
@@ -6023,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>0</v>
       </c>
@@ -6061,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>0</v>
       </c>
@@ -6099,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>0</v>
       </c>
@@ -6137,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>0</v>
       </c>
@@ -6175,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>0</v>
       </c>
@@ -6213,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>0</v>
       </c>
@@ -6251,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>0</v>
       </c>
@@ -6289,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>0</v>
       </c>
@@ -6327,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>0</v>
       </c>
@@ -6365,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>0</v>
       </c>
@@ -6403,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>0</v>
       </c>
@@ -6441,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>0</v>
       </c>
@@ -6479,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>0</v>
       </c>
@@ -6517,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>0</v>
       </c>
@@ -6555,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>0</v>
       </c>
@@ -6593,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>0</v>
       </c>
@@ -6631,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>0</v>
       </c>
@@ -6669,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>0</v>
       </c>
@@ -6707,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>0</v>
       </c>
@@ -6745,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>0</v>
       </c>
@@ -6783,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>0</v>
       </c>
@@ -6821,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>0</v>
       </c>
@@ -6859,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>0</v>
       </c>
@@ -6897,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>0</v>
       </c>
@@ -6935,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>0</v>
       </c>
@@ -6973,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>0</v>
       </c>
@@ -7011,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>0</v>
       </c>
@@ -7049,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>0</v>
       </c>
@@ -7087,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>0</v>
       </c>
@@ -7125,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>0</v>
       </c>
@@ -7163,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>0</v>
       </c>
@@ -7201,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>0</v>
       </c>
@@ -7239,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>0</v>
       </c>
@@ -7277,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>0</v>
       </c>
@@ -7315,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>0</v>
       </c>
@@ -7353,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>0</v>
       </c>
@@ -7391,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>0</v>
       </c>
@@ -7429,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>0</v>
       </c>
@@ -7467,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>0</v>
       </c>
@@ -7505,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>0</v>
       </c>
@@ -7543,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>0</v>
       </c>
@@ -7581,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>0</v>
       </c>
@@ -7619,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>0</v>
       </c>
@@ -7657,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>0</v>
       </c>
@@ -7695,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>0</v>
       </c>
@@ -7733,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>0</v>
       </c>
@@ -7771,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>0</v>
       </c>
@@ -7809,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>0</v>
       </c>
@@ -7847,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>0</v>
       </c>
@@ -7885,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>0</v>
       </c>
@@ -7923,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>0</v>
       </c>
@@ -7961,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>0</v>
       </c>

--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -5,23 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\電気研究会\github\mouse\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOSEIDenken\Desktop\halfmouse\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7800B78-BA8B-4E28-9539-B7AD631F8793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F7F4ED-A0F0-49FB-83A6-F14466D6682B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="0" windowWidth="12735" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="0" windowWidth="12740" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,23 +392,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:L200"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:L201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>0</v>
+        <v>12.77</v>
       </c>
       <c r="B1">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -426,24 +435,27 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>34.520000000000003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1.45</v>
+      </c>
+      <c r="M1">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>17.03</v>
+        <v>8.51</v>
       </c>
       <c r="B2">
-        <v>23.4</v>
+        <v>25.2</v>
       </c>
       <c r="C2">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-1.68</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -458,36 +470,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
-        <v>37.31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="M2">
+        <v>4887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>25.54</v>
       </c>
       <c r="B3">
-        <v>41.4</v>
+        <v>43.2</v>
       </c>
       <c r="C3">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.3000000000000007</v>
+        <v>11.17</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -496,36 +511,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.36</v>
+        <v>-0.26</v>
       </c>
       <c r="K3">
-        <v>-2.02</v>
+        <v>-0.09</v>
       </c>
       <c r="L3">
-        <v>66.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>74.13</v>
+      </c>
+      <c r="M3">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>42.57</v>
+        <v>55.34</v>
       </c>
       <c r="B4">
-        <v>59.4</v>
+        <v>61.2</v>
       </c>
       <c r="C4">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-7.6</v>
+        <v>11.96</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -534,36 +552,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.02</v>
+        <v>-0.82</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>-0.31</v>
       </c>
       <c r="L4">
-        <v>77.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>41.13</v>
+      </c>
+      <c r="M4">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>63.85</v>
       </c>
       <c r="B5">
-        <v>77.400000000000006</v>
+        <v>79.2</v>
       </c>
       <c r="C5">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-10.1</v>
+        <v>2.78</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.1</v>
+        <v>0.23</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -572,36 +593,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.49</v>
+        <v>-1.2</v>
       </c>
       <c r="K5">
-        <v>2.5099999999999998</v>
+        <v>-0.46</v>
       </c>
       <c r="L5">
-        <v>71.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="M5">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>72.37</v>
       </c>
       <c r="B6">
-        <v>95.4</v>
+        <v>97.2</v>
       </c>
       <c r="C6">
-        <v>2.02</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-10.53</v>
+        <v>-6.44</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -610,36 +634,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
-        <v>3.13</v>
+        <v>-0.43</v>
       </c>
       <c r="L6">
-        <v>106.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>113.11</v>
+      </c>
+      <c r="M6">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>93.65</v>
+        <v>97.91</v>
       </c>
       <c r="B7">
-        <v>113.4</v>
+        <v>115.2</v>
       </c>
       <c r="C7">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-12.6</v>
+        <v>-0.46</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.32</v>
+        <v>0.18</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -648,36 +675,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>4.0999999999999996</v>
+        <v>-0.37</v>
       </c>
       <c r="L7">
-        <v>105.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>95.53</v>
+      </c>
+      <c r="M7">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>119.19</v>
       </c>
       <c r="B8">
-        <v>131.4</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="C8">
-        <v>3.88</v>
+        <v>3.98</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-11.35</v>
+        <v>-4.33</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>-0.42</v>
+        <v>0.16</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -686,36 +716,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.11</v>
+        <v>0.13</v>
       </c>
       <c r="K8">
-        <v>4.38</v>
+        <v>-0.32</v>
       </c>
       <c r="L8">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>90.99</v>
+      </c>
+      <c r="M8">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>136.22</v>
+        <v>140.47</v>
       </c>
       <c r="B9">
-        <v>149.4</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="C9">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-4.76</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-0.5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -724,36 +757,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.52</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K9">
-        <v>3.48</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="L9">
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>87.58</v>
+      </c>
+      <c r="M9">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>161.76</v>
       </c>
       <c r="B10">
-        <v>167.4</v>
+        <v>169.2</v>
       </c>
       <c r="C10">
-        <v>6.62</v>
+        <v>6.77</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-6.87</v>
+        <v>-10.1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.56000000000000005</v>
+        <v>-0.01</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -762,36 +798,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.79</v>
+        <v>0.98</v>
       </c>
       <c r="K10">
-        <v>4.16</v>
+        <v>0.02</v>
       </c>
       <c r="L10">
-        <v>77.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="M10">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>178.79</v>
+        <v>183.04</v>
       </c>
       <c r="B11">
-        <v>185.4</v>
+        <v>187.2</v>
       </c>
       <c r="C11">
-        <v>8.2799999999999994</v>
+        <v>8.42</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.96</v>
+        <v>-4.91</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.56000000000000005</v>
+        <v>-0.1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -800,36 +839,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.82</v>
+        <v>1.4</v>
       </c>
       <c r="K11">
-        <v>2.23</v>
+        <v>0.19</v>
       </c>
       <c r="L11">
-        <v>81.27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M11">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>195.81</v>
+        <v>187.3</v>
       </c>
       <c r="B12">
-        <v>203.4</v>
+        <v>205.2</v>
       </c>
       <c r="C12">
-        <v>10.14</v>
+        <v>10.26</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.1199999999999992</v>
+        <v>-2.23</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-0.54</v>
+        <v>-0.16</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -838,36 +880,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2.72</v>
+        <v>1.74</v>
       </c>
       <c r="K12">
-        <v>0.89</v>
+        <v>0.33</v>
       </c>
       <c r="L12">
-        <v>85.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>120.59</v>
+      </c>
+      <c r="M12">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>217.1</v>
+        <v>208.58</v>
       </c>
       <c r="B13">
-        <v>221.4</v>
+        <v>223.2</v>
       </c>
       <c r="C13">
-        <v>12.16</v>
+        <v>12.31</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.31</v>
+        <v>-4.7300000000000004</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.48</v>
+        <v>-0.22</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -876,36 +921,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.41</v>
+        <v>2.02</v>
       </c>
       <c r="K13">
-        <v>1.35</v>
+        <v>0.44</v>
       </c>
       <c r="L13">
-        <v>79.540000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>114.82</v>
+      </c>
+      <c r="M13">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>238.38</v>
+        <v>221.35</v>
       </c>
       <c r="B14">
-        <v>239.4</v>
+        <v>241.2</v>
       </c>
       <c r="C14">
-        <v>14.36</v>
+        <v>14.54</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.08</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.41</v>
+        <v>-0.24</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -914,36 +962,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="K14">
-        <v>1.43</v>
+        <v>0.49</v>
       </c>
       <c r="L14">
-        <v>72.989999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>132.96</v>
+      </c>
+      <c r="M14">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>242.64</v>
       </c>
       <c r="B15">
-        <v>257.39999999999998</v>
+        <v>259.2</v>
       </c>
       <c r="C15">
-        <v>16.72</v>
+        <v>16.95</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.85</v>
+        <v>-4.5199999999999996</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.36</v>
+        <v>-0.26</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -952,36 +1003,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.78</v>
+        <v>0.06</v>
       </c>
       <c r="K15">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="L15">
-        <v>117.61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>124.36</v>
+      </c>
+      <c r="M15">
+        <v>4887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>263.92</v>
+        <v>272.43</v>
       </c>
       <c r="B16">
-        <v>273.60000000000002</v>
+        <v>277.2</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.98</v>
+        <v>-6.56</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -990,36 +1044,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.6</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K16">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>106.18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>92.07</v>
+      </c>
+      <c r="M16">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>285.20999999999998</v>
       </c>
       <c r="B17">
-        <v>291.60000000000002</v>
+        <v>295.2</v>
       </c>
       <c r="C17">
-        <v>21.71</v>
+        <v>22.3</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-7.05</v>
+        <v>-8.33</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-0.35</v>
+        <v>-0.38</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1028,36 +1085,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.76</v>
+        <v>0.69</v>
       </c>
       <c r="K17">
-        <v>3.14</v>
+        <v>0.77</v>
       </c>
       <c r="L17">
-        <v>102.19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>112.78</v>
+      </c>
+      <c r="M17">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>297.98</v>
+        <v>310.75</v>
       </c>
       <c r="B18">
-        <v>309.60000000000002</v>
+        <v>313.2</v>
       </c>
       <c r="C18">
-        <v>24.59</v>
+        <v>25.25</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-7.11</v>
+        <v>-7.66</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.42</v>
+        <v>-0.47</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1066,36 +1126,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2.09</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K18">
-        <v>3.44</v>
+        <v>0.94</v>
       </c>
       <c r="L18">
-        <v>122.31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+        <v>93.89</v>
+      </c>
+      <c r="M18">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>319.26</v>
+        <v>327.77</v>
       </c>
       <c r="B19">
-        <v>327.60000000000002</v>
+        <v>331.2</v>
       </c>
       <c r="C19">
-        <v>27.69</v>
+        <v>28.37</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-3.57</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1104,75 +1167,81 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>3.37</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>115.28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+        <v>97.24</v>
+      </c>
+      <c r="M19">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>327.77</v>
+        <v>344.8</v>
       </c>
       <c r="B20">
-        <v>345.6</v>
+        <v>349.2</v>
       </c>
       <c r="C20">
-        <v>30.96</v>
+        <v>31.7</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.62</v>
+        <v>-0.82</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
+        <v>-0.51</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.04</v>
+      </c>
+      <c r="K20">
+        <v>1.02</v>
+      </c>
+      <c r="L20">
+        <v>102.99</v>
+      </c>
+      <c r="M20">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>361.83</v>
+      </c>
+      <c r="B21">
+        <v>367.2</v>
+      </c>
+      <c r="C21">
+        <v>35.19</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.7</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>-0.5</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>2.5</v>
-      </c>
-      <c r="K20">
-        <v>2.36</v>
-      </c>
-      <c r="L20">
-        <v>145.93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>357.57</v>
-      </c>
-      <c r="B21">
-        <v>363.6</v>
-      </c>
-      <c r="C21">
-        <v>34.42</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>7.14</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>-0.46</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -1180,36 +1249,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2.2799999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="K21">
-        <v>1.1100000000000001</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>112.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+        <v>108.42</v>
+      </c>
+      <c r="M21">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>361.83</v>
+        <v>374.6</v>
       </c>
       <c r="B22">
-        <v>381.6</v>
+        <v>385.2</v>
       </c>
       <c r="C22">
-        <v>38.020000000000003</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4.6100000000000003</v>
+        <v>-6.65</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.38</v>
+        <v>-0.54</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1218,36 +1290,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.92</v>
+        <v>0.13</v>
       </c>
       <c r="K22">
-        <v>0.84</v>
+        <v>1.07</v>
       </c>
       <c r="L22">
-        <v>156.97999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+        <v>129.33000000000001</v>
+      </c>
+      <c r="M22">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>391.62</v>
+        <v>395.88</v>
       </c>
       <c r="B23">
-        <v>399.6</v>
+        <v>403.2</v>
       </c>
       <c r="C23">
-        <v>41.79</v>
+        <v>42.67</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-1.5</v>
+        <v>-5.68</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.38</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1256,36 +1331,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.91</v>
+        <v>0.36</v>
       </c>
       <c r="K23">
-        <v>2.14</v>
+        <v>1.17</v>
       </c>
       <c r="L23">
-        <v>127.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+        <v>123.34</v>
+      </c>
+      <c r="M23">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>412.91</v>
+        <v>417.17</v>
       </c>
       <c r="B24">
-        <v>417.6</v>
+        <v>421.2</v>
       </c>
       <c r="C24">
-        <v>45.8</v>
+        <v>46.7</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-4.33</v>
+        <v>2.93</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-0.41</v>
+        <v>-0.6</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1294,36 +1372,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2.04</v>
+        <v>0.42</v>
       </c>
       <c r="K24">
-        <v>2.88</v>
+        <v>1.19</v>
       </c>
       <c r="L24">
-        <v>120.68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+        <v>114.97</v>
+      </c>
+      <c r="M24">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>421.42</v>
+        <v>408.65</v>
       </c>
       <c r="B25">
-        <v>435.6</v>
+        <v>439.2</v>
       </c>
       <c r="C25">
-        <v>49.97</v>
+        <v>50.86</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.76</v>
+        <v>3.05</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>-0.42</v>
+        <v>-0.59</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1332,74 +1413,80 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.92</v>
+        <v>1.19</v>
       </c>
       <c r="L25">
-        <v>151.30000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+        <v>113.62</v>
+      </c>
+      <c r="M25">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
+        <v>429.94</v>
+      </c>
+      <c r="B26">
+        <v>457.2</v>
+      </c>
+      <c r="C26">
+        <v>55.1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>-5.89</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>-0.05</v>
+      </c>
+      <c r="K26">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L26">
+        <v>112.89</v>
+      </c>
+      <c r="M26">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
         <v>442.71</v>
       </c>
-      <c r="B26">
-        <v>453.6</v>
-      </c>
-      <c r="C26">
-        <v>54.31</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>6.71</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>-0.38</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1.91</v>
-      </c>
-      <c r="K26">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L26">
-        <v>143.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>463.99</v>
-      </c>
       <c r="B27">
-        <v>471.6</v>
+        <v>475.2</v>
       </c>
       <c r="C27">
-        <v>58.82</v>
+        <v>59.45</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-2.4700000000000002</v>
+        <v>-0.95</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>-0.37</v>
+        <v>-0.67</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1408,36 +1495,39 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.83</v>
+        <v>0.36</v>
       </c>
       <c r="K27">
-        <v>2.2799999999999998</v>
+        <v>1.33</v>
       </c>
       <c r="L27">
-        <v>139.19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="M27">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>463.99</v>
+        <v>468.25</v>
       </c>
       <c r="B28">
-        <v>489.6</v>
+        <v>493.2</v>
       </c>
       <c r="C28">
-        <v>63.42</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-1.8</v>
+        <v>10.56</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.39</v>
+        <v>-0.63</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1446,36 +1536,39 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1.96</v>
+        <v>0.16</v>
       </c>
       <c r="K28">
-        <v>2.31</v>
+        <v>1.25</v>
       </c>
       <c r="L28">
-        <v>103.57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+        <v>121.47</v>
+      </c>
+      <c r="M28">
+        <v>4796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>468.25</v>
+        <v>481.02</v>
       </c>
       <c r="B29">
         <v>500.4</v>
       </c>
       <c r="C29">
-        <v>68.09</v>
+        <v>68.739999999999995</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>5.68</v>
+        <v>8.42</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.39</v>
+        <v>-0.53</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1484,36 +1577,39 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.93</v>
+        <v>-0.3</v>
       </c>
       <c r="K29">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="L29">
-        <v>130.91999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+        <v>112.47</v>
+      </c>
+      <c r="M29">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>463.99</v>
+        <v>468.25</v>
       </c>
       <c r="B30">
         <v>500</v>
       </c>
       <c r="C30">
-        <v>72.790000000000006</v>
+        <v>73.459999999999994</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>11.72</v>
+        <v>-8.5399999999999991</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.28999999999999998</v>
+        <v>-0.52</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1522,36 +1618,39 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.45</v>
+        <v>-0.39</v>
       </c>
       <c r="K30">
-        <v>-1.08</v>
+        <v>1.03</v>
       </c>
       <c r="L30">
-        <v>131.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+        <v>143.24</v>
+      </c>
+      <c r="M30">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>481.02</v>
+        <v>485.27</v>
       </c>
       <c r="B31">
         <v>500</v>
       </c>
       <c r="C31">
-        <v>77.52</v>
+        <v>78.22</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>-5.98</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>-0.24</v>
+        <v>-0.61</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1560,36 +1659,39 @@
         <v>0</v>
       </c>
       <c r="J31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K31">
         <v>1.21</v>
       </c>
-      <c r="K31">
-        <v>1.34</v>
-      </c>
       <c r="L31">
-        <v>90.68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+        <v>99.52</v>
+      </c>
+      <c r="M31">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>481.02</v>
+        <v>485.27</v>
       </c>
       <c r="B32">
         <v>500</v>
       </c>
       <c r="C32">
-        <v>82.32</v>
+        <v>83.05</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>-2.4700000000000002</v>
+        <v>6.1</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>-0.24</v>
+        <v>-0.63</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1598,36 +1700,39 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.22</v>
+        <v>0.2</v>
       </c>
       <c r="K32">
-        <v>1.68</v>
+        <v>1.26</v>
       </c>
       <c r="L32">
-        <v>97.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+        <v>102.21</v>
+      </c>
+      <c r="M32">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>472.5</v>
+        <v>489.53</v>
       </c>
       <c r="B33">
         <v>500</v>
       </c>
       <c r="C33">
-        <v>87.11</v>
+        <v>87.93</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>9.4600000000000009</v>
+        <v>13.24</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>-0.23</v>
+        <v>-0.52</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1636,16 +1741,19 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.1599999999999999</v>
+        <v>-0.39</v>
       </c>
       <c r="K33">
-        <v>-0.28000000000000003</v>
+        <v>1.03</v>
       </c>
       <c r="L33">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+        <v>90.97</v>
+      </c>
+      <c r="M33">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>489.53</v>
       </c>
@@ -1653,19 +1761,19 @@
         <v>500</v>
       </c>
       <c r="C34">
-        <v>1.45</v>
+        <v>2.44</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>11.32</v>
+        <v>-5.49</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1674,36 +1782,39 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.4</v>
+        <v>-0.63</v>
       </c>
       <c r="K34">
-        <v>-2.38</v>
+        <v>0.01</v>
       </c>
       <c r="L34">
-        <v>78.650000000000006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+        <v>97.57</v>
+      </c>
+      <c r="M34">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>489.53</v>
+        <v>485.27</v>
       </c>
       <c r="B35">
         <v>500</v>
       </c>
       <c r="C35">
-        <v>6.31</v>
+        <v>7.32</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>1.65</v>
+        <v>-6.47</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.09</v>
+        <v>-0.09</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1712,36 +1823,39 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.18</v>
+        <v>-0.18</v>
       </c>
       <c r="K35">
-        <v>-0.15</v>
+        <v>0.19</v>
       </c>
       <c r="L35">
-        <v>84.96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+        <v>114.83</v>
+      </c>
+      <c r="M35">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>485.27</v>
+        <v>493.79</v>
       </c>
       <c r="B36">
         <v>500</v>
       </c>
       <c r="C36">
-        <v>11.18</v>
+        <v>12.24</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>-1.8</v>
+        <v>3.78</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.09</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1750,16 +1864,19 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.19</v>
+        <v>-0.13</v>
       </c>
       <c r="K36">
-        <v>0.53</v>
+        <v>0.15</v>
       </c>
       <c r="L36">
-        <v>102.35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+        <v>89.63</v>
+      </c>
+      <c r="M36">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>489.53</v>
       </c>
@@ -1767,19 +1884,19 @@
         <v>500</v>
       </c>
       <c r="C37">
-        <v>16.059999999999999</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1788,150 +1905,162 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.26</v>
+        <v>-0.27</v>
       </c>
       <c r="K37">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="L37">
-        <v>92.99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+        <v>105.04</v>
+      </c>
+      <c r="M37">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>476.76</v>
+        <v>489.53</v>
       </c>
       <c r="B38">
         <v>500</v>
       </c>
       <c r="C38">
-        <v>20.92</v>
+        <v>22.09</v>
       </c>
       <c r="D38">
-        <v>20.43</v>
+        <v>21.43</v>
       </c>
       <c r="E38">
-        <v>3.08</v>
+        <v>3.72</v>
       </c>
       <c r="F38">
-        <v>-57.3</v>
+        <v>-85.94</v>
       </c>
       <c r="G38">
-        <v>0.09</v>
+        <v>-0.02</v>
       </c>
       <c r="H38">
-        <v>-0.11</v>
+        <v>-0.26</v>
       </c>
       <c r="I38">
         <v>-14323.91</v>
       </c>
       <c r="J38">
-        <v>-1.51</v>
+        <v>-2.88</v>
       </c>
       <c r="K38">
-        <v>-50.91</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>81.92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+        <v>68.73</v>
+      </c>
+      <c r="M38">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>489.53</v>
+        <v>502.3</v>
       </c>
       <c r="B39">
         <v>500</v>
       </c>
       <c r="C39">
-        <v>25.75</v>
+        <v>27.03</v>
       </c>
       <c r="D39">
-        <v>25.43</v>
+        <v>26.43</v>
       </c>
       <c r="E39">
-        <v>-51.21</v>
+        <v>-45.29</v>
       </c>
       <c r="F39">
-        <v>-200.53</v>
+        <v>-229.18</v>
       </c>
       <c r="G39">
-        <v>-0.03</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="H39">
-        <v>-1.4</v>
+        <v>-1.83</v>
       </c>
       <c r="I39">
         <v>-14323.91</v>
       </c>
       <c r="J39">
-        <v>-15.1</v>
+        <v>-15.05</v>
       </c>
       <c r="K39">
-        <v>-144.43</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-45.23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-17.41</v>
+      </c>
+      <c r="M39">
+        <v>63590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>476.76</v>
+        <v>489.53</v>
       </c>
       <c r="B40">
         <v>500</v>
       </c>
       <c r="C40">
-        <v>30.67</v>
+        <v>31.97</v>
       </c>
       <c r="D40">
-        <v>30.43</v>
+        <v>31.43</v>
       </c>
       <c r="E40">
-        <v>-252.99</v>
+        <v>-157.22999999999999</v>
       </c>
       <c r="F40">
-        <v>-343.77</v>
+        <v>-372.42</v>
       </c>
       <c r="G40">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="H40">
-        <v>-4.13</v>
+        <v>-4.84</v>
       </c>
       <c r="I40">
         <v>-14323.91</v>
       </c>
       <c r="J40">
-        <v>-30.77</v>
+        <v>-31.25</v>
       </c>
       <c r="K40">
-        <v>-119.98</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>16.98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-6.08</v>
+      </c>
+      <c r="M40">
+        <v>58995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>485.27</v>
+        <v>493.79</v>
       </c>
       <c r="B41">
         <v>500</v>
       </c>
       <c r="C41">
-        <v>35.520000000000003</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="D41">
-        <v>35.43</v>
+        <v>36.43</v>
       </c>
       <c r="E41">
-        <v>-416.69</v>
+        <v>-323.20999999999998</v>
       </c>
       <c r="F41">
         <v>-458.37</v>
       </c>
       <c r="G41">
-        <v>-4.7300000000000004</v>
+        <v>-3.66</v>
       </c>
       <c r="H41">
         <v>-7.33</v>
@@ -1940,244 +2069,265 @@
         <v>-14323.91</v>
       </c>
       <c r="J41">
-        <v>-40.11</v>
+        <v>-46.52</v>
       </c>
       <c r="K41">
-        <v>-83.31</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>28.84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.72</v>
+      </c>
+      <c r="M41">
+        <v>55859</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>489.53</v>
+        <v>493.79</v>
       </c>
       <c r="B42">
         <v>500</v>
       </c>
       <c r="C42">
-        <v>40.39</v>
+        <v>41.8</v>
       </c>
       <c r="D42">
-        <v>35.93</v>
+        <v>41.43</v>
       </c>
       <c r="E42">
-        <v>-496.86</v>
+        <v>-430.02</v>
       </c>
       <c r="F42">
         <v>-458.37</v>
       </c>
       <c r="G42">
-        <v>-9.36</v>
+        <v>-7.55</v>
       </c>
       <c r="H42">
-        <v>-8.7100000000000009</v>
+        <v>-7.33</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>-39.58</v>
+        <v>-52.08</v>
       </c>
       <c r="K42">
-        <v>-9.64</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>81.38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+        <v>40.1</v>
+      </c>
+      <c r="M42">
+        <v>56727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>481.02</v>
+        <v>485.27</v>
       </c>
       <c r="B43">
         <v>500</v>
       </c>
       <c r="C43">
-        <v>45.25</v>
+        <v>46.71</v>
       </c>
       <c r="D43">
-        <v>40.93</v>
+        <v>38.93</v>
       </c>
       <c r="E43">
-        <v>-469.45</v>
+        <v>-475.52</v>
       </c>
       <c r="F43">
         <v>-458.37</v>
       </c>
       <c r="G43">
-        <v>-14.24</v>
+        <v>-12.14</v>
       </c>
       <c r="H43">
-        <v>-13.29</v>
+        <v>-11.46</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>-36.32</v>
+        <v>-51.98</v>
       </c>
       <c r="K43">
-        <v>-23.69</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>99.15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+        <v>86.68</v>
+      </c>
+      <c r="M43">
+        <v>58153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>489.53</v>
+        <v>498.04</v>
       </c>
       <c r="B44">
         <v>500</v>
       </c>
       <c r="C44">
-        <v>50.14</v>
+        <v>51.66</v>
       </c>
       <c r="D44">
-        <v>45.93</v>
+        <v>43.93</v>
       </c>
       <c r="E44">
-        <v>-414.03</v>
+        <v>-488.04</v>
       </c>
       <c r="F44">
         <v>-458.37</v>
       </c>
       <c r="G44">
-        <v>-18.66</v>
+        <v>-17.010000000000002</v>
       </c>
       <c r="H44">
-        <v>-17.88</v>
+        <v>-16.04</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>-38.17</v>
+        <v>-49.76</v>
       </c>
       <c r="K44">
-        <v>-71.09</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>31.38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+        <v>57.07</v>
+      </c>
+      <c r="M44">
+        <v>56094</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>502.3</v>
+        <v>498.04</v>
       </c>
       <c r="B45">
         <v>500</v>
       </c>
       <c r="C45">
-        <v>55.01</v>
+        <v>56.63</v>
       </c>
       <c r="D45">
-        <v>50.93</v>
+        <v>48.93</v>
       </c>
       <c r="E45">
-        <v>-440.16</v>
+        <v>-461.61</v>
       </c>
       <c r="F45">
         <v>-458.37</v>
       </c>
       <c r="G45">
-        <v>-22.81</v>
+        <v>-21.75</v>
       </c>
       <c r="H45">
-        <v>-22.46</v>
+        <v>-20.63</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>-42.94</v>
+        <v>-48.48</v>
       </c>
       <c r="K45">
-        <v>-63.65</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+        <v>48.74</v>
+      </c>
+      <c r="M45">
+        <v>56744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>485.27</v>
+        <v>493.79</v>
       </c>
       <c r="B46">
         <v>500</v>
       </c>
       <c r="C46">
-        <v>59.94</v>
+        <v>61.52</v>
       </c>
       <c r="D46">
-        <v>55.93</v>
+        <v>53.93</v>
       </c>
       <c r="E46">
-        <v>-484.41</v>
+        <v>-465.06</v>
       </c>
       <c r="F46">
         <v>-458.37</v>
       </c>
       <c r="G46">
-        <v>-27.48</v>
+        <v>-26.33</v>
       </c>
       <c r="H46">
-        <v>-27.04</v>
+        <v>-25.21</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>-42.01</v>
+        <v>-48.48</v>
       </c>
       <c r="K46">
-        <v>-22.17</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>101.11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="M46">
+        <v>57627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>481.02</v>
+        <v>498.04</v>
       </c>
       <c r="B47">
         <v>500</v>
       </c>
       <c r="C47">
-        <v>64.84</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="D47">
-        <v>60.93</v>
+        <v>58.93</v>
       </c>
       <c r="E47">
-        <v>-465.88</v>
+        <v>-464.6</v>
       </c>
       <c r="F47">
         <v>-458.37</v>
       </c>
       <c r="G47">
-        <v>-32.29</v>
+        <v>-31.02</v>
       </c>
       <c r="H47">
-        <v>-31.63</v>
+        <v>-29.79</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>-39.479999999999997</v>
+        <v>-47.62</v>
       </c>
       <c r="K47">
-        <v>-29.27</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>111.46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+        <v>54.39</v>
+      </c>
+      <c r="M47">
+        <v>57038</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>493.79</v>
       </c>
@@ -2185,37 +2335,40 @@
         <v>500</v>
       </c>
       <c r="C48">
-        <v>69.75</v>
+        <v>71.53</v>
       </c>
       <c r="D48">
-        <v>65.930000000000007</v>
+        <v>63.93</v>
       </c>
       <c r="E48">
-        <v>-410.8</v>
+        <v>-459.75</v>
       </c>
       <c r="F48">
         <v>-458.37</v>
       </c>
       <c r="G48">
-        <v>-36.659999999999997</v>
+        <v>-35.619999999999997</v>
       </c>
       <c r="H48">
-        <v>-36.21</v>
+        <v>-34.380000000000003</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>-41.81</v>
+        <v>-47.53</v>
       </c>
       <c r="K48">
-        <v>-77.72</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>28.51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="M48">
+        <v>56385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>498.04</v>
       </c>
@@ -2223,37 +2376,40 @@
         <v>500</v>
       </c>
       <c r="C49">
-        <v>74.63</v>
+        <v>76.5</v>
       </c>
       <c r="D49">
-        <v>70.930000000000007</v>
+        <v>68.930000000000007</v>
       </c>
       <c r="E49">
-        <v>-459.99</v>
+        <v>-476.5</v>
       </c>
       <c r="F49">
         <v>-458.37</v>
       </c>
       <c r="G49">
-        <v>-40.85</v>
+        <v>-40.299999999999997</v>
       </c>
       <c r="H49">
-        <v>-40.79</v>
+        <v>-38.96</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>-46.21</v>
+        <v>-46.71</v>
       </c>
       <c r="K49">
-        <v>-53.85</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>37.64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+        <v>60.35</v>
+      </c>
+      <c r="M49">
+        <v>56683</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>498.04</v>
       </c>
@@ -2261,113 +2417,122 @@
         <v>500</v>
       </c>
       <c r="C50">
-        <v>79.599999999999994</v>
+        <v>81.489999999999995</v>
       </c>
       <c r="D50">
-        <v>75.930000000000007</v>
+        <v>73.930000000000007</v>
       </c>
       <c r="E50">
-        <v>-482.24</v>
+        <v>-455.54</v>
       </c>
       <c r="F50">
         <v>-458.37</v>
       </c>
       <c r="G50">
-        <v>-45.67</v>
+        <v>-44.97</v>
       </c>
       <c r="H50">
-        <v>-45.38</v>
+        <v>-43.54</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>-43.57</v>
+        <v>-46.07</v>
       </c>
       <c r="K50">
-        <v>-22.64</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>70.34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+        <v>52.8</v>
+      </c>
+      <c r="M50">
+        <v>57599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>493.79</v>
+        <v>485.27</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
       <c r="C51">
-        <v>84.57</v>
+        <v>86.42</v>
       </c>
       <c r="D51">
-        <v>80.930000000000007</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="E51">
-        <v>-458.01</v>
+        <v>-455.44</v>
       </c>
       <c r="F51">
         <v>-458.37</v>
       </c>
       <c r="G51">
-        <v>-50.39</v>
+        <v>-49.45</v>
       </c>
       <c r="H51">
-        <v>-49.96</v>
+        <v>-48.13</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>-42.04</v>
+        <v>-46.85</v>
       </c>
       <c r="K51">
-        <v>-40.020000000000003</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>67.459999999999994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+        <v>92.44</v>
+      </c>
+      <c r="M51">
+        <v>57712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>485.27</v>
+        <v>498.04</v>
       </c>
       <c r="B52">
         <v>500</v>
       </c>
       <c r="C52">
-        <v>89.5</v>
+        <v>91.41</v>
       </c>
       <c r="D52">
-        <v>85.93</v>
+        <v>83.93</v>
       </c>
       <c r="E52">
-        <v>-430.63</v>
+        <v>-475.49</v>
       </c>
       <c r="F52">
         <v>-458.37</v>
       </c>
       <c r="G52">
-        <v>-54.83</v>
+        <v>-54.2</v>
       </c>
       <c r="H52">
-        <v>-54.55</v>
+        <v>-52.71</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>-43.66</v>
+        <v>-45.58</v>
       </c>
       <c r="K52">
-        <v>-65.38</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>70.38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+        <v>63.73</v>
+      </c>
+      <c r="M52">
+        <v>55902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>502.3</v>
       </c>
@@ -2375,265 +2540,286 @@
         <v>500</v>
       </c>
       <c r="C53">
-        <v>94.45</v>
+        <v>96.41</v>
       </c>
       <c r="D53">
-        <v>90.93</v>
+        <v>88.93</v>
       </c>
       <c r="E53">
-        <v>-453.52</v>
+        <v>-453.34</v>
       </c>
       <c r="F53">
         <v>-458.37</v>
       </c>
       <c r="G53">
-        <v>-59.22</v>
+        <v>-58.83</v>
       </c>
       <c r="H53">
-        <v>-59.13</v>
+        <v>-57.3</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>-45.78</v>
+        <v>-45.17</v>
       </c>
       <c r="K53">
-        <v>-51.84</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>33.35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+        <v>42.45</v>
+      </c>
+      <c r="M53">
+        <v>57846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>489.53</v>
+        <v>502.3</v>
       </c>
       <c r="B54">
         <v>500</v>
       </c>
       <c r="C54">
-        <v>99.38</v>
+        <v>101.35</v>
       </c>
       <c r="D54">
-        <v>95.93</v>
+        <v>93.93</v>
       </c>
       <c r="E54">
-        <v>-478.82</v>
+        <v>-464.94</v>
       </c>
       <c r="F54">
         <v>-458.37</v>
       </c>
       <c r="G54">
-        <v>-63.89</v>
+        <v>-63.35</v>
       </c>
       <c r="H54">
-        <v>-63.71</v>
+        <v>-61.88</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>-44.81</v>
+        <v>-45.66</v>
       </c>
       <c r="K54">
-        <v>-28.94</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>96.98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+        <v>48.49</v>
+      </c>
+      <c r="M54">
+        <v>58096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>493.79</v>
+        <v>498.04</v>
       </c>
       <c r="B55">
         <v>500</v>
       </c>
       <c r="C55">
-        <v>104.37</v>
+        <v>106.34</v>
       </c>
       <c r="D55">
-        <v>100.93</v>
+        <v>98.93</v>
       </c>
       <c r="E55">
-        <v>-467.07</v>
+        <v>-458.95</v>
       </c>
       <c r="F55">
         <v>-458.37</v>
       </c>
       <c r="G55">
-        <v>-68.650000000000006</v>
+        <v>-67.569999999999993</v>
       </c>
       <c r="H55">
-        <v>-68.3</v>
+        <v>-66.459999999999994</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>-42.86</v>
+        <v>-44.89</v>
       </c>
       <c r="K55">
-        <v>-34.03</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>80.09</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+        <v>60.84</v>
+      </c>
+      <c r="M55">
+        <v>55982</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>506.56</v>
+        <v>493.79</v>
       </c>
       <c r="B56">
         <v>500</v>
       </c>
       <c r="C56">
-        <v>109.37</v>
+        <v>111.31</v>
       </c>
       <c r="D56">
-        <v>105.93</v>
+        <v>103.93</v>
       </c>
       <c r="E56">
-        <v>-439.36</v>
+        <v>-448.94</v>
       </c>
       <c r="F56">
         <v>-458.37</v>
       </c>
       <c r="G56">
-        <v>-73.2</v>
+        <v>-72.069999999999993</v>
       </c>
       <c r="H56">
-        <v>-72.88</v>
+        <v>-71.05</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>-43.23</v>
+        <v>-45.52</v>
       </c>
       <c r="K56">
-        <v>-56.1</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="M56">
+        <v>56625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B57">
         <v>500</v>
       </c>
       <c r="C57">
-        <v>114.35</v>
+        <v>116.29</v>
       </c>
       <c r="D57">
-        <v>110.93</v>
+        <v>108.93</v>
       </c>
       <c r="E57">
-        <v>-433.38</v>
+        <v>-474.33</v>
       </c>
       <c r="F57">
         <v>-458.37</v>
       </c>
       <c r="G57">
-        <v>-77.5</v>
+        <v>-76.72</v>
       </c>
       <c r="H57">
-        <v>-77.459999999999994</v>
+        <v>-75.63</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>-46.44</v>
+        <v>-45.06</v>
       </c>
       <c r="K57">
-        <v>-71.489999999999995</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>42.86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+        <v>54.95</v>
+      </c>
+      <c r="M57">
+        <v>58008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>502.3</v>
+        <v>498.04</v>
       </c>
       <c r="B58">
         <v>500</v>
       </c>
       <c r="C58">
-        <v>119.36</v>
+        <v>121.29</v>
       </c>
       <c r="D58">
-        <v>115.93</v>
+        <v>113.93</v>
       </c>
       <c r="E58">
-        <v>-491.36</v>
+        <v>-453.77</v>
       </c>
       <c r="F58">
         <v>-458.37</v>
       </c>
       <c r="G58">
-        <v>-82.19</v>
+        <v>-81.39</v>
       </c>
       <c r="H58">
-        <v>-82.05</v>
+        <v>-80.209999999999994</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>-45.2</v>
+        <v>-44.34</v>
       </c>
       <c r="K58">
-        <v>-18.07</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>70.42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+        <v>61.15</v>
+      </c>
+      <c r="M58">
+        <v>56610</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>502.3</v>
+        <v>506.56</v>
       </c>
       <c r="B59">
         <v>500</v>
       </c>
       <c r="C59">
-        <v>124.3</v>
+        <v>126.28</v>
       </c>
       <c r="D59">
-        <v>120.43</v>
+        <v>119.43</v>
       </c>
       <c r="E59">
-        <v>-456.63</v>
+        <v>-460.72</v>
       </c>
       <c r="F59">
-        <v>-343.77</v>
+        <v>-372.42</v>
       </c>
       <c r="G59">
-        <v>-87</v>
+        <v>-85.88</v>
       </c>
       <c r="H59">
-        <v>-85.87</v>
+        <v>-85.16</v>
       </c>
       <c r="I59">
         <v>14323.91</v>
       </c>
       <c r="J59">
-        <v>1.33</v>
+        <v>-42.64</v>
       </c>
       <c r="K59">
-        <v>98.11</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="L59">
-        <v>210.35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+        <v>80.31</v>
+      </c>
+      <c r="M59">
+        <v>56373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>498.04</v>
       </c>
@@ -2641,37 +2827,40 @@
         <v>500</v>
       </c>
       <c r="C60">
-        <v>129.27000000000001</v>
+        <v>131.26</v>
       </c>
       <c r="D60">
-        <v>125.43</v>
+        <v>124.43</v>
       </c>
       <c r="E60">
-        <v>-227.97</v>
+        <v>-433.53</v>
       </c>
       <c r="F60">
-        <v>-200.53</v>
+        <v>-229.18</v>
       </c>
       <c r="G60">
-        <v>-90.68</v>
+        <v>-90.47</v>
       </c>
       <c r="H60">
-        <v>-88.6</v>
+        <v>-88.17</v>
       </c>
       <c r="I60">
         <v>14323.91</v>
       </c>
       <c r="J60">
-        <v>0.57999999999999996</v>
+        <v>-29.43</v>
       </c>
       <c r="K60">
-        <v>42.45</v>
+        <v>37.97</v>
       </c>
       <c r="L60">
-        <v>228.78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+        <v>201.25</v>
+      </c>
+      <c r="M60">
+        <v>57109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>506.56</v>
       </c>
@@ -2679,113 +2868,122 @@
         <v>500</v>
       </c>
       <c r="C61">
-        <v>134.28</v>
+        <v>136.28</v>
       </c>
       <c r="D61">
-        <v>133.43</v>
+        <v>135.43</v>
       </c>
       <c r="E61">
-        <v>-4.79</v>
+        <v>-220.61</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>-91.93</v>
+        <v>-93.89</v>
       </c>
       <c r="H61">
-        <v>-89.65</v>
+        <v>-88.79</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.72</v>
+        <v>-13.36</v>
       </c>
       <c r="K61">
-        <v>6.02</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="L61">
-        <v>105.71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+        <v>125.36</v>
+      </c>
+      <c r="M61">
+        <v>60770</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>485.27</v>
+        <v>498.04</v>
       </c>
       <c r="B62">
         <v>500</v>
       </c>
       <c r="C62">
-        <v>139.29</v>
+        <v>141.27000000000001</v>
       </c>
       <c r="D62">
-        <v>138.43</v>
+        <v>140.43</v>
       </c>
       <c r="E62">
-        <v>96.65</v>
+        <v>-130.34</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>-91.29</v>
+        <v>-95.61</v>
       </c>
       <c r="H62">
-        <v>-89.65</v>
+        <v>-88.79</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>-2.4900000000000002</v>
+        <v>-4.8</v>
       </c>
       <c r="K62">
-        <v>-22.49</v>
+        <v>13.64</v>
       </c>
       <c r="L62">
-        <v>139.46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+        <v>142.76</v>
+      </c>
+      <c r="M62">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>506.56</v>
+        <v>502.3</v>
       </c>
       <c r="B63">
         <v>500</v>
       </c>
       <c r="C63">
-        <v>144.25</v>
+        <v>146.24</v>
       </c>
       <c r="D63">
-        <v>143.43</v>
+        <v>145.43</v>
       </c>
       <c r="E63">
-        <v>27.68</v>
+        <v>-52.31</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>-90.63</v>
+        <v>-96.55</v>
       </c>
       <c r="H63">
-        <v>-89.65</v>
+        <v>-88.79</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>-5.8</v>
+        <v>-0.1</v>
       </c>
       <c r="K63">
-        <v>-12.12</v>
+        <v>15.51</v>
       </c>
       <c r="L63">
-        <v>85.63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+        <v>121.72</v>
+      </c>
+      <c r="M63">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>502.3</v>
       </c>
@@ -2793,37 +2991,40 @@
         <v>500</v>
       </c>
       <c r="C64">
-        <v>149.30000000000001</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="D64">
-        <v>148.43</v>
+        <v>150.43</v>
       </c>
       <c r="E64">
-        <v>12.79</v>
+        <v>6.81</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>-90.42</v>
+        <v>-96.79</v>
       </c>
       <c r="H64">
-        <v>-89.65</v>
+        <v>-88.79</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>-6.81</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K64">
-        <v>-9.68</v>
+        <v>16</v>
       </c>
       <c r="L64">
-        <v>98.98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+        <v>111.61</v>
+      </c>
+      <c r="M64">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>498.04</v>
       </c>
@@ -2831,19 +3032,19 @@
         <v>500</v>
       </c>
       <c r="C65">
-        <v>2.0099999999999998</v>
+        <v>4.01</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>31.59</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2852,36 +3053,39 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>-7.17</v>
+        <v>0.1</v>
       </c>
       <c r="K65">
-        <v>-7.54</v>
+        <v>-0.37</v>
       </c>
       <c r="L65">
-        <v>111.7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+        <v>101.59</v>
+      </c>
+      <c r="M65">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>498.04</v>
+        <v>506.56</v>
       </c>
       <c r="B66">
         <v>500</v>
       </c>
       <c r="C66">
-        <v>6.99</v>
+        <v>8.99</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-6.1</v>
+        <v>14.98</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>-0.02</v>
+        <v>0.48</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2890,36 +3094,39 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>-6.98</v>
+        <v>-1.38</v>
       </c>
       <c r="K66">
-        <v>-5.95</v>
+        <v>-0.97</v>
       </c>
       <c r="L66">
-        <v>114.09</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+        <v>76.77</v>
+      </c>
+      <c r="M66">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>510.82</v>
+        <v>506.56</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67">
-        <v>12</v>
+        <v>14.01</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>-25.88</v>
+        <v>5.13</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>-0.19</v>
+        <v>0.54</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2928,36 +3135,39 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>-6.15</v>
+        <v>-1.68</v>
       </c>
       <c r="K67">
-        <v>-1.19</v>
+        <v>-1.08</v>
       </c>
       <c r="L67">
-        <v>80.56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+        <v>78.67</v>
+      </c>
+      <c r="M67">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>498.04</v>
+        <v>493.79</v>
       </c>
       <c r="B68">
         <v>500</v>
       </c>
       <c r="C68">
-        <v>17.03</v>
+        <v>19.02</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-15.41</v>
+        <v>3.42</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>-0.41</v>
+        <v>0.59</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2966,36 +3176,39 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>-5.0599999999999996</v>
+        <v>-1.89</v>
       </c>
       <c r="K68">
-        <v>-1.93</v>
+        <v>-1.17</v>
       </c>
       <c r="L68">
-        <v>117.49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+        <v>116.64</v>
+      </c>
+      <c r="M68">
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>502.3</v>
+        <v>455.48</v>
       </c>
       <c r="B69">
-        <v>496.4</v>
+        <v>491</v>
       </c>
       <c r="C69">
-        <v>22.08</v>
+        <v>23.91</v>
       </c>
       <c r="D69">
-        <v>21.55</v>
+        <v>23.03</v>
       </c>
       <c r="E69">
-        <v>-8.15</v>
+        <v>-13.79</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>-0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3004,36 +3217,39 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>-4.45</v>
+        <v>-1.73</v>
       </c>
       <c r="K69">
-        <v>-2.61</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="L69">
-        <v>87.12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+        <v>97.62</v>
+      </c>
+      <c r="M69">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>493.79</v>
+        <v>459.73</v>
       </c>
       <c r="B70">
-        <v>478.4</v>
+        <v>473</v>
       </c>
       <c r="C70">
-        <v>27.01</v>
+        <v>28.49</v>
       </c>
       <c r="D70">
-        <v>26.43</v>
+        <v>27.85</v>
       </c>
       <c r="E70">
-        <v>-6.2</v>
+        <v>-24.48</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>-0.6</v>
+        <v>0.38</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3042,36 +3258,39 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>-4.08</v>
+        <v>-0.89</v>
       </c>
       <c r="K70">
-        <v>-2.74</v>
+        <v>-0.77</v>
       </c>
       <c r="L70">
-        <v>51.01</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+        <v>34.92</v>
+      </c>
+      <c r="M70">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>468.25</v>
+        <v>438.45</v>
       </c>
       <c r="B71">
-        <v>460.4</v>
+        <v>455</v>
       </c>
       <c r="C71">
-        <v>31.77</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="D71">
-        <v>31.12</v>
+        <v>32.49</v>
       </c>
       <c r="E71">
-        <v>-24.41</v>
+        <v>-2.59</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>-0.7</v>
+        <v>0.21</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3080,36 +3299,39 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>-3.62</v>
+        <v>-0.01</v>
       </c>
       <c r="K71">
-        <v>0.26</v>
+        <v>-0.42</v>
       </c>
       <c r="L71">
-        <v>67.760000000000005</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+        <v>42.01</v>
+      </c>
+      <c r="M71">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>455.48</v>
+        <v>417.17</v>
       </c>
       <c r="B72">
-        <v>442.4</v>
+        <v>437</v>
       </c>
       <c r="C72">
-        <v>36.44</v>
+        <v>37.26</v>
       </c>
       <c r="D72">
-        <v>35.630000000000003</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="E72">
-        <v>-1.98</v>
+        <v>4.09</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>-0.91</v>
+        <v>0.23</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3118,36 +3340,39 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>-2.54</v>
+        <v>-0.13</v>
       </c>
       <c r="K72">
-        <v>-1.54</v>
+        <v>-0.46</v>
       </c>
       <c r="L72">
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+        <v>52.18</v>
+      </c>
+      <c r="M72">
+        <v>4765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>434.19</v>
+        <v>400.14</v>
       </c>
       <c r="B73">
-        <v>424.4</v>
+        <v>419</v>
       </c>
       <c r="C73">
-        <v>40.89</v>
+        <v>41.34</v>
       </c>
       <c r="D73">
-        <v>39.97</v>
+        <v>41.23</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>-12.15</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>-0.9</v>
+        <v>0.21</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3156,36 +3381,39 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-2.6</v>
+        <v>-0.02</v>
       </c>
       <c r="K73">
-        <v>-2.6</v>
+        <v>-0.42</v>
       </c>
       <c r="L73">
-        <v>33.03</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+        <v>57.42</v>
+      </c>
+      <c r="M73">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>404.4</v>
+        <v>387.37</v>
       </c>
       <c r="B74">
-        <v>406.4</v>
+        <v>401</v>
       </c>
       <c r="C74">
-        <v>45.06</v>
+        <v>45.31</v>
       </c>
       <c r="D74">
-        <v>44.12</v>
+        <v>45.33</v>
       </c>
       <c r="E74">
-        <v>-9.2200000000000006</v>
+        <v>-3.72</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>-0.92</v>
+        <v>0.1</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3194,36 +3422,39 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>-2.52</v>
+        <v>0.53</v>
       </c>
       <c r="K74">
-        <v>-1.1000000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="L74">
-        <v>59.88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+        <v>69.84</v>
+      </c>
+      <c r="M74">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>370.34</v>
+        <v>378.85</v>
       </c>
       <c r="B75">
-        <v>388.4</v>
+        <v>383</v>
       </c>
       <c r="C75">
-        <v>48.88</v>
+        <v>49.13</v>
       </c>
       <c r="D75">
-        <v>48.1</v>
+        <v>49.25</v>
       </c>
       <c r="E75">
-        <v>-8.42</v>
+        <v>3.51</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>-1.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3232,74 +3463,80 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>-1.95</v>
+        <v>0.7</v>
       </c>
       <c r="K75">
+        <v>-0.13</v>
+      </c>
+      <c r="L75">
+        <v>16.71</v>
+      </c>
+      <c r="M75">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>361.83</v>
+      </c>
+      <c r="B76">
+        <v>365</v>
+      </c>
+      <c r="C76">
+        <v>52.77</v>
+      </c>
+      <c r="D76">
+        <v>52.99</v>
+      </c>
+      <c r="E76">
+        <v>5.19</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0.13</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.36</v>
+      </c>
+      <c r="K76">
         <v>-0.26</v>
       </c>
-      <c r="L75">
-        <v>8.24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <v>353.31</v>
-      </c>
-      <c r="B76">
-        <v>370.4</v>
-      </c>
-      <c r="C76">
-        <v>52.46</v>
-      </c>
-      <c r="D76">
-        <v>51.89</v>
-      </c>
-      <c r="E76">
-        <v>-5.52</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>-1.6</v>
-      </c>
-      <c r="K76">
-        <v>-0.5</v>
-      </c>
       <c r="L76">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+        <v>17.68</v>
+      </c>
+      <c r="M76">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>327.77</v>
+        <v>336.29</v>
       </c>
       <c r="B77">
-        <v>352.4</v>
+        <v>347</v>
       </c>
       <c r="C77">
-        <v>55.83</v>
+        <v>56.23</v>
       </c>
       <c r="D77">
-        <v>55.5</v>
+        <v>56.55</v>
       </c>
       <c r="E77">
-        <v>-1.56</v>
+        <v>-0.79</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>-1.1299999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3308,36 +3545,39 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>-1.46</v>
+        <v>0.03</v>
       </c>
       <c r="K77">
-        <v>-1.1499999999999999</v>
+        <v>-0.4</v>
       </c>
       <c r="L77">
-        <v>32.159999999999997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+        <v>46.39</v>
+      </c>
+      <c r="M77">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>302.23</v>
+        <v>315</v>
       </c>
       <c r="B78">
-        <v>334.4</v>
+        <v>329</v>
       </c>
       <c r="C78">
-        <v>58.98</v>
+        <v>59.52</v>
       </c>
       <c r="D78">
-        <v>58.94</v>
+        <v>59.93</v>
       </c>
       <c r="E78">
-        <v>-1.1000000000000001</v>
+        <v>-12.57</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>-1.1299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3346,36 +3586,39 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>-1.46</v>
+        <v>0.43</v>
       </c>
       <c r="K78">
-        <v>-1.24</v>
+        <v>-0.24</v>
       </c>
       <c r="L78">
-        <v>62.78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+        <v>57.42</v>
+      </c>
+      <c r="M78">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>310.75</v>
+        <v>306.49</v>
       </c>
       <c r="B79">
-        <v>316.39999999999998</v>
+        <v>311</v>
       </c>
       <c r="C79">
-        <v>62.12</v>
+        <v>62.67</v>
       </c>
       <c r="D79">
-        <v>62.19</v>
+        <v>63.13</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>-3.42</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>-1.1299999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3384,36 +3627,39 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>-1.47</v>
+        <v>0.85</v>
       </c>
       <c r="K79">
-        <v>-1.47</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L79">
-        <v>47.12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+        <v>31.94</v>
+      </c>
+      <c r="M79">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>297.98</v>
+        <v>289.45999999999998</v>
       </c>
       <c r="B80">
-        <v>298.39999999999998</v>
+        <v>293</v>
       </c>
       <c r="C80">
-        <v>65.13</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="D80">
-        <v>65.27</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="E80">
-        <v>-5.58</v>
+        <v>-0.82</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>-1.1399999999999999</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3422,36 +3668,39 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>-1.41</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>-0.28999999999999998</v>
+        <v>-0.01</v>
       </c>
       <c r="L80">
-        <v>35.92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="M80">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>280.95</v>
+        <v>276.69</v>
       </c>
       <c r="B81">
-        <v>280.39999999999998</v>
+        <v>275</v>
       </c>
       <c r="C81">
-        <v>67.97</v>
+        <v>68.47</v>
       </c>
       <c r="D81">
-        <v>68.16</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="E81">
-        <v>3.14</v>
+        <v>8.58</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>-1.18</v>
+        <v>0.05</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3460,36 +3709,39 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>-1.19</v>
+        <v>-0.24</v>
       </c>
       <c r="K81">
-        <v>-1.81</v>
+        <v>-0.1</v>
       </c>
       <c r="L81">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+        <v>19.29</v>
+      </c>
+      <c r="M81">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>259.66000000000003</v>
+        <v>251.15</v>
       </c>
       <c r="B82">
-        <v>262.39999999999998</v>
+        <v>257</v>
       </c>
       <c r="C82">
-        <v>70.64</v>
+        <v>71.11</v>
       </c>
       <c r="D82">
-        <v>70.87</v>
+        <v>71.650000000000006</v>
       </c>
       <c r="E82">
-        <v>7.29</v>
+        <v>7.57</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>-1.1200000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3498,36 +3750,39 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>-1.48</v>
+        <v>-0.66</v>
       </c>
       <c r="K82">
-        <v>-2.94</v>
+        <v>-0.27</v>
       </c>
       <c r="L82">
-        <v>14.11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+        <v>47.05</v>
+      </c>
+      <c r="M82">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>242.64</v>
+        <v>246.89</v>
       </c>
       <c r="B83">
-        <v>244.4</v>
+        <v>239</v>
       </c>
       <c r="C83">
-        <v>73.13</v>
+        <v>73.61</v>
       </c>
       <c r="D83">
-        <v>73.41</v>
+        <v>74.13</v>
       </c>
       <c r="E83">
-        <v>6.32</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>-1.06</v>
+        <v>0.15</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3536,74 +3791,80 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>-1.78</v>
+        <v>0.05</v>
       </c>
       <c r="K83">
-        <v>-3.05</v>
+        <v>-0.3</v>
       </c>
       <c r="L83">
-        <v>14.43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+        <v>13.13</v>
+      </c>
+      <c r="M83">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
+        <v>234.12</v>
+      </c>
+      <c r="B84">
+        <v>221</v>
+      </c>
+      <c r="C84">
+        <v>75.95</v>
+      </c>
+      <c r="D84">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="E84">
+        <v>-10.62</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0.06</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.51</v>
+      </c>
+      <c r="K84">
+        <v>-0.11</v>
+      </c>
+      <c r="L84">
+        <v>4.22</v>
+      </c>
+      <c r="M84">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
         <v>217.1</v>
       </c>
-      <c r="B84">
-        <v>226.4</v>
-      </c>
-      <c r="C84">
-        <v>75.42</v>
-      </c>
-      <c r="D84">
-        <v>75.760000000000005</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>-1.02</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>-2.02</v>
-      </c>
-      <c r="K84">
-        <v>-2.02</v>
-      </c>
-      <c r="L84">
-        <v>41.26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A85">
-        <v>204.33</v>
-      </c>
       <c r="B85">
-        <v>208.4</v>
+        <v>203</v>
       </c>
       <c r="C85">
-        <v>77.56</v>
+        <v>78.14</v>
       </c>
       <c r="D85">
-        <v>77.94</v>
+        <v>78.55</v>
       </c>
       <c r="E85">
-        <v>0.95</v>
+        <v>-7.75</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>-1.01</v>
+        <v>-0.04</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3612,36 +3873,39 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>-2.0699999999999998</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>-2.2599999999999998</v>
+        <v>0.08</v>
       </c>
       <c r="L85">
-        <v>29.66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+        <v>5.36</v>
+      </c>
+      <c r="M85">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>191.56</v>
+        <v>195.81</v>
       </c>
       <c r="B86">
-        <v>190.4</v>
+        <v>185</v>
       </c>
       <c r="C86">
-        <v>79.569999999999993</v>
+        <v>80.17</v>
       </c>
       <c r="D86">
-        <v>79.930000000000007</v>
+        <v>80.489999999999995</v>
       </c>
       <c r="E86">
-        <v>-6.53</v>
+        <v>-6.71</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>-1.04</v>
+        <v>-0.12</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3650,36 +3914,39 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>-1.9</v>
+        <v>1.41</v>
       </c>
       <c r="K86">
-        <v>-0.59</v>
+        <v>0.24</v>
       </c>
       <c r="L86">
-        <v>17.96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+        <v>15.5</v>
+      </c>
+      <c r="M86">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>178.79</v>
+        <v>174.53</v>
       </c>
       <c r="B87">
-        <v>172.4</v>
+        <v>167</v>
       </c>
       <c r="C87">
-        <v>81.41</v>
+        <v>82.02</v>
       </c>
       <c r="D87">
-        <v>81.739999999999995</v>
+        <v>82.25</v>
       </c>
       <c r="E87">
-        <v>-4.18</v>
+        <v>-1.8</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>-1.1000000000000001</v>
+        <v>-0.21</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3688,36 +3955,39 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>-1.59</v>
+        <v>1.83</v>
       </c>
       <c r="K87">
-        <v>-0.75</v>
+        <v>0.41</v>
       </c>
       <c r="L87">
-        <v>5.22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+        <v>24.39</v>
+      </c>
+      <c r="M87">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>157.5</v>
       </c>
       <c r="B88">
-        <v>154.4</v>
+        <v>149</v>
       </c>
       <c r="C88">
-        <v>83.07</v>
+        <v>83.72</v>
       </c>
       <c r="D88">
-        <v>83.38</v>
+        <v>83.83</v>
       </c>
       <c r="E88">
-        <v>-1.62</v>
+        <v>5.46</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>-1.1499999999999999</v>
+        <v>-0.23</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3726,36 +3996,39 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>-1.35</v>
+        <v>1.95</v>
       </c>
       <c r="K88">
-        <v>-1.03</v>
+        <v>0.46</v>
       </c>
       <c r="L88">
-        <v>17.52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+        <v>17.79</v>
+      </c>
+      <c r="M88">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>140.47</v>
+        <v>131.96</v>
       </c>
       <c r="B89">
-        <v>136.4</v>
+        <v>131</v>
       </c>
       <c r="C89">
-        <v>84.58</v>
+        <v>85.21</v>
       </c>
       <c r="D89">
-        <v>84.83</v>
+        <v>85.23</v>
       </c>
       <c r="E89">
-        <v>-5.49</v>
+        <v>1.95</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>-1.22</v>
+        <v>-0.19</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3764,227 +4037,245 @@
         <v>0</v>
       </c>
       <c r="J89">
+        <v>1.75</v>
+      </c>
+      <c r="K89">
+        <v>0.38</v>
+      </c>
+      <c r="L89">
+        <v>-14.51</v>
+      </c>
+      <c r="M89">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>119.19</v>
+      </c>
+      <c r="B90">
+        <v>113</v>
+      </c>
+      <c r="C90">
+        <v>86.47</v>
+      </c>
+      <c r="D90">
+        <v>86.45</v>
+      </c>
+      <c r="E90">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>-0.6</v>
+      </c>
+      <c r="K90">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L90">
+        <v>-36.86</v>
+      </c>
+      <c r="M90">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>102.16</v>
+      </c>
+      <c r="B91">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>87.53</v>
+      </c>
+      <c r="D91">
+        <v>87.49</v>
+      </c>
+      <c r="E91">
+        <v>8.76</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0.01</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
         <v>-0.99</v>
       </c>
-      <c r="K89">
+      <c r="K91">
+        <v>-0.01</v>
+      </c>
+      <c r="L91">
+        <v>-25.27</v>
+      </c>
+      <c r="M91">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>85.14</v>
+      </c>
+      <c r="B92">
+        <v>77</v>
+      </c>
+      <c r="C92">
+        <v>88.39</v>
+      </c>
+      <c r="D92">
+        <v>88.35</v>
+      </c>
+      <c r="E92">
+        <v>-1.5</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0.06</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>-1.28</v>
+      </c>
+      <c r="K92">
+        <v>-0.13</v>
+      </c>
+      <c r="L92">
+        <v>-26.18</v>
+      </c>
+      <c r="M92">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>68.11</v>
+      </c>
+      <c r="B93">
+        <v>59</v>
+      </c>
+      <c r="C93">
+        <v>89.12</v>
+      </c>
+      <c r="D93">
+        <v>89.03</v>
+      </c>
+      <c r="E93">
+        <v>1.07</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0.05</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>-0.1</v>
+      </c>
+      <c r="L93">
+        <v>-30.38</v>
+      </c>
+      <c r="M93">
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>51.08</v>
+      </c>
+      <c r="B94">
+        <v>41</v>
+      </c>
+      <c r="C94">
+        <v>89.67</v>
+      </c>
+      <c r="D94">
+        <v>89.53</v>
+      </c>
+      <c r="E94">
+        <v>6.93</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0.08</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>-0.15</v>
+      </c>
+      <c r="K94">
+        <v>-0.16</v>
+      </c>
+      <c r="L94">
+        <v>-38.15</v>
+      </c>
+      <c r="M94">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>25.54</v>
+      </c>
+      <c r="B95">
+        <v>23</v>
+      </c>
+      <c r="C95">
+        <v>90.05</v>
+      </c>
+      <c r="D95">
+        <v>89.85</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
         <v>0.11</v>
       </c>
-      <c r="L89">
-        <v>16.46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A90">
-        <v>127.7</v>
-      </c>
-      <c r="B90">
-        <v>118.4</v>
-      </c>
-      <c r="C90">
-        <v>85.93</v>
-      </c>
-      <c r="D90">
-        <v>86.11</v>
-      </c>
-      <c r="E90">
-        <v>-11.23</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>-1.27</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>-0.73</v>
-      </c>
-      <c r="K90">
-        <v>1.51</v>
-      </c>
-      <c r="L90">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A91">
-        <v>106.42</v>
-      </c>
-      <c r="B91">
-        <v>100.4</v>
-      </c>
-      <c r="C91">
-        <v>87.1</v>
-      </c>
-      <c r="D91">
-        <v>87.2</v>
-      </c>
-      <c r="E91">
-        <v>-2.44</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>-1.32</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>-0.51</v>
-      </c>
-      <c r="K91">
-        <v>-0.02</v>
-      </c>
-      <c r="L91">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A92">
-        <v>76.62</v>
-      </c>
-      <c r="B92">
-        <v>82.4</v>
-      </c>
-      <c r="C92">
-        <v>88.09</v>
-      </c>
-      <c r="D92">
-        <v>88.11</v>
-      </c>
-      <c r="E92">
-        <v>-7.05</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>-1.39</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>-0.11</v>
-      </c>
-      <c r="K92">
-        <v>1.49</v>
-      </c>
-      <c r="L92">
-        <v>11.17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A93">
-        <v>63.85</v>
-      </c>
-      <c r="B93">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="C93">
-        <v>88.87</v>
-      </c>
-      <c r="D93">
-        <v>88.85</v>
-      </c>
-      <c r="E93">
-        <v>4.7</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>-1.39</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>-0.11</v>
-      </c>
-      <c r="K93">
-        <v>-1.1100000000000001</v>
-      </c>
-      <c r="L93">
-        <v>-9.2100000000000009</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A94">
-        <v>46.82</v>
-      </c>
-      <c r="B94">
-        <v>46.4</v>
-      </c>
-      <c r="C94">
-        <v>89.47</v>
-      </c>
-      <c r="D94">
-        <v>89.4</v>
-      </c>
-      <c r="E94">
-        <v>7.87</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>-1.34</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>-0.34</v>
-      </c>
-      <c r="K94">
-        <v>-1.8</v>
-      </c>
-      <c r="L94">
-        <v>-2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A95">
-        <v>34.049999999999997</v>
-      </c>
-      <c r="B95">
-        <v>28.4</v>
-      </c>
-      <c r="C95">
-        <v>89.9</v>
-      </c>
-      <c r="D95">
-        <v>89.78</v>
-      </c>
-      <c r="E95">
-        <v>8.39</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>-1.27</v>
-      </c>
       <c r="H95">
         <v>0</v>
       </c>
@@ -3992,36 +4283,39 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>-2.29</v>
+        <v>-0.22</v>
       </c>
       <c r="L95">
-        <v>-20.59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-13.7</v>
+      </c>
+      <c r="M95">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>21.28</v>
+        <v>17.03</v>
       </c>
       <c r="B96">
-        <v>10.4</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>90.17</v>
+        <v>90.27</v>
       </c>
       <c r="D96">
-        <v>89.97</v>
+        <v>89.99</v>
       </c>
       <c r="E96">
-        <v>4.6399999999999997</v>
+        <v>-1.68</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>-1.19</v>
+        <v>0.12</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4030,36 +4324,39 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>-1.08</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>-2.04</v>
+        <v>-0.23</v>
       </c>
       <c r="L96">
-        <v>-40.74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-47.28</v>
+      </c>
+      <c r="M96">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>4.26</v>
+        <v>0</v>
       </c>
       <c r="B97">
         <v>-0.4</v>
       </c>
       <c r="C97">
-        <v>90.26</v>
+        <v>90.32</v>
       </c>
       <c r="D97">
         <v>90</v>
       </c>
       <c r="E97">
-        <v>4.82</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>-1.1399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4068,16 +4365,19 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>-1.36</v>
+        <v>0.15</v>
       </c>
       <c r="K97">
-        <v>-2.42</v>
+        <v>-0.18</v>
       </c>
       <c r="L97">
-        <v>-27.22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-11.45</v>
+      </c>
+      <c r="M97">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>0</v>
       </c>
@@ -4085,19 +4385,19 @@
         <v>-0.4</v>
       </c>
       <c r="C98">
-        <v>90.27</v>
+        <v>90.32</v>
       </c>
       <c r="D98">
         <v>90</v>
       </c>
       <c r="E98">
-        <v>1.95</v>
+        <v>0.85</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>-1.1100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4106,16 +4406,19 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>-1.87</v>
+        <v>-0.16</v>
       </c>
       <c r="L98">
-        <v>-10.27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-15.37</v>
+      </c>
+      <c r="M98">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>0</v>
       </c>
@@ -4123,19 +4426,19 @@
         <v>-0.4</v>
       </c>
       <c r="C99">
-        <v>90.27</v>
+        <v>90.32</v>
       </c>
       <c r="D99">
         <v>90</v>
       </c>
       <c r="E99">
-        <v>2.2599999999999998</v>
+        <v>4.09</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>-1.0900000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4144,16 +4447,19 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>-1.6</v>
+        <v>-0.13</v>
       </c>
       <c r="K99">
-        <v>-2.0299999999999998</v>
+        <v>-0.21</v>
       </c>
       <c r="L99">
-        <v>-13.16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-19.5</v>
+      </c>
+      <c r="M99">
+        <v>4869</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>0</v>
       </c>
@@ -4161,19 +4467,19 @@
         <v>-0.4</v>
       </c>
       <c r="C100">
-        <v>90.27</v>
+        <v>90.29</v>
       </c>
       <c r="D100">
         <v>90</v>
       </c>
       <c r="E100">
-        <v>2.4700000000000002</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>-1.07</v>
+        <v>0.15</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4182,36 +4488,39 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>-1.72</v>
+        <v>-0.35</v>
       </c>
       <c r="K100">
-        <v>-2.2200000000000002</v>
+        <v>-0.3</v>
       </c>
       <c r="L100">
-        <v>-16.100000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-22.29</v>
+      </c>
+      <c r="M100">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>0</v>
+        <v>-4.26</v>
       </c>
       <c r="B101">
         <v>-0.4</v>
       </c>
       <c r="C101">
-        <v>90.27</v>
+        <v>90.26</v>
       </c>
       <c r="D101">
         <v>90</v>
       </c>
       <c r="E101">
-        <v>2.2599999999999998</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>-1.04</v>
+        <v>0.17</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4220,36 +4529,39 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>-1.84</v>
+        <v>-0.47</v>
       </c>
       <c r="K101">
-        <v>-2.29</v>
+        <v>-0.35</v>
       </c>
       <c r="L101">
-        <v>-18.91</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-11.68</v>
+      </c>
+      <c r="M101">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>-4.26</v>
+        <v>0</v>
       </c>
       <c r="B102">
         <v>-0.4</v>
       </c>
       <c r="C102">
-        <v>90.24</v>
+        <v>90.23</v>
       </c>
       <c r="D102">
         <v>90</v>
       </c>
       <c r="E102">
-        <v>1.95</v>
+        <v>0.52</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>-1.02</v>
+        <v>0.18</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4258,36 +4570,39 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>-1.95</v>
+        <v>-0.51</v>
       </c>
       <c r="K102">
-        <v>-2.34</v>
+        <v>-0.37</v>
       </c>
       <c r="L102">
-        <v>-8.49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-26.67</v>
+      </c>
+      <c r="M102">
+        <v>4849</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>0</v>
+        <v>-4.26</v>
       </c>
       <c r="B103">
         <v>-0.4</v>
       </c>
       <c r="C103">
-        <v>90.21</v>
+        <v>90.2</v>
       </c>
       <c r="D103">
         <v>90</v>
       </c>
       <c r="E103">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>-1</v>
+        <v>0.18</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4296,36 +4611,39 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>-2.0299999999999998</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>-2.3199999999999998</v>
+        <v>-0.37</v>
       </c>
       <c r="L103">
-        <v>-23.21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-15.49</v>
+      </c>
+      <c r="M103">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>-8.51</v>
+        <v>0</v>
       </c>
       <c r="B104">
         <v>-0.4</v>
       </c>
       <c r="C104">
-        <v>90.17</v>
+        <v>90.18</v>
       </c>
       <c r="D104">
         <v>90</v>
       </c>
       <c r="E104">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>-0.99</v>
+        <v>0.18</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4334,16 +4652,19 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>-2.09</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>-2.29</v>
+        <v>-0.37</v>
       </c>
       <c r="L104">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-29.87</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>0</v>
       </c>
@@ -4380,8 +4701,11 @@
       <c r="L105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>0</v>
       </c>
@@ -4418,8 +4742,11 @@
       <c r="L106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>0</v>
       </c>
@@ -4456,8 +4783,11 @@
       <c r="L107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>0</v>
       </c>
@@ -4494,8 +4824,11 @@
       <c r="L108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>0</v>
       </c>
@@ -4532,8 +4865,11 @@
       <c r="L109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>0</v>
       </c>
@@ -4570,8 +4906,11 @@
       <c r="L110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>0</v>
       </c>
@@ -4608,8 +4947,11 @@
       <c r="L111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>0</v>
       </c>
@@ -4646,8 +4988,11 @@
       <c r="L112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>0</v>
       </c>
@@ -4684,8 +5029,11 @@
       <c r="L113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>0</v>
       </c>
@@ -4722,8 +5070,11 @@
       <c r="L114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>0</v>
       </c>
@@ -4760,8 +5111,11 @@
       <c r="L115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>0</v>
       </c>
@@ -4798,8 +5152,11 @@
       <c r="L116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>0</v>
       </c>
@@ -4836,8 +5193,11 @@
       <c r="L117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>0</v>
       </c>
@@ -4874,8 +5234,11 @@
       <c r="L118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>0</v>
       </c>
@@ -4912,8 +5275,11 @@
       <c r="L119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>0</v>
       </c>
@@ -4950,8 +5316,11 @@
       <c r="L120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>0</v>
       </c>
@@ -4988,8 +5357,11 @@
       <c r="L121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>0</v>
       </c>
@@ -5026,8 +5398,11 @@
       <c r="L122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>0</v>
       </c>
@@ -5064,8 +5439,11 @@
       <c r="L123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>0</v>
       </c>
@@ -5102,8 +5480,11 @@
       <c r="L124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>0</v>
       </c>
@@ -5140,8 +5521,11 @@
       <c r="L125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>0</v>
       </c>
@@ -5178,8 +5562,11 @@
       <c r="L126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>0</v>
       </c>
@@ -5216,8 +5603,11 @@
       <c r="L127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>0</v>
       </c>
@@ -5254,8 +5644,11 @@
       <c r="L128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>0</v>
       </c>
@@ -5292,8 +5685,11 @@
       <c r="L129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>0</v>
       </c>
@@ -5330,8 +5726,11 @@
       <c r="L130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>0</v>
       </c>
@@ -5368,8 +5767,11 @@
       <c r="L131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>0</v>
       </c>
@@ -5406,8 +5808,11 @@
       <c r="L132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>0</v>
       </c>
@@ -5444,8 +5849,11 @@
       <c r="L133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>0</v>
       </c>
@@ -5482,8 +5890,11 @@
       <c r="L134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>0</v>
       </c>
@@ -5520,8 +5931,11 @@
       <c r="L135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>0</v>
       </c>
@@ -5558,8 +5972,11 @@
       <c r="L136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>0</v>
       </c>
@@ -5596,8 +6013,11 @@
       <c r="L137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>0</v>
       </c>
@@ -5634,8 +6054,11 @@
       <c r="L138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>0</v>
       </c>
@@ -5672,8 +6095,11 @@
       <c r="L139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>0</v>
       </c>
@@ -5710,8 +6136,11 @@
       <c r="L140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>0</v>
       </c>
@@ -5748,8 +6177,11 @@
       <c r="L141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>0</v>
       </c>
@@ -5786,8 +6218,11 @@
       <c r="L142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>0</v>
       </c>
@@ -5824,8 +6259,11 @@
       <c r="L143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>0</v>
       </c>
@@ -5862,8 +6300,11 @@
       <c r="L144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>0</v>
       </c>
@@ -5900,8 +6341,11 @@
       <c r="L145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>0</v>
       </c>
@@ -5938,8 +6382,11 @@
       <c r="L146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>0</v>
       </c>
@@ -5976,8 +6423,11 @@
       <c r="L147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>0</v>
       </c>
@@ -6014,8 +6464,11 @@
       <c r="L148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>0</v>
       </c>
@@ -6052,8 +6505,11 @@
       <c r="L149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>0</v>
       </c>
@@ -6090,8 +6546,11 @@
       <c r="L150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>0</v>
       </c>
@@ -6128,8 +6587,11 @@
       <c r="L151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>0</v>
       </c>
@@ -6166,8 +6628,11 @@
       <c r="L152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>0</v>
       </c>
@@ -6204,8 +6669,11 @@
       <c r="L153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>0</v>
       </c>
@@ -6242,8 +6710,11 @@
       <c r="L154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>0</v>
       </c>
@@ -6280,8 +6751,11 @@
       <c r="L155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>0</v>
       </c>
@@ -6318,8 +6792,11 @@
       <c r="L156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>0</v>
       </c>
@@ -6356,8 +6833,11 @@
       <c r="L157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>0</v>
       </c>
@@ -6394,8 +6874,11 @@
       <c r="L158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>0</v>
       </c>
@@ -6432,8 +6915,11 @@
       <c r="L159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>0</v>
       </c>
@@ -6470,8 +6956,11 @@
       <c r="L160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>0</v>
       </c>
@@ -6508,8 +6997,11 @@
       <c r="L161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>0</v>
       </c>
@@ -6546,8 +7038,11 @@
       <c r="L162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>0</v>
       </c>
@@ -6584,8 +7079,11 @@
       <c r="L163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>0</v>
       </c>
@@ -6622,8 +7120,11 @@
       <c r="L164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>0</v>
       </c>
@@ -6660,8 +7161,11 @@
       <c r="L165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>0</v>
       </c>
@@ -6698,8 +7202,11 @@
       <c r="L166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>0</v>
       </c>
@@ -6736,8 +7243,11 @@
       <c r="L167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>0</v>
       </c>
@@ -6774,8 +7284,11 @@
       <c r="L168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>0</v>
       </c>
@@ -6812,8 +7325,11 @@
       <c r="L169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>0</v>
       </c>
@@ -6850,8 +7366,11 @@
       <c r="L170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>0</v>
       </c>
@@ -6888,8 +7407,11 @@
       <c r="L171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>0</v>
       </c>
@@ -6926,8 +7448,11 @@
       <c r="L172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>0</v>
       </c>
@@ -6964,8 +7489,11 @@
       <c r="L173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>0</v>
       </c>
@@ -7002,8 +7530,11 @@
       <c r="L174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>0</v>
       </c>
@@ -7040,8 +7571,11 @@
       <c r="L175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>0</v>
       </c>
@@ -7078,8 +7612,11 @@
       <c r="L176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>0</v>
       </c>
@@ -7116,8 +7653,11 @@
       <c r="L177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>0</v>
       </c>
@@ -7154,8 +7694,11 @@
       <c r="L178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>0</v>
       </c>
@@ -7192,8 +7735,11 @@
       <c r="L179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>0</v>
       </c>
@@ -7230,8 +7776,11 @@
       <c r="L180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>0</v>
       </c>
@@ -7268,8 +7817,11 @@
       <c r="L181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>0</v>
       </c>
@@ -7306,8 +7858,11 @@
       <c r="L182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>0</v>
       </c>
@@ -7344,8 +7899,11 @@
       <c r="L183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>0</v>
       </c>
@@ -7382,8 +7940,11 @@
       <c r="L184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>0</v>
       </c>
@@ -7420,8 +7981,11 @@
       <c r="L185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>0</v>
       </c>
@@ -7458,8 +8022,11 @@
       <c r="L186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>0</v>
       </c>
@@ -7496,8 +8063,11 @@
       <c r="L187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>0</v>
       </c>
@@ -7534,8 +8104,11 @@
       <c r="L188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>0</v>
       </c>
@@ -7572,8 +8145,11 @@
       <c r="L189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>0</v>
       </c>
@@ -7610,8 +8186,11 @@
       <c r="L190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>0</v>
       </c>
@@ -7648,8 +8227,11 @@
       <c r="L191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>0</v>
       </c>
@@ -7686,8 +8268,11 @@
       <c r="L192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>0</v>
       </c>
@@ -7724,8 +8309,11 @@
       <c r="L193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>0</v>
       </c>
@@ -7762,8 +8350,11 @@
       <c r="L194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>0</v>
       </c>
@@ -7800,8 +8391,11 @@
       <c r="L195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>0</v>
       </c>
@@ -7838,8 +8432,11 @@
       <c r="L196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>0</v>
       </c>
@@ -7876,8 +8473,11 @@
       <c r="L197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>0</v>
       </c>
@@ -7914,8 +8514,11 @@
       <c r="L198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>0</v>
       </c>
@@ -7952,8 +8555,11 @@
       <c r="L199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>0</v>
       </c>
@@ -7988,12 +8594,15 @@
         <v>0</v>
       </c>
       <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOSEIDenken\Desktop\halfmouse\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F7F4ED-A0F0-49FB-83A6-F14466D6682B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E57F8F-D7AB-4413-82A4-927750772F34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="0" windowWidth="12740" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,13 +398,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>12.77</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="C1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -435,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>1.45</v>
+        <v>23.81</v>
       </c>
       <c r="M1">
         <v>4854</v>
@@ -443,19 +439,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>8.51</v>
+        <v>17.03</v>
       </c>
       <c r="B2">
-        <v>25.2</v>
+        <v>19.8</v>
       </c>
       <c r="C2">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-1.68</v>
+        <v>-1.86</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -470,13 +466,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>70.180000000000007</v>
+        <v>31.06</v>
       </c>
       <c r="M2">
         <v>4887</v>
@@ -484,25 +480,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>25.54</v>
+        <v>29.8</v>
       </c>
       <c r="B3">
-        <v>43.2</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C3">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.17</v>
+        <v>2.72</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -511,13 +507,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.26</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>74.13</v>
+        <v>52.31</v>
       </c>
       <c r="M3">
         <v>4929</v>
@@ -525,25 +521,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>55.34</v>
+        <v>51.08</v>
       </c>
       <c r="B4">
-        <v>61.2</v>
+        <v>55.8</v>
       </c>
       <c r="C4">
-        <v>0.77</v>
+        <v>0.69</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.96</v>
+        <v>4.03</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -552,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>-0.31</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>41.13</v>
+        <v>48.18</v>
       </c>
       <c r="M4">
         <v>4828</v>
@@ -566,25 +562,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>63.85</v>
+        <v>68.11</v>
       </c>
       <c r="B5">
-        <v>79.2</v>
+        <v>73.8</v>
       </c>
       <c r="C5">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.78</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -593,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>75.540000000000006</v>
+        <v>57.54</v>
       </c>
       <c r="M5">
         <v>4722</v>
@@ -610,22 +606,22 @@
         <v>72.37</v>
       </c>
       <c r="B6">
-        <v>97.2</v>
+        <v>91.8</v>
       </c>
       <c r="C6">
-        <v>2.0099999999999998</v>
+        <v>1.93</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-6.44</v>
+        <v>-3.3</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -634,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-0.43</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>113.11</v>
+        <v>108.45</v>
       </c>
       <c r="M6">
         <v>4736</v>
@@ -648,25 +644,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>97.91</v>
+        <v>93.65</v>
       </c>
       <c r="B7">
-        <v>115.2</v>
+        <v>109.8</v>
       </c>
       <c r="C7">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.46</v>
+        <v>-10.86</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.18</v>
+        <v>-0.03</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -678,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>95.53</v>
+        <v>108.77</v>
       </c>
       <c r="M7">
         <v>4478</v>
@@ -689,25 +685,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>119.19</v>
+        <v>123.45</v>
       </c>
       <c r="B8">
-        <v>133.19999999999999</v>
+        <v>127.8</v>
       </c>
       <c r="C8">
-        <v>3.98</v>
+        <v>3.86</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-4.33</v>
+        <v>-7.87</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.16</v>
+        <v>-0.12</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -716,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-0.32</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>90.99</v>
+        <v>79.87</v>
       </c>
       <c r="M8">
         <v>4201</v>
@@ -730,25 +726,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>140.47</v>
+        <v>144.72999999999999</v>
       </c>
       <c r="B9">
-        <v>151.19999999999999</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="C9">
-        <v>5.27</v>
+        <v>5.17</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-10.039999999999999</v>
+        <v>-12.82</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.22</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -757,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>87.58</v>
+        <v>76.53</v>
       </c>
       <c r="M9">
         <v>4505</v>
@@ -771,25 +767,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>161.76</v>
+        <v>157.5</v>
       </c>
       <c r="B10">
-        <v>169.2</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="C10">
-        <v>6.77</v>
+        <v>6.64</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-10.1</v>
+        <v>-8.15</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.01</v>
+        <v>-0.34</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -798,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>81.260000000000005</v>
+        <v>97.87</v>
       </c>
       <c r="M10">
         <v>4494</v>
@@ -812,25 +808,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>183.04</v>
+        <v>178.79</v>
       </c>
       <c r="B11">
-        <v>187.2</v>
+        <v>181.8</v>
       </c>
       <c r="C11">
-        <v>8.42</v>
+        <v>8.33</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-4.91</v>
+        <v>-13.55</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1</v>
+        <v>-0.45</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -839,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>75.099999999999994</v>
+        <v>93.87</v>
       </c>
       <c r="M11">
         <v>4584</v>
@@ -853,25 +849,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>187.3</v>
+        <v>200.07</v>
       </c>
       <c r="B12">
-        <v>205.2</v>
+        <v>199.8</v>
       </c>
       <c r="C12">
-        <v>10.26</v>
+        <v>10.23</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-2.23</v>
+        <v>-13.37</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-0.16</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -880,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>120.59</v>
+        <v>87.87</v>
       </c>
       <c r="M12">
         <v>4824</v>
@@ -897,22 +893,22 @@
         <v>208.58</v>
       </c>
       <c r="B13">
-        <v>223.2</v>
+        <v>217.8</v>
       </c>
       <c r="C13">
-        <v>12.31</v>
+        <v>12.27</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-4.7300000000000004</v>
+        <v>-9.2799999999999994</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.22</v>
+        <v>-0.65</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -921,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>114.82</v>
+        <v>92.45</v>
       </c>
       <c r="M13">
         <v>5023</v>
@@ -935,25 +931,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>221.35</v>
+        <v>234.12</v>
       </c>
       <c r="B14">
-        <v>241.2</v>
+        <v>235.8</v>
       </c>
       <c r="C14">
-        <v>14.54</v>
+        <v>14.47</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-2.2000000000000002</v>
+        <v>-6.44</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.24</v>
+        <v>-0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -962,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>132.96</v>
+        <v>75.430000000000007</v>
       </c>
       <c r="M14">
         <v>5084</v>
@@ -976,25 +972,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>242.64</v>
+        <v>238.38</v>
       </c>
       <c r="B15">
-        <v>259.2</v>
+        <v>253.8</v>
       </c>
       <c r="C15">
-        <v>16.95</v>
+        <v>16.84</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-4.5199999999999996</v>
+        <v>-4.97</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.26</v>
+        <v>-0.83</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1003,13 +999,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>124.36</v>
+        <v>117.33</v>
       </c>
       <c r="M15">
         <v>4887</v>
@@ -1017,25 +1013,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>272.43</v>
+        <v>259.66000000000003</v>
       </c>
       <c r="B16">
-        <v>277.2</v>
+        <v>271.8</v>
       </c>
       <c r="C16">
-        <v>19.559999999999999</v>
+        <v>19.36</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-6.56</v>
+        <v>-5.86</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.3</v>
+        <v>-0.89</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1044,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>92.07</v>
+        <v>114.62</v>
       </c>
       <c r="M16">
         <v>4668</v>
@@ -1058,25 +1054,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>285.20999999999998</v>
+        <v>276.69</v>
       </c>
       <c r="B17">
-        <v>295.2</v>
+        <v>289.8</v>
       </c>
       <c r="C17">
-        <v>22.3</v>
+        <v>22.03</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-8.33</v>
+        <v>-12.08</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-0.38</v>
+        <v>-0.97</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1085,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>112.78</v>
+        <v>126.72</v>
       </c>
       <c r="M17">
         <v>4463</v>
@@ -1099,25 +1095,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>310.75</v>
+        <v>297.98</v>
       </c>
       <c r="B18">
-        <v>313.2</v>
+        <v>307.8</v>
       </c>
       <c r="C18">
-        <v>25.25</v>
+        <v>24.9</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-7.66</v>
+        <v>-12.39</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.47</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1126,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>93.89</v>
+        <v>124.55</v>
       </c>
       <c r="M18">
         <v>4623</v>
@@ -1140,25 +1136,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>327.77</v>
+        <v>315</v>
       </c>
       <c r="B19">
-        <v>331.2</v>
+        <v>325.8</v>
       </c>
       <c r="C19">
-        <v>28.37</v>
+        <v>28.02</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-0.57999999999999996</v>
+        <v>-12.24</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.5</v>
+        <v>-1.22</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1170,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>97.24</v>
+        <v>132.78</v>
       </c>
       <c r="M19">
         <v>4822</v>
@@ -1181,25 +1177,25 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>344.8</v>
+        <v>332.03</v>
       </c>
       <c r="B20">
-        <v>349.2</v>
+        <v>343.8</v>
       </c>
       <c r="C20">
-        <v>31.7</v>
+        <v>31.29</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.82</v>
+        <v>-8.18</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-0.51</v>
+        <v>-1.34</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1208,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>102.99</v>
+        <v>126.58</v>
       </c>
       <c r="M20">
         <v>4665</v>
@@ -1222,25 +1218,25 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>361.83</v>
+        <v>344.8</v>
       </c>
       <c r="B21">
-        <v>367.2</v>
+        <v>361.8</v>
       </c>
       <c r="C21">
-        <v>35.19</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7</v>
+        <v>-7.84</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.5</v>
+        <v>-1.4</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1249,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>108.42</v>
+        <v>145.4</v>
       </c>
       <c r="M21">
         <v>4732</v>
@@ -1263,25 +1259,25 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>374.6</v>
+        <v>370.34</v>
       </c>
       <c r="B22">
-        <v>385.2</v>
+        <v>379.8</v>
       </c>
       <c r="C22">
-        <v>38.840000000000003</v>
+        <v>38.33</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-6.65</v>
+        <v>-5.07</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.54</v>
+        <v>-1.46</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1290,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>129.33000000000001</v>
+        <v>129.32</v>
       </c>
       <c r="M22">
         <v>4756</v>
@@ -1304,25 +1300,25 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>395.88</v>
+        <v>383.11</v>
       </c>
       <c r="B23">
-        <v>403.2</v>
+        <v>397.8</v>
       </c>
       <c r="C23">
-        <v>42.67</v>
+        <v>42.11</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-5.68</v>
+        <v>-8.91</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.57999999999999996</v>
+        <v>-1.55</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1331,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>123.34</v>
+        <v>153.09</v>
       </c>
       <c r="M23">
         <v>4463</v>
@@ -1345,25 +1341,25 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>417.17</v>
+        <v>408.65</v>
       </c>
       <c r="B24">
-        <v>421.2</v>
+        <v>415.8</v>
       </c>
       <c r="C24">
-        <v>46.7</v>
+        <v>46.1</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.93</v>
+        <v>-13.15</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-0.6</v>
+        <v>-1.64</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1372,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>114.97</v>
+        <v>137.12</v>
       </c>
       <c r="M24">
         <v>4601</v>
@@ -1386,25 +1382,25 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>408.65</v>
+        <v>434.19</v>
       </c>
       <c r="B25">
-        <v>439.2</v>
+        <v>433.8</v>
       </c>
       <c r="C25">
-        <v>50.86</v>
+        <v>50.31</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.05</v>
+        <v>-3.6</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>-0.59</v>
+        <v>-1.73</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1416,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>113.62</v>
+        <v>117.84</v>
       </c>
       <c r="M25">
         <v>4699</v>
@@ -1427,25 +1423,25 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>429.94</v>
+        <v>434.19</v>
       </c>
       <c r="B26">
-        <v>457.2</v>
+        <v>451.8</v>
       </c>
       <c r="C26">
-        <v>55.1</v>
+        <v>54.64</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-5.89</v>
+        <v>-4.18</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>-0.57999999999999996</v>
+        <v>-1.77</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1454,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>112.89</v>
+        <v>165.06</v>
       </c>
       <c r="M26">
         <v>4688</v>
@@ -1468,25 +1464,25 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>442.71</v>
+        <v>463.99</v>
       </c>
       <c r="B27">
-        <v>475.2</v>
+        <v>469.8</v>
       </c>
       <c r="C27">
-        <v>59.45</v>
+        <v>59.15</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.95</v>
+        <v>-11.72</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>-0.67</v>
+        <v>-1.84</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1495,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>137.80000000000001</v>
+        <v>138</v>
       </c>
       <c r="M27">
         <v>4609</v>
@@ -1509,25 +1505,25 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>468.25</v>
+        <v>481.02</v>
       </c>
       <c r="B28">
-        <v>493.2</v>
+        <v>487.8</v>
       </c>
       <c r="C28">
-        <v>64.010000000000005</v>
+        <v>63.86</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>10.56</v>
+        <v>-11.02</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.63</v>
+        <v>-1.95</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1536,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>121.47</v>
+        <v>146.72999999999999</v>
       </c>
       <c r="M28">
         <v>4796</v>
@@ -1550,25 +1546,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>481.02</v>
+        <v>498.04</v>
       </c>
       <c r="B29">
         <v>500.4</v>
       </c>
       <c r="C29">
-        <v>68.739999999999995</v>
+        <v>68.75</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>8.42</v>
+        <v>-4.97</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.53</v>
+        <v>-2.04</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1577,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>112.47</v>
+        <v>137.41</v>
       </c>
       <c r="M29">
         <v>5053</v>
@@ -1591,25 +1587,25 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>468.25</v>
+        <v>502.3</v>
       </c>
       <c r="B30">
         <v>500</v>
       </c>
       <c r="C30">
-        <v>73.459999999999994</v>
+        <v>73.7</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-8.5399999999999991</v>
+        <v>-7.08</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.52</v>
+        <v>-2.1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1618,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>-0.39</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>143.24</v>
+        <v>107.32</v>
       </c>
       <c r="M30">
         <v>4943</v>
@@ -1632,25 +1628,25 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>485.27</v>
+        <v>498.04</v>
       </c>
       <c r="B31">
         <v>500</v>
       </c>
       <c r="C31">
-        <v>78.22</v>
+        <v>78.7</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-5.98</v>
+        <v>-8.27</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>-0.61</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1659,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>99.52</v>
+        <v>120.56</v>
       </c>
       <c r="M31">
         <v>5026</v>
@@ -1673,25 +1669,25 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>485.27</v>
+        <v>506.56</v>
       </c>
       <c r="B32">
         <v>500</v>
       </c>
       <c r="C32">
-        <v>83.05</v>
+        <v>83.74</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>6.1</v>
+        <v>-2.5</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>-0.63</v>
+        <v>-2.25</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1700,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>102.21</v>
+        <v>92.23</v>
       </c>
       <c r="M32">
         <v>5120</v>
@@ -1714,25 +1710,25 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>489.53</v>
+        <v>506.56</v>
       </c>
       <c r="B33">
         <v>500</v>
       </c>
       <c r="C33">
-        <v>87.93</v>
+        <v>88.76</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>13.24</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>-0.52</v>
+        <v>-2.27</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1741,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>-0.39</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>90.97</v>
+        <v>91.45</v>
       </c>
       <c r="M33">
         <v>5319</v>
@@ -1755,25 +1751,25 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>489.53</v>
+        <v>510.82</v>
       </c>
       <c r="B34">
         <v>500</v>
       </c>
       <c r="C34">
-        <v>2.44</v>
+        <v>3.52</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>-5.49</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1782,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>-0.63</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>97.57</v>
+        <v>78.040000000000006</v>
       </c>
       <c r="M34">
         <v>4781</v>
@@ -1796,25 +1792,25 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>485.27</v>
+        <v>502.3</v>
       </c>
       <c r="B35">
         <v>500</v>
       </c>
       <c r="C35">
-        <v>7.32</v>
+        <v>8.56</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>-6.47</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>-0.09</v>
+        <v>0.01</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1823,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>114.83</v>
+        <v>102.51</v>
       </c>
       <c r="M35">
         <v>4557</v>
@@ -1837,25 +1833,25 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>493.79</v>
+        <v>498.04</v>
       </c>
       <c r="B36">
         <v>500</v>
       </c>
       <c r="C36">
-        <v>12.24</v>
+        <v>13.6</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>3.78</v>
+        <v>-1.28</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>-7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1864,13 +1860,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>89.63</v>
+        <v>114.33</v>
       </c>
       <c r="M36">
         <v>5105</v>
@@ -1878,40 +1874,40 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>489.53</v>
+        <v>510.82</v>
       </c>
       <c r="B37">
         <v>500</v>
       </c>
       <c r="C37">
-        <v>17.149999999999999</v>
+        <v>18.64</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37">
-        <v>2.2000000000000002</v>
+        <v>-1.34</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>-14323.91</v>
       </c>
       <c r="J37">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>105.04</v>
+        <v>75.02</v>
       </c>
       <c r="M37">
         <v>5091</v>
@@ -1919,40 +1915,40 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>489.53</v>
+        <v>493.79</v>
       </c>
       <c r="B38">
         <v>500</v>
       </c>
       <c r="C38">
-        <v>22.09</v>
+        <v>23.63</v>
       </c>
       <c r="D38">
-        <v>21.43</v>
+        <v>22.93</v>
       </c>
       <c r="E38">
-        <v>3.72</v>
+        <v>-3.81</v>
       </c>
       <c r="F38">
-        <v>-85.94</v>
+        <v>-128.91999999999999</v>
       </c>
       <c r="G38">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="H38">
-        <v>-0.26</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="I38">
         <v>-14323.91</v>
       </c>
       <c r="J38">
-        <v>-2.88</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>48.06</v>
       </c>
       <c r="L38">
-        <v>68.73</v>
+        <v>55.32</v>
       </c>
       <c r="M38">
         <v>1691</v>
@@ -1960,40 +1956,40 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>502.3</v>
+        <v>510.82</v>
       </c>
       <c r="B39">
         <v>500</v>
       </c>
       <c r="C39">
-        <v>27.03</v>
+        <v>28.66</v>
       </c>
       <c r="D39">
-        <v>26.43</v>
+        <v>27.93</v>
       </c>
       <c r="E39">
-        <v>-45.29</v>
+        <v>-122.68</v>
       </c>
       <c r="F39">
-        <v>-229.18</v>
+        <v>-272.14999999999998</v>
       </c>
       <c r="G39">
-        <v>-0.14000000000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="H39">
-        <v>-1.83</v>
+        <v>-2.59</v>
       </c>
       <c r="I39">
         <v>-14323.91</v>
       </c>
       <c r="J39">
-        <v>-15.05</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>61.66</v>
       </c>
       <c r="L39">
-        <v>-17.41</v>
+        <v>-15.65</v>
       </c>
       <c r="M39">
         <v>63590</v>
@@ -2001,40 +1997,40 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>489.53</v>
+        <v>498.04</v>
       </c>
       <c r="B40">
         <v>500</v>
       </c>
       <c r="C40">
-        <v>31.97</v>
+        <v>33.64</v>
       </c>
       <c r="D40">
-        <v>31.43</v>
+        <v>32.93</v>
       </c>
       <c r="E40">
-        <v>-157.22999999999999</v>
+        <v>-237.95</v>
       </c>
       <c r="F40">
-        <v>-372.42</v>
+        <v>-415.39</v>
       </c>
       <c r="G40">
-        <v>-1.2</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="H40">
-        <v>-4.84</v>
+        <v>-6.02</v>
       </c>
       <c r="I40">
         <v>-14323.91</v>
       </c>
       <c r="J40">
-        <v>-31.25</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>75.27</v>
       </c>
       <c r="L40">
-        <v>-6.08</v>
+        <v>5.33</v>
       </c>
       <c r="M40">
         <v>58995</v>
@@ -2042,25 +2038,25 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B41">
         <v>500</v>
       </c>
       <c r="C41">
-        <v>36.880000000000003</v>
+        <v>38.57</v>
       </c>
       <c r="D41">
-        <v>36.43</v>
+        <v>34.43</v>
       </c>
       <c r="E41">
-        <v>-323.20999999999998</v>
+        <v>-358.67</v>
       </c>
       <c r="F41">
         <v>-458.37</v>
       </c>
       <c r="G41">
-        <v>-3.66</v>
+        <v>-5.19</v>
       </c>
       <c r="H41">
         <v>-7.33</v>
@@ -2069,13 +2065,13 @@
         <v>-14323.91</v>
       </c>
       <c r="J41">
-        <v>-46.52</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="L41">
-        <v>0.72</v>
+        <v>-14.15</v>
       </c>
       <c r="M41">
         <v>55859</v>
@@ -2083,40 +2079,40 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>493.79</v>
+        <v>489.53</v>
       </c>
       <c r="B42">
         <v>500</v>
       </c>
       <c r="C42">
-        <v>41.8</v>
+        <v>43.55</v>
       </c>
       <c r="D42">
-        <v>41.43</v>
+        <v>35.93</v>
       </c>
       <c r="E42">
-        <v>-430.02</v>
+        <v>-443.21</v>
       </c>
       <c r="F42">
         <v>-458.37</v>
       </c>
       <c r="G42">
-        <v>-7.55</v>
+        <v>-9.19</v>
       </c>
       <c r="H42">
-        <v>-7.33</v>
+        <v>-8.7100000000000009</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>-52.08</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L42">
-        <v>40.1</v>
+        <v>56.32</v>
       </c>
       <c r="M42">
         <v>56727</v>
@@ -2124,40 +2120,40 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>485.27</v>
+        <v>498.04</v>
       </c>
       <c r="B43">
         <v>500</v>
       </c>
       <c r="C43">
-        <v>46.71</v>
+        <v>48.47</v>
       </c>
       <c r="D43">
-        <v>38.93</v>
+        <v>40.93</v>
       </c>
       <c r="E43">
-        <v>-475.52</v>
+        <v>-469.21</v>
       </c>
       <c r="F43">
         <v>-458.37</v>
       </c>
       <c r="G43">
-        <v>-12.14</v>
+        <v>-13.79</v>
       </c>
       <c r="H43">
-        <v>-11.46</v>
+        <v>-13.29</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>-51.98</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L43">
-        <v>86.68</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="M43">
         <v>58153</v>
@@ -2165,40 +2161,40 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>498.04</v>
+        <v>493.79</v>
       </c>
       <c r="B44">
         <v>500</v>
       </c>
       <c r="C44">
-        <v>51.66</v>
+        <v>53.4</v>
       </c>
       <c r="D44">
-        <v>43.93</v>
+        <v>45.93</v>
       </c>
       <c r="E44">
-        <v>-488.04</v>
+        <v>-472.93</v>
       </c>
       <c r="F44">
         <v>-458.37</v>
       </c>
       <c r="G44">
-        <v>-17.010000000000002</v>
+        <v>-18.55</v>
       </c>
       <c r="H44">
-        <v>-16.04</v>
+        <v>-17.88</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>-49.76</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L44">
-        <v>57.07</v>
+        <v>54.61</v>
       </c>
       <c r="M44">
         <v>56094</v>
@@ -2206,40 +2202,40 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>498.04</v>
+        <v>485.27</v>
       </c>
       <c r="B45">
         <v>500</v>
       </c>
       <c r="C45">
-        <v>56.63</v>
+        <v>58.34</v>
       </c>
       <c r="D45">
-        <v>48.93</v>
+        <v>50.93</v>
       </c>
       <c r="E45">
-        <v>-461.61</v>
+        <v>-459.08</v>
       </c>
       <c r="F45">
         <v>-458.37</v>
       </c>
       <c r="G45">
-        <v>-21.75</v>
+        <v>-23.2</v>
       </c>
       <c r="H45">
-        <v>-20.63</v>
+        <v>-22.46</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>-48.48</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L45">
-        <v>48.74</v>
+        <v>79.83</v>
       </c>
       <c r="M45">
         <v>56744</v>
@@ -2253,34 +2249,34 @@
         <v>500</v>
       </c>
       <c r="C46">
-        <v>61.52</v>
+        <v>63.24</v>
       </c>
       <c r="D46">
-        <v>53.93</v>
+        <v>55.93</v>
       </c>
       <c r="E46">
-        <v>-465.06</v>
+        <v>-480.01</v>
       </c>
       <c r="F46">
         <v>-458.37</v>
       </c>
       <c r="G46">
-        <v>-26.33</v>
+        <v>-27.86</v>
       </c>
       <c r="H46">
-        <v>-25.21</v>
+        <v>-27.04</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>-48.48</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L46">
-        <v>66.040000000000006</v>
+        <v>60.44</v>
       </c>
       <c r="M46">
         <v>57627</v>
@@ -2288,40 +2284,40 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>498.04</v>
+        <v>489.53</v>
       </c>
       <c r="B47">
         <v>500</v>
       </c>
       <c r="C47">
-        <v>66.510000000000005</v>
+        <v>68.19</v>
       </c>
       <c r="D47">
-        <v>58.93</v>
+        <v>60.93</v>
       </c>
       <c r="E47">
-        <v>-464.6</v>
+        <v>-461.73</v>
       </c>
       <c r="F47">
         <v>-458.37</v>
       </c>
       <c r="G47">
-        <v>-31.02</v>
+        <v>-32.6</v>
       </c>
       <c r="H47">
-        <v>-29.79</v>
+        <v>-31.63</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>-47.62</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L47">
-        <v>54.39</v>
+        <v>73.17</v>
       </c>
       <c r="M47">
         <v>57038</v>
@@ -2335,34 +2331,34 @@
         <v>500</v>
       </c>
       <c r="C48">
-        <v>71.53</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="D48">
-        <v>63.93</v>
+        <v>65.930000000000007</v>
       </c>
       <c r="E48">
-        <v>-459.75</v>
+        <v>-452.88</v>
       </c>
       <c r="F48">
         <v>-458.37</v>
       </c>
       <c r="G48">
-        <v>-35.619999999999997</v>
+        <v>-37.130000000000003</v>
       </c>
       <c r="H48">
-        <v>-34.380000000000003</v>
+        <v>-36.21</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>-47.53</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L48">
-        <v>64.760000000000005</v>
+        <v>61.78</v>
       </c>
       <c r="M48">
         <v>56385</v>
@@ -2370,40 +2366,40 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B49">
         <v>500</v>
       </c>
       <c r="C49">
-        <v>76.5</v>
+        <v>78.06</v>
       </c>
       <c r="D49">
-        <v>68.930000000000007</v>
+        <v>70.930000000000007</v>
       </c>
       <c r="E49">
-        <v>-476.5</v>
+        <v>-464.87</v>
       </c>
       <c r="F49">
         <v>-458.37</v>
       </c>
       <c r="G49">
-        <v>-40.299999999999997</v>
+        <v>-41.78</v>
       </c>
       <c r="H49">
-        <v>-38.96</v>
+        <v>-40.79</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>-46.71</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L49">
-        <v>60.35</v>
+        <v>39.47</v>
       </c>
       <c r="M49">
         <v>56683</v>
@@ -2417,34 +2413,34 @@
         <v>500</v>
       </c>
       <c r="C50">
-        <v>81.489999999999995</v>
+        <v>83.01</v>
       </c>
       <c r="D50">
-        <v>73.930000000000007</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="E50">
-        <v>-455.54</v>
+        <v>-446.14</v>
       </c>
       <c r="F50">
         <v>-458.37</v>
       </c>
       <c r="G50">
-        <v>-44.97</v>
+        <v>-46.32</v>
       </c>
       <c r="H50">
-        <v>-43.54</v>
+        <v>-45.38</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>-46.07</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L50">
-        <v>52.8</v>
+        <v>51.16</v>
       </c>
       <c r="M50">
         <v>57599</v>
@@ -2452,40 +2448,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>485.27</v>
+        <v>498.04</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
       <c r="C51">
-        <v>86.42</v>
+        <v>87.95</v>
       </c>
       <c r="D51">
-        <v>78.930000000000007</v>
+        <v>80.930000000000007</v>
       </c>
       <c r="E51">
-        <v>-455.44</v>
+        <v>-471.65</v>
       </c>
       <c r="F51">
         <v>-458.37</v>
       </c>
       <c r="G51">
-        <v>-49.45</v>
+        <v>-50.88</v>
       </c>
       <c r="H51">
-        <v>-48.13</v>
+        <v>-49.96</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>-46.85</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L51">
-        <v>92.44</v>
+        <v>56.86</v>
       </c>
       <c r="M51">
         <v>57712</v>
@@ -2499,34 +2495,34 @@
         <v>500</v>
       </c>
       <c r="C52">
-        <v>91.41</v>
+        <v>92.92</v>
       </c>
       <c r="D52">
-        <v>83.93</v>
+        <v>85.93</v>
       </c>
       <c r="E52">
-        <v>-475.49</v>
+        <v>-470.92</v>
       </c>
       <c r="F52">
         <v>-458.37</v>
       </c>
       <c r="G52">
-        <v>-54.2</v>
+        <v>-55.63</v>
       </c>
       <c r="H52">
-        <v>-52.71</v>
+        <v>-54.55</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>-45.58</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L52">
-        <v>63.73</v>
+        <v>57.88</v>
       </c>
       <c r="M52">
         <v>55902</v>
@@ -2534,40 +2530,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>502.3</v>
+        <v>489.53</v>
       </c>
       <c r="B53">
         <v>500</v>
       </c>
       <c r="C53">
-        <v>96.41</v>
+        <v>97.88</v>
       </c>
       <c r="D53">
-        <v>88.93</v>
+        <v>90.93</v>
       </c>
       <c r="E53">
-        <v>-453.34</v>
+        <v>-445.37</v>
       </c>
       <c r="F53">
         <v>-458.37</v>
       </c>
       <c r="G53">
-        <v>-58.83</v>
+        <v>-60.18</v>
       </c>
       <c r="H53">
-        <v>-57.3</v>
+        <v>-59.13</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>-45.17</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L53">
-        <v>42.45</v>
+        <v>81.17</v>
       </c>
       <c r="M53">
         <v>57846</v>
@@ -2581,34 +2577,34 @@
         <v>500</v>
       </c>
       <c r="C54">
-        <v>101.35</v>
+        <v>102.84</v>
       </c>
       <c r="D54">
-        <v>93.93</v>
+        <v>95.93</v>
       </c>
       <c r="E54">
-        <v>-464.94</v>
+        <v>-455.6</v>
       </c>
       <c r="F54">
         <v>-458.37</v>
       </c>
       <c r="G54">
-        <v>-63.35</v>
+        <v>-64.709999999999994</v>
       </c>
       <c r="H54">
-        <v>-61.88</v>
+        <v>-63.71</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>-45.66</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L54">
-        <v>48.49</v>
+        <v>45.67</v>
       </c>
       <c r="M54">
         <v>58096</v>
@@ -2616,40 +2612,40 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>498.04</v>
+        <v>506.56</v>
       </c>
       <c r="B55">
         <v>500</v>
       </c>
       <c r="C55">
-        <v>106.34</v>
+        <v>107.87</v>
       </c>
       <c r="D55">
-        <v>98.93</v>
+        <v>100.93</v>
       </c>
       <c r="E55">
-        <v>-458.95</v>
+        <v>-449.71</v>
       </c>
       <c r="F55">
         <v>-458.37</v>
       </c>
       <c r="G55">
-        <v>-67.569999999999993</v>
+        <v>-69.2</v>
       </c>
       <c r="H55">
-        <v>-66.459999999999994</v>
+        <v>-68.3</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>-44.89</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L55">
-        <v>60.84</v>
+        <v>30.91</v>
       </c>
       <c r="M55">
         <v>55982</v>
@@ -2657,40 +2653,40 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B56">
         <v>500</v>
       </c>
       <c r="C56">
-        <v>111.31</v>
+        <v>112.86</v>
       </c>
       <c r="D56">
-        <v>103.93</v>
+        <v>105.93</v>
       </c>
       <c r="E56">
-        <v>-448.94</v>
+        <v>-457.58</v>
       </c>
       <c r="F56">
         <v>-458.37</v>
       </c>
       <c r="G56">
-        <v>-72.069999999999993</v>
+        <v>-73.75</v>
       </c>
       <c r="H56">
-        <v>-71.05</v>
+        <v>-72.88</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>-45.52</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L56">
-        <v>68.040000000000006</v>
+        <v>45.25</v>
       </c>
       <c r="M56">
         <v>56625</v>
@@ -2698,40 +2694,40 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>502.3</v>
+        <v>493.79</v>
       </c>
       <c r="B57">
         <v>500</v>
       </c>
       <c r="C57">
-        <v>116.29</v>
+        <v>117.84</v>
       </c>
       <c r="D57">
-        <v>108.93</v>
+        <v>110.93</v>
       </c>
       <c r="E57">
-        <v>-474.33</v>
+        <v>-469.45</v>
       </c>
       <c r="F57">
         <v>-458.37</v>
       </c>
       <c r="G57">
-        <v>-76.72</v>
+        <v>-78.430000000000007</v>
       </c>
       <c r="H57">
-        <v>-75.63</v>
+        <v>-77.459999999999994</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>-45.06</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L57">
-        <v>54.95</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="M57">
         <v>58008</v>
@@ -2745,34 +2741,34 @@
         <v>500</v>
       </c>
       <c r="C58">
-        <v>121.29</v>
+        <v>122.81</v>
       </c>
       <c r="D58">
-        <v>113.93</v>
+        <v>115.93</v>
       </c>
       <c r="E58">
-        <v>-453.77</v>
+        <v>-452.73</v>
       </c>
       <c r="F58">
         <v>-458.37</v>
       </c>
       <c r="G58">
-        <v>-81.39</v>
+        <v>-83.02</v>
       </c>
       <c r="H58">
-        <v>-80.209999999999994</v>
+        <v>-82.05</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>14323.91</v>
       </c>
       <c r="J58">
-        <v>-44.34</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>43.54</v>
       </c>
       <c r="L58">
-        <v>61.15</v>
+        <v>59.11</v>
       </c>
       <c r="M58">
         <v>56610</v>
@@ -2780,40 +2776,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>506.56</v>
+        <v>476.76</v>
       </c>
       <c r="B59">
         <v>500</v>
       </c>
       <c r="C59">
-        <v>126.28</v>
+        <v>127.73</v>
       </c>
       <c r="D59">
-        <v>119.43</v>
+        <v>120.93</v>
       </c>
       <c r="E59">
-        <v>-460.72</v>
+        <v>-449.13</v>
       </c>
       <c r="F59">
-        <v>-372.42</v>
+        <v>-329.45</v>
       </c>
       <c r="G59">
-        <v>-85.88</v>
+        <v>-87.55</v>
       </c>
       <c r="H59">
-        <v>-85.16</v>
+        <v>-86.21</v>
       </c>
       <c r="I59">
         <v>14323.91</v>
       </c>
       <c r="J59">
-        <v>-42.64</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>8.1300000000000008</v>
+        <v>-4.51</v>
       </c>
       <c r="L59">
-        <v>80.31</v>
+        <v>205.39</v>
       </c>
       <c r="M59">
         <v>56373</v>
@@ -2821,40 +2817,40 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>498.04</v>
+        <v>506.56</v>
       </c>
       <c r="B60">
         <v>500</v>
       </c>
       <c r="C60">
-        <v>131.26</v>
+        <v>132.72999999999999</v>
       </c>
       <c r="D60">
-        <v>124.43</v>
+        <v>125.93</v>
       </c>
       <c r="E60">
-        <v>-433.53</v>
+        <v>-346.98</v>
       </c>
       <c r="F60">
-        <v>-229.18</v>
+        <v>-186.21</v>
       </c>
       <c r="G60">
-        <v>-90.47</v>
+        <v>-91.57</v>
       </c>
       <c r="H60">
-        <v>-88.17</v>
+        <v>-88.79</v>
       </c>
       <c r="I60">
-        <v>14323.91</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>-29.43</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>37.97</v>
+        <v>-18.12</v>
       </c>
       <c r="L60">
-        <v>201.25</v>
+        <v>155.03</v>
       </c>
       <c r="M60">
         <v>57109</v>
@@ -2862,25 +2858,25 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>506.56</v>
+        <v>493.79</v>
       </c>
       <c r="B61">
         <v>500</v>
       </c>
       <c r="C61">
-        <v>136.28</v>
+        <v>137.77000000000001</v>
       </c>
       <c r="D61">
-        <v>135.43</v>
+        <v>136.93</v>
       </c>
       <c r="E61">
-        <v>-220.61</v>
+        <v>-181.12</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>-93.89</v>
+        <v>-94.09</v>
       </c>
       <c r="H61">
         <v>-88.79</v>
@@ -2889,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>-13.36</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>10.210000000000001</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>125.36</v>
+        <v>198.67</v>
       </c>
       <c r="M61">
         <v>60770</v>
@@ -2903,25 +2899,25 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>498.04</v>
+        <v>502.3</v>
       </c>
       <c r="B62">
         <v>500</v>
       </c>
       <c r="C62">
-        <v>141.27000000000001</v>
+        <v>142.78</v>
       </c>
       <c r="D62">
-        <v>140.43</v>
+        <v>141.93</v>
       </c>
       <c r="E62">
-        <v>-130.34</v>
+        <v>-85.94</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>-95.61</v>
+        <v>-95.32</v>
       </c>
       <c r="H62">
         <v>-88.79</v>
@@ -2930,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>-4.8</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>13.64</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>142.76</v>
+        <v>156.1</v>
       </c>
       <c r="M62">
         <v>362</v>
@@ -2944,25 +2940,25 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>502.3</v>
+        <v>510.82</v>
       </c>
       <c r="B63">
         <v>500</v>
       </c>
       <c r="C63">
-        <v>146.24</v>
+        <v>147.85</v>
       </c>
       <c r="D63">
-        <v>145.43</v>
+        <v>146.93</v>
       </c>
       <c r="E63">
-        <v>-52.31</v>
+        <v>-34.85</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>-96.55</v>
+        <v>-95.87</v>
       </c>
       <c r="H63">
         <v>-88.79</v>
@@ -2971,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>15.51</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>121.72</v>
+        <v>119.35</v>
       </c>
       <c r="M63">
         <v>2865</v>
@@ -2991,34 +2987,34 @@
         <v>500</v>
       </c>
       <c r="C64">
-        <v>151.22999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D64">
-        <v>150.43</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>6.81</v>
+        <v>7.75</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>-96.79</v>
+        <v>0.01</v>
       </c>
       <c r="H64">
-        <v>-88.79</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>111.61</v>
+        <v>119.19</v>
       </c>
       <c r="M64">
         <v>4855</v>
@@ -3026,25 +3022,25 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>498.04</v>
+        <v>506.56</v>
       </c>
       <c r="B65">
         <v>500</v>
       </c>
       <c r="C65">
-        <v>4.01</v>
+        <v>5.61</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>31.59</v>
+        <v>27.01</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3053,13 +3049,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>101.59</v>
+        <v>99.45</v>
       </c>
       <c r="M65">
         <v>4644</v>
@@ -3073,19 +3069,19 @@
         <v>500</v>
       </c>
       <c r="C66">
-        <v>8.99</v>
+        <v>10.66</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>14.98</v>
+        <v>12.88</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3094,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>-1.38</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>-0.97</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>76.77</v>
+        <v>100.69</v>
       </c>
       <c r="M66">
         <v>4532</v>
@@ -3108,25 +3104,25 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>506.56</v>
+        <v>502.3</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67">
-        <v>14.01</v>
+        <v>15.73</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>5.13</v>
+        <v>12.85</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3135,13 +3131,13 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>-1.68</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>-1.08</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>78.67</v>
+        <v>111.24</v>
       </c>
       <c r="M67">
         <v>4942</v>
@@ -3149,25 +3145,25 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>493.79</v>
+        <v>506.56</v>
       </c>
       <c r="B68">
         <v>500</v>
       </c>
       <c r="C68">
-        <v>19.02</v>
+        <v>20.78</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>3.42</v>
+        <v>5.22</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3176,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>-1.89</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>116.64</v>
+        <v>98.54</v>
       </c>
       <c r="M68">
         <v>4881</v>
@@ -3190,25 +3186,25 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>455.48</v>
+        <v>481.02</v>
       </c>
       <c r="B69">
-        <v>491</v>
+        <v>483.8</v>
       </c>
       <c r="C69">
-        <v>23.91</v>
+        <v>25.7</v>
       </c>
       <c r="D69">
-        <v>23.03</v>
+        <v>24.98</v>
       </c>
       <c r="E69">
-        <v>-13.79</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.55000000000000004</v>
+        <v>0.64</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3217,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>-1.73</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>-1.1100000000000001</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>97.62</v>
+        <v>84.09</v>
       </c>
       <c r="M69">
         <v>4755</v>
@@ -3231,25 +3227,25 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>459.73</v>
+        <v>476.76</v>
       </c>
       <c r="B70">
-        <v>473</v>
+        <v>465.8</v>
       </c>
       <c r="C70">
-        <v>28.49</v>
+        <v>30.49</v>
       </c>
       <c r="D70">
-        <v>27.85</v>
+        <v>29.73</v>
       </c>
       <c r="E70">
-        <v>-24.48</v>
+        <v>1.74</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3258,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>-0.89</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>-0.77</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>34.92</v>
+        <v>36.18</v>
       </c>
       <c r="M70">
         <v>4862</v>
@@ -3272,25 +3268,25 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>438.45</v>
+        <v>455.48</v>
       </c>
       <c r="B71">
-        <v>455</v>
+        <v>447.8</v>
       </c>
       <c r="C71">
-        <v>32.979999999999997</v>
+        <v>35.14</v>
       </c>
       <c r="D71">
-        <v>32.49</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="E71">
-        <v>-2.59</v>
+        <v>7.02</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.21</v>
+        <v>0.66</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3299,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>-0.42</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>42.01</v>
+        <v>41.95</v>
       </c>
       <c r="M71">
         <v>5307</v>
@@ -3313,25 +3309,25 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>417.17</v>
+        <v>425.68</v>
       </c>
       <c r="B72">
-        <v>437</v>
+        <v>429.8</v>
       </c>
       <c r="C72">
-        <v>37.26</v>
+        <v>39.58</v>
       </c>
       <c r="D72">
-        <v>36.950000000000003</v>
+        <v>38.69</v>
       </c>
       <c r="E72">
-        <v>4.09</v>
+        <v>2.23</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0.23</v>
+        <v>0.71</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3340,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>52.18</v>
+        <v>72.41</v>
       </c>
       <c r="M72">
         <v>4765</v>
@@ -3354,25 +3350,25 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>400.14</v>
+        <v>417.17</v>
       </c>
       <c r="B73">
-        <v>419</v>
+        <v>411.8</v>
       </c>
       <c r="C73">
-        <v>41.34</v>
+        <v>43.79</v>
       </c>
       <c r="D73">
-        <v>41.23</v>
+        <v>42.89</v>
       </c>
       <c r="E73">
-        <v>-12.15</v>
+        <v>-2.84</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.21</v>
+        <v>0.67</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3381,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>-0.42</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>57.42</v>
+        <v>41.03</v>
       </c>
       <c r="M73">
         <v>4534</v>
@@ -3395,25 +3391,25 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>387.37</v>
+        <v>400.14</v>
       </c>
       <c r="B74">
-        <v>401</v>
+        <v>393.8</v>
       </c>
       <c r="C74">
-        <v>45.31</v>
+        <v>47.85</v>
       </c>
       <c r="D74">
-        <v>45.33</v>
+        <v>46.92</v>
       </c>
       <c r="E74">
-        <v>-3.72</v>
+        <v>6.5</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0.1</v>
+        <v>0.69</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3422,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>69.84</v>
+        <v>31.34</v>
       </c>
       <c r="M74">
         <v>4562</v>
@@ -3436,25 +3432,25 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>378.85</v>
+        <v>374.6</v>
       </c>
       <c r="B75">
-        <v>383</v>
+        <v>375.8</v>
       </c>
       <c r="C75">
-        <v>49.13</v>
+        <v>51.73</v>
       </c>
       <c r="D75">
-        <v>49.25</v>
+        <v>50.77</v>
       </c>
       <c r="E75">
-        <v>3.51</v>
+        <v>1.68</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>7.0000000000000007E-2</v>
+        <v>0.69</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3463,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>16.71</v>
+        <v>53.38</v>
       </c>
       <c r="M75">
         <v>4936</v>
@@ -3477,25 +3473,25 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>361.83</v>
+        <v>353.31</v>
       </c>
       <c r="B76">
-        <v>365</v>
+        <v>357.8</v>
       </c>
       <c r="C76">
-        <v>52.77</v>
+        <v>55.4</v>
       </c>
       <c r="D76">
-        <v>52.99</v>
+        <v>54.44</v>
       </c>
       <c r="E76">
-        <v>5.19</v>
+        <v>0.95</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0.13</v>
+        <v>0.73</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3504,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>-0.26</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>17.68</v>
+        <v>61.24</v>
       </c>
       <c r="M76">
         <v>4776</v>
@@ -3518,25 +3514,25 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>336.29</v>
+        <v>340.54</v>
       </c>
       <c r="B77">
-        <v>347</v>
+        <v>339.8</v>
       </c>
       <c r="C77">
-        <v>56.23</v>
+        <v>58.88</v>
       </c>
       <c r="D77">
-        <v>56.55</v>
+        <v>57.93</v>
       </c>
       <c r="E77">
-        <v>-0.79</v>
+        <v>-2.78</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3545,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>46.39</v>
+        <v>42.61</v>
       </c>
       <c r="M77">
         <v>4919</v>
@@ -3559,25 +3555,25 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>315</v>
+        <v>323.52</v>
       </c>
       <c r="B78">
-        <v>329</v>
+        <v>321.8</v>
       </c>
       <c r="C78">
-        <v>59.52</v>
+        <v>62.21</v>
       </c>
       <c r="D78">
-        <v>59.93</v>
+        <v>61.23</v>
       </c>
       <c r="E78">
-        <v>-12.57</v>
+        <v>-1.34</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0.12</v>
+        <v>0.68</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3586,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>57.42</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="M78">
         <v>4865</v>
@@ -3600,25 +3596,25 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>306.49</v>
+        <v>315</v>
       </c>
       <c r="B79">
-        <v>311</v>
+        <v>303.8</v>
       </c>
       <c r="C79">
-        <v>62.67</v>
+        <v>65.38</v>
       </c>
       <c r="D79">
-        <v>63.13</v>
+        <v>64.36</v>
       </c>
       <c r="E79">
-        <v>-3.42</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.04</v>
+        <v>0.71</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3627,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>-7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>31.94</v>
+        <v>0.63</v>
       </c>
       <c r="M79">
         <v>4912</v>
@@ -3644,22 +3640,22 @@
         <v>289.45999999999998</v>
       </c>
       <c r="B80">
-        <v>293</v>
+        <v>285.8</v>
       </c>
       <c r="C80">
-        <v>65.650000000000006</v>
+        <v>68.37</v>
       </c>
       <c r="D80">
-        <v>66.150000000000006</v>
+        <v>67.31</v>
       </c>
       <c r="E80">
-        <v>-0.82</v>
+        <v>3.94</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3668,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>33.729999999999997</v>
+        <v>20.85</v>
       </c>
       <c r="M80">
         <v>4809</v>
@@ -3682,25 +3678,25 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>276.69</v>
+        <v>268.18</v>
       </c>
       <c r="B81">
-        <v>275</v>
+        <v>267.8</v>
       </c>
       <c r="C81">
-        <v>68.47</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="D81">
-        <v>68.989999999999995</v>
+        <v>70.08</v>
       </c>
       <c r="E81">
-        <v>8.58</v>
+        <v>2.56</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3709,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>19.29</v>
+        <v>26.91</v>
       </c>
       <c r="M81">
         <v>5185</v>
@@ -3723,25 +3719,25 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>251.15</v>
+        <v>246.89</v>
       </c>
       <c r="B82">
-        <v>257</v>
+        <v>249.8</v>
       </c>
       <c r="C82">
-        <v>71.11</v>
+        <v>73.72</v>
       </c>
       <c r="D82">
-        <v>71.650000000000006</v>
+        <v>72.67</v>
       </c>
       <c r="E82">
-        <v>7.57</v>
+        <v>-3.54</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0.14000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3750,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>-0.66</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>47.05</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="M82">
         <v>4888</v>
@@ -3764,25 +3760,25 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>246.89</v>
+        <v>229.87</v>
       </c>
       <c r="B83">
-        <v>239</v>
+        <v>231.8</v>
       </c>
       <c r="C83">
-        <v>73.61</v>
+        <v>76.11</v>
       </c>
       <c r="D83">
-        <v>74.13</v>
+        <v>75.069999999999993</v>
       </c>
       <c r="E83">
-        <v>-5.0999999999999996</v>
+        <v>-2.5299999999999998</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.15</v>
+        <v>0.71</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3791,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>13.13</v>
+        <v>28.93</v>
       </c>
       <c r="M83">
         <v>4774</v>
@@ -3805,25 +3801,25 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>234.12</v>
+        <v>217.1</v>
       </c>
       <c r="B84">
-        <v>221</v>
+        <v>213.8</v>
       </c>
       <c r="C84">
-        <v>75.95</v>
+        <v>78.349999999999994</v>
       </c>
       <c r="D84">
-        <v>76.430000000000007</v>
+        <v>77.3</v>
       </c>
       <c r="E84">
-        <v>-10.62</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.06</v>
+        <v>0.66</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3832,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>4.22</v>
+        <v>9.06</v>
       </c>
       <c r="M84">
         <v>4629</v>
@@ -3846,25 +3842,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>217.1</v>
+        <v>195.81</v>
       </c>
       <c r="B85">
-        <v>203</v>
+        <v>195.8</v>
       </c>
       <c r="C85">
-        <v>78.14</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="D85">
-        <v>78.55</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="E85">
-        <v>-7.75</v>
+        <v>4.58</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>-0.04</v>
+        <v>0.68</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3873,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>5.36</v>
+        <v>13.98</v>
       </c>
       <c r="M85">
         <v>4619</v>
@@ -3887,25 +3883,25 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>195.81</v>
+        <v>187.3</v>
       </c>
       <c r="B86">
-        <v>185</v>
+        <v>177.8</v>
       </c>
       <c r="C86">
-        <v>80.17</v>
+        <v>82.28</v>
       </c>
       <c r="D86">
-        <v>80.489999999999995</v>
+        <v>81.22</v>
       </c>
       <c r="E86">
-        <v>-6.71</v>
+        <v>2.08</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>-0.12</v>
+        <v>0.71</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3914,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>15.5</v>
+        <v>-18.329999999999998</v>
       </c>
       <c r="M86">
         <v>4739</v>
@@ -3928,25 +3924,25 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>174.53</v>
+        <v>161.76</v>
       </c>
       <c r="B87">
-        <v>167</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="C87">
-        <v>82.02</v>
+        <v>83.97</v>
       </c>
       <c r="D87">
-        <v>82.25</v>
+        <v>82.91</v>
       </c>
       <c r="E87">
-        <v>-1.8</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>-0.21</v>
+        <v>0.71</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3955,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>24.39</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="M87">
         <v>4696</v>
@@ -3969,25 +3965,25 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>157.5</v>
+        <v>144.72999999999999</v>
       </c>
       <c r="B88">
-        <v>149</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="C88">
-        <v>83.72</v>
+        <v>85.47</v>
       </c>
       <c r="D88">
-        <v>83.83</v>
+        <v>84.41</v>
       </c>
       <c r="E88">
-        <v>5.46</v>
+        <v>-4.3</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>-0.23</v>
+        <v>0.73</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3996,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>17.79</v>
+        <v>-4.24</v>
       </c>
       <c r="M88">
         <v>4681</v>
@@ -4010,25 +4006,25 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>131.96</v>
+        <v>119.19</v>
       </c>
       <c r="B89">
-        <v>131</v>
+        <v>123.8</v>
       </c>
       <c r="C89">
-        <v>85.21</v>
+        <v>86.8</v>
       </c>
       <c r="D89">
-        <v>85.23</v>
+        <v>85.74</v>
       </c>
       <c r="E89">
-        <v>1.95</v>
+        <v>2.87</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>-0.19</v>
+        <v>0.74</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4037,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>-14.51</v>
+        <v>13.45</v>
       </c>
       <c r="M89">
         <v>4818</v>
@@ -4051,25 +4047,25 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>119.19</v>
+        <v>110.68</v>
       </c>
       <c r="B90">
-        <v>113</v>
+        <v>105.8</v>
       </c>
       <c r="C90">
-        <v>86.47</v>
+        <v>87.96</v>
       </c>
       <c r="D90">
-        <v>86.45</v>
+        <v>86.89</v>
       </c>
       <c r="E90">
-        <v>10.220000000000001</v>
+        <v>4.18</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.73</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4078,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>-36.86</v>
+        <v>-18.649999999999999</v>
       </c>
       <c r="M90">
         <v>5278</v>
@@ -4092,25 +4088,25 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>102.16</v>
+        <v>93.65</v>
       </c>
       <c r="B91">
-        <v>95</v>
+        <v>87.8</v>
       </c>
       <c r="C91">
-        <v>87.53</v>
+        <v>88.95</v>
       </c>
       <c r="D91">
-        <v>87.49</v>
+        <v>87.86</v>
       </c>
       <c r="E91">
-        <v>8.76</v>
+        <v>1.19</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.01</v>
+        <v>0.78</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4119,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>-0.99</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>-25.27</v>
@@ -4133,25 +4129,25 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>85.14</v>
+        <v>76.62</v>
       </c>
       <c r="B92">
-        <v>77</v>
+        <v>69.8</v>
       </c>
       <c r="C92">
-        <v>88.39</v>
+        <v>89.75</v>
       </c>
       <c r="D92">
-        <v>88.35</v>
+        <v>88.65</v>
       </c>
       <c r="E92">
-        <v>-1.5</v>
+        <v>-0.79</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0.06</v>
+        <v>0.76</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4160,13 +4156,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>-1.28</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>-26.18</v>
+        <v>-31.71</v>
       </c>
       <c r="M92">
         <v>4966</v>
@@ -4174,25 +4170,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>68.11</v>
+        <v>55.34</v>
       </c>
       <c r="B93">
-        <v>59</v>
+        <v>51.8</v>
       </c>
       <c r="C93">
-        <v>89.12</v>
+        <v>90.38</v>
       </c>
       <c r="D93">
-        <v>89.03</v>
+        <v>89.25</v>
       </c>
       <c r="E93">
-        <v>1.07</v>
+        <v>-1.65</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4204,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>-30.38</v>
+        <v>-25.38</v>
       </c>
       <c r="M93">
         <v>4925</v>
@@ -4215,25 +4211,25 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>51.08</v>
+        <v>38.31</v>
       </c>
       <c r="B94">
-        <v>41</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C94">
-        <v>89.67</v>
+        <v>90.83</v>
       </c>
       <c r="D94">
-        <v>89.53</v>
+        <v>89.68</v>
       </c>
       <c r="E94">
-        <v>6.93</v>
+        <v>-5.16</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.08</v>
+        <v>0.71</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4242,13 +4238,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>-38.15</v>
+        <v>-31.29</v>
       </c>
       <c r="M94">
         <v>4967</v>
@@ -4256,25 +4252,25 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>25.54</v>
+        <v>17.03</v>
       </c>
       <c r="B95">
-        <v>23</v>
+        <v>15.8</v>
       </c>
       <c r="C95">
-        <v>90.05</v>
+        <v>91.1</v>
       </c>
       <c r="D95">
-        <v>89.85</v>
+        <v>89.93</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>-9.06</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.11</v>
+        <v>0.63</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4286,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>-0.22</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>-13.7</v>
+        <v>-25.14</v>
       </c>
       <c r="M95">
         <v>4960</v>
@@ -4297,25 +4293,25 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>17.03</v>
+        <v>0</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>-0.4</v>
       </c>
       <c r="C96">
-        <v>90.27</v>
+        <v>91.17</v>
       </c>
       <c r="D96">
-        <v>89.99</v>
+        <v>90</v>
       </c>
       <c r="E96">
-        <v>-1.68</v>
+        <v>-1.95</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.12</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4327,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>-0.23</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>-47.28</v>
+        <v>-25.78</v>
       </c>
       <c r="M96">
         <v>4920</v>
@@ -4338,25 +4334,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>0</v>
+        <v>-4.26</v>
       </c>
       <c r="B97">
         <v>-0.4</v>
       </c>
       <c r="C97">
-        <v>90.32</v>
+        <v>91.16</v>
       </c>
       <c r="D97">
         <v>90</v>
       </c>
       <c r="E97">
-        <v>-2.0099999999999998</v>
+        <v>1.01</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.09</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4365,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>-11.45</v>
+        <v>-13.53</v>
       </c>
       <c r="M97">
         <v>4875</v>
@@ -4379,25 +4375,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>0</v>
+        <v>-8.51</v>
       </c>
       <c r="B98">
         <v>-0.4</v>
       </c>
       <c r="C98">
-        <v>90.32</v>
+        <v>91.13</v>
       </c>
       <c r="D98">
         <v>90</v>
       </c>
       <c r="E98">
-        <v>0.85</v>
+        <v>2.11</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.08</v>
+        <v>0.59</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4409,10 +4405,10 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>-15.37</v>
+        <v>-0.54</v>
       </c>
       <c r="M98">
         <v>4882</v>
@@ -4420,25 +4416,25 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>0</v>
+        <v>-4.26</v>
       </c>
       <c r="B99">
         <v>-0.4</v>
       </c>
       <c r="C99">
-        <v>90.32</v>
+        <v>91.09</v>
       </c>
       <c r="D99">
         <v>90</v>
       </c>
       <c r="E99">
-        <v>4.09</v>
+        <v>3.45</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0.11</v>
+        <v>0.61</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4447,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>-19.5</v>
+        <v>-13.51</v>
       </c>
       <c r="M99">
         <v>4869</v>
@@ -4467,19 +4463,19 @@
         <v>-0.4</v>
       </c>
       <c r="C100">
-        <v>90.29</v>
+        <v>91.07</v>
       </c>
       <c r="D100">
         <v>90</v>
       </c>
       <c r="E100">
-        <v>4.0599999999999996</v>
+        <v>2.75</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4488,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>-22.29</v>
+        <v>-26.28</v>
       </c>
       <c r="M100">
         <v>4848</v>
@@ -4502,25 +4498,25 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>-4.26</v>
+        <v>0</v>
       </c>
       <c r="B101">
         <v>-0.4</v>
       </c>
       <c r="C101">
-        <v>90.26</v>
+        <v>91.03</v>
       </c>
       <c r="D101">
         <v>90</v>
       </c>
       <c r="E101">
-        <v>1.1599999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4529,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>-0.47</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>-11.68</v>
+        <v>-25.12</v>
       </c>
       <c r="M101">
         <v>4851</v>
@@ -4543,25 +4539,25 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>0</v>
+        <v>-4.26</v>
       </c>
       <c r="B102">
         <v>-0.4</v>
       </c>
       <c r="C102">
-        <v>90.23</v>
+        <v>91.01</v>
       </c>
       <c r="D102">
         <v>90</v>
       </c>
       <c r="E102">
-        <v>0.52</v>
+        <v>-0.85</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.18</v>
+        <v>0.67</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4570,13 +4566,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>-0.51</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>-26.67</v>
+        <v>-12.23</v>
       </c>
       <c r="M102">
         <v>4849</v>
@@ -4584,16 +4580,16 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>-4.26</v>
+        <v>0</v>
       </c>
       <c r="B103">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>90.2</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4602,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4614,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>-15.49</v>
+        <v>0</v>
       </c>
       <c r="M103">
         <v>4844</v>
@@ -4628,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="B104">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>90.18</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4643,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4655,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>-29.87</v>
+        <v>0</v>
       </c>
       <c r="M104">
         <v>0</v>

--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOSEIDenken\Desktop\halfmouse\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BCD406-85A4-4E11-A3CF-EDC8C974D1ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EFAE01-37F5-40C9-ABC1-FF9FF534B2C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="0" windowWidth="12740" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,32 +399,32 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:L1001"/>
+      <selection sqref="A1:L201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>28</v>
+        <v>12.77</v>
       </c>
       <c r="B1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1">
-        <v>177</v>
+        <v>0.06</v>
       </c>
       <c r="D1">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>-5.62</v>
       </c>
       <c r="F1">
         <v>0</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="K1">
-        <v>7.17</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>7.38</v>
+        <v>46.22</v>
       </c>
       <c r="M1">
         <v>4854</v>
@@ -447,25 +447,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>26</v>
+        <v>25.54</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>43.71</v>
       </c>
       <c r="C2">
-        <v>177</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D2">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.22</v>
+        <v>17.97</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-2.38</v>
       </c>
       <c r="K2">
-        <v>52.75</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>52.99</v>
+        <v>89.91</v>
       </c>
       <c r="M2">
         <v>4887</v>
@@ -488,25 +488,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>36</v>
+        <v>59.6</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>69.430000000000007</v>
       </c>
       <c r="C3">
-        <v>187</v>
+        <v>0.74</v>
       </c>
       <c r="D3">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-8.06</v>
+        <v>8.15</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-2.16</v>
       </c>
       <c r="K3">
-        <v>76.42</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>75.12</v>
+        <v>73.95</v>
       </c>
       <c r="M3">
         <v>4929</v>
@@ -529,25 +529,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>29</v>
+        <v>72.37</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>95.14</v>
       </c>
       <c r="C4">
-        <v>182</v>
+        <v>1.41</v>
       </c>
       <c r="D4">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-7.48</v>
+        <v>6.65</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -556,13 +556,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-2.46</v>
       </c>
       <c r="K4">
-        <v>86.43</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>85.71</v>
+        <v>122.67</v>
       </c>
       <c r="M4">
         <v>4828</v>
@@ -570,25 +570,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>23</v>
+        <v>102.16</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>120.86</v>
       </c>
       <c r="C5">
-        <v>172</v>
+        <v>2.29</v>
       </c>
       <c r="D5">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-7.69</v>
+        <v>6.65</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -597,13 +597,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
       <c r="K5">
-        <v>95.89</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>97.68</v>
+        <v>121.04</v>
       </c>
       <c r="M5">
         <v>4722</v>
@@ -611,25 +611,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>43</v>
+        <v>136.22</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>146.57</v>
       </c>
       <c r="C6">
-        <v>173</v>
+        <v>3.49</v>
       </c>
       <c r="D6">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>-7.2</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="K6">
-        <v>109.22</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>108.39</v>
+        <v>110.14</v>
       </c>
       <c r="M6">
         <v>4736</v>
@@ -652,25 +652,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>16</v>
+        <v>157.5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>172.29</v>
       </c>
       <c r="C7">
-        <v>176</v>
+        <v>4.96</v>
       </c>
       <c r="D7">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-1.92</v>
+        <v>-2.5299999999999998</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -679,13 +679,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K7">
-        <v>92.29</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>93.27</v>
+        <v>132.71</v>
       </c>
       <c r="M7">
         <v>4478</v>
@@ -693,25 +693,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>36</v>
+        <v>191.56</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>195.43</v>
       </c>
       <c r="C8">
-        <v>182</v>
+        <v>6.56</v>
       </c>
       <c r="D8">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-1.56</v>
+        <v>-5.74</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>-0.03</v>
+        <v>0.08</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -720,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="K8">
-        <v>100.35</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>102.26</v>
+        <v>107.52</v>
       </c>
       <c r="M8">
         <v>4201</v>
@@ -734,25 +734,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>25</v>
+        <v>221.35</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>221.14</v>
       </c>
       <c r="C9">
-        <v>177</v>
+        <v>8.59</v>
       </c>
       <c r="D9">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-10.35</v>
+        <v>-11.41</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="K9">
-        <v>82.17</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>86.47</v>
+        <v>101.99</v>
       </c>
       <c r="M9">
         <v>4505</v>
@@ -775,25 +775,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>23</v>
+        <v>234.12</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>246.86</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>10.83</v>
       </c>
       <c r="D10">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-2.72</v>
+        <v>-12.76</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="K10">
-        <v>79.11</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>80.17</v>
+        <v>118.59</v>
       </c>
       <c r="M10">
         <v>4494</v>
@@ -816,25 +816,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>40</v>
+        <v>255.41</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>272.57</v>
       </c>
       <c r="C11">
-        <v>186</v>
+        <v>13.31</v>
       </c>
       <c r="D11">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.67</v>
+        <v>-7.63</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.17</v>
+        <v>-0.09</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K11">
-        <v>113.75</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>114.27</v>
+        <v>140.96</v>
       </c>
       <c r="M11">
         <v>4584</v>
@@ -857,25 +857,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>9</v>
+        <v>280.95</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>298.29000000000002</v>
       </c>
       <c r="C12">
-        <v>173</v>
+        <v>16.04</v>
       </c>
       <c r="D12">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>6.2</v>
+        <v>-6.07</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -884,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="K12">
-        <v>84.47</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>85.55</v>
+        <v>151.82</v>
       </c>
       <c r="M12">
         <v>4824</v>
@@ -898,25 +898,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>39</v>
+        <v>306.49</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="C13">
-        <v>181</v>
+        <v>19.03</v>
       </c>
       <c r="D13">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>-2.56</v>
+        <v>-4.03</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="K13">
-        <v>53.82</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>57.5</v>
+        <v>159.53</v>
       </c>
       <c r="M13">
         <v>5023</v>
@@ -939,25 +939,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>27</v>
+        <v>327.77</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>349.71</v>
       </c>
       <c r="C14">
-        <v>176</v>
+        <v>22.28</v>
       </c>
       <c r="D14">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>101.9</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>104.8</v>
+        <v>181.93</v>
       </c>
       <c r="M14">
         <v>5084</v>
@@ -980,19 +980,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>23</v>
+        <v>366.08</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>375.43</v>
       </c>
       <c r="C15">
-        <v>174</v>
+        <v>25.81</v>
       </c>
       <c r="D15">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-3.81</v>
+        <v>9.34</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-1.22</v>
       </c>
       <c r="K15">
-        <v>97.91</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>100.56</v>
+        <v>151.12</v>
       </c>
       <c r="M15">
         <v>4887</v>
@@ -1021,25 +1021,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>49</v>
+        <v>404.4</v>
       </c>
       <c r="B16">
-        <v>37</v>
+        <v>401.14</v>
       </c>
       <c r="C16">
-        <v>184</v>
+        <v>29.64</v>
       </c>
       <c r="D16">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>-4.5199999999999996</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.23</v>
+        <v>-0.16</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1048,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K16">
-        <v>132.37</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>135.32</v>
+        <v>121.88</v>
       </c>
       <c r="M16">
         <v>4668</v>
@@ -1062,25 +1062,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>10</v>
+        <v>417.17</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>426.86</v>
       </c>
       <c r="C17">
-        <v>151</v>
+        <v>33.68</v>
       </c>
       <c r="D17">
-        <v>521</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>-12.63</v>
+        <v>-9.58</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-0.36</v>
+        <v>-0.22</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1089,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="K17">
-        <v>127.52</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>133.87</v>
+        <v>170.68</v>
       </c>
       <c r="M17">
         <v>4463</v>
@@ -1103,25 +1103,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>40</v>
+        <v>442.71</v>
       </c>
       <c r="B18">
-        <v>33</v>
+        <v>452.57</v>
       </c>
       <c r="C18">
-        <v>199</v>
+        <v>37.979999999999997</v>
       </c>
       <c r="D18">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>-37.630000000000003</v>
+        <v>5.74</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.7</v>
+        <v>-0.24</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="K18">
-        <v>129.18</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>149.97999999999999</v>
+        <v>177.97</v>
       </c>
       <c r="M18">
         <v>4623</v>
@@ -1144,25 +1144,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>28</v>
+        <v>468.25</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>478.29</v>
       </c>
       <c r="C19">
-        <v>177</v>
+        <v>42.55</v>
       </c>
       <c r="D19">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>-9.5500000000000007</v>
+        <v>13.06</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.86</v>
+        <v>-0.13</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1171,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
       <c r="K19">
-        <v>113.78</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>131.38999999999999</v>
+        <v>153.69</v>
       </c>
       <c r="M19">
         <v>4822</v>
@@ -1185,25 +1185,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>27</v>
+        <v>498.04</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>504</v>
       </c>
       <c r="C20">
-        <v>176</v>
+        <v>47.37</v>
       </c>
       <c r="D20">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.08</v>
+        <v>2.72</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-0.91</v>
+        <v>-0.03</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="K20">
-        <v>106.55</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>108.65</v>
+        <v>149.82</v>
       </c>
       <c r="M20">
         <v>4665</v>
@@ -1226,25 +1226,25 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>53</v>
+        <v>515.07000000000005</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>529.71</v>
       </c>
       <c r="C21">
-        <v>196</v>
+        <v>52.41</v>
       </c>
       <c r="D21">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>-4.03</v>
+        <v>-6.62</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.9</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
       <c r="K21">
-        <v>128.81</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>131.46</v>
+        <v>186.29</v>
       </c>
       <c r="M21">
         <v>4732</v>
@@ -1267,25 +1267,25 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>12</v>
+        <v>544.87</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>555.42999999999995</v>
       </c>
       <c r="C22">
-        <v>149</v>
+        <v>57.74</v>
       </c>
       <c r="D22">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>-9.2200000000000006</v>
+        <v>5.13</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.98</v>
+        <v>-0.06</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-2.58</v>
       </c>
       <c r="K22">
-        <v>149.94999999999999</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>155.21</v>
+        <v>180.98</v>
       </c>
       <c r="M22">
         <v>4756</v>
@@ -1308,25 +1308,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>53</v>
+        <v>574.66999999999996</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>581.14</v>
       </c>
       <c r="C23">
-        <v>203</v>
+        <v>63.37</v>
       </c>
       <c r="D23">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-31.04</v>
+        <v>6.2</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-1.19</v>
+        <v>0.01</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-2.94</v>
       </c>
       <c r="K23">
-        <v>142.13</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>156.15</v>
+        <v>160.04</v>
       </c>
       <c r="M23">
         <v>4463</v>
@@ -1349,25 +1349,25 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>34</v>
+        <v>591.69000000000005</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>601.72</v>
       </c>
       <c r="C24">
-        <v>180</v>
+        <v>69.2</v>
       </c>
       <c r="D24">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>-5.58</v>
+        <v>-16.2</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-1.25</v>
+        <v>-0.04</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="K24">
-        <v>143.69</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>147.26</v>
+        <v>180.68</v>
       </c>
       <c r="M24">
         <v>4601</v>
@@ -1390,25 +1390,25 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>28</v>
+        <v>587.44000000000005</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>600</v>
       </c>
       <c r="C25">
-        <v>175</v>
+        <v>75.11</v>
       </c>
       <c r="D25">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>4.91</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>-1.27</v>
+        <v>-0.15</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="K25">
-        <v>140.75</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>141.93</v>
+        <v>158.25</v>
       </c>
       <c r="M25">
         <v>4699</v>
@@ -1431,25 +1431,25 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>59</v>
+        <v>600.21</v>
       </c>
       <c r="B26">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="C26">
-        <v>199</v>
+        <v>81.06</v>
       </c>
       <c r="D26">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>-11.93</v>
+        <v>5.62</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>-1.36</v>
+        <v>-0.13</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>130.5</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>136.97999999999999</v>
+        <v>121.38</v>
       </c>
       <c r="M26">
         <v>4688</v>
@@ -1472,40 +1472,40 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>0</v>
+        <v>587.44000000000005</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="C27">
-        <v>161</v>
+        <v>87.03</v>
       </c>
       <c r="D27">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>-12.24</v>
+        <v>-11.78</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>-1.48</v>
+        <v>-0.21</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>-389</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>-77.8</v>
+        <v>2.65</v>
       </c>
       <c r="K27">
-        <v>229.89</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>83.35</v>
+        <v>162.25</v>
       </c>
       <c r="M27">
         <v>4609</v>
@@ -1513,25 +1513,25 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>54</v>
+        <v>591.69000000000005</v>
       </c>
       <c r="B28">
-        <v>47</v>
+        <v>600</v>
       </c>
       <c r="C28">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>558</v>
+        <v>2.4</v>
       </c>
       <c r="E28">
-        <v>-11.81</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-1.55</v>
+        <v>0.01</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="K28">
-        <v>150.57</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>155.88999999999999</v>
+        <v>146.08000000000001</v>
       </c>
       <c r="M28">
         <v>4796</v>
@@ -1554,89 +1554,89 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>48</v>
+        <v>600.21</v>
       </c>
       <c r="B29">
-        <v>43</v>
+        <v>600</v>
       </c>
       <c r="C29">
-        <v>197</v>
+        <v>9.01</v>
       </c>
       <c r="D29">
-        <v>549</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="E29">
-        <v>-6.93</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>-51.57</v>
       </c>
       <c r="G29">
-        <v>-1.57</v>
+        <v>0.05</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>-8594.35</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>-13.81</v>
       </c>
       <c r="K29">
-        <v>138.16999999999999</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>142.13999999999999</v>
+        <v>58.43</v>
       </c>
       <c r="M29">
         <v>5053</v>
       </c>
       <c r="N29">
         <f>AVERAGE(K30:K36)</f>
-        <v>106.33571428571429</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <f>AVERAGE(L30:L36)</f>
-        <v>109.26571428571428</v>
+        <v>45.954285714285717</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>38</v>
+        <v>595.95000000000005</v>
       </c>
       <c r="B30">
-        <v>32</v>
+        <v>600</v>
       </c>
       <c r="C30">
-        <v>188</v>
+        <v>14.98</v>
       </c>
       <c r="D30">
-        <v>528</v>
+        <v>14.37</v>
       </c>
       <c r="E30">
-        <v>-22.4</v>
+        <v>-138.09</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>-137.51</v>
       </c>
       <c r="G30">
-        <v>-1.7</v>
+        <v>-0.62</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>-8594.35</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>-9.2200000000000006</v>
       </c>
       <c r="K30">
-        <v>96.86</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>106.72</v>
+        <v>67.69</v>
       </c>
       <c r="M30">
         <v>4943</v>
@@ -1644,40 +1644,40 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>40</v>
+        <v>604.46</v>
       </c>
       <c r="B31">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="C31">
-        <v>184</v>
+        <v>20.98</v>
       </c>
       <c r="D31">
-        <v>536</v>
+        <v>20.37</v>
       </c>
       <c r="E31">
-        <v>4.79</v>
+        <v>-198.73</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>-223.45</v>
       </c>
       <c r="G31">
-        <v>-1.75</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>-8594.35</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-19.39</v>
       </c>
       <c r="K31">
-        <v>100.93</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>102.55</v>
+        <v>23.03</v>
       </c>
       <c r="M31">
         <v>5026</v>
@@ -1685,40 +1685,40 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>47</v>
+        <v>591.69000000000005</v>
       </c>
       <c r="B32">
-        <v>41</v>
+        <v>600</v>
       </c>
       <c r="C32">
-        <v>157</v>
+        <v>26.98</v>
       </c>
       <c r="D32">
-        <v>502</v>
+        <v>26.37</v>
       </c>
       <c r="E32">
-        <v>9.25</v>
+        <v>-304.66000000000003</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>-309.39999999999998</v>
       </c>
       <c r="G32">
-        <v>-1.65</v>
+        <v>-4.67</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-5.57</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>-8594.35</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>-20.010000000000002</v>
       </c>
       <c r="K32">
-        <v>114.65</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>113.24</v>
+        <v>53.2</v>
       </c>
       <c r="M32">
         <v>5120</v>
@@ -1726,40 +1726,40 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>54</v>
+        <v>604.46</v>
       </c>
       <c r="B33">
-        <v>49</v>
+        <v>600</v>
       </c>
       <c r="C33">
-        <v>172</v>
+        <v>32.99</v>
       </c>
       <c r="D33">
-        <v>541</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="E33">
-        <v>3.45</v>
+        <v>-403.47</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>-395.34</v>
       </c>
       <c r="G33">
-        <v>-1.56</v>
+        <v>-8.24</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>-9.09</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>-8594.35</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>-15.17</v>
       </c>
       <c r="K33">
-        <v>114.51</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>112.51</v>
+        <v>11.28</v>
       </c>
       <c r="M33">
         <v>5319</v>
@@ -1767,40 +1767,40 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>51</v>
+        <v>595.95000000000005</v>
       </c>
       <c r="B34">
-        <v>48</v>
+        <v>600</v>
       </c>
       <c r="C34">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>525</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="E34">
-        <v>-6.13</v>
+        <v>-485.38</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>-481.28</v>
       </c>
       <c r="G34">
-        <v>-1.59</v>
+        <v>-12.68</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>-13.48</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>-8594.35</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K34">
-        <v>110.65</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>114.99</v>
+        <v>44.75</v>
       </c>
       <c r="M34">
         <v>4781</v>
@@ -1808,40 +1808,40 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>51</v>
+        <v>600.21</v>
       </c>
       <c r="B35">
-        <v>46</v>
+        <v>600</v>
       </c>
       <c r="C35">
-        <v>48</v>
+        <v>44.94</v>
       </c>
       <c r="D35">
-        <v>507</v>
+        <v>44.37</v>
       </c>
       <c r="E35">
-        <v>-9.1199999999999992</v>
+        <v>-560.79</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>-567.23</v>
       </c>
       <c r="G35">
-        <v>-1.66</v>
+        <v>-17.88</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>-18.72</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>-8594.35</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>-3.87</v>
       </c>
       <c r="K35">
-        <v>108.64</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>115.11</v>
+        <v>21.87</v>
       </c>
       <c r="M35">
         <v>4557</v>
@@ -1849,40 +1849,40 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>59</v>
+        <v>591.69000000000005</v>
       </c>
       <c r="B36">
-        <v>61</v>
+        <v>600</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>50.94</v>
       </c>
       <c r="D36">
-        <v>525</v>
+        <v>47.97</v>
       </c>
       <c r="E36">
-        <v>4.79</v>
+        <v>-590.52</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>-572.96</v>
       </c>
       <c r="G36">
-        <v>-1.69</v>
+        <v>-23.66</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-22.54</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="K36">
-        <v>98.11</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>99.74</v>
+        <v>99.86</v>
       </c>
       <c r="M36">
         <v>5105</v>
@@ -1890,40 +1890,40 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>57</v>
+        <v>595.95000000000005</v>
       </c>
       <c r="B37">
-        <v>49</v>
+        <v>600</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>56.91</v>
       </c>
       <c r="D37">
-        <v>496</v>
+        <v>53.97</v>
       </c>
       <c r="E37">
-        <v>10.38</v>
+        <v>-593.41</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>-572.96</v>
       </c>
       <c r="G37">
-        <v>-1.6</v>
+        <v>-29.56</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-28.27</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>6.37</v>
       </c>
       <c r="K37">
-        <v>73.11</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>71.760000000000005</v>
+        <v>89.93</v>
       </c>
       <c r="M37">
         <v>5091</v>
@@ -1931,40 +1931,40 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>69</v>
+        <v>600.21</v>
       </c>
       <c r="B38">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>62.92</v>
       </c>
       <c r="D38">
-        <v>487</v>
+        <v>59.97</v>
       </c>
       <c r="E38">
-        <v>5.95</v>
+        <v>-562.67999999999995</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>-572.96</v>
       </c>
       <c r="G38">
-        <v>-1.54</v>
+        <v>-35.36</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>-1.64</v>
       </c>
       <c r="K38">
-        <v>98.05</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>96.27</v>
+        <v>69.28</v>
       </c>
       <c r="M38">
         <v>1691</v>
@@ -1972,40 +1972,40 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>65</v>
+        <v>600.21</v>
       </c>
       <c r="B39">
-        <v>58</v>
+        <v>600</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>68.87</v>
       </c>
       <c r="D39">
-        <v>494</v>
+        <v>65.97</v>
       </c>
       <c r="E39">
-        <v>2.17</v>
+        <v>-564.09</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>-572.96</v>
       </c>
       <c r="G39">
-        <v>-1.54</v>
+        <v>-40.89</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-39.72</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
       <c r="K39">
-        <v>95.66</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>97.8</v>
+        <v>66.02</v>
       </c>
       <c r="M39">
         <v>63590</v>
@@ -2013,40 +2013,40 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>69</v>
+        <v>600.21</v>
       </c>
       <c r="B40">
-        <v>58</v>
+        <v>600</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>74.819999999999993</v>
       </c>
       <c r="D40">
-        <v>491</v>
+        <v>71.97</v>
       </c>
       <c r="E40">
-        <v>5.71</v>
+        <v>-547.79</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>-572.96</v>
       </c>
       <c r="G40">
-        <v>-1.48</v>
+        <v>-46.52</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-45.45</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>-9.49</v>
       </c>
       <c r="K40">
-        <v>109.17</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>109.2</v>
+        <v>61.45</v>
       </c>
       <c r="M40">
         <v>58995</v>
@@ -2054,89 +2054,89 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>81</v>
+        <v>587.44000000000005</v>
       </c>
       <c r="B41">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="C41">
-        <v>38</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="D41">
-        <v>504</v>
+        <v>77.97</v>
       </c>
       <c r="E41">
-        <v>-10.1</v>
+        <v>-567.66</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>-572.96</v>
       </c>
       <c r="G41">
-        <v>-1.5</v>
+        <v>-52.01</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-51.18</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-10.6</v>
       </c>
       <c r="K41">
-        <v>120.33</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>123.99</v>
+        <v>99.46</v>
       </c>
       <c r="M41">
         <v>55859</v>
       </c>
       <c r="N41">
         <f>AVERAGE(K41:K57)</f>
-        <v>144.52176470588233</v>
+        <v>18.205882352941185</v>
       </c>
       <c r="O41">
         <f>AVERAGE(L41:L57)</f>
-        <v>61.428235294117648</v>
+        <v>128.83235294117645</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>59</v>
+        <v>595.95000000000005</v>
       </c>
       <c r="B42">
-        <v>48</v>
+        <v>600</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>86.73</v>
       </c>
       <c r="D42">
-        <v>474</v>
+        <v>83.97</v>
       </c>
       <c r="E42">
-        <v>5.77</v>
+        <v>-557.67999999999995</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>-572.96</v>
       </c>
       <c r="G42">
-        <v>-1.45</v>
+        <v>-57.68</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-56.91</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-3.49</v>
       </c>
       <c r="K42">
-        <v>109.61</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>109.07</v>
+        <v>79.14</v>
       </c>
       <c r="M42">
         <v>56727</v>
@@ -2144,40 +2144,40 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>87</v>
+        <v>587.44000000000005</v>
       </c>
       <c r="B43">
-        <v>78</v>
+        <v>600</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>92.73</v>
       </c>
       <c r="D43">
-        <v>505</v>
+        <v>89.97</v>
       </c>
       <c r="E43">
-        <v>4.79</v>
+        <v>-569.79</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>-572.96</v>
       </c>
       <c r="G43">
-        <v>-1.4</v>
+        <v>-63.2</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-62.64</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>-6.76</v>
       </c>
       <c r="K43">
-        <v>96.68</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>95.33</v>
+        <v>101.63</v>
       </c>
       <c r="M43">
         <v>58153</v>
@@ -2185,40 +2185,40 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>87</v>
+        <v>600.21</v>
       </c>
       <c r="B44">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>98.72</v>
       </c>
       <c r="D44">
-        <v>500</v>
+        <v>95.97</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>-555.27</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>-572.96</v>
       </c>
       <c r="G44">
-        <v>0.01</v>
+        <v>-68.86</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-68.37</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>-9.0500000000000007</v>
       </c>
       <c r="K44">
-        <v>137.99</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>77.97</v>
+        <v>60.26</v>
       </c>
       <c r="M44">
         <v>56094</v>
@@ -2226,40 +2226,40 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>84</v>
+        <v>600.21</v>
       </c>
       <c r="B45">
-        <v>74</v>
+        <v>600</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>104.7</v>
       </c>
       <c r="D45">
-        <v>487</v>
+        <v>101.37</v>
       </c>
       <c r="E45">
-        <v>-41.17</v>
+        <v>-554.9</v>
       </c>
       <c r="F45">
-        <v>-57.3</v>
+        <v>-529.98</v>
       </c>
       <c r="G45">
-        <v>-0.08</v>
+        <v>-74.400000000000006</v>
       </c>
       <c r="H45">
-        <v>-0.28999999999999998</v>
+        <v>-73.66</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>8594.35</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>-1.27</v>
       </c>
       <c r="K45">
-        <v>161.71</v>
+        <v>2.15</v>
       </c>
       <c r="L45">
-        <v>80.67</v>
+        <v>121.74</v>
       </c>
       <c r="M45">
         <v>56744</v>
@@ -2267,40 +2267,40 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>97</v>
+        <v>591.69000000000005</v>
       </c>
       <c r="B46">
-        <v>87</v>
+        <v>600</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>110.66</v>
       </c>
       <c r="D46">
-        <v>479</v>
+        <v>107.37</v>
       </c>
       <c r="E46">
-        <v>-87.89</v>
+        <v>-487.82</v>
       </c>
       <c r="F46">
-        <v>-114.59</v>
+        <v>-444.04</v>
       </c>
       <c r="G46">
-        <v>-0.78</v>
+        <v>-79.69</v>
       </c>
       <c r="H46">
-        <v>-1.1499999999999999</v>
+        <v>-78.53</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>8594.35</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>11.27</v>
       </c>
       <c r="K46">
-        <v>145.77000000000001</v>
+        <v>6.92</v>
       </c>
       <c r="L46">
-        <v>44.08</v>
+        <v>176.27</v>
       </c>
       <c r="M46">
         <v>57627</v>
@@ -2308,40 +2308,40 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>75</v>
+        <v>591.69000000000005</v>
       </c>
       <c r="B47">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>116.67</v>
       </c>
       <c r="D47">
-        <v>440</v>
+        <v>113.37</v>
       </c>
       <c r="E47">
-        <v>-177.37</v>
+        <v>-342.22</v>
       </c>
       <c r="F47">
-        <v>-171.89</v>
+        <v>-358.1</v>
       </c>
       <c r="G47">
-        <v>-2.09</v>
+        <v>-83.96</v>
       </c>
       <c r="H47">
-        <v>-2.58</v>
+        <v>-82.54</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>8594.35</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>-1.17</v>
       </c>
       <c r="K47">
-        <v>160.31</v>
+        <v>13.75</v>
       </c>
       <c r="L47">
-        <v>56.21</v>
+        <v>179.38</v>
       </c>
       <c r="M47">
         <v>57038</v>
@@ -2349,40 +2349,40 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>99</v>
+        <v>591.69000000000005</v>
       </c>
       <c r="B48">
-        <v>96</v>
+        <v>600</v>
       </c>
       <c r="C48">
-        <v>31</v>
+        <v>122.62</v>
       </c>
       <c r="D48">
-        <v>425</v>
+        <v>119.37</v>
       </c>
       <c r="E48">
-        <v>-220.18</v>
+        <v>-255.77</v>
       </c>
       <c r="F48">
-        <v>-229.18</v>
+        <v>-272.14999999999998</v>
       </c>
       <c r="G48">
-        <v>-4.0999999999999996</v>
+        <v>-86.93</v>
       </c>
       <c r="H48">
-        <v>-4.58</v>
+        <v>-85.69</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>8594.35</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>-4.3</v>
       </c>
       <c r="K48">
-        <v>155.53</v>
+        <v>20.37</v>
       </c>
       <c r="L48">
-        <v>34.520000000000003</v>
+        <v>189.43</v>
       </c>
       <c r="M48">
         <v>56385</v>
@@ -2390,40 +2390,40 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>99</v>
+        <v>600.21</v>
       </c>
       <c r="B49">
-        <v>102</v>
+        <v>600</v>
       </c>
       <c r="C49">
-        <v>28</v>
+        <v>128.58000000000001</v>
       </c>
       <c r="D49">
-        <v>392</v>
+        <v>125.37</v>
       </c>
       <c r="E49">
-        <v>-283.11</v>
+        <v>-135.74</v>
       </c>
       <c r="F49">
-        <v>-286.48</v>
+        <v>-186.21</v>
       </c>
       <c r="G49">
-        <v>-6.67</v>
+        <v>-88.91</v>
       </c>
       <c r="H49">
-        <v>-7.16</v>
+        <v>-87.98</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>8594.35</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>-14.82</v>
       </c>
       <c r="K49">
-        <v>176.9</v>
+        <v>25.87</v>
       </c>
       <c r="L49">
-        <v>64.599999999999994</v>
+        <v>164.89</v>
       </c>
       <c r="M49">
         <v>56683</v>
@@ -2431,40 +2431,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>89</v>
+        <v>595.95000000000005</v>
       </c>
       <c r="B50">
-        <v>93</v>
+        <v>600</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>134.57</v>
       </c>
       <c r="D50">
-        <v>328</v>
+        <v>131.37</v>
       </c>
       <c r="E50">
-        <v>-336.88</v>
+        <v>-52.03</v>
       </c>
       <c r="F50">
-        <v>-343.77</v>
+        <v>-100.27</v>
       </c>
       <c r="G50">
-        <v>-9.73</v>
+        <v>-89.87</v>
       </c>
       <c r="H50">
-        <v>-10.31</v>
+        <v>-89.42</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>8594.35</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>-21.92</v>
       </c>
       <c r="K50">
-        <v>172.47</v>
+        <v>29.25</v>
       </c>
       <c r="L50">
-        <v>44.6</v>
+        <v>178.1</v>
       </c>
       <c r="M50">
         <v>57599</v>
@@ -2472,40 +2472,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>93</v>
+        <v>591.69000000000005</v>
       </c>
       <c r="B51">
-        <v>98</v>
+        <v>600</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>140.52000000000001</v>
       </c>
       <c r="D51">
-        <v>274</v>
+        <v>139.77000000000001</v>
       </c>
       <c r="E51">
-        <v>-376.34</v>
+        <v>25.21</v>
       </c>
       <c r="F51">
-        <v>-401.07</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>-13.31</v>
+        <v>-90.03</v>
       </c>
       <c r="H51">
-        <v>-14.04</v>
+        <v>-89.86</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>-2.64</v>
       </c>
       <c r="K51">
-        <v>184.72</v>
+        <v>30.17</v>
       </c>
       <c r="L51">
-        <v>33.479999999999997</v>
+        <v>143.74</v>
       </c>
       <c r="M51">
         <v>57712</v>
@@ -2513,40 +2513,40 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>74</v>
+        <v>600.21</v>
       </c>
       <c r="B52">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>146.52000000000001</v>
       </c>
       <c r="D52">
-        <v>211</v>
+        <v>145.77000000000001</v>
       </c>
       <c r="E52">
-        <v>-454.1</v>
+        <v>27.5</v>
       </c>
       <c r="F52">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>-17.510000000000002</v>
+        <v>-89.74</v>
       </c>
       <c r="H52">
-        <v>-18.329999999999998</v>
+        <v>-89.86</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>-5.98</v>
       </c>
       <c r="K52">
-        <v>175.15</v>
+        <v>30.17</v>
       </c>
       <c r="L52">
-        <v>17.61</v>
+        <v>114.45</v>
       </c>
       <c r="M52">
         <v>55902</v>
@@ -2554,40 +2554,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>88</v>
+        <v>600.21</v>
       </c>
       <c r="B53">
-        <v>103</v>
+        <v>600</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>3.62</v>
       </c>
       <c r="D53">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>-494.23</v>
+        <v>7.84</v>
       </c>
       <c r="F53">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>-22.37</v>
+        <v>0.13</v>
       </c>
       <c r="H53">
-        <v>-21.54</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>-6.94</v>
       </c>
       <c r="K53">
-        <v>125.47</v>
+        <v>30.17</v>
       </c>
       <c r="L53">
-        <v>69.48</v>
+        <v>112.62</v>
       </c>
       <c r="M53">
         <v>57846</v>
@@ -2595,40 +2595,40 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>79</v>
+        <v>595.95000000000005</v>
       </c>
       <c r="B54">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="C54">
-        <v>36</v>
+        <v>9.64</v>
       </c>
       <c r="D54">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>-447.85</v>
+        <v>-19.350000000000001</v>
       </c>
       <c r="F54">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>-27.14</v>
+        <v>-0.01</v>
       </c>
       <c r="H54">
-        <v>-26.13</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>-2.27</v>
       </c>
       <c r="K54">
-        <v>139.72</v>
+        <v>30.17</v>
       </c>
       <c r="L54">
-        <v>57.18</v>
+        <v>130.53</v>
       </c>
       <c r="M54">
         <v>58096</v>
@@ -2636,40 +2636,40 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>64</v>
+        <v>595.95000000000005</v>
       </c>
       <c r="B55">
-        <v>87</v>
+        <v>600</v>
       </c>
       <c r="C55">
-        <v>36</v>
+        <v>15.63</v>
       </c>
       <c r="D55">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>-427.61</v>
+        <v>-9.5500000000000007</v>
       </c>
       <c r="F55">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>-31.05</v>
+        <v>-0.16</v>
       </c>
       <c r="H55">
-        <v>-30.71</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="K55">
-        <v>121.67</v>
+        <v>30.17</v>
       </c>
       <c r="L55">
-        <v>22.24</v>
+        <v>131.22</v>
       </c>
       <c r="M55">
         <v>55982</v>
@@ -2677,40 +2677,40 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>62</v>
+        <v>591.69000000000005</v>
       </c>
       <c r="B56">
-        <v>85</v>
+        <v>597.42999999999995</v>
       </c>
       <c r="C56">
-        <v>44</v>
+        <v>21.64</v>
       </c>
       <c r="D56">
-        <v>93</v>
+        <v>20.6</v>
       </c>
       <c r="E56">
-        <v>-472.14</v>
+        <v>-5.25</v>
       </c>
       <c r="F56">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>-35.5</v>
+        <v>-0.26</v>
       </c>
       <c r="H56">
-        <v>-35.29</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>-1.29</v>
       </c>
       <c r="K56">
-        <v>121.37</v>
+        <v>30.17</v>
       </c>
       <c r="L56">
-        <v>46.44</v>
+        <v>104.69</v>
       </c>
       <c r="M56">
         <v>56625</v>
@@ -2718,40 +2718,40 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>33</v>
+        <v>566.15</v>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>571.71</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>27.42</v>
       </c>
       <c r="D57">
-        <v>72</v>
+        <v>26.44</v>
       </c>
       <c r="E57">
-        <v>-447.54</v>
+        <v>-14.47</v>
       </c>
       <c r="F57">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>-40.1</v>
+        <v>-0.34</v>
       </c>
       <c r="H57">
-        <v>-39.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="K57">
-        <v>151.47</v>
+        <v>30.17</v>
       </c>
       <c r="L57">
-        <v>66.81</v>
+        <v>102.6</v>
       </c>
       <c r="M57">
         <v>58008</v>
@@ -2759,40 +2759,40 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>49</v>
+        <v>557.64</v>
       </c>
       <c r="B58">
-        <v>70</v>
+        <v>546</v>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>33.03</v>
       </c>
       <c r="D58">
-        <v>110</v>
+        <v>32.03</v>
       </c>
       <c r="E58">
-        <v>-466.89</v>
+        <v>0.95</v>
       </c>
       <c r="F58">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>-44.63</v>
+        <v>-0.49</v>
       </c>
       <c r="H58">
-        <v>-44.46</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="K58">
-        <v>137.15</v>
+        <v>30.17</v>
       </c>
       <c r="L58">
-        <v>57.28</v>
+        <v>44.93</v>
       </c>
       <c r="M58">
         <v>56610</v>
@@ -2800,40 +2800,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>36</v>
+        <v>536.36</v>
       </c>
       <c r="B59">
-        <v>62</v>
+        <v>520.29</v>
       </c>
       <c r="C59">
-        <v>35</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="D59">
-        <v>128</v>
+        <v>37.36</v>
       </c>
       <c r="E59">
-        <v>-447.54</v>
+        <v>-14.13</v>
       </c>
       <c r="F59">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>-49.22</v>
+        <v>-0.51</v>
       </c>
       <c r="H59">
-        <v>-49.05</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K59">
-        <v>139.5</v>
+        <v>30.17</v>
       </c>
       <c r="L59">
-        <v>54.06</v>
+        <v>23.75</v>
       </c>
       <c r="M59">
         <v>56373</v>
@@ -2841,40 +2841,40 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>23</v>
+        <v>498.04</v>
       </c>
       <c r="B60">
-        <v>43</v>
+        <v>494.57</v>
       </c>
       <c r="C60">
-        <v>27</v>
+        <v>43.57</v>
       </c>
       <c r="D60">
-        <v>142</v>
+        <v>42.44</v>
       </c>
       <c r="E60">
-        <v>-441.96</v>
+        <v>-13.55</v>
       </c>
       <c r="F60">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>-53.67</v>
+        <v>-0.67</v>
       </c>
       <c r="H60">
-        <v>-53.63</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="K60">
-        <v>155.18</v>
+        <v>30.17</v>
       </c>
       <c r="L60">
-        <v>61.76</v>
+        <v>58.27</v>
       </c>
       <c r="M60">
         <v>57109</v>
@@ -2882,40 +2882,40 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>26</v>
+        <v>472.5</v>
       </c>
       <c r="B61">
-        <v>42</v>
+        <v>468.86</v>
       </c>
       <c r="C61">
-        <v>37</v>
+        <v>48.43</v>
       </c>
       <c r="D61">
-        <v>163</v>
+        <v>47.26</v>
       </c>
       <c r="E61">
-        <v>-465.39</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>-58.28</v>
+        <v>-0.75</v>
       </c>
       <c r="H61">
-        <v>-58.21</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="K61">
-        <v>124.23</v>
+        <v>30.17</v>
       </c>
       <c r="L61">
-        <v>43.07</v>
+        <v>50.41</v>
       </c>
       <c r="M61">
         <v>60770</v>
@@ -2923,40 +2923,40 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>-2</v>
+        <v>455.48</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>443.14</v>
       </c>
       <c r="C62">
-        <v>45</v>
+        <v>53.04</v>
       </c>
       <c r="D62">
-        <v>168</v>
+        <v>51.82</v>
       </c>
       <c r="E62">
-        <v>-443.48</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="F62">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>-62.82</v>
+        <v>-0.72</v>
       </c>
       <c r="H62">
-        <v>-62.8</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K62">
-        <v>155.13999999999999</v>
+        <v>30.17</v>
       </c>
       <c r="L62">
-        <v>62.87</v>
+        <v>14.42</v>
       </c>
       <c r="M62">
         <v>362</v>
@@ -2964,40 +2964,40 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>20</v>
+        <v>417.17</v>
       </c>
       <c r="B63">
-        <v>28</v>
+        <v>417.43</v>
       </c>
       <c r="C63">
-        <v>110</v>
+        <v>57.35</v>
       </c>
       <c r="D63">
-        <v>195</v>
+        <v>56.12</v>
       </c>
       <c r="E63">
-        <v>-476.35</v>
+        <v>-13.89</v>
       </c>
       <c r="F63">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>-67.3</v>
+        <v>-0.77</v>
       </c>
       <c r="H63">
-        <v>-67.38</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="K63">
-        <v>125.97</v>
+        <v>30.17</v>
       </c>
       <c r="L63">
-        <v>41.88</v>
+        <v>47.87</v>
       </c>
       <c r="M63">
         <v>2865</v>
@@ -3005,28 +3005,28 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>17</v>
+        <v>395.88</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>391.71</v>
       </c>
       <c r="C64">
-        <v>183</v>
+        <v>61.42</v>
       </c>
       <c r="D64">
-        <v>223</v>
+        <v>60.16</v>
       </c>
       <c r="E64">
-        <v>-464.97</v>
+        <v>-1.83</v>
       </c>
       <c r="F64">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>-72.06</v>
+        <v>-0.85</v>
       </c>
       <c r="H64">
-        <v>-71.959999999999994</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>136.69999999999999</v>
+        <v>30.17</v>
       </c>
       <c r="L64">
-        <v>55.82</v>
+        <v>32.46</v>
       </c>
       <c r="M64">
         <v>4855</v>
@@ -3046,40 +3046,40 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>12</v>
+        <v>366.08</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>366</v>
       </c>
       <c r="C65">
-        <v>210</v>
+        <v>65.239999999999995</v>
       </c>
       <c r="D65">
-        <v>230</v>
+        <v>63.95</v>
       </c>
       <c r="E65">
-        <v>-431.85</v>
+        <v>9.61</v>
       </c>
       <c r="F65">
-        <v>-406.8</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>-76.59</v>
+        <v>-0.81</v>
       </c>
       <c r="H65">
-        <v>-75.56</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>-1.53</v>
       </c>
       <c r="K65">
-        <v>101.79</v>
+        <v>30.17</v>
       </c>
       <c r="L65">
-        <v>117.07</v>
+        <v>37.93</v>
       </c>
       <c r="M65">
         <v>4644</v>
@@ -3087,40 +3087,40 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>30</v>
+        <v>349.06</v>
       </c>
       <c r="B66">
-        <v>17</v>
+        <v>340.29</v>
       </c>
       <c r="C66">
-        <v>223</v>
+        <v>68.83</v>
       </c>
       <c r="D66">
-        <v>210</v>
+        <v>67.48</v>
       </c>
       <c r="E66">
-        <v>-342.1</v>
+        <v>-3.23</v>
       </c>
       <c r="F66">
-        <v>-349.5</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>-80.510000000000005</v>
+        <v>-0.75</v>
       </c>
       <c r="H66">
-        <v>-79.34</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="K66">
-        <v>74.45</v>
+        <v>30.17</v>
       </c>
       <c r="L66">
-        <v>95.84</v>
+        <v>7.17</v>
       </c>
       <c r="M66">
         <v>4532</v>
@@ -3128,40 +3128,40 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>3</v>
+        <v>310.75</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>314.57</v>
       </c>
       <c r="C67">
-        <v>220</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="D67">
-        <v>182</v>
+        <v>70.760000000000005</v>
       </c>
       <c r="E67">
-        <v>-293.06</v>
+        <v>-5.89</v>
       </c>
       <c r="F67">
-        <v>-292.20999999999998</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>-83.75</v>
+        <v>-0.74</v>
       </c>
       <c r="H67">
-        <v>-82.55</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="K67">
-        <v>96.71</v>
+        <v>30.17</v>
       </c>
       <c r="L67">
-        <v>124.1</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="M67">
         <v>4942</v>
@@ -3169,40 +3169,40 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>30</v>
+        <v>289.45999999999998</v>
       </c>
       <c r="B68">
-        <v>23</v>
+        <v>288.86</v>
       </c>
       <c r="C68">
-        <v>272</v>
+        <v>75.17</v>
       </c>
       <c r="D68">
-        <v>180</v>
+        <v>73.78</v>
       </c>
       <c r="E68">
-        <v>-219.15</v>
+        <v>-4.97</v>
       </c>
       <c r="F68">
-        <v>-234.91</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>-86.25</v>
+        <v>-0.8</v>
       </c>
       <c r="H68">
-        <v>-85.18</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="K68">
-        <v>72.209999999999994</v>
+        <v>30.17</v>
       </c>
       <c r="L68">
-        <v>93.87</v>
+        <v>24.06</v>
       </c>
       <c r="M68">
         <v>4881</v>
@@ -3210,40 +3210,40 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>23</v>
+        <v>276.69</v>
       </c>
       <c r="B69">
-        <v>20</v>
+        <v>263.14</v>
       </c>
       <c r="C69">
-        <v>310</v>
+        <v>77.95</v>
       </c>
       <c r="D69">
-        <v>164</v>
+        <v>76.540000000000006</v>
       </c>
       <c r="E69">
-        <v>-162.22999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="F69">
-        <v>-177.62</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>-88.24</v>
+        <v>-0.85</v>
       </c>
       <c r="H69">
-        <v>-87.25</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="K69">
-        <v>103.96</v>
+        <v>30.17</v>
       </c>
       <c r="L69">
-        <v>139.19999999999999</v>
+        <v>-21.81</v>
       </c>
       <c r="M69">
         <v>4755</v>
@@ -3251,40 +3251,40 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>14</v>
+        <v>246.89</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>237.43</v>
       </c>
       <c r="C70">
-        <v>306</v>
+        <v>80.5</v>
       </c>
       <c r="D70">
-        <v>145</v>
+        <v>79.040000000000006</v>
       </c>
       <c r="E70">
-        <v>-115.81</v>
+        <v>-1.07</v>
       </c>
       <c r="F70">
-        <v>-120.32</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>-89.68</v>
+        <v>-0.86</v>
       </c>
       <c r="H70">
-        <v>-88.74</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>-0.26</v>
       </c>
       <c r="K70">
-        <v>96.8</v>
+        <v>30.17</v>
       </c>
       <c r="L70">
-        <v>148.1</v>
+        <v>-17.329999999999998</v>
       </c>
       <c r="M70">
         <v>4862</v>
@@ -3292,40 +3292,40 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>33</v>
+        <v>221.35</v>
       </c>
       <c r="B71">
-        <v>19</v>
+        <v>211.71</v>
       </c>
       <c r="C71">
-        <v>203</v>
+        <v>82.79</v>
       </c>
       <c r="D71">
-        <v>147</v>
+        <v>81.28</v>
       </c>
       <c r="E71">
-        <v>-57.31</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="F71">
-        <v>-63.03</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>-90.44</v>
+        <v>-0.85</v>
       </c>
       <c r="H71">
-        <v>-89.65</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>-0.26</v>
       </c>
       <c r="K71">
-        <v>70.23</v>
+        <v>30.17</v>
       </c>
       <c r="L71">
-        <v>122.01</v>
+        <v>-25.34</v>
       </c>
       <c r="M71">
         <v>5307</v>
@@ -3333,40 +3333,40 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>2</v>
+        <v>191.56</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="C72">
-        <v>60</v>
+        <v>84.83</v>
       </c>
       <c r="D72">
-        <v>141</v>
+        <v>83.27</v>
       </c>
       <c r="E72">
-        <v>-10.59</v>
+        <v>-4.7</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>-90.82</v>
+        <v>-0.82</v>
       </c>
       <c r="H72">
-        <v>-89.9</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="K72">
-        <v>104.21</v>
+        <v>30.17</v>
       </c>
       <c r="L72">
-        <v>112.96</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="M72">
         <v>4765</v>
@@ -3374,40 +3374,40 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>38</v>
+        <v>157.5</v>
       </c>
       <c r="B73">
-        <v>29</v>
+        <v>160.29</v>
       </c>
       <c r="C73">
-        <v>55</v>
+        <v>86.6</v>
       </c>
       <c r="D73">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="E73">
-        <v>17.61</v>
+        <v>5.19</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>-90.88</v>
+        <v>-0.83</v>
       </c>
       <c r="H73">
-        <v>-89.9</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
       <c r="K73">
-        <v>119.6</v>
+        <v>30.17</v>
       </c>
       <c r="L73">
-        <v>124.03</v>
+        <v>3.61</v>
       </c>
       <c r="M73">
         <v>4534</v>
@@ -3415,25 +3415,25 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>19</v>
+        <v>144.72999999999999</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>134.57</v>
       </c>
       <c r="C74">
-        <v>42</v>
+        <v>88.12</v>
       </c>
       <c r="D74">
-        <v>153</v>
+        <v>86.48</v>
       </c>
       <c r="E74">
-        <v>39</v>
+        <v>6.07</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0.3</v>
+        <v>-0.84</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3442,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>-0.39</v>
       </c>
       <c r="K74">
-        <v>101.97</v>
+        <v>30.17</v>
       </c>
       <c r="L74">
-        <v>93.72</v>
+        <v>-41.79</v>
       </c>
       <c r="M74">
         <v>4562</v>
@@ -3456,25 +3456,25 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>20</v>
+        <v>106.42</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>108.86</v>
       </c>
       <c r="C75">
-        <v>37</v>
+        <v>89.36</v>
       </c>
       <c r="D75">
-        <v>149</v>
+        <v>87.7</v>
       </c>
       <c r="E75">
-        <v>-12.39</v>
+        <v>-10.93</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.51</v>
+        <v>-0.86</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="K75">
-        <v>96.79</v>
+        <v>30.17</v>
       </c>
       <c r="L75">
-        <v>99.05</v>
+        <v>-5.64</v>
       </c>
       <c r="M75">
         <v>4936</v>
@@ -3497,25 +3497,25 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>46</v>
+        <v>89.39</v>
       </c>
       <c r="B76">
-        <v>38</v>
+        <v>83.14</v>
       </c>
       <c r="C76">
-        <v>58</v>
+        <v>90.36</v>
       </c>
       <c r="D76">
-        <v>166</v>
+        <v>88.66</v>
       </c>
       <c r="E76">
-        <v>-7.57</v>
+        <v>0.92</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0.44</v>
+        <v>-0.88</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3524,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>-0.37</v>
       </c>
       <c r="K76">
-        <v>121.06</v>
+        <v>30.17</v>
       </c>
       <c r="L76">
-        <v>124.47</v>
+        <v>-38.9</v>
       </c>
       <c r="M76">
         <v>4776</v>
@@ -3538,25 +3538,25 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>15</v>
+        <v>63.85</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>57.43</v>
       </c>
       <c r="C77">
-        <v>23</v>
+        <v>91.1</v>
       </c>
       <c r="D77">
-        <v>130</v>
+        <v>89.36</v>
       </c>
       <c r="E77">
-        <v>9.09</v>
+        <v>-11.26</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0.44</v>
+        <v>-0.94</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="K77">
-        <v>97.1</v>
+        <v>30.17</v>
       </c>
       <c r="L77">
-        <v>96.74</v>
+        <v>-42.84</v>
       </c>
       <c r="M77">
         <v>4919</v>
@@ -3579,25 +3579,25 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>31</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>31.71</v>
       </c>
       <c r="C78">
-        <v>49</v>
+        <v>91.56</v>
       </c>
       <c r="D78">
-        <v>160</v>
+        <v>89.8</v>
       </c>
       <c r="E78">
-        <v>12.36</v>
+        <v>-0.92</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3606,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="K78">
-        <v>71.87</v>
+        <v>30.17</v>
       </c>
       <c r="L78">
-        <v>69.760000000000005</v>
+        <v>-37.369999999999997</v>
       </c>
       <c r="M78">
         <v>4865</v>
@@ -3620,25 +3620,25 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>25</v>
+        <v>4.26</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>40</v>
+        <v>91.77</v>
       </c>
       <c r="D79">
-        <v>154</v>
+        <v>89.99</v>
       </c>
       <c r="E79">
-        <v>17.7</v>
+        <v>1.07</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.69</v>
+        <v>-1</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3647,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="K79">
-        <v>125.19</v>
+        <v>30.17</v>
       </c>
       <c r="L79">
-        <v>118.25</v>
+        <v>-30.49</v>
       </c>
       <c r="M79">
         <v>4912</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>26</v>
+        <v>-4.26</v>
       </c>
       <c r="B80">
-        <v>19</v>
+        <v>-1.72</v>
       </c>
       <c r="C80">
-        <v>40</v>
+        <v>91.78</v>
       </c>
       <c r="D80">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.74</v>
+        <v>-1</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3691,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>95.87</v>
+        <v>30.17</v>
       </c>
       <c r="L80">
-        <v>96.13</v>
+        <v>-30.27</v>
       </c>
       <c r="M80">
         <v>4809</v>
@@ -3702,25 +3702,25 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>52</v>
+        <v>-8.51</v>
       </c>
       <c r="B81">
-        <v>36</v>
+        <v>-1.72</v>
       </c>
       <c r="C81">
-        <v>61</v>
+        <v>91.73</v>
       </c>
       <c r="D81">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="E81">
-        <v>1.65</v>
+        <v>-1.04</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.76</v>
+        <v>-1</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3729,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K81">
-        <v>108.53</v>
+        <v>30.17</v>
       </c>
       <c r="L81">
-        <v>107.89</v>
+        <v>-15.73</v>
       </c>
       <c r="M81">
         <v>5185</v>
@@ -3743,25 +3743,25 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>-1.72</v>
       </c>
       <c r="C82">
-        <v>23</v>
+        <v>91.66</v>
       </c>
       <c r="D82">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E82">
-        <v>2.04</v>
+        <v>-1.37</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0.79</v>
+        <v>-1.01</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3770,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K82">
-        <v>95.37</v>
+        <v>30.17</v>
       </c>
       <c r="L82">
-        <v>94.38</v>
+        <v>-39.17</v>
       </c>
       <c r="M82">
         <v>4888</v>
@@ -3784,25 +3784,25 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>40</v>
+        <v>-8.51</v>
       </c>
       <c r="B83">
-        <v>32</v>
+        <v>-1.72</v>
       </c>
       <c r="C83">
-        <v>50</v>
+        <v>91.58</v>
       </c>
       <c r="D83">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="E83">
-        <v>-4.9400000000000004</v>
+        <v>-2.72</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.77</v>
+        <v>-1.03</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3811,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K83">
-        <v>119.13</v>
+        <v>30.17</v>
       </c>
       <c r="L83">
-        <v>120.83</v>
+        <v>-10.92</v>
       </c>
       <c r="M83">
         <v>4774</v>
@@ -3825,25 +3825,25 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>28</v>
+        <v>-8.51</v>
       </c>
       <c r="B84">
-        <v>24</v>
+        <v>-1.72</v>
       </c>
       <c r="C84">
-        <v>37</v>
+        <v>91.5</v>
       </c>
       <c r="D84">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.82</v>
+        <v>-1.06</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3852,13 +3852,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="K84">
-        <v>121.17</v>
+        <v>30.17</v>
       </c>
       <c r="L84">
-        <v>119.2</v>
+        <v>-8.52</v>
       </c>
       <c r="M84">
         <v>4629</v>
@@ -3866,25 +3866,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>28</v>
+        <v>-12.77</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>-1.72</v>
       </c>
       <c r="C85">
-        <v>38</v>
+        <v>91.42</v>
       </c>
       <c r="D85">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="E85">
-        <v>11.57</v>
+        <v>1.01</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.91</v>
+        <v>-1.04</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3893,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="K85">
-        <v>83.63</v>
+        <v>30.17</v>
       </c>
       <c r="L85">
-        <v>78.48</v>
+        <v>5.67</v>
       </c>
       <c r="M85">
         <v>4619</v>
@@ -3907,25 +3907,25 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B86">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>7.51</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>97.42</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>89.61</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>4739</v>
@@ -3948,25 +3948,25 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>-13.31</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3978,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>67.72</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>67.11</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>4696</v>
@@ -3989,25 +3989,25 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B88">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>-4.12</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>105.85</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>106.78</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>4681</v>
@@ -4030,25 +4030,25 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B89">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>-7.81</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4060,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>91.81</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>94.14</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>4818</v>
@@ -4071,25 +4071,25 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B90">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>-5.89</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>105.34</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>107.59</v>
+        <v>0</v>
       </c>
       <c r="M90">
         <v>5278</v>
@@ -4112,25 +4112,25 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B91">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>-1.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4142,10 +4142,10 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>93.73</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>94.31</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>4999</v>
@@ -4153,25 +4153,25 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B92">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>-1.46</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>94.04</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>93.39</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>4966</v>
@@ -4194,25 +4194,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B93">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>-13.06</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4224,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>117.64</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>121.79</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>4925</v>
@@ -4235,25 +4235,25 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4265,10 +4265,10 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>106.74</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>108.07</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>4967</v>
@@ -4276,25 +4276,25 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B95">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>12.08</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>108.38</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>106.58</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>4960</v>
@@ -4317,25 +4317,25 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B96">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4347,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>108.02</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>107.34</v>
+        <v>0</v>
       </c>
       <c r="M96">
         <v>4920</v>
@@ -4358,25 +4358,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B97">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>-1.77</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4388,10 +4388,10 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>93.75</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>95.46</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>4875</v>
@@ -4399,16 +4399,16 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B98">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>105.53</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>108.86</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>4882</v>
@@ -4440,25 +4440,25 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B99">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>81.22</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>80.959999999999994</v>
+        <v>0</v>
       </c>
       <c r="M99">
         <v>4869</v>
@@ -4481,25 +4481,25 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B100">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>106.96</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>105.69</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>4848</v>
@@ -4522,25 +4522,25 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B101">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>-1.22</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4552,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>79.569999999999993</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>80.11</v>
+        <v>0</v>
       </c>
       <c r="M101">
         <v>4851</v>
@@ -4563,25 +4563,25 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B102">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>-1.83</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4593,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>92.17</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>92.95</v>
+        <v>0</v>
       </c>
       <c r="M102">
         <v>4849</v>
@@ -4604,16 +4604,16 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B103">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4634,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>66.44</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>66.72</v>
+        <v>0</v>
       </c>
       <c r="M103">
         <v>4844</v>
@@ -4645,25 +4645,25 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>-6.93</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4675,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>129.63</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>131.9</v>
+        <v>0</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -4686,25 +4686,25 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B105">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4716,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>93.85</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -4727,25 +4727,25 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="B106">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>-1.53</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>106.35</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>106.95</v>
+        <v>0</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -4768,25 +4768,25 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B107">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>-12.15</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>104.12</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>109.08</v>
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -4809,25 +4809,25 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B108">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4839,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>108.04</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>106.59</v>
+        <v>0</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -4850,25 +4850,25 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B109">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4880,10 +4880,10 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>108.25</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>106.28</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -4891,28 +4891,28 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B110">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>-19.13</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>-11.46</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4921,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>124.61</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>69.69</v>
+        <v>0</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -4932,28 +4932,28 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B111">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>-32.619999999999997</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>-68.75</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>-0.41</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4962,10 +4962,10 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>130.08000000000001</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>38.79</v>
+        <v>0</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -4973,28 +4973,28 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B112">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>-102.6</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>-126.05</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>-0.99</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>-1.39</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5003,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>148.59</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>42.58</v>
+        <v>0</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -5014,28 +5014,28 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B113">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>-181.37</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>-183.35</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>-2.36</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>-2.93</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -5044,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>164.99</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>50.55</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -5055,28 +5055,28 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="B114">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>-249.97</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>-240.64</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>-4.58</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>-5.05</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -5085,10 +5085,10 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>152.94999999999999</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>35.090000000000003</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -5096,28 +5096,28 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B115">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>-298.55</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>-297.94</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>-7.34</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>-7.75</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -5126,10 +5126,10 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>175.12</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>64.11</v>
+        <v>0</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -5137,28 +5137,28 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B116">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>-348.18</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>-355.23</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>-10.52</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>-11.01</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -5167,10 +5167,10 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>197.99</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>68.92</v>
+        <v>0</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -5178,28 +5178,28 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B117">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>-384.03</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>-412.53</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>-14.26</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>-14.85</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5208,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>157.19</v>
+        <v>0</v>
       </c>
       <c r="L117">
-        <v>8.68</v>
+        <v>0</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -5219,28 +5219,28 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B118">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>-454.68</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>-18.5</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>-18.329999999999998</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5249,10 +5249,10 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>182.95</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>33.61</v>
+        <v>0</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -5260,28 +5260,28 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B119">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>-485.38</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>-23.35</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>-22.46</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5290,10 +5290,10 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>117.81</v>
+        <v>0</v>
       </c>
       <c r="L119">
-        <v>49.09</v>
+        <v>0</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -5301,28 +5301,28 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B120">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>-459.2</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>-28.09</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>-27.04</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -5331,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>132.94999999999999</v>
+        <v>0</v>
       </c>
       <c r="L120">
-        <v>59.13</v>
+        <v>0</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -5342,28 +5342,28 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B121">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>-433.87</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>-32.520000000000003</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>-31.63</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5372,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>180.75</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>87.84</v>
+        <v>0</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -5383,28 +5383,28 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>-462.49</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>-37.049999999999997</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>-36.21</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5413,10 +5413,10 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>148.32</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>71.91</v>
+        <v>0</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -5424,28 +5424,28 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>-444.67</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>-41.59</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>-40.79</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5454,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>152.34</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>67.010000000000005</v>
+        <v>0</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -5465,28 +5465,28 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B124">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>-458.25</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>-46.03</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>-45.38</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5495,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>178.72</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>93.92</v>
+        <v>0</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -5506,28 +5506,28 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>-452.36</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>-50.6</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>-49.96</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5536,10 +5536,10 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>151.35</v>
+        <v>0</v>
       </c>
       <c r="L125">
-        <v>68.819999999999993</v>
+        <v>0</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -5547,28 +5547,28 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>-436.61</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>-55.02</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>-54.55</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5577,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>117.8</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>23.33</v>
+        <v>0</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -5588,28 +5588,28 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B127">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>-468.69</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>-59.56</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>-59.13</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5618,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>137.12</v>
+        <v>0</v>
       </c>
       <c r="L127">
-        <v>53.97</v>
+        <v>0</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -5629,28 +5629,28 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B128">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>-448.43</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>-64.13</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>-63.71</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -5659,10 +5659,10 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>150.77000000000001</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>66.02</v>
+        <v>0</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -5670,28 +5670,28 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B129">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>-465.79</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>-458.37</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>-68.61</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>-68.3</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5700,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>134.43</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>56.96</v>
+        <v>0</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -5711,28 +5711,28 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B130">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>-456.51</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>-446.91</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>-73.27</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>-72.569999999999993</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -5741,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>124.26</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>118.56</v>
+        <v>0</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -5752,28 +5752,28 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B131">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>-404.82</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>-389.61</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>-77.650000000000006</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>-76.75</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5782,10 +5782,10 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>114.5</v>
+        <v>0</v>
       </c>
       <c r="L131">
-        <v>131.09</v>
+        <v>0</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -5793,28 +5793,28 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B132">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>-331.39</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>-332.31</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>-81.16</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>-80.36</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5823,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>106.06</v>
+        <v>0</v>
       </c>
       <c r="L132">
-        <v>112.65</v>
+        <v>0</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -5834,28 +5834,28 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B133">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>-288.54000000000002</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>-275.02</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>-84.25</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>-83.4</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>82.91</v>
+        <v>0</v>
       </c>
       <c r="L133">
-        <v>111.49</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -5875,28 +5875,28 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B134">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>-203.55</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>-217.72</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>-86.7</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>-85.86</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>56.7</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>84.77</v>
+        <v>0</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -5916,28 +5916,28 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="B135">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>-155.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>-160.43</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>-88.51</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>-87.75</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5946,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>103.31</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>141.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -5957,28 +5957,28 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B136">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>-99.43</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>-103.13</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>-89.77</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>-89.07</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -5987,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>98.94</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>145.88</v>
+        <v>0</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -5998,28 +5998,28 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B137">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>-51.06</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>-45.84</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>-90.46</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>-89.82</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -6028,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>79.02</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <v>139.44</v>
+        <v>0</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -6039,28 +6039,28 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B138">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>-9.31</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>-90.71</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>-89.93</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -6069,10 +6069,10 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <v>80.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="L138">
-        <v>86.56</v>
+        <v>0</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -6080,25 +6080,25 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B139">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>-9.2200000000000006</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -6110,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>737.63</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>744.63</v>
+        <v>0</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -6121,28 +6121,28 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="B140">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>11.66</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>28.65</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -6151,10 +6151,10 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>47.35</v>
+        <v>0</v>
       </c>
       <c r="L140">
-        <v>121.44</v>
+        <v>0</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -6162,28 +6162,28 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="B141">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>70.31</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>85.94</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>61.41</v>
+        <v>0</v>
       </c>
       <c r="L141">
-        <v>156.87</v>
+        <v>0</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -6203,28 +6203,28 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="B142">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>121.55</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>143.24</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -6233,10 +6233,10 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>54.3</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>165.98</v>
+        <v>0</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -6244,28 +6244,28 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B143">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>199.86</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>200.53</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -6274,10 +6274,10 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>51.49</v>
+        <v>0</v>
       </c>
       <c r="L143">
-        <v>169.51</v>
+        <v>0</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -6285,28 +6285,28 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>246.28</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>257.83</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -6315,10 +6315,10 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>38.25</v>
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>154.34</v>
+        <v>0</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -6326,28 +6326,28 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="B145">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>305.97000000000003</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>315.13</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>7.98</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>8.67</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -6356,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>30.92</v>
+        <v>0</v>
       </c>
       <c r="L145">
-        <v>161.09</v>
+        <v>0</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -6367,28 +6367,28 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="B146">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="C146">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>356.35</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>372.42</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>11.31</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -6397,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>36.450000000000003</v>
+        <v>0</v>
       </c>
       <c r="L146">
-        <v>184.13</v>
+        <v>0</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -6408,28 +6408,28 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="B147">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C147">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>412.45</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>429.72</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>16.11</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -6438,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>27.7</v>
+        <v>0</v>
       </c>
       <c r="L147">
-        <v>192.83</v>
+        <v>0</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -6449,28 +6449,28 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="B148">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>489.01</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>19.690000000000001</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>18.79</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -6479,10 +6479,10 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>80.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="L148">
-        <v>166.24</v>
+        <v>0</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -6490,28 +6490,28 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="B149">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>495.09</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>24.66</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>23.38</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -6520,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <v>49.99</v>
+        <v>0</v>
       </c>
       <c r="L149">
-        <v>120.13</v>
+        <v>0</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -6531,28 +6531,28 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="B150">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>468.75</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>29.47</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>27.96</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -6561,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>73.66</v>
+        <v>0</v>
       </c>
       <c r="L150">
-        <v>146.66</v>
+        <v>0</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -6572,28 +6572,28 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="B151">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>459.17</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>34.11</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>32.54</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6602,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <v>71.45</v>
+        <v>0</v>
       </c>
       <c r="L151">
-        <v>148.77000000000001</v>
+        <v>0</v>
       </c>
       <c r="M151">
         <v>0</v>
@@ -6613,28 +6613,28 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="B152">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>442.54</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>38.61</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>37.130000000000003</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -6643,10 +6643,10 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L152">
-        <v>165.89</v>
+        <v>0</v>
       </c>
       <c r="M152">
         <v>0</v>
@@ -6654,28 +6654,28 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="B153">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>453.67</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>43.05</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>41.71</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -6684,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>79.61</v>
+        <v>0</v>
       </c>
       <c r="L153">
-        <v>166.96</v>
+        <v>0</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -6695,28 +6695,28 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="B154">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>458.47</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>47.65</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>46.29</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -6725,10 +6725,10 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <v>71.790000000000006</v>
+        <v>0</v>
       </c>
       <c r="L154">
-        <v>149.66</v>
+        <v>0</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -6736,28 +6736,28 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="B155">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C155">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>436.13</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>51.71</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>50.88</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -6766,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>90.7</v>
+        <v>0</v>
       </c>
       <c r="L155">
-        <v>180.7</v>
+        <v>0</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -6777,28 +6777,28 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="B156">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>450.78</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>56.13</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>55.46</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -6807,10 +6807,10 @@
         <v>0</v>
       </c>
       <c r="K156">
-        <v>65.08</v>
+        <v>0</v>
       </c>
       <c r="L156">
-        <v>157.18</v>
+        <v>0</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -6818,28 +6818,28 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B157">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C157">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>441.38</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>60.62</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>60.05</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -6848,10 +6848,10 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>49.07</v>
+        <v>0</v>
       </c>
       <c r="L157">
-        <v>147.04</v>
+        <v>0</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -6859,28 +6859,28 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B158">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>457.24</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>65.08</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>64.63</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -6889,10 +6889,10 @@
         <v>0</v>
       </c>
       <c r="K158">
-        <v>75.08</v>
+        <v>0</v>
       </c>
       <c r="L158">
-        <v>173.29</v>
+        <v>0</v>
       </c>
       <c r="M158">
         <v>0</v>
@@ -6900,28 +6900,28 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B159">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>473.51</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>69.77</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>69.209999999999994</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -6930,10 +6930,10 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>80.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="L159">
-        <v>167.35</v>
+        <v>0</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -6941,28 +6941,28 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B160">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>463.93</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>435.45</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>74.41</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>73.45</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -6971,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>94.29</v>
+        <v>0</v>
       </c>
       <c r="L160">
-        <v>99.56</v>
+        <v>0</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -6982,28 +6982,28 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B161">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>658</v>
+        <v>0</v>
       </c>
       <c r="D161">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>399.38</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>378.15</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>78.819999999999993</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>77.52</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -7012,10 +7012,10 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <v>67.349999999999994</v>
+        <v>0</v>
       </c>
       <c r="L161">
-        <v>44.85</v>
+        <v>0</v>
       </c>
       <c r="M161">
         <v>0</v>
@@ -7023,28 +7023,28 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B162">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C162">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>300.32</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>320.86</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>82.37</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>81.02</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -7053,10 +7053,10 @@
         <v>0</v>
       </c>
       <c r="K162">
-        <v>105.37</v>
+        <v>0</v>
       </c>
       <c r="L162">
-        <v>86.88</v>
+        <v>0</v>
       </c>
       <c r="M162">
         <v>0</v>
@@ -7064,28 +7064,28 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B163">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>257.63</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>263.56</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>85.2</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>83.94</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -7094,10 +7094,10 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <v>150.81</v>
+        <v>0</v>
       </c>
       <c r="L163">
-        <v>120.22</v>
+        <v>0</v>
       </c>
       <c r="M163">
         <v>0</v>
@@ -7105,28 +7105,28 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B164">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>208.16</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>206.26</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>87.48</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>86.29</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -7135,10 +7135,10 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>129.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="L164">
-        <v>90.76</v>
+        <v>0</v>
       </c>
       <c r="M164">
         <v>0</v>
@@ -7146,28 +7146,28 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B165">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C165">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>149.75</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>148.97</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>89.32</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>88.06</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -7176,10 +7176,10 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>98.76</v>
+        <v>0</v>
       </c>
       <c r="L165">
-        <v>45.01</v>
+        <v>0</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -7187,28 +7187,28 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B166">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C166">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>62.99</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>91.67</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>90.34</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>89.27</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -7217,10 +7217,10 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>118.34</v>
+        <v>0</v>
       </c>
       <c r="L166">
-        <v>74.06</v>
+        <v>0</v>
       </c>
       <c r="M166">
         <v>0</v>
@@ -7228,28 +7228,28 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B167">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C167">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>34.380000000000003</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>90.81</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>89.9</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -7258,10 +7258,10 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>135.81</v>
+        <v>0</v>
       </c>
       <c r="L167">
-        <v>82.74</v>
+        <v>0</v>
       </c>
       <c r="M167">
         <v>0</v>
@@ -7269,28 +7269,28 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B168">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C168">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>6.77</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>90.95</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>89.9</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -7299,10 +7299,10 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <v>121.47</v>
+        <v>0</v>
       </c>
       <c r="L168">
-        <v>122.77</v>
+        <v>0</v>
       </c>
       <c r="M168">
         <v>0</v>
@@ -7310,25 +7310,25 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B169">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C169">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>-2.17</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -7340,10 +7340,10 @@
         <v>0</v>
       </c>
       <c r="K169">
-        <v>32.24</v>
+        <v>0</v>
       </c>
       <c r="L169">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M169">
         <v>0</v>
@@ -7351,28 +7351,28 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B170">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C170">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>22.58</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>45.84</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -7381,10 +7381,10 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <v>106.22</v>
+        <v>0</v>
       </c>
       <c r="L170">
-        <v>196.39</v>
+        <v>0</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -7392,28 +7392,28 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B171">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C171">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>112.12</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>103.13</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -7422,10 +7422,10 @@
         <v>0</v>
       </c>
       <c r="K171">
-        <v>48.22</v>
+        <v>0</v>
       </c>
       <c r="L171">
-        <v>124.33</v>
+        <v>0</v>
       </c>
       <c r="M171">
         <v>0</v>
@@ -7433,28 +7433,28 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B172">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C172">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>148.13</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>160.43</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -7463,10 +7463,10 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>61.08</v>
+        <v>0</v>
       </c>
       <c r="L172">
-        <v>160.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="M172">
         <v>0</v>
@@ -7474,28 +7474,28 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="B173">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>201.78</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>217.72</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>4.1399999999999997</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -7504,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>53.43</v>
+        <v>0</v>
       </c>
       <c r="L173">
-        <v>170.09</v>
+        <v>0</v>
       </c>
       <c r="M173">
         <v>0</v>
@@ -7515,28 +7515,28 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B174">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>275.02</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>6.04</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -7545,10 +7545,10 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>33.64</v>
+        <v>0</v>
       </c>
       <c r="L174">
-        <v>165.83</v>
+        <v>0</v>
       </c>
       <c r="M174">
         <v>0</v>
@@ -7556,28 +7556,28 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B175">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C175">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>332.31</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>8.94</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>9.64</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -7586,10 +7586,10 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>25.72</v>
+        <v>0</v>
       </c>
       <c r="L175">
-        <v>170.88</v>
+        <v>0</v>
       </c>
       <c r="M175">
         <v>0</v>
@@ -7597,28 +7597,28 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B176">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C176">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>396.76</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>389.61</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>12.54</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -7627,10 +7627,10 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="L176">
-        <v>210.67</v>
+        <v>0</v>
       </c>
       <c r="M176">
         <v>0</v>
@@ -7638,28 +7638,28 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B177">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C177">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>452.18</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>446.91</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>16.78</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>17.43</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -7668,10 +7668,10 @@
         <v>0</v>
       </c>
       <c r="K177">
-        <v>32.74</v>
+        <v>0</v>
       </c>
       <c r="L177">
-        <v>190.31</v>
+        <v>0</v>
       </c>
       <c r="M177">
         <v>0</v>
@@ -7679,28 +7679,28 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B178">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>497.77</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>21.55</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>20.63</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -7709,10 +7709,10 @@
         <v>0</v>
       </c>
       <c r="K178">
-        <v>46.33</v>
+        <v>0</v>
       </c>
       <c r="L178">
-        <v>122.66</v>
+        <v>0</v>
       </c>
       <c r="M178">
         <v>0</v>
@@ -7720,28 +7720,28 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B179">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C179">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="D179">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>484.59</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>26.39</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>25.21</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -7750,10 +7750,10 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <v>86.54</v>
+        <v>0</v>
       </c>
       <c r="L179">
-        <v>159.47999999999999</v>
+        <v>0</v>
       </c>
       <c r="M179">
         <v>0</v>
@@ -7761,28 +7761,28 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B180">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C180">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>464.75</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>31.16</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>29.79</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="K180">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="L180">
-        <v>121.43</v>
+        <v>0</v>
       </c>
       <c r="M180">
         <v>0</v>
@@ -7802,28 +7802,28 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B181">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C181">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D181">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>443.54</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>35.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>34.380000000000003</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -7832,10 +7832,10 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>55.02</v>
+        <v>0</v>
       </c>
       <c r="L181">
-        <v>139.44999999999999</v>
+        <v>0</v>
       </c>
       <c r="M181">
         <v>0</v>
@@ -7843,28 +7843,28 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B182">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C182">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E182">
-        <v>450.93</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>40.25</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>38.96</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -7873,10 +7873,10 @@
         <v>0</v>
       </c>
       <c r="K182">
-        <v>70.069999999999993</v>
+        <v>0</v>
       </c>
       <c r="L182">
-        <v>152.13999999999999</v>
+        <v>0</v>
       </c>
       <c r="M182">
         <v>0</v>
@@ -7884,28 +7884,28 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B183">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C183">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D183">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>435.55</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>44.71</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>43.54</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -7914,10 +7914,10 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <v>39.36</v>
+        <v>0</v>
       </c>
       <c r="L183">
-        <v>131.66</v>
+        <v>0</v>
       </c>
       <c r="M183">
         <v>0</v>
@@ -7925,28 +7925,28 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B184">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>454.07</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>49.12</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>48.13</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -7955,10 +7955,10 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <v>54.15</v>
+        <v>0</v>
       </c>
       <c r="L184">
-        <v>144.88</v>
+        <v>0</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -7966,28 +7966,28 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B185">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C185">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>449.49</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>53.69</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>52.71</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>70.44</v>
+        <v>0</v>
       </c>
       <c r="L185">
-        <v>154.28</v>
+        <v>0</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -8007,28 +8007,28 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B186">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D186">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>429.84</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>58.08</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>57.3</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="K186">
-        <v>88.35</v>
+        <v>0</v>
       </c>
       <c r="L186">
-        <v>186.58</v>
+        <v>0</v>
       </c>
       <c r="M186">
         <v>0</v>
@@ -8048,28 +8048,28 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B187">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C187">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D187">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>464.97</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>62.6</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>61.88</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="K187">
-        <v>42.77</v>
+        <v>0</v>
       </c>
       <c r="L187">
-        <v>129.12</v>
+        <v>0</v>
       </c>
       <c r="M187">
         <v>0</v>
@@ -8089,28 +8089,28 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B188">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>454.9</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>67.23</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>66.459999999999994</v>
+        <v>0</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -8119,10 +8119,10 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>69.75</v>
+        <v>0</v>
       </c>
       <c r="L188">
-        <v>152.09</v>
+        <v>0</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -8130,28 +8130,28 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B189">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C189">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>448.58</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>458.37</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>71.739999999999995</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>71.05</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -8160,10 +8160,10 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>54.73</v>
+        <v>0</v>
       </c>
       <c r="L189">
-        <v>142.24</v>
+        <v>0</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -8171,28 +8171,28 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B190">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C190">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>444.12</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>406.8</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>76.27</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>75.56</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -8201,10 +8201,10 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>129.43</v>
+        <v>0</v>
       </c>
       <c r="L190">
-        <v>117.93</v>
+        <v>0</v>
       </c>
       <c r="M190">
         <v>0</v>
@@ -8212,28 +8212,28 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B191">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C191">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="D191">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>341.71</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>349.5</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>80.180000000000007</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>79.34</v>
+        <v>0</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -8242,10 +8242,10 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>89.69</v>
+        <v>0</v>
       </c>
       <c r="L191">
-        <v>79.09</v>
+        <v>0</v>
       </c>
       <c r="M191">
         <v>0</v>
@@ -8253,28 +8253,28 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B192">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C192">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D192">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="E192">
-        <v>294.25</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>292.20999999999998</v>
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>83.31</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -8283,10 +8283,10 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>92.32</v>
+        <v>0</v>
       </c>
       <c r="L192">
-        <v>76.819999999999993</v>
+        <v>0</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -8294,28 +8294,28 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C193">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D193">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="E193">
-        <v>237.67</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>234.91</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>85.91</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>85.18</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>124.05</v>
+        <v>0</v>
       </c>
       <c r="L193">
-        <v>98.58</v>
+        <v>0</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -8335,28 +8335,28 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B194">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D194">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>177.43</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>177.62</v>
+        <v>0</v>
       </c>
       <c r="G194">
-        <v>87.99</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>87.25</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -8365,10 +8365,10 @@
         <v>0</v>
       </c>
       <c r="K194">
-        <v>115.87</v>
+        <v>0</v>
       </c>
       <c r="L194">
-        <v>81.069999999999993</v>
+        <v>0</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -8376,28 +8376,28 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B195">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C195">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D195">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>119.42</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>120.32</v>
+        <v>0</v>
       </c>
       <c r="G195">
-        <v>89.44</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>88.74</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -8406,10 +8406,10 @@
         <v>0</v>
       </c>
       <c r="K195">
-        <v>133.38999999999999</v>
+        <v>0</v>
       </c>
       <c r="L195">
-        <v>88.68</v>
+        <v>0</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -8417,28 +8417,28 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B196">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C196">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D196">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>89.2</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>63.03</v>
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>90.55</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>89.65</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -8447,10 +8447,10 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>135.54</v>
+        <v>0</v>
       </c>
       <c r="L196">
-        <v>60.82</v>
+        <v>0</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -8458,28 +8458,28 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B197">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C197">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D197">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>-5.98</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>90.88</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>89.95</v>
+        <v>0</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -8488,10 +8488,10 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <v>110.09</v>
+        <v>0</v>
       </c>
       <c r="L197">
-        <v>111.48</v>
+        <v>0</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -8499,40 +8499,40 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B198">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C198">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D198">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>-16.97</v>
+        <v>0</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>90.77</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>89.95</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>-532</v>
+        <v>0</v>
       </c>
       <c r="J198">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="K198">
-        <v>215.46</v>
+        <v>0</v>
       </c>
       <c r="L198">
-        <v>-44.57</v>
+        <v>0</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -8540,25 +8540,25 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B199">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C199">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D199">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="E199">
-        <v>-140.47</v>
+        <v>0</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>-0.94</v>
+        <v>0</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -8570,10 +8570,10 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>98.21</v>
+        <v>0</v>
       </c>
       <c r="L199">
-        <v>152.16999999999999</v>
+        <v>0</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -8581,25 +8581,25 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B200">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C200">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D200">
-        <v>521</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>-33.51</v>
+        <v>0</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>-1.64</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -8611,51 +8611,13 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>86.96</v>
+        <v>0</v>
       </c>
       <c r="L200">
-        <v>134.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="M200">
         <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201">
-        <v>30</v>
-      </c>
-      <c r="B201">
-        <v>24</v>
-      </c>
-      <c r="C201">
-        <v>178</v>
-      </c>
-      <c r="D201">
-        <v>520</v>
-      </c>
-      <c r="E201">
-        <v>-19.739999999999998</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-      <c r="G201">
-        <v>-2</v>
-      </c>
-      <c r="H201">
-        <v>0</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <v>0</v>
-      </c>
-      <c r="K201">
-        <v>71.739999999999995</v>
-      </c>
-      <c r="L201">
-        <v>123.78</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">

--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOSEIDenken\Desktop\halfmouse\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D55B1-2B67-49D1-90F9-AE49991F686D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771C000-75CB-4946-8B24-5DF134B59DA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11950" yWindow="6560" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8990" yWindow="2390" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,19 +403,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>8.5500000000000007</v>
+        <v>21.38</v>
       </c>
       <c r="B1">
-        <v>10.8</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <v>1800</v>
+        <v>-0.4</v>
       </c>
       <c r="K1">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L1">
-        <v>34.22</v>
+        <v>26.7</v>
       </c>
       <c r="M1">
         <v>4854</v>
@@ -444,25 +444,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>17.100000000000001</v>
+        <v>29.93</v>
       </c>
       <c r="B2">
-        <v>28.8</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.17</v>
+        <v>-14.31</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1800</v>
+        <v>1.27</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-0.87</v>
       </c>
       <c r="L2">
-        <v>66.150000000000006</v>
+        <v>134.04</v>
       </c>
       <c r="M2">
         <v>4887</v>
@@ -485,25 +485,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>25.66</v>
+        <v>72.69</v>
       </c>
       <c r="B3">
-        <v>46.8</v>
+        <v>96</v>
       </c>
       <c r="C3">
-        <v>0.42</v>
+        <v>0.83</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.77</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1800</v>
+        <v>-0.61</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.94</v>
       </c>
       <c r="L3">
-        <v>99.86</v>
+        <v>139.22</v>
       </c>
       <c r="M3">
         <v>4929</v>
@@ -526,25 +526,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>47.04</v>
+        <v>106.9</v>
       </c>
       <c r="B4">
-        <v>64.8</v>
+        <v>136</v>
       </c>
       <c r="C4">
-        <v>0.82</v>
+        <v>1.74</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.01</v>
+        <v>-1.5</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1800</v>
+        <v>-0.33</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="L4">
-        <v>95.18</v>
+        <v>173.32</v>
       </c>
       <c r="M4">
         <v>4828</v>
@@ -567,25 +567,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>68.42</v>
+        <v>158.21</v>
       </c>
       <c r="B5">
-        <v>82.8</v>
+        <v>176</v>
       </c>
       <c r="C5">
-        <v>1.4</v>
+        <v>3.09</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.05</v>
+        <v>-3.23</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.44</v>
+        <v>0.02</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1800</v>
+        <v>0.33</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="L5">
-        <v>92.22</v>
+        <v>154.91</v>
       </c>
       <c r="M5">
         <v>4722</v>
@@ -608,25 +608,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>94.07</v>
+        <v>213.8</v>
       </c>
       <c r="B6">
-        <v>100.8</v>
+        <v>216</v>
       </c>
       <c r="C6">
-        <v>2.2000000000000002</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1800</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="L6">
-        <v>76.37</v>
+        <v>119.66</v>
       </c>
       <c r="M6">
         <v>4736</v>
@@ -649,25 +649,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>106.9</v>
+        <v>235.18</v>
       </c>
       <c r="B7">
-        <v>118.8</v>
+        <v>256</v>
       </c>
       <c r="C7">
-        <v>3.22</v>
+        <v>7.13</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.75</v>
+        <v>-2.29</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.57999999999999996</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1800</v>
+        <v>-0.33</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
       <c r="L7">
-        <v>97.58</v>
+        <v>188.75</v>
       </c>
       <c r="M7">
         <v>4478</v>
@@ -690,25 +690,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>119.73</v>
+        <v>282.20999999999998</v>
       </c>
       <c r="B8">
-        <v>136.80000000000001</v>
+        <v>296</v>
       </c>
       <c r="C8">
-        <v>4.4000000000000004</v>
+        <v>9.75</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.24</v>
+        <v>-19.87</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.63</v>
+        <v>-0.11</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1800</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L8">
-        <v>100.78</v>
+        <v>185.42</v>
       </c>
       <c r="M8">
         <v>4201</v>
@@ -731,25 +731,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>149.66</v>
+        <v>324.97000000000003</v>
       </c>
       <c r="B9">
-        <v>154.80000000000001</v>
+        <v>336</v>
       </c>
       <c r="C9">
-        <v>5.75</v>
+        <v>12.8</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4.46</v>
+        <v>-12.88</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.74</v>
+        <v>-0.26</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1800</v>
+        <v>4.63</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="L9">
-        <v>71.55</v>
+        <v>190.03</v>
       </c>
       <c r="M9">
         <v>4505</v>
@@ -772,25 +772,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>162.49</v>
+        <v>354.91</v>
       </c>
       <c r="B10">
-        <v>172.8</v>
+        <v>376</v>
       </c>
       <c r="C10">
-        <v>7.28</v>
+        <v>16.27</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.54</v>
+        <v>-15.66</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.91</v>
+        <v>-0.42</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1800</v>
+        <v>6.57</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="L10">
-        <v>90.51</v>
+        <v>233.87</v>
       </c>
       <c r="M10">
         <v>4494</v>
@@ -813,25 +813,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>183.87</v>
+        <v>401.94</v>
       </c>
       <c r="B11">
-        <v>190.8</v>
+        <v>416</v>
       </c>
       <c r="C11">
-        <v>9.02</v>
+        <v>20.12</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.22</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.02</v>
+        <v>-0.52</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1800</v>
+        <v>5.22</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="L11">
-        <v>83.64</v>
+        <v>223.8</v>
       </c>
       <c r="M11">
         <v>4584</v>
@@ -854,25 +854,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>200.97</v>
+        <v>453.25</v>
       </c>
       <c r="B12">
-        <v>208.8</v>
+        <v>456</v>
       </c>
       <c r="C12">
-        <v>10.94</v>
+        <v>24.42</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.42</v>
+        <v>7.11</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.06</v>
+        <v>-0.44</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -881,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1800</v>
+        <v>-1.85</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.79</v>
       </c>
       <c r="L12">
-        <v>94.75</v>
+        <v>192.9</v>
       </c>
       <c r="M12">
         <v>4824</v>
@@ -895,25 +895,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>218.07</v>
+        <v>496.01</v>
       </c>
       <c r="B13">
-        <v>226.8</v>
+        <v>496</v>
       </c>
       <c r="C13">
-        <v>13.02</v>
+        <v>29.17</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-9.3699999999999992</v>
+        <v>0.76</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.05</v>
+        <v>-0.42</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -922,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1800</v>
+        <v>-0.17</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L13">
-        <v>107.2</v>
+        <v>140.25</v>
       </c>
       <c r="M13">
         <v>5023</v>
@@ -936,25 +936,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>239.45</v>
+        <v>508.84</v>
       </c>
       <c r="B14">
-        <v>244.8</v>
+        <v>536</v>
       </c>
       <c r="C14">
-        <v>15.27</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-16.63</v>
+        <v>-10.65</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.97</v>
+        <v>-0.48</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1800</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="L14">
-        <v>110.63</v>
+        <v>239.34</v>
       </c>
       <c r="M14">
         <v>5084</v>
@@ -977,25 +977,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>243.73</v>
+        <v>564.42999999999995</v>
       </c>
       <c r="B15">
-        <v>262.8</v>
+        <v>576</v>
       </c>
       <c r="C15">
-        <v>17.72</v>
+        <v>39.51</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-4.7</v>
+        <v>-0.64</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.93</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1004,13 +1004,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1800</v>
+        <v>1.59</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L15">
-        <v>156.85</v>
+        <v>205.96</v>
       </c>
       <c r="M15">
         <v>4887</v>
@@ -1018,25 +1018,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>265.11</v>
+        <v>602.91</v>
       </c>
       <c r="B16">
-        <v>280.8</v>
+        <v>616</v>
       </c>
       <c r="C16">
-        <v>20.37</v>
+        <v>45.27</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.23</v>
+        <v>-0.85</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.91</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1800</v>
+        <v>0.12</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L16">
-        <v>150.46</v>
+        <v>223.63</v>
       </c>
       <c r="M16">
         <v>4668</v>
@@ -1059,25 +1059,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>295.04000000000002</v>
+        <v>637.12</v>
       </c>
       <c r="B17">
-        <v>298.8</v>
+        <v>656</v>
       </c>
       <c r="C17">
-        <v>23.22</v>
+        <v>51.54</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.04</v>
+        <v>-15.26</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.93</v>
+        <v>-0.62</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1086,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1800</v>
+        <v>2.9</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="L17">
-        <v>119.17</v>
+        <v>255.19</v>
       </c>
       <c r="M17">
         <v>4463</v>
@@ -1100,25 +1100,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>316.42</v>
+        <v>679.88</v>
       </c>
       <c r="B18">
-        <v>316.8</v>
+        <v>696</v>
       </c>
       <c r="C18">
-        <v>26.31</v>
+        <v>58.14</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.62</v>
+        <v>-7.54</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.93</v>
+        <v>-0.79</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1800</v>
+        <v>3.42</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="L18">
-        <v>113.33</v>
+        <v>261.39999999999998</v>
       </c>
       <c r="M18">
         <v>4623</v>
@@ -1141,25 +1141,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>333.53</v>
+        <v>735.47</v>
       </c>
       <c r="B19">
-        <v>334.8</v>
+        <v>736</v>
       </c>
       <c r="C19">
-        <v>29.51</v>
+        <v>65.209999999999994</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.97</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.96</v>
+        <v>-0.78</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1168,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1800</v>
+        <v>-1.66</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="L19">
-        <v>91.94</v>
+        <v>220.75</v>
       </c>
       <c r="M19">
         <v>4822</v>
@@ -1182,25 +1182,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>337.8</v>
+        <v>761.12</v>
       </c>
       <c r="B20">
-        <v>352.8</v>
+        <v>776</v>
       </c>
       <c r="C20">
-        <v>32.840000000000003</v>
+        <v>72.67</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-2.2599999999999998</v>
+        <v>-5.62</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.96</v>
+        <v>-0.74</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1800</v>
+        <v>0.92</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L20">
-        <v>141.05000000000001</v>
+        <v>277.93</v>
       </c>
       <c r="M20">
         <v>4665</v>
@@ -1223,25 +1223,25 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>354.91</v>
+        <v>808.16</v>
       </c>
       <c r="B21">
-        <v>370.8</v>
+        <v>816</v>
       </c>
       <c r="C21">
-        <v>36.340000000000003</v>
+        <v>80.5</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.96</v>
+        <v>-0.73</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1800</v>
+        <v>-0.88</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="L21">
-        <v>150.77000000000001</v>
+        <v>267.49</v>
       </c>
       <c r="M21">
         <v>4732</v>
@@ -1264,25 +1264,25 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>384.84</v>
+        <v>803.88</v>
       </c>
       <c r="B22">
-        <v>388.8</v>
+        <v>821.05</v>
       </c>
       <c r="C22">
-        <v>40.08</v>
+        <v>88.72</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.3000000000000007</v>
+        <v>19.5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.97</v>
+        <v>-0.61</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1800</v>
+        <v>-4.18</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-1.26</v>
       </c>
       <c r="L22">
-        <v>119.26</v>
+        <v>213.99</v>
       </c>
       <c r="M22">
         <v>4756</v>
@@ -1305,25 +1305,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>406.22</v>
+        <v>816.71</v>
       </c>
       <c r="B23">
-        <v>406.8</v>
+        <v>821.05</v>
       </c>
       <c r="C23">
-        <v>44.02</v>
+        <v>96.78</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-1.8</v>
+        <v>6.01</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.97</v>
+        <v>-0.54</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1800</v>
+        <v>-2.82</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-1.92</v>
       </c>
       <c r="L23">
-        <v>116.68</v>
+        <v>181.05</v>
       </c>
       <c r="M23">
         <v>4463</v>
@@ -1346,25 +1346,25 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>414.77</v>
+        <v>808.16</v>
       </c>
       <c r="B24">
-        <v>424.8</v>
+        <v>821.05</v>
       </c>
       <c r="C24">
-        <v>48.13</v>
+        <v>104.89</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-4.7</v>
+        <v>-13.43</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.98</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1800</v>
+        <v>2.52</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="L24">
-        <v>135.03</v>
+        <v>215.09</v>
       </c>
       <c r="M24">
         <v>4601</v>
@@ -1387,25 +1387,25 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>427.6</v>
+        <v>791.05</v>
       </c>
       <c r="B25">
-        <v>442.8</v>
+        <v>785.05</v>
       </c>
       <c r="C25">
-        <v>52.38</v>
+        <v>112.89</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>111.49</v>
       </c>
       <c r="E25">
-        <v>1.89</v>
+        <v>-1.04</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.97</v>
+        <v>-0.59</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1800</v>
+        <v>0.1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L25">
-        <v>156.78</v>
+        <v>151.66999999999999</v>
       </c>
       <c r="M25">
         <v>4699</v>
@@ -1428,25 +1428,25 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>453.25</v>
+        <v>756.85</v>
       </c>
       <c r="B26">
-        <v>460.8</v>
+        <v>745.05</v>
       </c>
       <c r="C26">
-        <v>56.81</v>
+        <v>120.59</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>119.14</v>
       </c>
       <c r="E26">
-        <v>3.72</v>
+        <v>22.28</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>-0.38</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1800</v>
+        <v>-5.48</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-2.14</v>
       </c>
       <c r="L26">
-        <v>139.38999999999999</v>
+        <v>59.24</v>
       </c>
       <c r="M26">
         <v>4688</v>
@@ -1469,25 +1469,25 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>478.91</v>
+        <v>692.71</v>
       </c>
       <c r="B27">
-        <v>478.8</v>
+        <v>700</v>
       </c>
       <c r="C27">
-        <v>61.46</v>
+        <v>0.69</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-1.31</v>
+        <v>5.31</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1.03</v>
+        <v>0.01</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1800</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L27">
-        <v>122.88</v>
+        <v>158.94999999999999</v>
       </c>
       <c r="M27">
         <v>4609</v>
@@ -1510,40 +1510,40 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>483.18</v>
+        <v>722.64</v>
       </c>
       <c r="B28">
-        <v>496.8</v>
+        <v>700</v>
       </c>
       <c r="C28">
-        <v>66.28</v>
+        <v>7.88</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>115.54</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>229.18</v>
       </c>
       <c r="G28">
-        <v>1.06</v>
+        <v>0.47</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>28647.82</v>
       </c>
       <c r="J28">
-        <v>1800</v>
+        <v>54.52</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>9.07</v>
       </c>
       <c r="L28">
-        <v>159.55000000000001</v>
+        <v>283.77</v>
       </c>
       <c r="M28">
         <v>4796</v>
@@ -1551,89 +1551,89 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>504.56</v>
+        <v>684.15</v>
       </c>
       <c r="B29">
-        <v>514.79999999999995</v>
+        <v>700</v>
       </c>
       <c r="C29">
-        <v>71.17</v>
+        <v>14.95</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>13.55</v>
       </c>
       <c r="E29">
-        <v>5.34</v>
+        <v>451.75</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>515.66</v>
       </c>
       <c r="G29">
-        <v>1.02</v>
+        <v>3.8</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>28647.82</v>
       </c>
       <c r="J29">
-        <v>1800</v>
+        <v>43.27</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="L29">
-        <v>157.69</v>
+        <v>412.76</v>
       </c>
       <c r="M29">
         <v>5053</v>
       </c>
       <c r="N29">
         <f>AVERAGE(K30:K36)</f>
-        <v>0</v>
+        <v>-11.627142857142859</v>
       </c>
       <c r="O29">
         <f>AVERAGE(L30:L36)</f>
-        <v>154.09142857142857</v>
+        <v>243.51857142857145</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>534.5</v>
+        <v>688.43</v>
       </c>
       <c r="B30">
-        <v>532.79999999999995</v>
+        <v>700</v>
       </c>
       <c r="C30">
-        <v>76.39</v>
+        <v>21.95</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="E30">
-        <v>1.77</v>
+        <v>682.71</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>802.14</v>
       </c>
       <c r="G30">
-        <v>1.06</v>
+        <v>9.16</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>11.23</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>28647.82</v>
       </c>
       <c r="J30">
-        <v>1800</v>
+        <v>87.38</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>39.61</v>
       </c>
       <c r="L30">
-        <v>118.62</v>
+        <v>473.57</v>
       </c>
       <c r="M30">
         <v>4943</v>
@@ -1641,40 +1641,40 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>543.04999999999995</v>
+        <v>696.98</v>
       </c>
       <c r="B31">
-        <v>550.79999999999995</v>
+        <v>700</v>
       </c>
       <c r="C31">
-        <v>81.760000000000005</v>
+        <v>28.88</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>24.75</v>
       </c>
       <c r="E31">
-        <v>3.45</v>
+        <v>843.81</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>777.58</v>
       </c>
       <c r="G31">
-        <v>1.05</v>
+        <v>17.46</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1800</v>
+        <v>-34.97</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-8.48</v>
       </c>
       <c r="L31">
-        <v>154.41</v>
+        <v>171.52</v>
       </c>
       <c r="M31">
         <v>5026</v>
@@ -1682,40 +1682,40 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>555.88</v>
+        <v>688.43</v>
       </c>
       <c r="B32">
-        <v>568.79999999999995</v>
+        <v>700</v>
       </c>
       <c r="C32">
-        <v>87.25</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>31.75</v>
       </c>
       <c r="E32">
-        <v>1.4</v>
+        <v>843.81</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>777.58</v>
       </c>
       <c r="G32">
-        <v>1.06</v>
+        <v>25.9</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>23.77</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1800</v>
+        <v>-45.56</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>-19.07</v>
       </c>
       <c r="L32">
-        <v>174.9</v>
+        <v>184.47</v>
       </c>
       <c r="M32">
         <v>5120</v>
@@ -1723,40 +1723,40 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>590.08000000000004</v>
+        <v>688.43</v>
       </c>
       <c r="B33">
-        <v>586.79999999999995</v>
+        <v>700</v>
       </c>
       <c r="C33">
-        <v>92.97</v>
+        <v>42.82</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>38.75</v>
       </c>
       <c r="E33">
-        <v>7.51</v>
+        <v>795.41</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>777.58</v>
       </c>
       <c r="G33">
-        <v>1.1200000000000001</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>31.55</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1800</v>
+        <v>-31.42</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>-25.84</v>
       </c>
       <c r="L33">
-        <v>130.94</v>
+        <v>201.53</v>
       </c>
       <c r="M33">
         <v>5319</v>
@@ -1764,40 +1764,40 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>598.64</v>
+        <v>688.43</v>
       </c>
       <c r="B34">
-        <v>604.79999999999995</v>
+        <v>700</v>
       </c>
       <c r="C34">
-        <v>98.89</v>
+        <v>49.79</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>45.75</v>
       </c>
       <c r="E34">
-        <v>-2.41</v>
+        <v>760.19</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>777.58</v>
       </c>
       <c r="G34">
-        <v>1.1399999999999999</v>
+        <v>41.13</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>39.32</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1800</v>
+        <v>-22.18</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>-26.73</v>
       </c>
       <c r="L34">
-        <v>165.77</v>
+        <v>211.64</v>
       </c>
       <c r="M34">
         <v>4781</v>
@@ -1805,40 +1805,40 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>607.19000000000005</v>
+        <v>688.43</v>
       </c>
       <c r="B35">
-        <v>622.79999999999995</v>
+        <v>700</v>
       </c>
       <c r="C35">
-        <v>104.93</v>
+        <v>56.66</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>52.75</v>
       </c>
       <c r="E35">
-        <v>-6.44</v>
+        <v>752.14</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>777.58</v>
       </c>
       <c r="G35">
-        <v>1.1200000000000001</v>
+        <v>48.66</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1800</v>
+        <v>-13.03</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-22.78</v>
       </c>
       <c r="L35">
-        <v>202.56</v>
+        <v>225.4</v>
       </c>
       <c r="M35">
         <v>4557</v>
@@ -1846,40 +1846,40 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>645.66999999999996</v>
+        <v>688.43</v>
       </c>
       <c r="B36">
-        <v>640.79999999999995</v>
+        <v>700</v>
       </c>
       <c r="C36">
-        <v>111.23</v>
+        <v>63.63</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>59.75</v>
       </c>
       <c r="E36">
-        <v>18.95</v>
+        <v>739.62</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>777.58</v>
       </c>
       <c r="G36">
-        <v>1.17</v>
+        <v>56.15</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>54.88</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1800</v>
+        <v>-3.46</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="L36">
-        <v>131.44</v>
+        <v>236.5</v>
       </c>
       <c r="M36">
         <v>5105</v>
@@ -1887,40 +1887,40 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>654.22</v>
+        <v>679.88</v>
       </c>
       <c r="B37">
-        <v>658.8</v>
+        <v>700</v>
       </c>
       <c r="C37">
-        <v>117.71</v>
+        <v>70.45</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>66.75</v>
       </c>
       <c r="E37">
-        <v>1.86</v>
+        <v>715.39</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>777.58</v>
       </c>
       <c r="G37">
-        <v>1.27</v>
+        <v>63.47</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>62.65</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1800</v>
+        <v>15.79</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>-10.93</v>
       </c>
       <c r="L37">
-        <v>156.41</v>
+        <v>288.42</v>
       </c>
       <c r="M37">
         <v>5091</v>
@@ -1928,40 +1928,40 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>658.5</v>
+        <v>675.6</v>
       </c>
       <c r="B38">
-        <v>676.8</v>
+        <v>700</v>
       </c>
       <c r="C38">
-        <v>124.22</v>
+        <v>77.36</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>73.75</v>
       </c>
       <c r="E38">
-        <v>-2.29</v>
+        <v>726.9</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>777.58</v>
       </c>
       <c r="G38">
-        <v>1.22</v>
+        <v>70.62</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>70.430000000000007</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1800</v>
+        <v>22.08</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>-0.89</v>
       </c>
       <c r="L38">
-        <v>208.82</v>
+        <v>312.13</v>
       </c>
       <c r="M38">
         <v>1691</v>
@@ -1969,40 +1969,40 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>696.98</v>
+        <v>679.88</v>
       </c>
       <c r="B39">
-        <v>694.8</v>
+        <v>700</v>
       </c>
       <c r="C39">
-        <v>131.05000000000001</v>
+        <v>84.21</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>80.75</v>
       </c>
       <c r="E39">
-        <v>-1.1000000000000001</v>
+        <v>755.07</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>777.58</v>
       </c>
       <c r="G39">
-        <v>1.21</v>
+        <v>78.09</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>78.2</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1800</v>
+        <v>14.82</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="L39">
-        <v>144.77000000000001</v>
+        <v>297.49</v>
       </c>
       <c r="M39">
         <v>63590</v>
@@ -2010,40 +2010,40 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>696.98</v>
+        <v>692.71</v>
       </c>
       <c r="B40">
-        <v>712.8</v>
+        <v>700</v>
       </c>
       <c r="C40">
-        <v>138.07</v>
+        <v>91.14</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>86.35</v>
       </c>
       <c r="E40">
-        <v>-5.25</v>
+        <v>730.71</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>577.04999999999995</v>
       </c>
       <c r="G40">
-        <v>1.1599999999999999</v>
+        <v>85.65</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>84.19</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>-28647.82</v>
       </c>
       <c r="J40">
-        <v>1800</v>
+        <v>-70.48</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>-5.42</v>
       </c>
       <c r="L40">
-        <v>203.5</v>
+        <v>-5.18</v>
       </c>
       <c r="M40">
         <v>58995</v>
@@ -2051,74 +2051,74 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>726.91</v>
+        <v>744.02</v>
       </c>
       <c r="B41">
-        <v>730.8</v>
+        <v>700</v>
       </c>
       <c r="C41">
-        <v>145.24</v>
+        <v>98.46</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>93.35</v>
       </c>
       <c r="E41">
-        <v>-6.56</v>
+        <v>470.43</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>290.57</v>
       </c>
       <c r="G41">
-        <v>1.06</v>
+        <v>92.08</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>88.53</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>-28647.82</v>
       </c>
       <c r="J41">
-        <v>1800</v>
+        <v>-129.44999999999999</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>-41.06</v>
       </c>
       <c r="L41">
-        <v>175.44</v>
+        <v>-293.97000000000003</v>
       </c>
       <c r="M41">
         <v>55859</v>
       </c>
       <c r="N41">
         <f>AVERAGE(K41:K57)</f>
-        <v>0</v>
+        <v>-21.22</v>
       </c>
       <c r="O41">
         <f>AVERAGE(L41:L57)</f>
-        <v>220.62764705882347</v>
+        <v>105.01823529411764</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>735.47</v>
+        <v>726.91</v>
       </c>
       <c r="B42">
-        <v>748.8</v>
+        <v>704</v>
       </c>
       <c r="C42">
-        <v>152.58000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>-13.28</v>
+        <v>213.56</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.93</v>
+        <v>0.44</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2127,13 +2127,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1800</v>
+        <v>-101.39</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-68.66</v>
       </c>
       <c r="L42">
-        <v>211.8</v>
+        <v>6.16</v>
       </c>
       <c r="M42">
         <v>56727</v>
@@ -2144,22 +2144,22 @@
         <v>765.4</v>
       </c>
       <c r="B43">
-        <v>766.8</v>
+        <v>744</v>
       </c>
       <c r="C43">
-        <v>160.06</v>
+        <v>8.94</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>-12.18</v>
+        <v>59.66</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0.79</v>
+        <v>1.94</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1800</v>
+        <v>-94.74</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>-83.69</v>
       </c>
       <c r="L43">
-        <v>184.8</v>
+        <v>13.25</v>
       </c>
       <c r="M43">
         <v>58153</v>
@@ -2182,25 +2182,25 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>786.78</v>
+        <v>782.5</v>
       </c>
       <c r="B44">
-        <v>784.8</v>
+        <v>784</v>
       </c>
       <c r="C44">
-        <v>167.83</v>
+        <v>16.63</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>-8.18</v>
+        <v>-37.99</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.7</v>
+        <v>1.99</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1800</v>
+        <v>-79.61</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-84.18</v>
       </c>
       <c r="L44">
-        <v>170.23</v>
+        <v>103.95</v>
       </c>
       <c r="M44">
         <v>56094</v>
@@ -2223,25 +2223,25 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>782.5</v>
+        <v>799.61</v>
       </c>
       <c r="B45">
-        <v>802.8</v>
+        <v>821.05</v>
       </c>
       <c r="C45">
-        <v>175.69</v>
+        <v>24.31</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>-13.31</v>
+        <v>-171.3</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1800</v>
+        <v>-44.29</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>-70.8</v>
       </c>
       <c r="L45">
-        <v>245.66</v>
+        <v>181.73</v>
       </c>
       <c r="M45">
         <v>56744</v>
@@ -2264,25 +2264,25 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>820.99</v>
+        <v>812.43</v>
       </c>
       <c r="B46">
-        <v>820.8</v>
+        <v>821.05</v>
       </c>
       <c r="C46">
-        <v>183.76</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>-5.89</v>
+        <v>-159.03</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.54</v>
+        <v>-0.98</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2291,13 +2291,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1800</v>
+        <v>-30.01</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>-54.47</v>
       </c>
       <c r="L46">
-        <v>178.04</v>
+        <v>164.02</v>
       </c>
       <c r="M46">
         <v>57627</v>
@@ -2305,25 +2305,25 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>829.54</v>
+        <v>756.85</v>
       </c>
       <c r="B47">
-        <v>838.8</v>
+        <v>821.05</v>
       </c>
       <c r="C47">
-        <v>192.06</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-18.43</v>
+        <v>-304.95999999999998</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.44</v>
+        <v>-3.26</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1800</v>
+        <v>12.67</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>-31.61</v>
       </c>
       <c r="L47">
-        <v>213.52</v>
+        <v>401.51</v>
       </c>
       <c r="M47">
         <v>57038</v>
@@ -2346,25 +2346,25 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>838.09</v>
+        <v>799.61</v>
       </c>
       <c r="B48">
-        <v>856.8</v>
+        <v>801.05</v>
       </c>
       <c r="C48">
-        <v>200.44</v>
+        <v>48.06</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>47.07</v>
       </c>
       <c r="E48">
-        <v>-11.66</v>
+        <v>-374.69</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0.34</v>
+        <v>-6.74</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2373,13 +2373,13 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1800</v>
+        <v>58.78</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="L48">
-        <v>245.72</v>
+        <v>222.02</v>
       </c>
       <c r="M48">
         <v>56385</v>
@@ -2387,25 +2387,25 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>859.47</v>
+        <v>748.29</v>
       </c>
       <c r="B49">
-        <v>874.8</v>
+        <v>761.05</v>
       </c>
       <c r="C49">
-        <v>209.03</v>
+        <v>55.91</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>54.88</v>
       </c>
       <c r="E49">
-        <v>-15.23</v>
+        <v>-276.92</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0.23</v>
+        <v>-10.34</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1800</v>
+        <v>86.08</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>39.19</v>
       </c>
       <c r="L49">
-        <v>244.42</v>
+        <v>284.02999999999997</v>
       </c>
       <c r="M49">
         <v>56683</v>
@@ -2428,25 +2428,25 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>897.95</v>
+        <v>684.15</v>
       </c>
       <c r="B50">
-        <v>892.79</v>
+        <v>721.05</v>
       </c>
       <c r="C50">
-        <v>217.83</v>
+        <v>63.02</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>62.29</v>
       </c>
       <c r="E50">
-        <v>5.95</v>
+        <v>74.52</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.18</v>
+        <v>-10.97</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1800</v>
+        <v>36.29</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>45.43</v>
       </c>
       <c r="L50">
-        <v>184.95</v>
+        <v>310.56</v>
       </c>
       <c r="M50">
         <v>57599</v>
@@ -2469,25 +2469,25 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>897.95</v>
+        <v>654.22</v>
       </c>
       <c r="B51">
-        <v>910.79</v>
+        <v>681.05</v>
       </c>
       <c r="C51">
-        <v>226.85</v>
+        <v>69.88</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="E51">
-        <v>-8.76</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.17</v>
+        <v>-10.1</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2496,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1800</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="L51">
-        <v>237.85</v>
+        <v>224.23</v>
       </c>
       <c r="M51">
         <v>57712</v>
@@ -2510,25 +2510,25 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>923.61</v>
+        <v>637.12</v>
       </c>
       <c r="B52">
-        <v>928.79</v>
+        <v>641.04999999999995</v>
       </c>
       <c r="C52">
-        <v>235.91</v>
+        <v>76.45</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>75.91</v>
       </c>
       <c r="E52">
-        <v>2.5</v>
+        <v>194.64</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.12</v>
+        <v>-8.36</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2537,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1800</v>
+        <v>-9.6199999999999992</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>19.39</v>
       </c>
       <c r="L52">
-        <v>221.18</v>
+        <v>114.28</v>
       </c>
       <c r="M52">
         <v>55902</v>
@@ -2551,25 +2551,25 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>932.16</v>
+        <v>611.46</v>
       </c>
       <c r="B53">
-        <v>946.79</v>
+        <v>601.04999999999995</v>
       </c>
       <c r="C53">
-        <v>245.27</v>
+        <v>82.68</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>82.12</v>
       </c>
       <c r="E53">
-        <v>-24.51</v>
+        <v>165.71</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>-6.36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2578,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1800</v>
+        <v>-26.46</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="L53">
-        <v>259.99</v>
+        <v>36.64</v>
       </c>
       <c r="M53">
         <v>57846</v>
@@ -2592,25 +2592,25 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>983.47</v>
+        <v>560.15</v>
       </c>
       <c r="B54">
-        <v>964.79</v>
+        <v>561.04999999999995</v>
       </c>
       <c r="C54">
-        <v>254.8</v>
+        <v>88.59</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>87.93</v>
       </c>
       <c r="E54">
-        <v>-2.0099999999999998</v>
+        <v>125.43</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>-0.04</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2619,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1800</v>
+        <v>-34.07</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>-15.28</v>
       </c>
       <c r="L54">
-        <v>162.41999999999999</v>
+        <v>49.98</v>
       </c>
       <c r="M54">
         <v>58096</v>
@@ -2633,25 +2633,25 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>962.09</v>
+        <v>538.77</v>
       </c>
       <c r="B55">
-        <v>982.79</v>
+        <v>521.04999999999995</v>
       </c>
       <c r="C55">
-        <v>264.47000000000003</v>
+        <v>94.11</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>93.34</v>
       </c>
       <c r="E55">
-        <v>-16.690000000000001</v>
+        <v>69.239999999999995</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>-0.19</v>
+        <v>-3.92</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2660,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1800</v>
+        <v>-36.69</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>-25.02</v>
       </c>
       <c r="L55">
-        <v>284.45</v>
+        <v>-23.98</v>
       </c>
       <c r="M55">
         <v>55982</v>
@@ -2674,25 +2674,25 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>1000.58</v>
+        <v>500.29</v>
       </c>
       <c r="B56">
-        <v>1000.79</v>
+        <v>481.05</v>
       </c>
       <c r="C56">
-        <v>274.39999999999998</v>
+        <v>99.24</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>98.35</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>19.93</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>-0.28999999999999998</v>
+        <v>-3.44</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2701,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1800</v>
+        <v>-33.869999999999997</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>-29.87</v>
       </c>
       <c r="L56">
-        <v>218.04</v>
+        <v>-40.11</v>
       </c>
       <c r="M56">
         <v>56625</v>
@@ -2715,25 +2715,25 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>992.02</v>
+        <v>444.7</v>
       </c>
       <c r="B57">
-        <v>1018.79</v>
+        <v>441.05</v>
       </c>
       <c r="C57">
-        <v>284.36</v>
+        <v>103.92</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>102.96</v>
       </c>
       <c r="E57">
-        <v>-3.17</v>
+        <v>-5.4</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>-0.28999999999999998</v>
+        <v>-3.46</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2742,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1800</v>
+        <v>1.59</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L57">
-        <v>312.16000000000003</v>
+        <v>31.01</v>
       </c>
       <c r="M57">
         <v>58008</v>
@@ -2756,25 +2756,25 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>1034.78</v>
+        <v>401.94</v>
       </c>
       <c r="B58">
-        <v>1036.79</v>
+        <v>401.05</v>
       </c>
       <c r="C58">
-        <v>294.63</v>
+        <v>108.16</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>107.18</v>
       </c>
       <c r="E58">
-        <v>7.35</v>
+        <v>20.57</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>-0.21</v>
+        <v>-3.41</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2783,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1800</v>
+        <v>-2.8</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L58">
-        <v>226.98</v>
+        <v>25</v>
       </c>
       <c r="M58">
         <v>56610</v>
@@ -2797,25 +2797,25 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>1056.1600000000001</v>
+        <v>372.01</v>
       </c>
       <c r="B59">
-        <v>1054.79</v>
+        <v>361.05</v>
       </c>
       <c r="C59">
-        <v>305.05</v>
+        <v>112</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>110.99</v>
       </c>
       <c r="E59">
-        <v>8.7899999999999991</v>
+        <v>9.4</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>-0.11</v>
+        <v>-3.27</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2824,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1800</v>
+        <v>-2.68</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="L59">
-        <v>223.88</v>
+        <v>-15.01</v>
       </c>
       <c r="M59">
         <v>56373</v>
@@ -2838,25 +2838,25 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>1064.72</v>
+        <v>329.25</v>
       </c>
       <c r="B60">
-        <v>1072.79</v>
+        <v>321.05</v>
       </c>
       <c r="C60">
-        <v>315.62</v>
+        <v>115.52</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>114.4</v>
       </c>
       <c r="E60">
-        <v>-3.23</v>
+        <v>21.94</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>-0.11</v>
+        <v>-3.11</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2865,13 +2865,13 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1800</v>
+        <v>-6.57</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>-2.96</v>
       </c>
       <c r="L60">
-        <v>260.45</v>
+        <v>-23.45</v>
       </c>
       <c r="M60">
         <v>57109</v>
@@ -2879,25 +2879,25 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>1090.3699999999999</v>
+        <v>282.20999999999998</v>
       </c>
       <c r="B61">
-        <v>1090.79</v>
+        <v>281.05</v>
       </c>
       <c r="C61">
-        <v>326.43</v>
+        <v>118.56</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>117.41</v>
       </c>
       <c r="E61">
-        <v>-3.27</v>
+        <v>9.16</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>-0.11</v>
+        <v>-2.92</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2906,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1800</v>
+        <v>-7.03</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>-4.8899999999999997</v>
       </c>
       <c r="L61">
-        <v>241.55</v>
+        <v>-13.2</v>
       </c>
       <c r="M61">
         <v>60770</v>
@@ -2920,25 +2920,25 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>1103.2</v>
+        <v>252.28</v>
       </c>
       <c r="B62">
-        <v>1108.79</v>
+        <v>241.05</v>
       </c>
       <c r="C62">
-        <v>337.34</v>
+        <v>121.25</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>120.02</v>
       </c>
       <c r="E62">
-        <v>-6.53</v>
+        <v>5.19</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>-0.19</v>
+        <v>-2.83</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1800</v>
+        <v>-6.42</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>-5.74</v>
       </c>
       <c r="L62">
-        <v>260.62</v>
+        <v>-32.71</v>
       </c>
       <c r="M62">
         <v>362</v>
@@ -2961,25 +2961,25 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>1111.75</v>
+        <v>209.52</v>
       </c>
       <c r="B63">
-        <v>1126.79</v>
+        <v>201.05</v>
       </c>
       <c r="C63">
-        <v>348.54</v>
+        <v>123.52</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>122.23</v>
       </c>
       <c r="E63">
-        <v>-15.41</v>
+        <v>8.33</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>-0.23</v>
+        <v>-2.78</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2988,13 +2988,13 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1800</v>
+        <v>-7.47</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>-6.27</v>
       </c>
       <c r="L63">
-        <v>291.14999999999998</v>
+        <v>-36.24</v>
       </c>
       <c r="M63">
         <v>2865</v>
@@ -3002,16 +3002,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>1141.68</v>
+        <v>171.04</v>
       </c>
       <c r="B64">
-        <v>1144.79</v>
+        <v>161.05000000000001</v>
       </c>
       <c r="C64">
-        <v>359.85</v>
+        <v>125.42</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>124.04</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>-0.35</v>
+        <v>-2.72</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3029,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1800</v>
+        <v>-6.9</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>-6.9</v>
       </c>
       <c r="L64">
-        <v>259.23</v>
+        <v>-52.34</v>
       </c>
       <c r="M64">
         <v>4855</v>
@@ -3043,25 +3043,25 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>1145.96</v>
+        <v>128.28</v>
       </c>
       <c r="B65">
-        <v>1162.79</v>
+        <v>121.05</v>
       </c>
       <c r="C65">
-        <v>371.25</v>
+        <v>126.9</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>125.45</v>
       </c>
       <c r="E65">
-        <v>-4.79</v>
+        <v>1.77</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>-0.35</v>
+        <v>-2.69</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3070,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1800</v>
+        <v>-0.91</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="L65">
-        <v>306.64999999999998</v>
+        <v>-49.4</v>
       </c>
       <c r="M65">
         <v>4644</v>
@@ -3084,25 +3084,25 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>1171.6199999999999</v>
+        <v>85.52</v>
       </c>
       <c r="B66">
-        <v>1180.79</v>
+        <v>81.05</v>
       </c>
       <c r="C66">
-        <v>382.99</v>
+        <v>127.99</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>126.46</v>
       </c>
       <c r="E66">
-        <v>5.98</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>-0.28999999999999998</v>
+        <v>-2.64</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1800</v>
+        <v>-2.93</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>-0.47</v>
       </c>
       <c r="L66">
-        <v>285.89999999999998</v>
+        <v>-54.76</v>
       </c>
       <c r="M66">
         <v>4532</v>
@@ -3125,25 +3125,25 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>1193</v>
+        <v>42.76</v>
       </c>
       <c r="B67">
-        <v>1198.79</v>
+        <v>41.05</v>
       </c>
       <c r="C67">
-        <v>394.87</v>
+        <v>128.65</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>127.07</v>
       </c>
       <c r="E67">
-        <v>10.35</v>
+        <v>13.24</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>-0.28000000000000003</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1800</v>
+        <v>-3.8</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>-1.92</v>
       </c>
       <c r="L67">
-        <v>276.97000000000003</v>
+        <v>-58.11</v>
       </c>
       <c r="M67">
         <v>4942</v>
@@ -3166,25 +3166,25 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>1210.0999999999999</v>
+        <v>4.28</v>
       </c>
       <c r="B68">
-        <v>1216.79</v>
+        <v>1.05</v>
       </c>
       <c r="C68">
-        <v>406.92</v>
+        <v>128.91</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>127.28</v>
       </c>
       <c r="E68">
-        <v>-19.62</v>
+        <v>6.01</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>-0.32</v>
+        <v>-2.38</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1800</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>-3.05</v>
       </c>
       <c r="L68">
-        <v>290.13</v>
+        <v>-73.53</v>
       </c>
       <c r="M68">
         <v>4881</v>
@@ -3207,25 +3207,25 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>1227.2</v>
+        <v>-8.5500000000000007</v>
       </c>
       <c r="B69">
-        <v>1234.79</v>
+        <v>-2.95</v>
       </c>
       <c r="C69">
-        <v>419.13</v>
+        <v>128.88999999999999</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>127.28</v>
       </c>
       <c r="E69">
-        <v>-18.100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>-0.33</v>
+        <v>-2.36</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>296.44</v>
+        <v>-43.94</v>
       </c>
       <c r="M69">
         <v>4755</v>
@@ -3248,25 +3248,25 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>1265.69</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="B70">
-        <v>1252.79</v>
+        <v>-2.95</v>
       </c>
       <c r="C70">
-        <v>431.57</v>
+        <v>128.75</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>127.28</v>
       </c>
       <c r="E70">
-        <v>-14.89</v>
+        <v>13.37</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>-0.47</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1800</v>
+        <v>-2.79</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>-0.79</v>
       </c>
       <c r="L70">
-        <v>232.84</v>
+        <v>-17.28</v>
       </c>
       <c r="M70">
         <v>4862</v>
@@ -3289,25 +3289,25 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>1257.1300000000001</v>
+        <v>-12.83</v>
       </c>
       <c r="B71">
-        <v>1270.79</v>
+        <v>-2.95</v>
       </c>
       <c r="C71">
-        <v>444.11</v>
+        <v>128.59</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>127.28</v>
       </c>
       <c r="E71">
-        <v>16.02</v>
+        <v>12.51</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>-0.45</v>
+        <v>-2.15</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1800</v>
+        <v>-3.98</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>-2.1</v>
       </c>
       <c r="L71">
-        <v>313.23</v>
+        <v>-26.88</v>
       </c>
       <c r="M71">
         <v>5307</v>
@@ -3330,25 +3330,25 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>1261.4100000000001</v>
+        <v>-12.83</v>
       </c>
       <c r="B72">
-        <v>1288.79</v>
+        <v>-2.95</v>
       </c>
       <c r="C72">
-        <v>456.78</v>
+        <v>128.44999999999999</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>127.28</v>
       </c>
       <c r="E72">
-        <v>2.2000000000000002</v>
+        <v>20.51</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>-0.38</v>
+        <v>-2</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1800</v>
+        <v>-6.69</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>-3.61</v>
       </c>
       <c r="L72">
-        <v>364.09</v>
+        <v>-25.69</v>
       </c>
       <c r="M72">
         <v>4765</v>
@@ -3371,25 +3371,25 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>1317</v>
+        <v>-12.83</v>
       </c>
       <c r="B73">
-        <v>1306.79</v>
+        <v>-2.95</v>
       </c>
       <c r="C73">
-        <v>469.83</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>127.28</v>
       </c>
       <c r="E73">
-        <v>9.98</v>
+        <v>20.51</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>-0.33</v>
+        <v>-1.78</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1800</v>
+        <v>-8.9</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>-5.82</v>
       </c>
       <c r="L73">
-        <v>251.9</v>
+        <v>-24.22</v>
       </c>
       <c r="M73">
         <v>4534</v>
@@ -3412,25 +3412,25 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>1329.83</v>
+        <v>-12.83</v>
       </c>
       <c r="B74">
-        <v>1324.79</v>
+        <v>-2.95</v>
       </c>
       <c r="C74">
-        <v>482.91</v>
+        <v>128.18</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>127.28</v>
       </c>
       <c r="E74">
-        <v>12.82</v>
+        <v>16.14</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>-0.25</v>
+        <v>-1.6</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1800</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>-7.61</v>
       </c>
       <c r="L74">
-        <v>263.87</v>
+        <v>-22.3</v>
       </c>
       <c r="M74">
         <v>4562</v>
@@ -3453,25 +3453,25 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>1329.83</v>
+        <v>-8.5500000000000007</v>
       </c>
       <c r="B75">
-        <v>1342.79</v>
+        <v>-2.95</v>
       </c>
       <c r="C75">
-        <v>496.23</v>
+        <v>128.03</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>127.28</v>
       </c>
       <c r="E75">
-        <v>-7.63</v>
+        <v>5.98</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>-0.2</v>
+        <v>-1.5</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1800</v>
+        <v>-9.52</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>-8.6199999999999992</v>
       </c>
       <c r="L75">
-        <v>320.89</v>
+        <v>-30.58</v>
       </c>
       <c r="M75">
         <v>4936</v>
@@ -3494,25 +3494,25 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>1372.59</v>
+        <v>0</v>
       </c>
       <c r="B76">
-        <v>1360.79</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>509.76</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>-7.42</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>-0.22</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3521,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>256.19</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>4776</v>
@@ -3535,25 +3535,25 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>1351.21</v>
+        <v>0</v>
       </c>
       <c r="B77">
-        <v>1378.79</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>523.44000000000005</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>-0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>374.45</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <v>4919</v>
@@ -3576,25 +3576,25 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>1402.52</v>
+        <v>0</v>
       </c>
       <c r="B78">
-        <v>1396.79</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>537.16</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>10.86</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>-0.32</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3603,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>287.68</v>
+        <v>0</v>
       </c>
       <c r="M78">
         <v>4865</v>
@@ -3617,25 +3617,25 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>1406.79</v>
+        <v>0</v>
       </c>
       <c r="B79">
-        <v>1414.79</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>551.27</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>-6.1</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>331.5</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>4912</v>
@@ -3658,25 +3658,25 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>1432.45</v>
+        <v>0</v>
       </c>
       <c r="B80">
-        <v>1432.79</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>565.48</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>-4.12</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>-0.36</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>318.39</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>4809</v>
@@ -3699,25 +3699,25 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>1441</v>
+        <v>0</v>
       </c>
       <c r="B81">
-        <v>1450.79</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>579.88</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>-18.71</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>338.08</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>5185</v>
@@ -3740,25 +3740,25 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>1470.93</v>
+        <v>0</v>
       </c>
       <c r="B82">
-        <v>1468.79</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>594.48</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>-1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>-0.47</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>313.02999999999997</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <v>4888</v>
@@ -3781,13 +3781,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>1475.21</v>
+        <v>0</v>
       </c>
       <c r="B83">
-        <v>1486.79</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>609.21</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3808,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
-        <v>351.05</v>
+        <v>0</v>
       </c>
       <c r="M83">
         <v>4774</v>
@@ -3822,25 +3822,25 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>1513.69</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>1493.99</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>624.05999999999995</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>-7.97</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>-0.39</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>245.71</v>
+        <v>0</v>
       </c>
       <c r="M84">
         <v>4629</v>
@@ -3863,25 +3863,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>1479.48</v>
+        <v>0</v>
       </c>
       <c r="B85">
-        <v>1493.99</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>639.04</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>8.94</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>343.5</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>4619</v>
@@ -3904,25 +3904,25 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>1483.76</v>
+        <v>0</v>
       </c>
       <c r="B86">
-        <v>1479.59</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>653.9</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>651.89</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>-3.97</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3931,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>267.97000000000003</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>4739</v>
@@ -3945,25 +3945,25 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>1483.76</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>1461.59</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>668.61</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>666.6</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3972,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>191.18</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>4696</v>
@@ -3986,25 +3986,25 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>1466.66</v>
+        <v>0</v>
       </c>
       <c r="B88">
-        <v>1443.59</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>683.23</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>681.13</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>9.77</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>-0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4013,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>184.58</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>4681</v>
@@ -4027,19 +4027,19 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>1432.45</v>
+        <v>0</v>
       </c>
       <c r="B89">
-        <v>1425.59</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>697.65</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>695.47</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>38.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4054,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>0</v>
       </c>
       <c r="L89">
-        <v>218.32</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>4818</v>
@@ -4068,25 +4068,25 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>1419.62</v>
+        <v>0</v>
       </c>
       <c r="B90">
-        <v>1407.59</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>711.85</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>709.64</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>-19.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4095,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>207.7</v>
+        <v>0</v>
       </c>
       <c r="M90">
         <v>5278</v>
@@ -4109,25 +4109,25 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>1372.59</v>
+        <v>0</v>
       </c>
       <c r="B91">
-        <v>1389.59</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>725.94</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>723.62</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>-18.28</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4136,13 +4136,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>293.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>4999</v>
@@ -4150,25 +4150,25 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>1385.41</v>
+        <v>0</v>
       </c>
       <c r="B92">
-        <v>1371.59</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>739.84</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>737.43</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>-12.12</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <v>203.19</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>4966</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>1372.59</v>
+        <v>0</v>
       </c>
       <c r="B93">
-        <v>1353.59</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>753.55</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>751.06</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>-4.5199999999999996</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4218,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
-        <v>181.6</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>4925</v>
@@ -4232,25 +4232,25 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>1355.48</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>1335.59</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>767.1</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>764.5</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>23.01</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4259,13 +4259,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>168.13</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>4967</v>
@@ -4273,25 +4273,25 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>1325.55</v>
+        <v>0</v>
       </c>
       <c r="B95">
-        <v>1317.59</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>780.37</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>777.77</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4300,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>200.61</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>4960</v>
@@ -4314,25 +4314,25 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>1304.17</v>
+        <v>0</v>
       </c>
       <c r="B96">
-        <v>1299.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>793.56</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>790.85</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4341,13 +4341,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <v>206.84</v>
+        <v>0</v>
       </c>
       <c r="M96">
         <v>4920</v>
@@ -4355,25 +4355,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>1278.51</v>
+        <v>0</v>
       </c>
       <c r="B97">
-        <v>1281.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>806.5</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>803.76</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4382,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>227.76</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>4875</v>
@@ -4396,25 +4396,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>1265.69</v>
+        <v>0</v>
       </c>
       <c r="B98">
-        <v>1263.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>819.26</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>816.49</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>10.86</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4423,13 +4423,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>207.87</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>4882</v>
@@ -4437,25 +4437,25 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>1261.4100000000001</v>
+        <v>0</v>
       </c>
       <c r="B99">
-        <v>1245.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>831.85</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>829.03</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4464,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
       <c r="L99">
-        <v>172.62</v>
+        <v>0</v>
       </c>
       <c r="M99">
         <v>4869</v>
@@ -4478,25 +4478,25 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>1231.48</v>
+        <v>0</v>
       </c>
       <c r="B100">
-        <v>1227.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>844.34</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>841.4</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>17.579999999999998</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4505,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>188.5</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>4848</v>
@@ -4519,25 +4519,25 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>1201.55</v>
+        <v>0</v>
       </c>
       <c r="B101">
-        <v>1209.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>856.52</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>853.58</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4546,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
-        <v>216.37</v>
+        <v>0</v>
       </c>
       <c r="M101">
         <v>4851</v>
@@ -4560,25 +4560,25 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>1222.93</v>
+        <v>0</v>
       </c>
       <c r="B102">
-        <v>1191.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>868.59</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>865.59</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>-10.89</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4587,13 +4587,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K102">
         <v>0</v>
       </c>
       <c r="L102">
-        <v>98.11</v>
+        <v>0</v>
       </c>
       <c r="M102">
         <v>4849</v>
@@ -4601,25 +4601,25 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>1163.06</v>
+        <v>0</v>
       </c>
       <c r="B103">
-        <v>1173.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>880.45</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>877.41</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>-18.309999999999999</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4628,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
       <c r="L103">
-        <v>219.49</v>
+        <v>0</v>
       </c>
       <c r="M103">
         <v>4844</v>
@@ -4642,25 +4642,25 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>1150.24</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>1155.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>892.11</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>889.06</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
       <c r="L104">
-        <v>200.93</v>
+        <v>0</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -4683,25 +4683,25 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>1158.79</v>
+        <v>0</v>
       </c>
       <c r="B105">
-        <v>1137.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>903.55</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>900.53</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>-9.16</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4710,13 +4710,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>0</v>
       </c>
       <c r="L105">
-        <v>118.36</v>
+        <v>0</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -4724,25 +4724,25 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>1116.03</v>
+        <v>0</v>
       </c>
       <c r="B106">
-        <v>1119.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>914.89</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>911.81</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>-3.05</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K106">
         <v>0</v>
       </c>
       <c r="L106">
-        <v>197.81</v>
+        <v>0</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -4765,16 +4765,16 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>1103.2</v>
+        <v>0</v>
       </c>
       <c r="B107">
-        <v>1101.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>926.06</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>922.92</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4792,13 +4792,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="L107">
-        <v>170.8</v>
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -4806,25 +4806,25 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>1081.82</v>
+        <v>0</v>
       </c>
       <c r="B108">
-        <v>1083.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>936.96</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>933.84</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>-10.56</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4833,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <v>0</v>
       </c>
       <c r="L108">
-        <v>181.63</v>
+        <v>0</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -4847,25 +4847,25 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>1077.54</v>
+        <v>0</v>
       </c>
       <c r="B109">
-        <v>1065.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>947.79</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>944.59</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>-6.96</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K109">
         <v>0</v>
       </c>
       <c r="L109">
-        <v>134.83000000000001</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -4888,25 +4888,25 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>1051.8900000000001</v>
+        <v>0</v>
       </c>
       <c r="B110">
-        <v>1047.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>958.36</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>955.16</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>-25.18</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4915,13 +4915,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>161.38</v>
+        <v>0</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -4929,25 +4929,25 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>1030.51</v>
+        <v>0</v>
       </c>
       <c r="B111">
-        <v>1029.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>968.77</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>965.54</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>-12.08</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -4956,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -4970,25 +4970,25 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <v>1004.85</v>
+        <v>0</v>
       </c>
       <c r="B112">
-        <v>1011.59</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>978.99</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>975.75</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>-5.83</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4997,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K112">
         <v>0</v>
       </c>
       <c r="L112">
-        <v>183.2</v>
+        <v>0</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -5011,25 +5011,25 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
-        <v>1000.58</v>
+        <v>0</v>
       </c>
       <c r="B113">
-        <v>993.59</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>989.06</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>985.77</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>6.32</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5038,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
       <c r="L113">
-        <v>136.4</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -5052,25 +5052,25 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
-        <v>970.64</v>
+        <v>0</v>
       </c>
       <c r="B114">
-        <v>975.59</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>998.99</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>995.62</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5079,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>0</v>
       </c>
       <c r="L114">
-        <v>167.61</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -5093,25 +5093,25 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
-        <v>974.92</v>
+        <v>0</v>
       </c>
       <c r="B115">
-        <v>957.59</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>1008.65</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>1005.28</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>17.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5120,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>0</v>
       </c>
       <c r="L115">
-        <v>101.83</v>
+        <v>0</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -5134,25 +5134,25 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <v>944.99</v>
+        <v>0</v>
       </c>
       <c r="B116">
-        <v>939.59</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>1018.17</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>1014.77</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5161,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
       </c>
       <c r="L116">
-        <v>124.06</v>
+        <v>0</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -5175,25 +5175,25 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
-        <v>915.06</v>
+        <v>0</v>
       </c>
       <c r="B117">
-        <v>921.59</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>1027.49</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>1024.08</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>5.92</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5202,13 +5202,13 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
       </c>
       <c r="L117">
-        <v>153.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -5216,25 +5216,25 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <v>897.95</v>
+        <v>0</v>
       </c>
       <c r="B118">
-        <v>903.59</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>1036.6199999999999</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>1033.2</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>-4.76</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5243,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>147.49</v>
+        <v>0</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
-        <v>889.4</v>
+        <v>0</v>
       </c>
       <c r="B119">
-        <v>885.59</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>1045.5899999999999</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>1042.1500000000001</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>-6.59</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5284,13 +5284,13 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K119">
         <v>0</v>
       </c>
       <c r="L119">
-        <v>123.26</v>
+        <v>0</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -5298,25 +5298,25 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
-        <v>863.75</v>
+        <v>0</v>
       </c>
       <c r="B120">
-        <v>867.59</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>1054.3499999999999</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>1050.9100000000001</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>-25.57</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5325,13 +5325,13 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K120">
         <v>0</v>
       </c>
       <c r="L120">
-        <v>145.37</v>
+        <v>0</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -5339,25 +5339,25 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
-        <v>859.47</v>
+        <v>0</v>
       </c>
       <c r="B121">
-        <v>849.59</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>1062.98</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>1059.5</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>-3.27</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -5366,13 +5366,13 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K121">
         <v>0</v>
       </c>
       <c r="L121">
-        <v>101.3</v>
+        <v>0</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -5380,25 +5380,25 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
-        <v>833.81</v>
+        <v>0</v>
       </c>
       <c r="B122">
-        <v>831.59</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>1071.4100000000001</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>1067.9100000000001</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>-10.47</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -5407,13 +5407,13 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>0</v>
       </c>
       <c r="L122">
-        <v>120.68</v>
+        <v>0</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -5421,16 +5421,16 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
-        <v>812.43</v>
+        <v>0</v>
       </c>
       <c r="B123">
-        <v>813.59</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>1079.67</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>1076.1300000000001</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -5448,13 +5448,13 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>124.59</v>
+        <v>0</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -5462,25 +5462,25 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
-        <v>795.33</v>
+        <v>0</v>
       </c>
       <c r="B124">
-        <v>795.59</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>1087.71</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>1084.18</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>-5.34</v>
+        <v>0</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5489,13 +5489,13 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K124">
         <v>0</v>
       </c>
       <c r="L124">
-        <v>120.25</v>
+        <v>0</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -5503,25 +5503,25 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
-        <v>799.61</v>
+        <v>0</v>
       </c>
       <c r="B125">
-        <v>777.59</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>1095.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>1092.04</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>-5.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -5530,13 +5530,13 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>49.16</v>
+        <v>0</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -5544,25 +5544,25 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
-        <v>748.29</v>
+        <v>0</v>
       </c>
       <c r="B126">
-        <v>759.59</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>1103.3</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>1099.73</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>-5.07</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5571,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K126">
         <v>0</v>
       </c>
       <c r="L126">
-        <v>145.49</v>
+        <v>0</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -5585,25 +5585,25 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
-        <v>748.29</v>
+        <v>0</v>
       </c>
       <c r="B127">
-        <v>741.59</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>1110.79</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>1107.23</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>-11.9</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5612,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K127">
         <v>0</v>
       </c>
       <c r="L127">
-        <v>89.78</v>
+        <v>0</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -5626,25 +5626,25 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
-        <v>718.36</v>
+        <v>0</v>
       </c>
       <c r="B128">
-        <v>723.59</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>1118.17</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>1114.56</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>-4.91</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -5653,13 +5653,13 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
       <c r="L128">
-        <v>118.89</v>
+        <v>0</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -5667,25 +5667,25 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
-        <v>701.26</v>
+        <v>0</v>
       </c>
       <c r="B129">
-        <v>705.59</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>1125.26</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>1121.71</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>-5.86</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -5694,13 +5694,13 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K129">
         <v>0</v>
       </c>
       <c r="L129">
-        <v>116.02</v>
+        <v>0</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -5708,25 +5708,25 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
-        <v>688.43</v>
+        <v>0</v>
       </c>
       <c r="B130">
-        <v>687.59</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>1132.25</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>1128.67</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -5735,13 +5735,13 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K130">
         <v>0</v>
       </c>
       <c r="L130">
-        <v>93.76</v>
+        <v>0</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -5749,25 +5749,25 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
-        <v>667.05</v>
+        <v>0</v>
       </c>
       <c r="B131">
-        <v>669.59</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>1139.04</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>1135.46</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>3.97</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -5776,13 +5776,13 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
       <c r="L131">
-        <v>100.08</v>
+        <v>0</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -5790,19 +5790,19 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
-        <v>649.95000000000005</v>
+        <v>0</v>
       </c>
       <c r="B132">
-        <v>651.59</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>1145.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>1142.06</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>19.04</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5817,13 +5817,13 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K132">
         <v>0</v>
       </c>
       <c r="L132">
-        <v>92.52</v>
+        <v>0</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -5831,25 +5831,25 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
-        <v>645.66999999999996</v>
+        <v>0</v>
       </c>
       <c r="B133">
-        <v>633.59</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>1152.1400000000001</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>1148.49</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -5858,13 +5858,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <v>0</v>
       </c>
       <c r="L133">
-        <v>47.19</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -5872,25 +5872,25 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
-        <v>615.74</v>
+        <v>0</v>
       </c>
       <c r="B134">
-        <v>615.59</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>1158.3699999999999</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>1154.73</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -5899,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>0</v>
       </c>
       <c r="L134">
-        <v>80.67</v>
+        <v>0</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -5913,25 +5913,25 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
-        <v>594.36</v>
+        <v>0</v>
       </c>
       <c r="B135">
-        <v>597.59</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>1164.4100000000001</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>1160.8</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>-5.74</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -5940,13 +5940,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <v>0</v>
       </c>
       <c r="L135">
-        <v>89.25</v>
+        <v>0</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -5954,16 +5954,16 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
-        <v>585.80999999999995</v>
+        <v>0</v>
       </c>
       <c r="B136">
-        <v>579.59</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>1170.31</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>1166.69</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -5981,13 +5981,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <v>0</v>
       </c>
       <c r="L136">
-        <v>55.74</v>
+        <v>0</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -5995,25 +5995,25 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
-        <v>555.88</v>
+        <v>0</v>
       </c>
       <c r="B137">
-        <v>561.59</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>1176.03</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>1172.3900000000001</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>-10.77</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6022,13 +6022,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>0</v>
       </c>
       <c r="L137">
-        <v>90.41</v>
+        <v>0</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -6036,25 +6036,25 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
-        <v>538.77</v>
+        <v>0</v>
       </c>
       <c r="B138">
-        <v>543.59</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>1181.52</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>1177.92</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K138">
         <v>0</v>
       </c>
       <c r="L138">
-        <v>88.08</v>
+        <v>0</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -6077,25 +6077,25 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
-        <v>538.77</v>
+        <v>0</v>
       </c>
       <c r="B139">
-        <v>525.59</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>1186.93</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>1183.26</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>8.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -6104,13 +6104,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
       <c r="L139">
-        <v>25.13</v>
+        <v>0</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -6118,25 +6118,25 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
-        <v>508.84</v>
+        <v>0</v>
       </c>
       <c r="B140">
-        <v>507.59</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>1192.06</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>1188.43</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -6145,13 +6145,13 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140">
-        <v>57.43</v>
+        <v>0</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -6159,25 +6159,25 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
-        <v>483.18</v>
+        <v>0</v>
       </c>
       <c r="B141">
-        <v>489.59</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>1197.01</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>1193.42</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>20.69</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -6186,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K141">
         <v>0</v>
       </c>
       <c r="L141">
-        <v>74.61</v>
+        <v>0</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -6200,25 +6200,25 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
-        <v>474.63</v>
+        <v>0</v>
       </c>
       <c r="B142">
-        <v>471.59</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>1201.83</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>1198.22</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -6227,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K142">
         <v>0</v>
       </c>
       <c r="L142">
-        <v>46.89</v>
+        <v>0</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -6241,25 +6241,25 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
-        <v>448.98</v>
+        <v>0</v>
       </c>
       <c r="B143">
-        <v>453.59</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>1206.44</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>1202.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>-3.48</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -6268,13 +6268,13 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K143">
         <v>0</v>
       </c>
       <c r="L143">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -6282,25 +6282,25 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
-        <v>427.6</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>435.6</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>1210.8599999999999</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>1207.29</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -6309,13 +6309,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K144">
         <v>0</v>
       </c>
       <c r="L144">
-        <v>71.87</v>
+        <v>0</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -6323,25 +6323,25 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
-        <v>419.04</v>
+        <v>0</v>
       </c>
       <c r="B145">
-        <v>417.6</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>1215.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>1211.56</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>8.7899999999999991</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -6350,13 +6350,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K145">
         <v>0</v>
       </c>
       <c r="L145">
-        <v>39.630000000000003</v>
+        <v>0</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -6364,25 +6364,25 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
-        <v>401.94</v>
+        <v>0</v>
       </c>
       <c r="B146">
-        <v>399.6</v>
+        <v>0</v>
       </c>
       <c r="C146">
-        <v>1219.23</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>1215.6500000000001</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>10.47</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -6391,13 +6391,13 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K146">
         <v>0</v>
       </c>
       <c r="L146">
-        <v>32.08</v>
+        <v>0</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -6405,25 +6405,25 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
-        <v>380.56</v>
+        <v>0</v>
       </c>
       <c r="B147">
-        <v>381.6</v>
+        <v>0</v>
       </c>
       <c r="C147">
-        <v>1223.1400000000001</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>1219.55</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -6432,13 +6432,13 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K147">
         <v>0</v>
       </c>
       <c r="L147">
-        <v>39.22</v>
+        <v>0</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -6446,16 +6446,16 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
-        <v>359.18</v>
+        <v>0</v>
       </c>
       <c r="B148">
-        <v>363.6</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>1226.81</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>1223.28</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K148">
         <v>0</v>
       </c>
       <c r="L148">
-        <v>48.96</v>
+        <v>0</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -6487,25 +6487,25 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
-        <v>342.08</v>
+        <v>0</v>
       </c>
       <c r="B149">
-        <v>345.6</v>
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>1230.31</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>1226.82</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -6514,13 +6514,13 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K149">
         <v>0</v>
       </c>
       <c r="L149">
-        <v>41.97</v>
+        <v>0</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -6528,25 +6528,25 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
-        <v>324.97000000000003</v>
+        <v>0</v>
       </c>
       <c r="B150">
-        <v>327.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>1233.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>1230.19</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>-4.43</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
       <c r="G150">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -6555,13 +6555,13 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <v>0</v>
       </c>
       <c r="L150">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -6569,25 +6569,25 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
-        <v>312.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="B151">
-        <v>309.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>1236.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>1233.3800000000001</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>12.36</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -6596,13 +6596,13 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>0</v>
       </c>
       <c r="L151">
-        <v>12.91</v>
+        <v>0</v>
       </c>
       <c r="M151">
         <v>0</v>
@@ -6610,25 +6610,25 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
-        <v>290.77</v>
+        <v>0</v>
       </c>
       <c r="B152">
-        <v>291.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>1239.83</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>1236.3800000000001</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>6.71</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -6637,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K152">
         <v>0</v>
       </c>
       <c r="L152">
-        <v>20.47</v>
+        <v>0</v>
       </c>
       <c r="M152">
         <v>0</v>
@@ -6651,25 +6651,25 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
-        <v>265.11</v>
+        <v>0</v>
       </c>
       <c r="B153">
-        <v>273.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>1242.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>1239.21</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -6678,13 +6678,13 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K153">
         <v>0</v>
       </c>
       <c r="L153">
-        <v>44.61</v>
+        <v>0</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -6692,25 +6692,25 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
-        <v>243.73</v>
+        <v>0</v>
       </c>
       <c r="B154">
-        <v>255.6</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>1245.19</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>1241.8499999999999</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>-0.67</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>0</v>
       </c>
       <c r="G154">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -6719,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K154">
         <v>0</v>
       </c>
       <c r="L154">
-        <v>49.48</v>
+        <v>0</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -6733,25 +6733,25 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
-        <v>239.45</v>
+        <v>0</v>
       </c>
       <c r="B155">
-        <v>237.6</v>
+        <v>0</v>
       </c>
       <c r="C155">
-        <v>1247.6199999999999</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>1244.32</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -6760,13 +6760,13 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K155">
         <v>0</v>
       </c>
       <c r="L155">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -6774,25 +6774,25 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
-        <v>218.07</v>
+        <v>0</v>
       </c>
       <c r="B156">
-        <v>219.6</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>1249.8900000000001</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>1246.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>-5.77</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -6801,13 +6801,13 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K156">
         <v>0</v>
       </c>
       <c r="L156">
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -6815,25 +6815,25 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
-        <v>196.69</v>
+        <v>0</v>
       </c>
       <c r="B157">
-        <v>201.6</v>
+        <v>0</v>
       </c>
       <c r="C157">
-        <v>1251.97</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>1248.71</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>-2.23</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K157">
         <v>0</v>
       </c>
       <c r="L157">
-        <v>19.23</v>
+        <v>0</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -6856,25 +6856,25 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
-        <v>171.04</v>
+        <v>0</v>
       </c>
       <c r="B158">
-        <v>183.6</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>1253.8599999999999</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>1250.6400000000001</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -6883,13 +6883,13 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
       <c r="L158">
-        <v>37.31</v>
+        <v>0</v>
       </c>
       <c r="M158">
         <v>0</v>
@@ -6897,25 +6897,25 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
-        <v>158.21</v>
+        <v>0</v>
       </c>
       <c r="B159">
-        <v>165.6</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>1255.58</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>1252.3800000000001</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>10.56</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -6924,13 +6924,13 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
       <c r="L159">
-        <v>16.55</v>
+        <v>0</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -6938,25 +6938,25 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
-        <v>145.38</v>
+        <v>0</v>
       </c>
       <c r="B160">
-        <v>147.6</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>1257.1099999999999</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>1253.95</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>-2.08</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -6965,13 +6965,13 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K160">
         <v>0</v>
       </c>
       <c r="L160">
-        <v>-1.08</v>
+        <v>0</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -6979,25 +6979,25 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="B161">
-        <v>129.6</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>1258.48</v>
+        <v>0</v>
       </c>
       <c r="D161">
-        <v>1255.33</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>-0.85</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -7006,13 +7006,13 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K161">
         <v>0</v>
       </c>
       <c r="L161">
-        <v>5.61</v>
+        <v>0</v>
       </c>
       <c r="M161">
         <v>0</v>
@@ -7020,25 +7020,25 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
-        <v>111.18</v>
+        <v>0</v>
       </c>
       <c r="B162">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="C162">
-        <v>1259.67</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>1256.54</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>4.18</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -7047,13 +7047,13 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
-        <v>-14.28</v>
+        <v>0</v>
       </c>
       <c r="M162">
         <v>0</v>
@@ -7061,25 +7061,25 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
-        <v>94.07</v>
+        <v>0</v>
       </c>
       <c r="B163">
-        <v>93.6</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>1260.67</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>1257.57</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>-0.73</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -7088,13 +7088,13 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163">
-        <v>-19.18</v>
+        <v>0</v>
       </c>
       <c r="M163">
         <v>0</v>
@@ -7102,25 +7102,25 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
-        <v>76.97</v>
+        <v>0</v>
       </c>
       <c r="B164">
-        <v>75.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>1261.53</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>1258.4100000000001</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>-4.33</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -7129,13 +7129,13 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K164">
         <v>0</v>
       </c>
       <c r="L164">
-        <v>-25.87</v>
+        <v>0</v>
       </c>
       <c r="M164">
         <v>0</v>
@@ -7143,25 +7143,25 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
-        <v>64.14</v>
+        <v>0</v>
       </c>
       <c r="B165">
-        <v>57.6</v>
+        <v>0</v>
       </c>
       <c r="C165">
-        <v>1262.22</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>1259.08</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>-4.3899999999999997</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -7170,13 +7170,13 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K165">
         <v>0</v>
       </c>
       <c r="L165">
-        <v>-46.24</v>
+        <v>0</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -7184,25 +7184,25 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
-        <v>42.76</v>
+        <v>0</v>
       </c>
       <c r="B166">
-        <v>39.6</v>
+        <v>0</v>
       </c>
       <c r="C166">
-        <v>1262.7</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>1259.56</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>5.62</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -7211,13 +7211,13 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
-        <v>-40.409999999999997</v>
+        <v>0</v>
       </c>
       <c r="M166">
         <v>0</v>
@@ -7225,25 +7225,25 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
-        <v>21.38</v>
+        <v>0</v>
       </c>
       <c r="B167">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="C167">
-        <v>1263.02</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>1259.8699999999999</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -7252,13 +7252,13 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
       <c r="L167">
-        <v>-35.24</v>
+        <v>0</v>
       </c>
       <c r="M167">
         <v>0</v>
@@ -7266,25 +7266,25 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
-        <v>8.5500000000000007</v>
+        <v>0</v>
       </c>
       <c r="B168">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="C168">
-        <v>1263.1600000000001</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -7293,13 +7293,13 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K168">
         <v>0</v>
       </c>
       <c r="L168">
-        <v>-54.04</v>
+        <v>0</v>
       </c>
       <c r="M168">
         <v>0</v>
@@ -7307,16 +7307,16 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
-        <v>-4.28</v>
+        <v>0</v>
       </c>
       <c r="B169">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="C169">
-        <v>1263.1500000000001</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -7334,13 +7334,13 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K169">
         <v>0</v>
       </c>
       <c r="L169">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="M169">
         <v>0</v>
@@ -7348,25 +7348,25 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
-        <v>-8.5500000000000007</v>
+        <v>0</v>
       </c>
       <c r="B170">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="C170">
-        <v>1263.0899999999999</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -7375,13 +7375,13 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
       <c r="L170">
-        <v>-17.05</v>
+        <v>0</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -7389,25 +7389,25 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
-        <v>-8.5500000000000007</v>
+        <v>0</v>
       </c>
       <c r="B171">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="C171">
-        <v>1263.02</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -7416,13 +7416,13 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
       <c r="L171">
-        <v>-15.84</v>
+        <v>0</v>
       </c>
       <c r="M171">
         <v>0</v>
@@ -7430,25 +7430,25 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
-        <v>-8.5500000000000007</v>
+        <v>0</v>
       </c>
       <c r="B172">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="C172">
-        <v>1262.95</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -7457,13 +7457,13 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K172">
         <v>0</v>
       </c>
       <c r="L172">
-        <v>-14.63</v>
+        <v>0</v>
       </c>
       <c r="M172">
         <v>0</v>
@@ -7471,25 +7471,25 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
-        <v>12.83</v>
+        <v>0</v>
       </c>
       <c r="B173">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>-34.24</v>
+        <v>0</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
       <c r="G173">
-        <v>-0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -7498,13 +7498,13 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
       <c r="L173">
-        <v>35.83</v>
+        <v>0</v>
       </c>
       <c r="M173">
         <v>0</v>
@@ -7512,25 +7512,25 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
-        <v>25.66</v>
+        <v>0</v>
       </c>
       <c r="B174">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>-37.54</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>-0.64</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -7539,13 +7539,13 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174">
-        <v>58.11</v>
+        <v>0</v>
       </c>
       <c r="M174">
         <v>0</v>
@@ -7553,25 +7553,25 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
-        <v>51.31</v>
+        <v>0</v>
       </c>
       <c r="B175">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="C175">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>-39.64</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -7580,13 +7580,13 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K175">
         <v>0</v>
       </c>
       <c r="L175">
-        <v>44.9</v>
+        <v>0</v>
       </c>
       <c r="M175">
         <v>0</v>
@@ -7594,25 +7594,25 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
-        <v>64.14</v>
+        <v>0</v>
       </c>
       <c r="B176">
-        <v>68.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="C176">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>-39.090000000000003</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>-1.42</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -7621,13 +7621,13 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
       <c r="L176">
-        <v>69.040000000000006</v>
+        <v>0</v>
       </c>
       <c r="M176">
         <v>0</v>
@@ -7635,25 +7635,25 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
-        <v>81.239999999999995</v>
+        <v>0</v>
       </c>
       <c r="B177">
-        <v>86.4</v>
+        <v>0</v>
       </c>
       <c r="C177">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>-40.25</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>-1.81</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -7662,13 +7662,13 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K177">
         <v>0</v>
       </c>
       <c r="L177">
-        <v>81.81</v>
+        <v>0</v>
       </c>
       <c r="M177">
         <v>0</v>
@@ -7676,25 +7676,25 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
-        <v>98.35</v>
+        <v>0</v>
       </c>
       <c r="B178">
-        <v>104.4</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>-42.24</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
       <c r="G178">
-        <v>-2.23</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -7703,13 +7703,13 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K178">
         <v>0</v>
       </c>
       <c r="L178">
-        <v>95.76</v>
+        <v>0</v>
       </c>
       <c r="M178">
         <v>0</v>
@@ -7717,25 +7717,25 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
-        <v>119.73</v>
+        <v>0</v>
       </c>
       <c r="B179">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="C179">
-        <v>4.0199999999999996</v>
+        <v>0</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>-36.619999999999997</v>
+        <v>0</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
       <c r="G179">
-        <v>-2.62</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -7744,13 +7744,13 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K179">
         <v>0</v>
       </c>
       <c r="L179">
-        <v>95.69</v>
+        <v>0</v>
       </c>
       <c r="M179">
         <v>0</v>
@@ -7758,25 +7758,25 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
-        <v>136.83000000000001</v>
+        <v>0</v>
       </c>
       <c r="B180">
-        <v>140.4</v>
+        <v>0</v>
       </c>
       <c r="C180">
-        <v>5.28</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>-28.72</v>
+        <v>0</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>-2.95</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -7785,13 +7785,13 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K180">
         <v>0</v>
       </c>
       <c r="L180">
-        <v>106.88</v>
+        <v>0</v>
       </c>
       <c r="M180">
         <v>0</v>
@@ -7799,25 +7799,25 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
-        <v>153.93</v>
+        <v>0</v>
       </c>
       <c r="B181">
-        <v>158.4</v>
+        <v>0</v>
       </c>
       <c r="C181">
-        <v>6.73</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>-22.61</v>
+        <v>0</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>-3.2</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -7826,13 +7826,13 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K181">
         <v>0</v>
       </c>
       <c r="L181">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="M181">
         <v>0</v>
@@ -7840,25 +7840,25 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
-        <v>171.04</v>
+        <v>0</v>
       </c>
       <c r="B182">
-        <v>176.4</v>
+        <v>0</v>
       </c>
       <c r="C182">
-        <v>8.3699999999999992</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>-17.670000000000002</v>
+        <v>0</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>-3.41</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -7867,13 +7867,13 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
       <c r="L182">
-        <v>126.42</v>
+        <v>0</v>
       </c>
       <c r="M182">
         <v>0</v>
@@ -7881,25 +7881,25 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
-        <v>188.14</v>
+        <v>0</v>
       </c>
       <c r="B183">
-        <v>194.4</v>
+        <v>0</v>
       </c>
       <c r="C183">
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>-17.36</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>-3.58</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -7908,13 +7908,13 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K183">
         <v>0</v>
       </c>
       <c r="L183">
-        <v>125.22</v>
+        <v>0</v>
       </c>
       <c r="M183">
         <v>0</v>
@@ -7922,25 +7922,25 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
-        <v>213.8</v>
+        <v>0</v>
       </c>
       <c r="B184">
-        <v>212.4</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>-13.67</v>
+        <v>0</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>-3.74</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -7949,13 +7949,13 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K184">
         <v>0</v>
       </c>
       <c r="L184">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -7963,25 +7963,25 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
-        <v>230.9</v>
+        <v>0</v>
       </c>
       <c r="B185">
-        <v>230.4</v>
+        <v>0</v>
       </c>
       <c r="C185">
-        <v>14.44</v>
+        <v>0</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>-10.19</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>-3.85</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K185">
         <v>0</v>
       </c>
       <c r="L185">
-        <v>113.18</v>
+        <v>0</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -8004,13 +8004,13 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
-        <v>248.01</v>
+        <v>0</v>
       </c>
       <c r="B186">
-        <v>248.4</v>
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>16.82</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="G186">
-        <v>-3.9</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -8031,13 +8031,13 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K186">
         <v>0</v>
       </c>
       <c r="L186">
-        <v>118.99</v>
+        <v>0</v>
       </c>
       <c r="M186">
         <v>0</v>
@@ -8045,25 +8045,25 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
-        <v>243.73</v>
+        <v>0</v>
       </c>
       <c r="B187">
-        <v>266.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="C187">
-        <v>19.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>-5.31</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>-3.9</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
       <c r="L187">
-        <v>152.88</v>
+        <v>0</v>
       </c>
       <c r="M187">
         <v>0</v>
@@ -8086,25 +8086,25 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
-        <v>269.39</v>
+        <v>0</v>
       </c>
       <c r="B188">
-        <v>284.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>21.97</v>
+        <v>0</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>-26.61</v>
+        <v>0</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>-4.05</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -8113,13 +8113,13 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K188">
         <v>0</v>
       </c>
       <c r="L188">
-        <v>143.16999999999999</v>
+        <v>0</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -8127,25 +8127,25 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
-        <v>290.77</v>
+        <v>0</v>
       </c>
       <c r="B189">
-        <v>302.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="C189">
-        <v>24.74</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>-40.83</v>
+        <v>0</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>-4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -8154,13 +8154,13 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K189">
         <v>0</v>
       </c>
       <c r="L189">
-        <v>148.83000000000001</v>
+        <v>0</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -8168,25 +8168,25 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
-        <v>312.14999999999998</v>
+        <v>0</v>
       </c>
       <c r="B190">
-        <v>320.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="C190">
-        <v>27.7</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>-60.88</v>
+        <v>0</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>-4.91</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -8195,13 +8195,13 @@
         <v>0</v>
       </c>
       <c r="J190">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
       <c r="L190">
-        <v>156.99</v>
+        <v>0</v>
       </c>
       <c r="M190">
         <v>0</v>
@@ -8209,25 +8209,25 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
-        <v>324.97000000000003</v>
+        <v>0</v>
       </c>
       <c r="B191">
-        <v>338.4</v>
+        <v>0</v>
       </c>
       <c r="C191">
-        <v>30.85</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>-51.88</v>
+        <v>0</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>-5.49</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -8236,13 +8236,13 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K191">
         <v>0</v>
       </c>
       <c r="L191">
-        <v>186.66</v>
+        <v>0</v>
       </c>
       <c r="M191">
         <v>0</v>
@@ -8250,25 +8250,25 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
-        <v>346.35</v>
+        <v>0</v>
       </c>
       <c r="B192">
-        <v>356.4</v>
+        <v>0</v>
       </c>
       <c r="C192">
-        <v>34.21</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>-40.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>-5.94</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -8277,13 +8277,13 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K192">
         <v>0</v>
       </c>
       <c r="L192">
-        <v>187.99</v>
+        <v>0</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -8291,25 +8291,25 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
-        <v>359.18</v>
+        <v>0</v>
       </c>
       <c r="B193">
-        <v>374.4</v>
+        <v>0</v>
       </c>
       <c r="C193">
-        <v>37.729999999999997</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>-24.05</v>
+        <v>0</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>-6.27</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -8318,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K193">
         <v>0</v>
       </c>
       <c r="L193">
-        <v>213.22</v>
+        <v>0</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>-19.62</v>
+        <v>0</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -8359,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K194">
         <v>0</v>
       </c>
       <c r="L194">
-        <v>105.77</v>
+        <v>0</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>5.65</v>
+        <v>0</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -8400,13 +8400,13 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K195">
         <v>0</v>
       </c>
       <c r="L195">
-        <v>105.77</v>
+        <v>0</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>9.4600000000000009</v>
+        <v>0</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -8441,13 +8441,13 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K196">
         <v>0</v>
       </c>
       <c r="L196">
-        <v>105.77</v>
+        <v>0</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -8482,13 +8482,13 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K197">
         <v>0</v>
       </c>
       <c r="L197">
-        <v>105.77</v>
+        <v>0</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>-4.2699999999999996</v>
+        <v>0</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -8523,13 +8523,13 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K198">
         <v>0</v>
       </c>
       <c r="L198">
-        <v>105.77</v>
+        <v>0</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>-18.920000000000002</v>
+        <v>0</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -8564,13 +8564,13 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K199">
         <v>0</v>
       </c>
       <c r="L199">
-        <v>105.77</v>
+        <v>0</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>-20.84</v>
+        <v>0</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -8605,13 +8605,13 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
       <c r="L200">
-        <v>105.77</v>
+        <v>0</v>
       </c>
       <c r="M200">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -8646,13 +8646,13 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
       <c r="L201">
-        <v>105.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>9.34</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -8684,13 +8684,13 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K202">
         <v>0</v>
       </c>
       <c r="L202">
-        <v>105.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -8722,13 +8722,13 @@
         <v>0</v>
       </c>
       <c r="J203">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
       <c r="L203">
-        <v>105.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.55000000000000004">

--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOSEIDenken\Desktop\halfmouse\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771C000-75CB-4946-8B24-5DF134B59DA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B1DCBA-B3E8-47FE-A280-99693BC4EC9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8990" yWindow="2390" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,6 +94,2297 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$1:$K$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.82</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-11.33</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-13.71</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-13.48</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.66</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.89</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-5.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-9.01</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-9.94</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-7.21</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-4.5199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.21</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-4.99</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-5.38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.52</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-4.01</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.34</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.58</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-4.18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.39</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53D3-437F-B56C-7C722FEE2D9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="631454863"/>
+        <c:axId val="630625663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="631454863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630625663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="630625663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631454863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$1:$J$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.86</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-13.88</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-17.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-14.37</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-9.42</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-5.54</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.68</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-19.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-8.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.51</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-6.16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-6.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-6.31</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-7.07</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-6.49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.11</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-6.61</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-8.06</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.81</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81D6-4AF9-A78C-ED9A42C7E101}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="633657231"/>
+        <c:axId val="631313311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633657231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631313311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631313311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633657231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2705B85F-7D52-495D-BD41-688465DC7507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>417286</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>138794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193C326D-B6C7-4717-A792-1EABF9CCC1C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,19 +2694,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>21.38</v>
+        <v>29.86</v>
       </c>
       <c r="B1">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C1">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -430,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>26.7</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="M1">
         <v>4854</v>
@@ -444,25 +2735,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>29.93</v>
+        <v>51.2</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-14.31</v>
+        <v>-12.21</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -471,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="K2">
-        <v>-0.87</v>
+        <v>-0.77</v>
       </c>
       <c r="L2">
-        <v>134.04</v>
+        <v>179.41</v>
       </c>
       <c r="M2">
         <v>4887</v>
@@ -485,25 +2776,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>72.69</v>
+        <v>102.39</v>
       </c>
       <c r="B3">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C3">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-2.2000000000000002</v>
+        <v>-5.62</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -512,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.61</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>-0.94</v>
+        <v>0.16</v>
       </c>
       <c r="L3">
-        <v>139.22</v>
+        <v>194.82</v>
       </c>
       <c r="M3">
         <v>4929</v>
@@ -526,25 +2817,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>106.9</v>
+        <v>157.86000000000001</v>
       </c>
       <c r="B4">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="C4">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.5</v>
+        <v>1.65</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -553,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.33</v>
+        <v>-0.5</v>
       </c>
       <c r="K4">
-        <v>-0.56000000000000005</v>
+        <v>-0.26</v>
       </c>
       <c r="L4">
-        <v>173.32</v>
+        <v>196.88</v>
       </c>
       <c r="M4">
         <v>4828</v>
@@ -567,25 +2858,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>158.21</v>
+        <v>204.79</v>
       </c>
       <c r="B5">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="C5">
-        <v>3.09</v>
+        <v>4.54</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.23</v>
+        <v>9.06</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -594,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.33</v>
+        <v>-1.58</v>
       </c>
       <c r="K5">
-        <v>-0.15</v>
+        <v>-0.22</v>
       </c>
       <c r="L5">
-        <v>154.91</v>
+        <v>221.81</v>
       </c>
       <c r="M5">
         <v>4722</v>
@@ -608,25 +2899,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>213.8</v>
+        <v>264.52</v>
       </c>
       <c r="B6">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="C6">
-        <v>4.9000000000000004</v>
+        <v>6.93</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.1</v>
+        <v>4.33</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -635,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-1.1299999999999999</v>
+        <v>-0.69</v>
       </c>
       <c r="K6">
-        <v>-0.21</v>
+        <v>-0.04</v>
       </c>
       <c r="L6">
-        <v>119.66</v>
+        <v>210.82</v>
       </c>
       <c r="M6">
         <v>4736</v>
@@ -649,25 +2940,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>235.18</v>
+        <v>315.70999999999998</v>
       </c>
       <c r="B7">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="C7">
-        <v>7.13</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-2.29</v>
+        <v>2.62</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.21</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -676,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.33</v>
+        <v>-0.49</v>
       </c>
       <c r="K7">
-        <v>-0.67</v>
+        <v>-0.09</v>
       </c>
       <c r="L7">
-        <v>188.75</v>
+        <v>222.17</v>
       </c>
       <c r="M7">
         <v>4478</v>
@@ -690,25 +2981,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>282.20999999999998</v>
+        <v>366.91</v>
       </c>
       <c r="B8">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="C8">
-        <v>9.75</v>
+        <v>13.34</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-19.87</v>
+        <v>0.85</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>-0.11</v>
+        <v>0.23</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -717,13 +3008,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.1399999999999997</v>
+        <v>-0.38</v>
       </c>
       <c r="K8">
-        <v>1.1599999999999999</v>
+        <v>-0.25</v>
       </c>
       <c r="L8">
-        <v>185.42</v>
+        <v>234.14</v>
       </c>
       <c r="M8">
         <v>4201</v>
@@ -731,25 +3022,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>324.97000000000003</v>
+        <v>422.37</v>
       </c>
       <c r="B9">
-        <v>336</v>
+        <v>435</v>
       </c>
       <c r="C9">
-        <v>12.8</v>
+        <v>17.27</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-12.88</v>
+        <v>-5.62</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-0.26</v>
+        <v>0.25</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -758,13 +3049,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.63</v>
+        <v>0.9</v>
       </c>
       <c r="K9">
-        <v>2.7</v>
+        <v>0.06</v>
       </c>
       <c r="L9">
-        <v>190.03</v>
+        <v>234.97</v>
       </c>
       <c r="M9">
         <v>4505</v>
@@ -772,25 +3063,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>354.91</v>
+        <v>477.83</v>
       </c>
       <c r="B10">
-        <v>376</v>
+        <v>485</v>
       </c>
       <c r="C10">
-        <v>16.27</v>
+        <v>21.76</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-15.66</v>
+        <v>-5.43</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.42</v>
+        <v>0.27</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -799,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.57</v>
+        <v>0.87</v>
       </c>
       <c r="K10">
-        <v>4.22</v>
+        <v>0.05</v>
       </c>
       <c r="L10">
-        <v>233.87</v>
+        <v>231.68</v>
       </c>
       <c r="M10">
         <v>4494</v>
@@ -813,25 +3104,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>401.94</v>
+        <v>524.76</v>
       </c>
       <c r="B11">
-        <v>416</v>
+        <v>535</v>
       </c>
       <c r="C11">
-        <v>20.12</v>
+        <v>26.77</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>9.89</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.52</v>
+        <v>0.34</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -840,13 +3131,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.22</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="K11">
-        <v>5.22</v>
+        <v>-0.74</v>
       </c>
       <c r="L11">
-        <v>223.8</v>
+        <v>250.98</v>
       </c>
       <c r="M11">
         <v>4584</v>
@@ -854,25 +3145,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>453.25</v>
+        <v>575.96</v>
       </c>
       <c r="B12">
-        <v>456</v>
+        <v>585</v>
       </c>
       <c r="C12">
-        <v>24.42</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.11</v>
+        <v>6.84</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-0.44</v>
+        <v>0.44</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -881,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>-1.85</v>
+        <v>-2.74</v>
       </c>
       <c r="K12">
-        <v>-0.79</v>
+        <v>-1.71</v>
       </c>
       <c r="L12">
-        <v>192.9</v>
+        <v>259.05</v>
       </c>
       <c r="M12">
         <v>4824</v>
@@ -895,25 +3186,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>496.01</v>
+        <v>627.16</v>
       </c>
       <c r="B13">
-        <v>496</v>
+        <v>635</v>
       </c>
       <c r="C13">
-        <v>29.17</v>
+        <v>38.33</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.76</v>
+        <v>-1.28</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.42</v>
+        <v>0.42</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -922,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>-0.17</v>
+        <v>0.22</v>
       </c>
       <c r="K13">
-        <v>-0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L13">
-        <v>140.25</v>
+        <v>269.68</v>
       </c>
       <c r="M13">
         <v>5023</v>
@@ -936,25 +3227,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>508.84</v>
+        <v>678.35</v>
       </c>
       <c r="B14">
-        <v>536</v>
+        <v>685</v>
       </c>
       <c r="C14">
-        <v>34.119999999999997</v>
+        <v>44.9</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-10.65</v>
+        <v>5.37</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.48</v>
+        <v>0.4</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -963,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.2400000000000002</v>
+        <v>-0.59</v>
       </c>
       <c r="K14">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="L14">
-        <v>239.34</v>
+        <v>277.41000000000003</v>
       </c>
       <c r="M14">
         <v>5084</v>
@@ -977,25 +3268,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>564.42999999999995</v>
+        <v>716.75</v>
       </c>
       <c r="B15">
-        <v>576</v>
+        <v>735</v>
       </c>
       <c r="C15">
-        <v>39.51</v>
+        <v>51.86</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-0.64</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.56999999999999995</v>
+        <v>0.42</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1004,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.59</v>
+        <v>-0.17</v>
       </c>
       <c r="K15">
-        <v>1.5</v>
+        <v>-0.17</v>
       </c>
       <c r="L15">
-        <v>205.96</v>
+        <v>325.83999999999997</v>
       </c>
       <c r="M15">
         <v>4887</v>
@@ -1018,25 +3309,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>602.91</v>
+        <v>780.75</v>
       </c>
       <c r="B16">
-        <v>616</v>
+        <v>785</v>
       </c>
       <c r="C16">
-        <v>45.27</v>
+        <v>59.4</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-0.85</v>
+        <v>-12.02</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.56000000000000005</v>
+        <v>0.34</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1045,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.12</v>
+        <v>2.62</v>
       </c>
       <c r="K16">
-        <v>-0.01</v>
+        <v>0.82</v>
       </c>
       <c r="L16">
-        <v>223.63</v>
+        <v>223.61</v>
       </c>
       <c r="M16">
         <v>4668</v>
@@ -1059,25 +3350,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>637.12</v>
+        <v>806.35</v>
       </c>
       <c r="B17">
-        <v>656</v>
+        <v>835</v>
       </c>
       <c r="C17">
-        <v>51.54</v>
+        <v>67.31</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-15.26</v>
+        <v>14.16</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-0.62</v>
+        <v>0.37</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1086,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2.9</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="K17">
-        <v>0.62</v>
+        <v>-0.32</v>
       </c>
       <c r="L17">
-        <v>255.19</v>
+        <v>306.23</v>
       </c>
       <c r="M17">
         <v>4463</v>
@@ -1100,25 +3391,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>679.88</v>
+        <v>883.14</v>
       </c>
       <c r="B18">
-        <v>696</v>
+        <v>885</v>
       </c>
       <c r="C18">
-        <v>58.14</v>
+        <v>75.75</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-7.54</v>
+        <v>-12.21</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.79</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1127,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.42</v>
+        <v>2.38</v>
       </c>
       <c r="K18">
-        <v>2.29</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L18">
-        <v>261.39999999999998</v>
+        <v>250.03</v>
       </c>
       <c r="M18">
         <v>4623</v>
@@ -1141,25 +3432,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>735.47</v>
+        <v>913.01</v>
       </c>
       <c r="B19">
-        <v>736</v>
+        <v>935</v>
       </c>
       <c r="C19">
-        <v>65.209999999999994</v>
+        <v>84.68</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.5500000000000007</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.78</v>
+        <v>0.23</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1168,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>-1.66</v>
+        <v>-0.11</v>
       </c>
       <c r="K19">
-        <v>-0.23</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L19">
-        <v>220.75</v>
+        <v>322.60000000000002</v>
       </c>
       <c r="M19">
         <v>4822</v>
@@ -1182,25 +3473,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>761.12</v>
+        <v>968.47</v>
       </c>
       <c r="B20">
-        <v>776</v>
+        <v>985</v>
       </c>
       <c r="C20">
-        <v>72.67</v>
+        <v>94.07</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-5.62</v>
+        <v>-3.23</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-0.74</v>
+        <v>0.18</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1209,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.92</v>
+        <v>0.53</v>
       </c>
       <c r="K20">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="L20">
-        <v>277.93</v>
+        <v>325.76</v>
       </c>
       <c r="M20">
         <v>4665</v>
@@ -1223,25 +3514,25 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>808.16</v>
+        <v>1011.13</v>
       </c>
       <c r="B21">
-        <v>816</v>
+        <v>1035</v>
       </c>
       <c r="C21">
-        <v>80.5</v>
+        <v>104.05</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.25</v>
+        <v>0.67</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.73</v>
+        <v>0.2</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1250,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>-0.88</v>
+        <v>-0.24</v>
       </c>
       <c r="K21">
-        <v>-0.09</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="L21">
-        <v>267.49</v>
+        <v>360.37</v>
       </c>
       <c r="M21">
         <v>4732</v>
@@ -1264,25 +3555,25 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>803.88</v>
+        <v>1079.3900000000001</v>
       </c>
       <c r="B22">
-        <v>821.05</v>
+        <v>1085</v>
       </c>
       <c r="C22">
-        <v>88.72</v>
+        <v>114.47</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.5</v>
+        <v>-9.5500000000000007</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.61</v>
+        <v>0.13</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1291,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>-4.18</v>
+        <v>2.06</v>
       </c>
       <c r="K22">
-        <v>-1.26</v>
+        <v>0.63</v>
       </c>
       <c r="L22">
-        <v>213.99</v>
+        <v>289.76</v>
       </c>
       <c r="M22">
         <v>4756</v>
@@ -1305,25 +3596,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>816.71</v>
+        <v>1096.46</v>
       </c>
       <c r="B23">
-        <v>821.05</v>
+        <v>1135</v>
       </c>
       <c r="C23">
-        <v>96.78</v>
+        <v>125.56</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.01</v>
+        <v>61.77</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.54</v>
+        <v>0.33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1332,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>-2.82</v>
+        <v>-10.54</v>
       </c>
       <c r="K23">
-        <v>-1.92</v>
+        <v>-1.28</v>
       </c>
       <c r="L23">
-        <v>181.05</v>
+        <v>384.07</v>
       </c>
       <c r="M23">
         <v>4463</v>
@@ -1346,25 +3637,25 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>808.16</v>
+        <v>1151.92</v>
       </c>
       <c r="B24">
-        <v>821.05</v>
+        <v>1185</v>
       </c>
       <c r="C24">
-        <v>104.89</v>
+        <v>136.78</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-13.43</v>
+        <v>14.13</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-0.56999999999999995</v>
+        <v>0.45</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1373,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2.52</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="K24">
-        <v>0.51</v>
+        <v>-0.1</v>
       </c>
       <c r="L24">
-        <v>215.09</v>
+        <v>398.01</v>
       </c>
       <c r="M24">
         <v>4601</v>
@@ -1387,25 +3678,25 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>791.05</v>
+        <v>1228.72</v>
       </c>
       <c r="B25">
-        <v>785.05</v>
+        <v>1235</v>
       </c>
       <c r="C25">
-        <v>112.89</v>
+        <v>148.79</v>
       </c>
       <c r="D25">
-        <v>111.49</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>-1.04</v>
+        <v>3.54</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>-0.59</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1414,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>-1.86</v>
       </c>
       <c r="K25">
-        <v>-0.05</v>
+        <v>-1.32</v>
       </c>
       <c r="L25">
-        <v>151.66999999999999</v>
+        <v>328.07</v>
       </c>
       <c r="M25">
         <v>4699</v>
@@ -1428,25 +3719,25 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>756.85</v>
+        <v>1267.1199999999999</v>
       </c>
       <c r="B26">
-        <v>745.05</v>
+        <v>1285</v>
       </c>
       <c r="C26">
-        <v>120.59</v>
+        <v>161.15</v>
       </c>
       <c r="D26">
-        <v>119.14</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>22.28</v>
+        <v>-6.74</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>-0.38</v>
+        <v>0.49</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1455,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>-5.48</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K26">
-        <v>-2.14</v>
+        <v>-0.46</v>
       </c>
       <c r="L26">
-        <v>59.24</v>
+        <v>384.55</v>
       </c>
       <c r="M26">
         <v>4688</v>
@@ -1469,25 +3760,25 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>692.71</v>
+        <v>1305.51</v>
       </c>
       <c r="B27">
-        <v>700</v>
+        <v>1335</v>
       </c>
       <c r="C27">
-        <v>0.69</v>
+        <v>174.21</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>5.31</v>
+        <v>-28.56</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1496,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>-0.57999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="K27">
-        <v>-0.05</v>
+        <v>1.41</v>
       </c>
       <c r="L27">
-        <v>158.94999999999999</v>
+        <v>434.89</v>
       </c>
       <c r="M27">
         <v>4609</v>
@@ -1510,40 +3801,40 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>722.64</v>
+        <v>1369.51</v>
       </c>
       <c r="B28">
-        <v>700</v>
+        <v>1385</v>
       </c>
       <c r="C28">
-        <v>7.88</v>
+        <v>187.61</v>
       </c>
       <c r="D28">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>115.54</v>
+        <v>-15.32</v>
       </c>
       <c r="F28">
-        <v>229.18</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.47</v>
+        <v>0.09</v>
       </c>
       <c r="H28">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>28647.82</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>54.52</v>
+        <v>5.8</v>
       </c>
       <c r="K28">
-        <v>9.07</v>
+        <v>3.5</v>
       </c>
       <c r="L28">
-        <v>283.77</v>
+        <v>415.65</v>
       </c>
       <c r="M28">
         <v>4796</v>
@@ -1551,89 +3842,89 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>684.15</v>
+        <v>1454.84</v>
       </c>
       <c r="B29">
-        <v>700</v>
+        <v>1435</v>
       </c>
       <c r="C29">
-        <v>14.95</v>
+        <v>201.68</v>
       </c>
       <c r="D29">
-        <v>13.55</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>451.75</v>
+        <v>1.25</v>
       </c>
       <c r="F29">
-        <v>515.66</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>4.6399999999999997</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>28647.82</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>43.27</v>
+        <v>4.24</v>
       </c>
       <c r="K29">
-        <v>17.7</v>
+        <v>4.43</v>
       </c>
       <c r="L29">
-        <v>412.76</v>
+        <v>316.48</v>
       </c>
       <c r="M29">
         <v>5053</v>
       </c>
       <c r="N29">
         <f>AVERAGE(K30:K36)</f>
-        <v>-11.627142857142859</v>
+        <v>0.42857142857142866</v>
       </c>
       <c r="O29">
         <f>AVERAGE(L30:L36)</f>
-        <v>243.51857142857145</v>
+        <v>440.38285714285718</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>688.43</v>
+        <v>1454.84</v>
       </c>
       <c r="B30">
-        <v>700</v>
+        <v>1485</v>
       </c>
       <c r="C30">
-        <v>21.95</v>
+        <v>216.12</v>
       </c>
       <c r="D30">
-        <v>19.850000000000001</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>682.71</v>
+        <v>-12.45</v>
       </c>
       <c r="F30">
-        <v>802.14</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>9.16</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H30">
-        <v>11.23</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>28647.82</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>87.38</v>
+        <v>3.45</v>
       </c>
       <c r="K30">
-        <v>39.61</v>
+        <v>1.58</v>
       </c>
       <c r="L30">
-        <v>473.57</v>
+        <v>481.63</v>
       </c>
       <c r="M30">
         <v>4943</v>
@@ -1641,40 +3932,40 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>696.98</v>
+        <v>1544.43</v>
       </c>
       <c r="B31">
-        <v>700</v>
+        <v>1535</v>
       </c>
       <c r="C31">
-        <v>28.88</v>
+        <v>231.11</v>
       </c>
       <c r="D31">
-        <v>24.75</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>843.81</v>
+        <v>-2.35</v>
       </c>
       <c r="F31">
-        <v>777.58</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>17.46</v>
+        <v>0.42</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>-34.97</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K31">
-        <v>-8.48</v>
+        <v>0.2</v>
       </c>
       <c r="L31">
-        <v>171.52</v>
+        <v>371.13</v>
       </c>
       <c r="M31">
         <v>5026</v>
@@ -1682,40 +3973,40 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>688.43</v>
+        <v>1548.7</v>
       </c>
       <c r="B32">
-        <v>700</v>
+        <v>1585</v>
       </c>
       <c r="C32">
-        <v>35.880000000000003</v>
+        <v>246.62</v>
       </c>
       <c r="D32">
-        <v>31.75</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>843.81</v>
+        <v>-11.35</v>
       </c>
       <c r="F32">
-        <v>777.58</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>25.9</v>
+        <v>0.32</v>
       </c>
       <c r="H32">
-        <v>23.77</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>-45.56</v>
+        <v>2.95</v>
       </c>
       <c r="K32">
-        <v>-19.07</v>
+        <v>1.24</v>
       </c>
       <c r="L32">
-        <v>184.47</v>
+        <v>526.1</v>
       </c>
       <c r="M32">
         <v>5120</v>
@@ -1723,40 +4014,40 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>688.43</v>
+        <v>1655.36</v>
       </c>
       <c r="B33">
-        <v>700</v>
+        <v>1635</v>
       </c>
       <c r="C33">
-        <v>42.82</v>
+        <v>262.72000000000003</v>
       </c>
       <c r="D33">
-        <v>38.75</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>795.41</v>
+        <v>-8.42</v>
       </c>
       <c r="F33">
-        <v>777.58</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>33.299999999999997</v>
+        <v>0.1</v>
       </c>
       <c r="H33">
-        <v>31.55</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>-31.42</v>
+        <v>4.68</v>
       </c>
       <c r="K33">
-        <v>-25.84</v>
+        <v>3.42</v>
       </c>
       <c r="L33">
-        <v>201.53</v>
+        <v>319.70999999999998</v>
       </c>
       <c r="M33">
         <v>5319</v>
@@ -1764,40 +4055,40 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>688.43</v>
+        <v>1689.49</v>
       </c>
       <c r="B34">
-        <v>700</v>
+        <v>1685</v>
       </c>
       <c r="C34">
-        <v>49.79</v>
+        <v>279.17</v>
       </c>
       <c r="D34">
-        <v>45.75</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>760.19</v>
+        <v>-3.6</v>
       </c>
       <c r="F34">
-        <v>777.58</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>41.13</v>
+        <v>-0.03</v>
       </c>
       <c r="H34">
-        <v>39.32</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>-22.18</v>
+        <v>5.26</v>
       </c>
       <c r="K34">
-        <v>-26.73</v>
+        <v>4.72</v>
       </c>
       <c r="L34">
-        <v>211.64</v>
+        <v>381.32</v>
       </c>
       <c r="M34">
         <v>4781</v>
@@ -1805,40 +4096,40 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>688.43</v>
+        <v>1680.95</v>
       </c>
       <c r="B35">
-        <v>700</v>
+        <v>1735</v>
       </c>
       <c r="C35">
-        <v>56.66</v>
+        <v>296.11</v>
       </c>
       <c r="D35">
-        <v>52.75</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>752.14</v>
+        <v>10.65</v>
       </c>
       <c r="F35">
-        <v>777.58</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>48.66</v>
+        <v>0.4</v>
       </c>
       <c r="H35">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>-13.03</v>
+        <v>-5.94</v>
       </c>
       <c r="K35">
-        <v>-22.78</v>
+        <v>-4.34</v>
       </c>
       <c r="L35">
-        <v>225.4</v>
+        <v>560.26</v>
       </c>
       <c r="M35">
         <v>4557</v>
@@ -1846,40 +4137,40 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>688.43</v>
+        <v>1779.08</v>
       </c>
       <c r="B36">
-        <v>700</v>
+        <v>1784.99</v>
       </c>
       <c r="C36">
-        <v>63.63</v>
+        <v>313.49</v>
       </c>
       <c r="D36">
-        <v>59.75</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>739.62</v>
+        <v>-32.65</v>
       </c>
       <c r="F36">
-        <v>777.58</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>56.15</v>
+        <v>0.35</v>
       </c>
       <c r="H36">
-        <v>54.88</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>-3.46</v>
+        <v>1.08</v>
       </c>
       <c r="K36">
-        <v>-18.100000000000001</v>
+        <v>-3.82</v>
       </c>
       <c r="L36">
-        <v>236.5</v>
+        <v>442.53</v>
       </c>
       <c r="M36">
         <v>5105</v>
@@ -1887,40 +4178,40 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>679.88</v>
+        <v>1808.95</v>
       </c>
       <c r="B37">
-        <v>700</v>
+        <v>1834.99</v>
       </c>
       <c r="C37">
-        <v>70.45</v>
+        <v>331.46</v>
       </c>
       <c r="D37">
-        <v>66.75</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>715.39</v>
+        <v>-47.12</v>
       </c>
       <c r="F37">
-        <v>777.58</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>63.47</v>
+        <v>0.21</v>
       </c>
       <c r="H37">
-        <v>62.65</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>15.79</v>
+        <v>4.63</v>
       </c>
       <c r="K37">
-        <v>-10.93</v>
+        <v>-2.44</v>
       </c>
       <c r="L37">
-        <v>288.42</v>
+        <v>519.16999999999996</v>
       </c>
       <c r="M37">
         <v>5091</v>
@@ -1928,40 +4219,40 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>675.6</v>
+        <v>1877.21</v>
       </c>
       <c r="B38">
-        <v>700</v>
+        <v>1884.99</v>
       </c>
       <c r="C38">
-        <v>77.36</v>
+        <v>349.91</v>
       </c>
       <c r="D38">
-        <v>73.75</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>726.9</v>
+        <v>-38.39</v>
       </c>
       <c r="F38">
-        <v>777.58</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>70.62</v>
+        <v>-0.27</v>
       </c>
       <c r="H38">
-        <v>70.430000000000007</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>22.08</v>
+        <v>8.15</v>
       </c>
       <c r="K38">
-        <v>-0.89</v>
+        <v>2.39</v>
       </c>
       <c r="L38">
-        <v>312.13</v>
+        <v>485.38</v>
       </c>
       <c r="M38">
         <v>1691</v>
@@ -1969,40 +4260,40 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>679.88</v>
+        <v>1924.14</v>
       </c>
       <c r="B39">
-        <v>700</v>
+        <v>1934.99</v>
       </c>
       <c r="C39">
-        <v>84.21</v>
+        <v>369.16</v>
       </c>
       <c r="D39">
-        <v>80.75</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>755.07</v>
+        <v>18.13</v>
       </c>
       <c r="F39">
-        <v>777.58</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>78.09</v>
+        <v>-0.49</v>
       </c>
       <c r="H39">
-        <v>78.2</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>14.82</v>
+        <v>1.85</v>
       </c>
       <c r="K39">
-        <v>4.09</v>
+        <v>4.57</v>
       </c>
       <c r="L39">
-        <v>297.49</v>
+        <v>494.42</v>
       </c>
       <c r="M39">
         <v>63590</v>
@@ -2010,40 +4301,40 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>692.71</v>
+        <v>1958.27</v>
       </c>
       <c r="B40">
-        <v>700</v>
+        <v>1984.99</v>
       </c>
       <c r="C40">
-        <v>91.14</v>
+        <v>388.35</v>
       </c>
       <c r="D40">
-        <v>86.35</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>730.71</v>
+        <v>2.72</v>
       </c>
       <c r="F40">
-        <v>577.04999999999995</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>85.65</v>
+        <v>-0.32</v>
       </c>
       <c r="H40">
-        <v>84.19</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>-28647.82</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>-70.48</v>
+        <v>2.44</v>
       </c>
       <c r="K40">
-        <v>-5.42</v>
+        <v>2.84</v>
       </c>
       <c r="L40">
-        <v>-5.18</v>
+        <v>566.55999999999995</v>
       </c>
       <c r="M40">
         <v>58995</v>
@@ -2051,74 +4342,74 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>744.02</v>
+        <v>2060.66</v>
       </c>
       <c r="B41">
-        <v>700</v>
+        <v>2034.99</v>
       </c>
       <c r="C41">
-        <v>98.46</v>
+        <v>408.52</v>
       </c>
       <c r="D41">
-        <v>93.35</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>470.43</v>
+        <v>36.01</v>
       </c>
       <c r="F41">
-        <v>290.57</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>92.08</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H41">
-        <v>88.53</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>-28647.82</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>-129.44999999999999</v>
+        <v>-2.88</v>
       </c>
       <c r="K41">
-        <v>-41.06</v>
+        <v>2.52</v>
       </c>
       <c r="L41">
-        <v>-293.97000000000003</v>
+        <v>410.97</v>
       </c>
       <c r="M41">
         <v>55859</v>
       </c>
       <c r="N41">
         <f>AVERAGE(K41:K57)</f>
-        <v>-21.22</v>
+        <v>-0.30941176470588233</v>
       </c>
       <c r="O41">
         <f>AVERAGE(L41:L57)</f>
-        <v>105.01823529411764</v>
+        <v>508.04470588235296</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>726.91</v>
+        <v>2064.9299999999998</v>
       </c>
       <c r="B42">
-        <v>704</v>
+        <v>2084.9899999999998</v>
       </c>
       <c r="C42">
-        <v>1.42</v>
+        <v>428.91</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>213.56</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.44</v>
+        <v>-0.59</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2127,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>-101.39</v>
+        <v>5.55</v>
       </c>
       <c r="K42">
-        <v>-68.66</v>
+        <v>5.55</v>
       </c>
       <c r="L42">
-        <v>6.16</v>
+        <v>575.66</v>
       </c>
       <c r="M42">
         <v>56727</v>
@@ -2141,25 +4432,25 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>765.4</v>
+        <v>2167.3200000000002</v>
       </c>
       <c r="B43">
-        <v>744</v>
+        <v>2134.9899999999998</v>
       </c>
       <c r="C43">
-        <v>8.94</v>
+        <v>450.29</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>59.66</v>
+        <v>-28.87</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1.94</v>
+        <v>-0.98</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2168,13 +4459,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>-94.74</v>
+        <v>8.23</v>
       </c>
       <c r="K43">
-        <v>-83.69</v>
+        <v>3.9</v>
       </c>
       <c r="L43">
-        <v>13.25</v>
+        <v>423.85</v>
       </c>
       <c r="M43">
         <v>58153</v>
@@ -2182,25 +4473,25 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>782.5</v>
+        <v>2133.19</v>
       </c>
       <c r="B44">
-        <v>784</v>
+        <v>2184.9899999999998</v>
       </c>
       <c r="C44">
-        <v>16.63</v>
+        <v>471.55</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>-37.99</v>
+        <v>24.2</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1.99</v>
+        <v>-0.75</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2209,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>-79.61</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="K44">
-        <v>-84.18</v>
+        <v>1.62</v>
       </c>
       <c r="L44">
-        <v>103.95</v>
+        <v>688.23</v>
       </c>
       <c r="M44">
         <v>56094</v>
@@ -2223,25 +4514,25 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>799.61</v>
+        <v>2244.12</v>
       </c>
       <c r="B45">
-        <v>821.05</v>
+        <v>2234.9899999999998</v>
       </c>
       <c r="C45">
-        <v>24.31</v>
+        <v>493.65</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>-171.3</v>
+        <v>-37.35</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.65</v>
+        <v>-0.72</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2250,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>-44.29</v>
+        <v>6.94</v>
       </c>
       <c r="K45">
-        <v>-70.8</v>
+        <v>1.34</v>
       </c>
       <c r="L45">
-        <v>181.73</v>
+        <v>526.70000000000005</v>
       </c>
       <c r="M45">
         <v>56744</v>
@@ -2264,25 +4555,25 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>812.43</v>
+        <v>2261.1799999999998</v>
       </c>
       <c r="B46">
-        <v>821.05</v>
+        <v>2284.9899999999998</v>
       </c>
       <c r="C46">
-        <v>32.479999999999997</v>
+        <v>516.26</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>-159.03</v>
+        <v>-34.090000000000003</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>-0.98</v>
+        <v>-1.28</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2291,13 +4582,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>-30.01</v>
+        <v>12.07</v>
       </c>
       <c r="K46">
-        <v>-54.47</v>
+        <v>6.95</v>
       </c>
       <c r="L46">
-        <v>164.02</v>
+        <v>647.53</v>
       </c>
       <c r="M46">
         <v>57627</v>
@@ -2305,25 +4596,25 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>756.85</v>
+        <v>2325.1799999999998</v>
       </c>
       <c r="B47">
-        <v>821.05</v>
+        <v>2334.9899999999998</v>
       </c>
       <c r="C47">
-        <v>39.979999999999997</v>
+        <v>539.29</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-304.95999999999998</v>
+        <v>-38.119999999999997</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>-3.26</v>
+        <v>-1.57</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2332,13 +4623,13 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>12.67</v>
+        <v>15.53</v>
       </c>
       <c r="K47">
-        <v>-31.61</v>
+        <v>9.81</v>
       </c>
       <c r="L47">
-        <v>401.51</v>
+        <v>623.88</v>
       </c>
       <c r="M47">
         <v>57038</v>
@@ -2346,25 +4637,25 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>799.61</v>
+        <v>2380.64</v>
       </c>
       <c r="B48">
-        <v>801.05</v>
+        <v>2384.9899999999998</v>
       </c>
       <c r="C48">
-        <v>48.06</v>
+        <v>562.83000000000004</v>
       </c>
       <c r="D48">
-        <v>47.07</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>-374.69</v>
+        <v>3.33</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>-6.74</v>
+        <v>-1.49</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2373,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>58.78</v>
+        <v>8.5</v>
       </c>
       <c r="K48">
-        <v>3.12</v>
+        <v>9</v>
       </c>
       <c r="L48">
-        <v>222.02</v>
+        <v>614.57000000000005</v>
       </c>
       <c r="M48">
         <v>56385</v>
@@ -2387,25 +4678,25 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>748.29</v>
+        <v>2376.37</v>
       </c>
       <c r="B49">
-        <v>761.05</v>
+        <v>2434.9899999999998</v>
       </c>
       <c r="C49">
-        <v>55.91</v>
+        <v>586.89</v>
       </c>
       <c r="D49">
-        <v>54.88</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>-276.92</v>
+        <v>24.93</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>-10.34</v>
+        <v>-1.3</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2414,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>86.08</v>
+        <v>3.35</v>
       </c>
       <c r="K49">
-        <v>39.19</v>
+        <v>7.09</v>
       </c>
       <c r="L49">
-        <v>284.02999999999997</v>
+        <v>785.27</v>
       </c>
       <c r="M49">
         <v>56683</v>
@@ -2428,25 +4719,25 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>684.15</v>
+        <v>2547.0300000000002</v>
       </c>
       <c r="B50">
-        <v>721.05</v>
+        <v>2479.9899999999998</v>
       </c>
       <c r="C50">
-        <v>63.02</v>
+        <v>609.09</v>
       </c>
       <c r="D50">
-        <v>62.29</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>74.52</v>
+        <v>99.82</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>-10.97</v>
+        <v>-0.66</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2455,13 +4746,13 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>36.29</v>
+        <v>-13.88</v>
       </c>
       <c r="K50">
-        <v>45.43</v>
+        <v>0.73</v>
       </c>
       <c r="L50">
-        <v>310.56</v>
+        <v>396.39</v>
       </c>
       <c r="M50">
         <v>57599</v>
@@ -2469,25 +4760,25 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>654.22</v>
+        <v>2423.3000000000002</v>
       </c>
       <c r="B51">
-        <v>681.05</v>
+        <v>2489.98</v>
       </c>
       <c r="C51">
-        <v>69.88</v>
+        <v>633.86</v>
       </c>
       <c r="D51">
-        <v>69.3</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>130.80000000000001</v>
+        <v>46.69</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>-10.1</v>
+        <v>0.13</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2496,13 +4787,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>19.350000000000001</v>
+        <v>-17.190000000000001</v>
       </c>
       <c r="K51">
-        <v>36.799999999999997</v>
+        <v>-7.22</v>
       </c>
       <c r="L51">
-        <v>224.23</v>
+        <v>737.87</v>
       </c>
       <c r="M51">
         <v>57712</v>
@@ -2510,25 +4801,25 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>637.12</v>
+        <v>2478.77</v>
       </c>
       <c r="B52">
-        <v>641.04999999999995</v>
+        <v>2459.98</v>
       </c>
       <c r="C52">
-        <v>76.45</v>
+        <v>658.59</v>
       </c>
       <c r="D52">
-        <v>75.91</v>
+        <v>654.85</v>
       </c>
       <c r="E52">
-        <v>194.64</v>
+        <v>19.59</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>-8.36</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2537,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>-9.6199999999999992</v>
+        <v>-14.37</v>
       </c>
       <c r="K52">
-        <v>19.39</v>
+        <v>-11.33</v>
       </c>
       <c r="L52">
-        <v>114.28</v>
+        <v>404.85</v>
       </c>
       <c r="M52">
         <v>55902</v>
@@ -2551,25 +4842,25 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>611.46</v>
+        <v>2397.71</v>
       </c>
       <c r="B53">
-        <v>601.04999999999995</v>
+        <v>2409.98</v>
       </c>
       <c r="C53">
-        <v>82.68</v>
+        <v>682.89</v>
       </c>
       <c r="D53">
-        <v>82.12</v>
+        <v>679.2</v>
       </c>
       <c r="E53">
-        <v>165.71</v>
+        <v>42.66</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>-6.36</v>
+        <v>0.78</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2578,13 +4869,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>-26.46</v>
+        <v>-19.309999999999999</v>
       </c>
       <c r="K53">
-        <v>-0.61</v>
+        <v>-13.71</v>
       </c>
       <c r="L53">
-        <v>36.64</v>
+        <v>424.02</v>
       </c>
       <c r="M53">
         <v>57846</v>
@@ -2592,25 +4883,25 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>560.15</v>
+        <v>2367.84</v>
       </c>
       <c r="B54">
-        <v>561.04999999999995</v>
+        <v>2359.98</v>
       </c>
       <c r="C54">
-        <v>88.59</v>
+        <v>706.67</v>
       </c>
       <c r="D54">
-        <v>87.93</v>
+        <v>703.05</v>
       </c>
       <c r="E54">
-        <v>125.43</v>
+        <v>-47.09</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>-4.9000000000000004</v>
+        <v>0.76</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2619,13 +4910,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>-34.07</v>
+        <v>-9.42</v>
       </c>
       <c r="K54">
-        <v>-15.28</v>
+        <v>-13.48</v>
       </c>
       <c r="L54">
-        <v>49.98</v>
+        <v>365.57</v>
       </c>
       <c r="M54">
         <v>58096</v>
@@ -2633,25 +4924,25 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>538.77</v>
+        <v>2320.91</v>
       </c>
       <c r="B55">
-        <v>521.04999999999995</v>
+        <v>2309.98</v>
       </c>
       <c r="C55">
-        <v>94.11</v>
+        <v>730.03</v>
       </c>
       <c r="D55">
-        <v>93.34</v>
+        <v>726.4</v>
       </c>
       <c r="E55">
-        <v>69.239999999999995</v>
+        <v>-61.31</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>-3.92</v>
+        <v>0.18</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2660,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>-36.69</v>
+        <v>1.33</v>
       </c>
       <c r="K55">
-        <v>-25.02</v>
+        <v>-7.66</v>
       </c>
       <c r="L55">
-        <v>-23.98</v>
+        <v>360.16</v>
       </c>
       <c r="M55">
         <v>55982</v>
@@ -2674,25 +4965,25 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>500.29</v>
+        <v>2252.65</v>
       </c>
       <c r="B56">
-        <v>481.05</v>
+        <v>2259.98</v>
       </c>
       <c r="C56">
-        <v>99.24</v>
+        <v>753</v>
       </c>
       <c r="D56">
-        <v>98.35</v>
+        <v>749.25</v>
       </c>
       <c r="E56">
-        <v>19.93</v>
+        <v>-34.909999999999997</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>-3.44</v>
+        <v>-0.4</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2701,13 +4992,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>-33.869999999999997</v>
+        <v>2.95</v>
       </c>
       <c r="K56">
-        <v>-29.87</v>
+        <v>-1.89</v>
       </c>
       <c r="L56">
-        <v>-40.11</v>
+        <v>404.02</v>
       </c>
       <c r="M56">
         <v>56625</v>
@@ -2715,25 +5006,25 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>444.7</v>
+        <v>2248.38</v>
       </c>
       <c r="B57">
-        <v>441.05</v>
+        <v>2209.98</v>
       </c>
       <c r="C57">
-        <v>103.92</v>
+        <v>775.51</v>
       </c>
       <c r="D57">
-        <v>102.96</v>
+        <v>771.6</v>
       </c>
       <c r="E57">
-        <v>-5.4</v>
+        <v>47.06</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>-3.46</v>
+        <v>-0.74</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2742,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1.59</v>
+        <v>-5.54</v>
       </c>
       <c r="K57">
-        <v>0.57999999999999996</v>
+        <v>1.52</v>
       </c>
       <c r="L57">
-        <v>31.01</v>
+        <v>247.22</v>
       </c>
       <c r="M57">
         <v>58008</v>
@@ -2756,25 +5047,25 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>401.94</v>
+        <v>2175.85</v>
       </c>
       <c r="B58">
-        <v>401.05</v>
+        <v>2159.98</v>
       </c>
       <c r="C58">
-        <v>108.16</v>
+        <v>797.53</v>
       </c>
       <c r="D58">
-        <v>107.18</v>
+        <v>793.45</v>
       </c>
       <c r="E58">
-        <v>20.57</v>
+        <v>-18.34</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>-3.41</v>
+        <v>-0.81</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2783,13 +5074,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>-2.8</v>
+        <v>4.99</v>
       </c>
       <c r="K58">
-        <v>0.03</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>309.33999999999997</v>
       </c>
       <c r="M58">
         <v>56610</v>
@@ -2797,25 +5088,25 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>372.01</v>
+        <v>2137.46</v>
       </c>
       <c r="B59">
-        <v>361.05</v>
+        <v>2109.98</v>
       </c>
       <c r="C59">
-        <v>112</v>
+        <v>818.98</v>
       </c>
       <c r="D59">
-        <v>110.99</v>
+        <v>814.8</v>
       </c>
       <c r="E59">
-        <v>9.4</v>
+        <v>-0.89</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>-3.27</v>
+        <v>-0.81</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2824,13 +5115,13 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>-2.68</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="K59">
-        <v>-1.4</v>
+        <v>2.19</v>
       </c>
       <c r="L59">
-        <v>-15.01</v>
+        <v>258.97000000000003</v>
       </c>
       <c r="M59">
         <v>56373</v>
@@ -2838,25 +5129,25 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>329.25</v>
+        <v>2035.06</v>
       </c>
       <c r="B60">
-        <v>321.05</v>
+        <v>2059.98</v>
       </c>
       <c r="C60">
-        <v>115.52</v>
+        <v>839.91</v>
       </c>
       <c r="D60">
-        <v>114.4</v>
+        <v>835.65</v>
       </c>
       <c r="E60">
-        <v>21.94</v>
+        <v>-14.43</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>-3.11</v>
+        <v>-0.61</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2865,13 +5156,13 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>-6.57</v>
+        <v>-0.68</v>
       </c>
       <c r="K60">
-        <v>-2.96</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="L60">
-        <v>-23.45</v>
+        <v>414.04</v>
       </c>
       <c r="M60">
         <v>57109</v>
@@ -2879,25 +5170,25 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>282.20999999999998</v>
+        <v>2009.47</v>
       </c>
       <c r="B61">
-        <v>281.05</v>
+        <v>2009.98</v>
       </c>
       <c r="C61">
-        <v>118.56</v>
+        <v>860.46</v>
       </c>
       <c r="D61">
-        <v>117.41</v>
+        <v>856</v>
       </c>
       <c r="E61">
-        <v>9.16</v>
+        <v>66.44</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>-2.92</v>
+        <v>-0.26</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2906,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>-7.03</v>
+        <v>-19.190000000000001</v>
       </c>
       <c r="K61">
-        <v>-4.8899999999999997</v>
+        <v>-5.61</v>
       </c>
       <c r="L61">
-        <v>-13.2</v>
+        <v>304.01</v>
       </c>
       <c r="M61">
         <v>60770</v>
@@ -2920,25 +5211,25 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>252.28</v>
+        <v>1966.8</v>
       </c>
       <c r="B62">
-        <v>241.05</v>
+        <v>1959.98</v>
       </c>
       <c r="C62">
-        <v>121.25</v>
+        <v>880.31</v>
       </c>
       <c r="D62">
-        <v>120.02</v>
+        <v>875.85</v>
       </c>
       <c r="E62">
-        <v>5.19</v>
+        <v>-4.12</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>-2.83</v>
+        <v>0.09</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2947,13 +5238,13 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>-6.42</v>
+        <v>-8.61</v>
       </c>
       <c r="K62">
-        <v>-5.74</v>
+        <v>-9.01</v>
       </c>
       <c r="L62">
-        <v>-32.71</v>
+        <v>286.11</v>
       </c>
       <c r="M62">
         <v>362</v>
@@ -2961,25 +5252,25 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>209.52</v>
+        <v>1936.94</v>
       </c>
       <c r="B63">
-        <v>201.05</v>
+        <v>1909.98</v>
       </c>
       <c r="C63">
-        <v>123.52</v>
+        <v>899.82</v>
       </c>
       <c r="D63">
-        <v>122.23</v>
+        <v>895.2</v>
       </c>
       <c r="E63">
-        <v>8.33</v>
+        <v>-39.79</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>-2.78</v>
+        <v>0.18</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2988,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>-7.47</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="K63">
-        <v>-6.27</v>
+        <v>-9.94</v>
       </c>
       <c r="L63">
-        <v>-36.24</v>
+        <v>212.84</v>
       </c>
       <c r="M63">
         <v>2865</v>
@@ -3002,25 +5293,25 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>171.04</v>
+        <v>1872.94</v>
       </c>
       <c r="B64">
-        <v>161.05000000000001</v>
+        <v>1859.98</v>
       </c>
       <c r="C64">
-        <v>125.42</v>
+        <v>918.77</v>
       </c>
       <c r="D64">
-        <v>124.04</v>
+        <v>914.05</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>-91.19</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>-2.72</v>
+        <v>-0.09</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3029,13 +5320,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>-6.9</v>
+        <v>5.68</v>
       </c>
       <c r="K64">
-        <v>-6.9</v>
+        <v>-7.21</v>
       </c>
       <c r="L64">
-        <v>-52.34</v>
+        <v>258.70999999999998</v>
       </c>
       <c r="M64">
         <v>4855</v>
@@ -3043,25 +5334,25 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>128.28</v>
+        <v>1826.01</v>
       </c>
       <c r="B65">
-        <v>121.05</v>
+        <v>1809.98</v>
       </c>
       <c r="C65">
-        <v>126.9</v>
+        <v>937.35</v>
       </c>
       <c r="D65">
-        <v>125.45</v>
+        <v>932.4</v>
       </c>
       <c r="E65">
-        <v>1.77</v>
+        <v>-50.75</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>-2.69</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3070,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>-0.91</v>
+        <v>2.8</v>
       </c>
       <c r="K65">
-        <v>-0.31</v>
+        <v>-5.4</v>
       </c>
       <c r="L65">
-        <v>-49.4</v>
+        <v>227.83</v>
       </c>
       <c r="M65">
         <v>4644</v>
@@ -3084,25 +5375,25 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>85.52</v>
+        <v>1791.88</v>
       </c>
       <c r="B66">
-        <v>81.05</v>
+        <v>1759.98</v>
       </c>
       <c r="C66">
-        <v>127.99</v>
+        <v>955.34</v>
       </c>
       <c r="D66">
-        <v>126.46</v>
+        <v>950.25</v>
       </c>
       <c r="E66">
-        <v>18.010000000000002</v>
+        <v>-52.67</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>-2.64</v>
+        <v>-0.36</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3111,13 +5402,13 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>-2.93</v>
+        <v>3.74</v>
       </c>
       <c r="K66">
-        <v>-0.47</v>
+        <v>-4.5199999999999996</v>
       </c>
       <c r="L66">
-        <v>-54.76</v>
+        <v>166.87</v>
       </c>
       <c r="M66">
         <v>4532</v>
@@ -3125,25 +5416,25 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>42.76</v>
+        <v>1727.88</v>
       </c>
       <c r="B67">
-        <v>41.05</v>
+        <v>1709.98</v>
       </c>
       <c r="C67">
-        <v>128.65</v>
+        <v>972.79</v>
       </c>
       <c r="D67">
-        <v>127.07</v>
+        <v>967.6</v>
       </c>
       <c r="E67">
-        <v>13.24</v>
+        <v>-51.06</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>-2.4900000000000002</v>
+        <v>-0.44</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3152,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>-3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K67">
-        <v>-1.92</v>
+        <v>-3.75</v>
       </c>
       <c r="L67">
-        <v>-58.11</v>
+        <v>194.81</v>
       </c>
       <c r="M67">
         <v>4942</v>
@@ -3166,25 +5457,25 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>4.28</v>
+        <v>1651.09</v>
       </c>
       <c r="B68">
-        <v>1.05</v>
+        <v>1659.98</v>
       </c>
       <c r="C68">
-        <v>128.91</v>
+        <v>989.67</v>
       </c>
       <c r="D68">
-        <v>127.28</v>
+        <v>984.45</v>
       </c>
       <c r="E68">
-        <v>6.01</v>
+        <v>-26.34</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>-2.38</v>
+        <v>-0.59</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3193,13 +5484,13 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>-4.0599999999999996</v>
+        <v>3.02</v>
       </c>
       <c r="K68">
-        <v>-3.05</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L68">
-        <v>-73.53</v>
+        <v>264.54000000000002</v>
       </c>
       <c r="M68">
         <v>4881</v>
@@ -3207,25 +5498,25 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>-8.5500000000000007</v>
+        <v>1625.49</v>
       </c>
       <c r="B69">
-        <v>-2.95</v>
+        <v>1609.98</v>
       </c>
       <c r="C69">
-        <v>128.88999999999999</v>
+        <v>1006.15</v>
       </c>
       <c r="D69">
-        <v>127.28</v>
+        <v>1000.8</v>
       </c>
       <c r="E69">
-        <v>0.89</v>
+        <v>6.38</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>-2.36</v>
+        <v>-0.9</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3234,13 +5525,13 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="L69">
-        <v>-43.94</v>
+        <v>174.39</v>
       </c>
       <c r="M69">
         <v>4755</v>
@@ -3248,25 +5539,25 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>-17.100000000000001</v>
+        <v>1565.76</v>
       </c>
       <c r="B70">
-        <v>-2.95</v>
+        <v>1559.98</v>
       </c>
       <c r="C70">
-        <v>128.75</v>
+        <v>1022.06</v>
       </c>
       <c r="D70">
-        <v>127.28</v>
+        <v>1016.65</v>
       </c>
       <c r="E70">
-        <v>13.37</v>
+        <v>13.15</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>-2.2799999999999998</v>
+        <v>-0.76</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3275,13 +5566,13 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>-2.79</v>
+        <v>-1.51</v>
       </c>
       <c r="K70">
-        <v>-0.79</v>
+        <v>1.96</v>
       </c>
       <c r="L70">
-        <v>-17.28</v>
+        <v>189.93</v>
       </c>
       <c r="M70">
         <v>4862</v>
@@ -3289,25 +5580,25 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>-12.83</v>
+        <v>1510.3</v>
       </c>
       <c r="B71">
-        <v>-2.95</v>
+        <v>1509.98</v>
       </c>
       <c r="C71">
-        <v>128.59</v>
+        <v>1037.48</v>
       </c>
       <c r="D71">
-        <v>127.28</v>
+        <v>1032</v>
       </c>
       <c r="E71">
-        <v>12.51</v>
+        <v>28.11</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>-2.15</v>
+        <v>-0.65</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3316,13 +5607,13 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>-3.98</v>
+        <v>-6.16</v>
       </c>
       <c r="K71">
-        <v>-2.1</v>
+        <v>-0.94</v>
       </c>
       <c r="L71">
-        <v>-26.88</v>
+        <v>189.41</v>
       </c>
       <c r="M71">
         <v>5307</v>
@@ -3330,25 +5621,25 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>-12.83</v>
+        <v>1480.43</v>
       </c>
       <c r="B72">
-        <v>-2.95</v>
+        <v>1459.98</v>
       </c>
       <c r="C72">
-        <v>128.44999999999999</v>
+        <v>1052.44</v>
       </c>
       <c r="D72">
-        <v>127.28</v>
+        <v>1046.8499999999999</v>
       </c>
       <c r="E72">
-        <v>20.51</v>
+        <v>6.65</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>-2</v>
+        <v>-0.52</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3357,13 +5648,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>-6.69</v>
+        <v>-2.5299999999999998</v>
       </c>
       <c r="K72">
-        <v>-3.61</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="L72">
-        <v>-25.69</v>
+        <v>146.72999999999999</v>
       </c>
       <c r="M72">
         <v>4765</v>
@@ -3371,25 +5662,25 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>-12.83</v>
+        <v>1403.64</v>
       </c>
       <c r="B73">
-        <v>-2.95</v>
+        <v>1409.98</v>
       </c>
       <c r="C73">
-        <v>128.30000000000001</v>
+        <v>1066.8399999999999</v>
       </c>
       <c r="D73">
-        <v>127.28</v>
+        <v>1061.2</v>
       </c>
       <c r="E73">
-        <v>20.51</v>
+        <v>-23.28</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>-1.78</v>
+        <v>-0.5</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3398,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-8.9</v>
+        <v>1.3</v>
       </c>
       <c r="K73">
-        <v>-5.82</v>
+        <v>-0.05</v>
       </c>
       <c r="L73">
-        <v>-24.22</v>
+        <v>217.9</v>
       </c>
       <c r="M73">
         <v>4534</v>
@@ -3412,25 +5703,25 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>-12.83</v>
+        <v>1386.57</v>
       </c>
       <c r="B74">
-        <v>-2.95</v>
+        <v>1359.98</v>
       </c>
       <c r="C74">
-        <v>128.18</v>
+        <v>1080.8399999999999</v>
       </c>
       <c r="D74">
-        <v>127.28</v>
+        <v>1075.05</v>
       </c>
       <c r="E74">
-        <v>16.14</v>
+        <v>60.64</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>-1.6</v>
+        <v>-0.63</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3439,13 +5730,13 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>-10.029999999999999</v>
+        <v>-6.6</v>
       </c>
       <c r="K74">
-        <v>-7.61</v>
+        <v>1.33</v>
       </c>
       <c r="L74">
-        <v>-22.3</v>
+        <v>96.78</v>
       </c>
       <c r="M74">
         <v>4562</v>
@@ -3453,25 +5744,25 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>-8.5500000000000007</v>
+        <v>1331.11</v>
       </c>
       <c r="B75">
-        <v>-2.95</v>
+        <v>1309.98</v>
       </c>
       <c r="C75">
-        <v>128.03</v>
+        <v>1094.29</v>
       </c>
       <c r="D75">
-        <v>127.28</v>
+        <v>1088.4000000000001</v>
       </c>
       <c r="E75">
-        <v>5.98</v>
+        <v>15.44</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>-1.5</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3480,13 +5771,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>-9.52</v>
+        <v>-4.7699999999999996</v>
       </c>
       <c r="K75">
-        <v>-8.6199999999999992</v>
+        <v>-2.21</v>
       </c>
       <c r="L75">
-        <v>-30.58</v>
+        <v>94.11</v>
       </c>
       <c r="M75">
         <v>4936</v>
@@ -3494,19 +5785,19 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>0</v>
+        <v>1275.6500000000001</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1259.98</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1107.21</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1101.25</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>-5.77</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3521,13 +5812,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>-6.31</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>-4.99</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>94.78</v>
       </c>
       <c r="M76">
         <v>4776</v>
@@ -3535,25 +5826,25 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>0</v>
+        <v>1220.18</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1209.98</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1119.5999999999999</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1113.5999999999999</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3562,13 +5853,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>-7.07</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>-5.38</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>115.35</v>
       </c>
       <c r="M77">
         <v>4919</v>
@@ -3576,25 +5867,25 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>0</v>
+        <v>1190.32</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1159.98</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1131.54</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1125.44</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>-4.46</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3603,13 +5894,13 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>-0.65</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>-3.52</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>48.34</v>
       </c>
       <c r="M78">
         <v>4865</v>
@@ -3617,25 +5908,25 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>0</v>
+        <v>1100.73</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1109.98</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1142.9000000000001</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1136.79</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>-29.05</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3644,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>-4.01</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>153.9</v>
       </c>
       <c r="M79">
         <v>4912</v>
@@ -3658,25 +5949,25 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>0</v>
+        <v>1062.33</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1059.98</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1153.8599999999999</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1147.6400000000001</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>15.59</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3685,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>-6.49</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>-2.34</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>100.96</v>
       </c>
       <c r="M80">
         <v>4809</v>
@@ -3699,25 +5990,25 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>0</v>
+        <v>1006.87</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1009.98</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1164.28</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1157.99</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3726,13 +6017,13 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>113.62</v>
       </c>
       <c r="M81">
         <v>5185</v>
@@ -3740,25 +6031,25 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>0</v>
+        <v>972.73</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>959.98</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1174.1300000000001</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1167.8399999999999</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-9.92</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3767,13 +6058,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>51.1</v>
       </c>
       <c r="M82">
         <v>4888</v>
@@ -3781,25 +6072,25 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>0</v>
+        <v>917.27</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>909.98</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1183.51</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1177.19</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3808,13 +6099,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>-0.95</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>55.8</v>
       </c>
       <c r="M83">
         <v>4774</v>
@@ -3822,25 +6113,25 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>0</v>
+        <v>857.54</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>859.98</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1192.3599999999999</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1186.04</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-4.21</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3849,13 +6140,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>-2.11</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>-1.55</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>70.349999999999994</v>
       </c>
       <c r="M84">
         <v>4629</v>
@@ -3863,25 +6154,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>0</v>
+        <v>827.68</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>809.98</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1200.77</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1194.3900000000001</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3890,13 +6181,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>14.13</v>
       </c>
       <c r="M85">
         <v>4619</v>
@@ -3904,25 +6195,25 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>0</v>
+        <v>763.68</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>759.98</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1208.6500000000001</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1202.24</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>-14.43</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3931,13 +6222,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="M86">
         <v>4739</v>
@@ -3945,25 +6236,25 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>0</v>
+        <v>708.22</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>709.99</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1216.01</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1209.5899999999999</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>-0.41</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3972,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>60.73</v>
       </c>
       <c r="M87">
         <v>4696</v>
@@ -3986,25 +6277,25 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>0</v>
+        <v>657.02</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>659.99</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1222.93</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1216.44</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>32.14</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4013,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>-6.61</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>41.91</v>
       </c>
       <c r="M88">
         <v>4681</v>
@@ -4027,25 +6318,25 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>0</v>
+        <v>601.55999999999995</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>609.99</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1229.31</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1222.79</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4054,13 +6345,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>-0.48</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>51.86</v>
       </c>
       <c r="M89">
         <v>4818</v>
@@ -4068,25 +6359,25 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>0</v>
+        <v>575.96</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>559.99</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1235.19</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1228.6400000000001</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>13.37</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4095,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>-4.3899999999999997</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>-1.58</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>-37.93</v>
       </c>
       <c r="M90">
         <v>5278</v>
@@ -4109,25 +6400,25 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>0</v>
+        <v>511.97</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>509.99</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1240.57</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1233.99</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>26.37</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4136,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>-8.06</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>-4.18</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>-12.36</v>
       </c>
       <c r="M91">
         <v>4999</v>
@@ -4150,25 +6441,25 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>0</v>
+        <v>452.24</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>459.99</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1238.8399999999999</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>-7.97</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4177,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>15.59</v>
       </c>
       <c r="M92">
         <v>4966</v>
@@ -4191,25 +6482,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>0</v>
+        <v>418.11</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>409.99</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1249.73</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1243.19</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4218,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>-31.33</v>
       </c>
       <c r="M93">
         <v>4925</v>
@@ -4232,25 +6523,25 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>0</v>
+        <v>362.64</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>359.99</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1247.04</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>15.32</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4259,13 +6550,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>-2.81</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>-30.37</v>
       </c>
       <c r="M94">
         <v>4967</v>
@@ -4273,25 +6564,25 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>0</v>
+        <v>311.45</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>309.99</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1250.3900000000001</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>6.62</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4300,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>-1.39</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>-38.18</v>
       </c>
       <c r="M95">
         <v>4960</v>
@@ -4314,25 +6605,25 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>0</v>
+        <v>268.77999999999997</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>259.99</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1259.8699999999999</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1253.24</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-10.31</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4341,13 +6632,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>-67.08</v>
       </c>
       <c r="M96">
         <v>4920</v>
@@ -4355,25 +6646,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>0</v>
+        <v>213.32</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>209.99</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1262.23</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1255.5899999999999</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4382,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>-61.93</v>
       </c>
       <c r="M97">
         <v>4875</v>
@@ -4396,25 +6687,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>0</v>
+        <v>166.39</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>159.99</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1257.44</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4423,13 +6714,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>-82.28</v>
       </c>
       <c r="M98">
         <v>4882</v>
@@ -4437,25 +6728,25 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>0</v>
+        <v>115.19</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>109.99</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1265.45</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1258.79</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4464,13 +6755,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>-89.51</v>
       </c>
       <c r="M99">
         <v>4869</v>
@@ -4478,25 +6769,25 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>0</v>
+        <v>59.73</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>59.99</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1266.3</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1259.6400000000001</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-8.85</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4505,13 +6796,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>-0.66</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>-74.540000000000006</v>
       </c>
       <c r="M100">
         <v>4848</v>
@@ -4519,25 +6810,25 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1266.6500000000001</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1259.99</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>-9.06</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4546,13 +6837,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>-94.7</v>
       </c>
       <c r="M101">
         <v>4851</v>
@@ -4560,25 +6851,25 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>0</v>
+        <v>-12.8</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1266.6400000000001</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>-1.01</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4587,13 +6878,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>-46.41</v>
       </c>
       <c r="M102">
         <v>4849</v>
@@ -4601,25 +6892,25 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>0</v>
+        <v>-25.6</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1266.48</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4628,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>-1.76</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>-0.54</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>-5.85</v>
       </c>
       <c r="M103">
         <v>4844</v>
@@ -4642,25 +6933,25 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>0</v>
+        <v>-25.6</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1266.28</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>7.87</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4669,13 +6960,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>-1.37</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -4683,25 +6974,25 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>0</v>
+        <v>-12.8</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1266.0999999999999</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>8.73</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4710,13 +7001,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>-3.41</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>-2.14</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>-33.909999999999997</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -39021,5 +41312,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOSEIDenken\Desktop\halfmouse\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4E81CA-ED57-4E06-8B47-A47A5F0C674C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22543B5F-A836-42F7-8ED7-25547C4B8335}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="10040" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2390" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>25.29</v>
+        <v>29.68</v>
       </c>
       <c r="M1">
         <v>4854</v>
@@ -444,25 +444,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>8.51</v>
+        <v>25.54</v>
       </c>
       <c r="B2">
-        <v>19.8</v>
+        <v>21.6</v>
       </c>
       <c r="C2">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-1.86</v>
+        <v>-2.08</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="K2">
         <v>0.05</v>
       </c>
       <c r="L2">
-        <v>56.63</v>
+        <v>12.26</v>
       </c>
       <c r="M2">
         <v>4887</v>
@@ -485,25 +485,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>17.03</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="B3">
-        <v>37.799999999999997</v>
+        <v>39.6</v>
       </c>
       <c r="C3">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.06</v>
+        <v>1.74</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>-2.5</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K3">
-        <v>-0.43</v>
+        <v>0.19</v>
       </c>
       <c r="L3">
-        <v>86.71</v>
+        <v>44.36</v>
       </c>
       <c r="M3">
         <v>4929</v>
@@ -526,25 +526,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>42.57</v>
+        <v>51.08</v>
       </c>
       <c r="B4">
-        <v>55.8</v>
+        <v>57.6</v>
       </c>
       <c r="C4">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.51</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>-1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>70.959999999999994</v>
+        <v>53.56</v>
       </c>
       <c r="M4">
         <v>4828</v>
@@ -567,25 +567,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>68.11</v>
+        <v>59.6</v>
       </c>
       <c r="B5">
-        <v>73.8</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C5">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.89</v>
+        <v>-1.95</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.09</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.2</v>
+        <v>0.59</v>
       </c>
       <c r="K5">
-        <v>-0.01</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>50.48</v>
+        <v>83.41</v>
       </c>
       <c r="M5">
         <v>4722</v>
@@ -608,25 +608,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>68.11</v>
+        <v>102.16</v>
       </c>
       <c r="B6">
-        <v>91.8</v>
+        <v>93.6</v>
       </c>
       <c r="C6">
-        <v>2.14</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-3.11</v>
+        <v>-3.94</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.62</v>
+        <v>1.26</v>
       </c>
       <c r="K6">
-        <v>0.14000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="L6">
-        <v>111.81</v>
+        <v>14.88</v>
       </c>
       <c r="M6">
         <v>4736</v>
@@ -649,25 +649,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>119.19</v>
+        <v>102.16</v>
       </c>
       <c r="B7">
-        <v>109.8</v>
+        <v>111.6</v>
       </c>
       <c r="C7">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.64</v>
+        <v>-1.71</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.06</v>
+        <v>-0.15</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6</v>
+        <v>1.35</v>
       </c>
       <c r="K7">
-        <v>0.45</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L7">
-        <v>12.55</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="M7">
         <v>4478</v>
@@ -690,25 +690,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>119.19</v>
+        <v>127.7</v>
       </c>
       <c r="B8">
-        <v>127.8</v>
+        <v>129.6</v>
       </c>
       <c r="C8">
-        <v>4.29</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.06</v>
+        <v>-0.17</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>70.599999999999994</v>
+        <v>55.15</v>
       </c>
       <c r="M8">
         <v>4201</v>
@@ -731,25 +731,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>153.24</v>
+        <v>170.27</v>
       </c>
       <c r="B9">
-        <v>145.80000000000001</v>
+        <v>147.6</v>
       </c>
       <c r="C9">
-        <v>5.65</v>
+        <v>5.72</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-1.1599999999999999</v>
+        <v>-0.79</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="K9">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="L9">
-        <v>26.87</v>
+        <v>-13.74</v>
       </c>
       <c r="M9">
         <v>4505</v>
@@ -775,22 +775,22 @@
         <v>161.76</v>
       </c>
       <c r="B10">
-        <v>163.80000000000001</v>
+        <v>165.6</v>
       </c>
       <c r="C10">
-        <v>7.2</v>
+        <v>7.29</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-7.29</v>
+        <v>-6.68</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.25</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.03</v>
+        <v>1.48</v>
       </c>
       <c r="K10">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
       <c r="L10">
-        <v>57.52</v>
+        <v>64.05</v>
       </c>
       <c r="M10">
         <v>4494</v>
@@ -813,25 +813,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>187.3</v>
+        <v>170.27</v>
       </c>
       <c r="B11">
-        <v>181.8</v>
+        <v>183.6</v>
       </c>
       <c r="C11">
-        <v>8.91</v>
+        <v>9.02</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.08</v>
+        <v>-0.95</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.25</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.38</v>
+        <v>0.15</v>
       </c>
       <c r="K11">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="L11">
-        <v>37.86</v>
+        <v>95.58</v>
       </c>
       <c r="M11">
         <v>4584</v>
@@ -854,25 +854,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>195.81</v>
+        <v>204.33</v>
       </c>
       <c r="B12">
-        <v>199.8</v>
+        <v>201.6</v>
       </c>
       <c r="C12">
-        <v>10.82</v>
+        <v>10.95</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.2599999999999998</v>
+        <v>2.96</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -881,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.86</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="K12">
-        <v>-0.23</v>
+        <v>-0.13</v>
       </c>
       <c r="L12">
-        <v>69.650000000000006</v>
+        <v>50.21</v>
       </c>
       <c r="M12">
         <v>4824</v>
@@ -898,37 +898,37 @@
         <v>229.87</v>
       </c>
       <c r="B13">
-        <v>217.8</v>
+        <v>219.6</v>
       </c>
       <c r="C13">
-        <v>12.94</v>
+        <v>13.09</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.47</v>
+        <v>8.58</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
+        <v>-0.26</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>-1.19</v>
+      </c>
+      <c r="K13">
         <v>0.09</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>-0.75</v>
-      </c>
-      <c r="K13">
-        <v>0.12</v>
-      </c>
       <c r="L13">
-        <v>24.54</v>
+        <v>29.65</v>
       </c>
       <c r="M13">
         <v>5023</v>
@@ -936,25 +936,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>221.35</v>
+        <v>229.87</v>
       </c>
       <c r="B14">
-        <v>235.8</v>
+        <v>237.6</v>
       </c>
       <c r="C14">
-        <v>15.21</v>
+        <v>15.36</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-2.2000000000000002</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.08</v>
+        <v>-0.25</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.45</v>
+        <v>0.17</v>
       </c>
       <c r="K14">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>109.26</v>
+        <v>89.52</v>
       </c>
       <c r="M14">
         <v>5084</v>
@@ -977,25 +977,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>246.89</v>
+        <v>238.38</v>
       </c>
       <c r="B15">
-        <v>253.8</v>
+        <v>255.6</v>
       </c>
       <c r="C15">
-        <v>17.68</v>
+        <v>17.84</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-2.72</v>
+        <v>4.12</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.04</v>
+        <v>-0.27</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1004,13 +1004,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.02</v>
+        <v>-0.43</v>
       </c>
       <c r="K15">
-        <v>0.57999999999999996</v>
+        <v>0.19</v>
       </c>
       <c r="L15">
-        <v>90.33</v>
+        <v>120.67</v>
       </c>
       <c r="M15">
         <v>4887</v>
@@ -1018,25 +1018,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>280.95</v>
+        <v>272.43</v>
       </c>
       <c r="B16">
-        <v>271.8</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="C16">
-        <v>20.36</v>
+        <v>20.52</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-10.99</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.01</v>
+        <v>-0.27</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.74</v>
+        <v>0.73</v>
       </c>
       <c r="K16">
-        <v>1.0900000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="L16">
-        <v>46.3</v>
+        <v>76.709999999999994</v>
       </c>
       <c r="M16">
         <v>4668</v>
@@ -1059,25 +1059,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>272.43</v>
+        <v>280.95</v>
       </c>
       <c r="B17">
-        <v>289.8</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="C17">
-        <v>23.17</v>
+        <v>23.36</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-3.78</v>
+        <v>3.66</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-0.05</v>
+        <v>-0.24</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1086,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.35</v>
+        <v>-0.96</v>
       </c>
       <c r="K17">
-        <v>0.02</v>
+        <v>-0.41</v>
       </c>
       <c r="L17">
-        <v>127.64</v>
+        <v>106.8</v>
       </c>
       <c r="M17">
         <v>4463</v>
@@ -1100,25 +1100,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>315</v>
+        <v>306.49</v>
       </c>
       <c r="B18">
-        <v>307.8</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="C18">
-        <v>26.22</v>
+        <v>26.43</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-3.36</v>
+        <v>6.99</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.12</v>
+        <v>-0.25</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.68</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="K18">
-        <v>0.78</v>
+        <v>-0.11</v>
       </c>
       <c r="L18">
-        <v>57.32</v>
+        <v>86.09</v>
       </c>
       <c r="M18">
         <v>4623</v>
@@ -1141,25 +1141,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>315</v>
+        <v>332.03</v>
       </c>
       <c r="B19">
-        <v>325.8</v>
+        <v>327.60000000000002</v>
       </c>
       <c r="C19">
-        <v>29.43</v>
+        <v>29.66</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-18.920000000000002</v>
+        <v>-4.49</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.17</v>
+        <v>-0.23</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1168,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.28</v>
+        <v>0.83</v>
       </c>
       <c r="K19">
-        <v>0.54</v>
+        <v>0.16</v>
       </c>
       <c r="L19">
-        <v>118.72</v>
+        <v>71.23</v>
       </c>
       <c r="M19">
         <v>4822</v>
@@ -1182,25 +1182,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>340.54</v>
+        <v>349.06</v>
       </c>
       <c r="B20">
-        <v>343.8</v>
+        <v>345.6</v>
       </c>
       <c r="C20">
-        <v>32.840000000000003</v>
+        <v>33.08</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-7.17</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-0.21</v>
+        <v>-0.17</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.26</v>
+        <v>-1.66</v>
       </c>
       <c r="K20">
-        <v>-0.13</v>
+        <v>-0.46</v>
       </c>
       <c r="L20">
-        <v>95.34</v>
+        <v>74.03</v>
       </c>
       <c r="M20">
         <v>4665</v>
@@ -1223,25 +1223,25 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>391.63</v>
+        <v>357.57</v>
       </c>
       <c r="B21">
-        <v>361.8</v>
+        <v>363.6</v>
       </c>
       <c r="C21">
-        <v>36.44</v>
+        <v>36.69</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.93</v>
+        <v>12.57</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.27</v>
+        <v>-0.13</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>-1.51</v>
+        <v>-2.73</v>
       </c>
       <c r="K21">
-        <v>0.43</v>
+        <v>-0.85</v>
       </c>
       <c r="L21">
-        <v>-3.83</v>
+        <v>103.33</v>
       </c>
       <c r="M21">
         <v>4732</v>
@@ -1264,25 +1264,25 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>374.6</v>
+        <v>383.11</v>
       </c>
       <c r="B22">
-        <v>379.8</v>
+        <v>381.6</v>
       </c>
       <c r="C22">
-        <v>40.19</v>
+        <v>40.47</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.039999999999999</v>
+        <v>14.28</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.31</v>
+        <v>-0.13</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.21</v>
+        <v>-3</v>
       </c>
       <c r="K22">
-        <v>0.83</v>
+        <v>-0.86</v>
       </c>
       <c r="L22">
-        <v>110.08</v>
+        <v>82.69</v>
       </c>
       <c r="M22">
         <v>4756</v>
@@ -1305,25 +1305,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>400.14</v>
+        <v>391.63</v>
       </c>
       <c r="B23">
-        <v>397.8</v>
+        <v>399.6</v>
       </c>
       <c r="C23">
-        <v>44.13</v>
+        <v>44.44</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-6.23</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.32</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2.99</v>
+        <v>-0.79</v>
       </c>
       <c r="K23">
-        <v>0.97</v>
+        <v>-0.79</v>
       </c>
       <c r="L23">
-        <v>92.5</v>
+        <v>119.36</v>
       </c>
       <c r="M23">
         <v>4463</v>
@@ -1346,25 +1346,25 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>417.17</v>
+        <v>408.65</v>
       </c>
       <c r="B24">
-        <v>415.8</v>
+        <v>417.6</v>
       </c>
       <c r="C24">
-        <v>48.27</v>
+        <v>48.61</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-8.48</v>
+        <v>-10.01</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-0.28999999999999998</v>
+        <v>-0.15</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2.06</v>
+        <v>1.66</v>
       </c>
       <c r="K24">
-        <v>0.69</v>
+        <v>0.16</v>
       </c>
       <c r="L24">
-        <v>96.15</v>
+        <v>126.05</v>
       </c>
       <c r="M24">
         <v>4601</v>
@@ -1387,25 +1387,25 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>459.73</v>
+        <v>425.68</v>
       </c>
       <c r="B25">
-        <v>433.8</v>
+        <v>435.6</v>
       </c>
       <c r="C25">
-        <v>52.62</v>
+        <v>52.95</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-4.3</v>
+        <v>-17.3</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>-0.27</v>
+        <v>-0.21</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="K25">
-        <v>-0.34</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>25.19</v>
+        <v>132.05000000000001</v>
       </c>
       <c r="M25">
         <v>4699</v>
@@ -1431,22 +1431,22 @@
         <v>451.22</v>
       </c>
       <c r="B26">
-        <v>451.8</v>
+        <v>453.6</v>
       </c>
       <c r="C26">
-        <v>57.13</v>
+        <v>57.48</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1.68</v>
+        <v>-11.2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>-0.25</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>-0.54</v>
+        <v>2.85</v>
       </c>
       <c r="K26">
-        <v>-0.28999999999999998</v>
+        <v>1.17</v>
       </c>
       <c r="L26">
-        <v>105.27</v>
+        <v>110.87</v>
       </c>
       <c r="M26">
         <v>4688</v>
@@ -1469,25 +1469,25 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>468.25</v>
+        <v>451.22</v>
       </c>
       <c r="B27">
-        <v>469.8</v>
+        <v>471.6</v>
       </c>
       <c r="C27">
-        <v>61.81</v>
+        <v>62.17</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.68</v>
+        <v>-6.84</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>-0.21</v>
+        <v>-0.33</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>-0.23</v>
+        <v>1.45</v>
       </c>
       <c r="K27">
-        <v>0.02</v>
+        <v>0.43</v>
       </c>
       <c r="L27">
-        <v>110.27</v>
+        <v>165.45</v>
       </c>
       <c r="M27">
         <v>4609</v>
@@ -1510,25 +1510,25 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>485.27</v>
+        <v>510.82</v>
       </c>
       <c r="B28">
-        <v>487.8</v>
+        <v>489.6</v>
       </c>
       <c r="C28">
-        <v>66.69</v>
+        <v>67.08</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>4.09</v>
+        <v>-1.62</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.15</v>
+        <v>-0.35</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>-0.65</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K28">
-        <v>-0.04</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L28">
-        <v>121.33</v>
+        <v>41.06</v>
       </c>
       <c r="M28">
         <v>4796</v>
@@ -1551,25 +1551,25 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>510.82</v>
+        <v>519.33000000000004</v>
       </c>
       <c r="B29">
         <v>500</v>
       </c>
       <c r="C29">
-        <v>71.739999999999995</v>
+        <v>72.12</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>6.35</v>
+        <v>3.75</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.1</v>
+        <v>-0.37</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1578,47 +1578,47 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>-1.0900000000000001</v>
+        <v>-0.42</v>
       </c>
       <c r="K29">
-        <v>-0.14000000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="L29">
-        <v>62.61</v>
+        <v>27.3</v>
       </c>
       <c r="M29">
         <v>5053</v>
       </c>
       <c r="N29">
         <f>AVERAGE(K30:K36)</f>
-        <v>8.7142857142857147E-2</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="O29">
         <f>AVERAGE(L30:L36)</f>
-        <v>70.922857142857154</v>
+        <v>50.591428571428573</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>519.33000000000004</v>
+        <v>493.79</v>
       </c>
       <c r="B30">
         <v>500</v>
       </c>
       <c r="C30">
-        <v>76.84</v>
+        <v>77.180000000000007</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>-1.19</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1627,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="L30">
-        <v>34.83</v>
+        <v>102.97</v>
       </c>
       <c r="M30">
         <v>4943</v>
@@ -1641,25 +1641,25 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>476.76</v>
+        <v>510.82</v>
       </c>
       <c r="B31">
         <v>500</v>
       </c>
       <c r="C31">
-        <v>81.89</v>
+        <v>82.23</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1.28</v>
+        <v>-9.31</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>-0.1</v>
+        <v>-0.45</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.08</v>
+        <v>0.96</v>
       </c>
       <c r="K31">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="L31">
-        <v>161.24</v>
+        <v>50.88</v>
       </c>
       <c r="M31">
         <v>5026</v>
@@ -1682,25 +1682,25 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>510.82</v>
+        <v>527.84</v>
       </c>
       <c r="B32">
         <v>500</v>
       </c>
       <c r="C32">
-        <v>86.98</v>
+        <v>87.33</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>-1.04</v>
+        <v>-18.25</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>-0.09</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.03</v>
+        <v>4.32</v>
       </c>
       <c r="K32">
-        <v>-0.13</v>
+        <v>1.79</v>
       </c>
       <c r="L32">
-        <v>56.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M32">
         <v>5120</v>
@@ -1723,25 +1723,25 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>536.36</v>
+        <v>493.79</v>
       </c>
       <c r="B33">
         <v>500</v>
       </c>
       <c r="C33">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="D33">
         <v>1.5</v>
       </c>
       <c r="E33">
-        <v>-1.8</v>
+        <v>-19.59</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>-0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.33</v>
+        <v>5.97</v>
       </c>
       <c r="K33">
-        <v>0.15</v>
+        <v>3.87</v>
       </c>
       <c r="L33">
-        <v>-24.36</v>
+        <v>101.6</v>
       </c>
       <c r="M33">
         <v>5319</v>
@@ -1764,25 +1764,25 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>485.27</v>
+        <v>519.33000000000004</v>
       </c>
       <c r="B34">
         <v>500</v>
       </c>
       <c r="C34">
-        <v>7.12</v>
+        <v>7.1</v>
       </c>
       <c r="D34">
         <v>6.5</v>
       </c>
       <c r="E34">
-        <v>-2.2000000000000002</v>
+        <v>-3.78</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>-0.04</v>
+        <v>-0.17</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1791,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.67</v>
+        <v>5.07</v>
       </c>
       <c r="K34">
-        <v>0.45</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="L34">
-        <v>127.09</v>
+        <v>21.67</v>
       </c>
       <c r="M34">
         <v>4781</v>
@@ -1811,19 +1811,19 @@
         <v>500</v>
       </c>
       <c r="C35">
-        <v>12.21</v>
+        <v>12.17</v>
       </c>
       <c r="D35">
         <v>11.5</v>
       </c>
       <c r="E35">
-        <v>1.46</v>
+        <v>3.36</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>-0.06</v>
+        <v>-0.12</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>-0.16</v>
+        <v>-0.78</v>
       </c>
       <c r="K35">
-        <v>-0.01</v>
+        <v>-0.45</v>
       </c>
       <c r="L35">
-        <v>46.94</v>
+        <v>39.340000000000003</v>
       </c>
       <c r="M35">
         <v>4557</v>
@@ -1846,25 +1846,25 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>493.79</v>
+        <v>510.82</v>
       </c>
       <c r="B36">
         <v>500</v>
       </c>
       <c r="C36">
-        <v>17.309999999999999</v>
+        <v>17.21</v>
       </c>
       <c r="D36">
         <v>16.5</v>
       </c>
       <c r="E36">
-        <v>10.19</v>
+        <v>6.04</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1873,13 +1873,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>-0.68</v>
+        <v>-1.49</v>
       </c>
       <c r="K36">
-        <v>-0.12</v>
+        <v>-0.88</v>
       </c>
       <c r="L36">
-        <v>94.45</v>
+        <v>37.39</v>
       </c>
       <c r="M36">
         <v>5105</v>
@@ -1887,25 +1887,25 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>476.76</v>
+        <v>502.3</v>
       </c>
       <c r="B37">
         <v>500</v>
       </c>
       <c r="C37">
-        <v>22.37</v>
+        <v>22.25</v>
       </c>
       <c r="D37">
         <v>21.5</v>
       </c>
       <c r="E37">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-1.19</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>-1.19</v>
       </c>
       <c r="L37">
-        <v>144.37</v>
+        <v>61.73</v>
       </c>
       <c r="M37">
         <v>5091</v>
@@ -1928,25 +1928,25 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>519.33000000000004</v>
+        <v>510.82</v>
       </c>
       <c r="B38">
         <v>500</v>
       </c>
       <c r="C38">
-        <v>27.44</v>
+        <v>27.27</v>
       </c>
       <c r="D38">
         <v>26.5</v>
       </c>
       <c r="E38">
-        <v>-0.79</v>
+        <v>-3.33</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1955,13 +1955,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L38">
-        <v>14.42</v>
+        <v>37.32</v>
       </c>
       <c r="M38">
         <v>1691</v>
@@ -1969,25 +1969,25 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>536.36</v>
+        <v>493.79</v>
       </c>
       <c r="B39">
         <v>500</v>
       </c>
       <c r="C39">
-        <v>32.5</v>
+        <v>32.28</v>
       </c>
       <c r="D39">
         <v>31.5</v>
       </c>
       <c r="E39">
-        <v>-15.38</v>
+        <v>-11.69</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.99</v>
+        <v>1.39</v>
       </c>
       <c r="K39">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="L39">
-        <v>-36.21</v>
+        <v>89.29</v>
       </c>
       <c r="M39">
         <v>63590</v>
@@ -2010,25 +2010,25 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>493.79</v>
+        <v>510.82</v>
       </c>
       <c r="B40">
         <v>500</v>
       </c>
       <c r="C40">
-        <v>37.53</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D40">
         <v>36.5</v>
       </c>
       <c r="E40">
-        <v>-12.42</v>
+        <v>-4.21</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>-0.17</v>
+        <v>-0.19</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2.85</v>
+        <v>1.46</v>
       </c>
       <c r="K40">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="L40">
-        <v>91.76</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="M40">
         <v>58995</v>
@@ -2051,25 +2051,25 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>510.82</v>
+        <v>502.3</v>
       </c>
       <c r="B41">
         <v>500</v>
       </c>
       <c r="C41">
-        <v>42.55</v>
+        <v>42.33</v>
       </c>
       <c r="D41">
         <v>41.5</v>
       </c>
       <c r="E41">
-        <v>9.2799999999999994</v>
+        <v>-5.98</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2078,47 +2078,47 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1.89</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="K41">
-        <v>2.48</v>
+        <v>1.66</v>
       </c>
       <c r="L41">
-        <v>39.270000000000003</v>
+        <v>63.12</v>
       </c>
       <c r="M41">
         <v>55859</v>
       </c>
       <c r="N41">
         <f>AVERAGE(K41:K57)</f>
-        <v>1.3105882352941178</v>
+        <v>-6.4705882352941178</v>
       </c>
       <c r="O41">
         <f>AVERAGE(L41:L57)</f>
-        <v>-20.523529411764706</v>
+        <v>-18.345294117647057</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>536.36</v>
+        <v>502.3</v>
       </c>
       <c r="B42">
         <v>500</v>
       </c>
       <c r="C42">
-        <v>47.63</v>
+        <v>47.35</v>
       </c>
       <c r="D42">
-        <v>46.87</v>
+        <v>46.5</v>
       </c>
       <c r="E42">
-        <v>4.6100000000000003</v>
+        <v>1.92</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>-0.17</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2127,13 +2127,13 @@
         <v>-8594.35</v>
       </c>
       <c r="J42">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="L42">
-        <v>-83.37</v>
+        <v>62.04</v>
       </c>
       <c r="M42">
         <v>56727</v>
@@ -2141,40 +2141,40 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>493.79</v>
+        <v>519.33000000000004</v>
       </c>
       <c r="B43">
         <v>500</v>
       </c>
       <c r="C43">
-        <v>52.63</v>
+        <v>52.36</v>
       </c>
       <c r="D43">
-        <v>51.87</v>
+        <v>51.37</v>
       </c>
       <c r="E43">
-        <v>-33.869999999999997</v>
+        <v>-17.91</v>
       </c>
       <c r="F43">
-        <v>-85.94</v>
+        <v>-77.349999999999994</v>
       </c>
       <c r="G43">
-        <v>-0.15</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H43">
-        <v>-0.43</v>
+        <v>-0.35</v>
       </c>
       <c r="I43">
         <v>-8594.35</v>
       </c>
       <c r="J43">
-        <v>1.8</v>
+        <v>-57.35</v>
       </c>
       <c r="K43">
-        <v>1.8</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="L43">
-        <v>35.56</v>
+        <v>-97.94</v>
       </c>
       <c r="M43">
         <v>58153</v>
@@ -2182,40 +2182,40 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>476.76</v>
+        <v>519.33000000000004</v>
       </c>
       <c r="B44">
         <v>500</v>
       </c>
       <c r="C44">
-        <v>57.63</v>
+        <v>57.41</v>
       </c>
       <c r="D44">
-        <v>56.87</v>
+        <v>56.37</v>
       </c>
       <c r="E44">
-        <v>-114.47</v>
+        <v>-166.6</v>
       </c>
       <c r="F44">
-        <v>-171.89</v>
+        <v>-163.29</v>
       </c>
       <c r="G44">
-        <v>-1.03</v>
+        <v>-1.62</v>
       </c>
       <c r="H44">
-        <v>-1.72</v>
+        <v>-1.55</v>
       </c>
       <c r="I44">
         <v>-8594.35</v>
       </c>
       <c r="J44">
-        <v>1.8</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="K44">
-        <v>1.8</v>
+        <v>-6.75</v>
       </c>
       <c r="L44">
-        <v>78.13</v>
+        <v>-52.88</v>
       </c>
       <c r="M44">
         <v>56094</v>
@@ -2223,40 +2223,40 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>510.82</v>
+        <v>493.79</v>
       </c>
       <c r="B45">
         <v>500</v>
       </c>
       <c r="C45">
-        <v>62.65</v>
+        <v>62.46</v>
       </c>
       <c r="D45">
-        <v>61.87</v>
+        <v>61.37</v>
       </c>
       <c r="E45">
-        <v>-193.76</v>
+        <v>-223.33</v>
       </c>
       <c r="F45">
-        <v>-257.83</v>
+        <v>-249.24</v>
       </c>
       <c r="G45">
-        <v>-2.64</v>
+        <v>-3.37</v>
       </c>
       <c r="H45">
-        <v>-3.87</v>
+        <v>-3.61</v>
       </c>
       <c r="I45">
         <v>-8594.35</v>
       </c>
       <c r="J45">
-        <v>1.8</v>
+        <v>-38.19</v>
       </c>
       <c r="K45">
-        <v>1.8</v>
+        <v>-17.46</v>
       </c>
       <c r="L45">
-        <v>-33.32</v>
+        <v>-19.25</v>
       </c>
       <c r="M45">
         <v>56744</v>
@@ -2264,40 +2264,40 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>493.79</v>
+        <v>485.27</v>
       </c>
       <c r="B46">
         <v>500</v>
       </c>
       <c r="C46">
-        <v>67.7</v>
+        <v>67.459999999999994</v>
       </c>
       <c r="D46">
-        <v>66.87</v>
+        <v>66.37</v>
       </c>
       <c r="E46">
-        <v>-262.48</v>
+        <v>-310.76</v>
       </c>
       <c r="F46">
-        <v>-343.77</v>
+        <v>-335.18</v>
       </c>
       <c r="G46">
-        <v>-4.95</v>
+        <v>-6.43</v>
       </c>
       <c r="H46">
-        <v>-6.88</v>
+        <v>-6.54</v>
       </c>
       <c r="I46">
         <v>-8594.35</v>
       </c>
       <c r="J46">
-        <v>1.8</v>
+        <v>-34.32</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
+        <v>-14.78</v>
       </c>
       <c r="L46">
-        <v>7.7</v>
+        <v>3.49</v>
       </c>
       <c r="M46">
         <v>57627</v>
@@ -2311,34 +2311,34 @@
         <v>500</v>
       </c>
       <c r="C47">
-        <v>72.73</v>
+        <v>72.489999999999995</v>
       </c>
       <c r="D47">
-        <v>71.87</v>
+        <v>71.37</v>
       </c>
       <c r="E47">
-        <v>-339.26</v>
+        <v>-430.24</v>
       </c>
       <c r="F47">
-        <v>-429.72</v>
+        <v>-421.12</v>
       </c>
       <c r="G47">
-        <v>-7.89</v>
+        <v>-10.130000000000001</v>
       </c>
       <c r="H47">
-        <v>-10.74</v>
+        <v>-10.32</v>
       </c>
       <c r="I47">
         <v>-8594.35</v>
       </c>
       <c r="J47">
-        <v>1.8</v>
+        <v>-11.12</v>
       </c>
       <c r="K47">
-        <v>1.8</v>
+        <v>-18.420000000000002</v>
       </c>
       <c r="L47">
-        <v>-1.84</v>
+        <v>-6.76</v>
       </c>
       <c r="M47">
         <v>57038</v>
@@ -2352,34 +2352,34 @@
         <v>500</v>
       </c>
       <c r="C48">
-        <v>77.790000000000006</v>
+        <v>77.53</v>
       </c>
       <c r="D48">
-        <v>76.87</v>
+        <v>76.37</v>
       </c>
       <c r="E48">
-        <v>-411.13</v>
+        <v>-488.56</v>
       </c>
       <c r="F48">
-        <v>-515.66</v>
+        <v>-507.07</v>
       </c>
       <c r="G48">
-        <v>-11.59</v>
+        <v>-14.69</v>
       </c>
       <c r="H48">
-        <v>-15.47</v>
+        <v>-14.96</v>
       </c>
       <c r="I48">
         <v>-8594.35</v>
       </c>
       <c r="J48">
-        <v>1.8</v>
+        <v>-18.59</v>
       </c>
       <c r="K48">
-        <v>1.8</v>
+        <v>-3.79</v>
       </c>
       <c r="L48">
-        <v>-63.24</v>
+        <v>-73.47</v>
       </c>
       <c r="M48">
         <v>56385</v>
@@ -2387,40 +2387,40 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>502.3</v>
+        <v>510.82</v>
       </c>
       <c r="B49">
         <v>500</v>
       </c>
       <c r="C49">
-        <v>82.79</v>
+        <v>82.56</v>
       </c>
       <c r="D49">
-        <v>81.87</v>
+        <v>81.37</v>
       </c>
       <c r="E49">
-        <v>-504.09</v>
+        <v>-582.03</v>
       </c>
       <c r="F49">
-        <v>-601.6</v>
+        <v>-593.01</v>
       </c>
       <c r="G49">
-        <v>-16.13</v>
+        <v>-20.11</v>
       </c>
       <c r="H49">
-        <v>-21.06</v>
+        <v>-20.46</v>
       </c>
       <c r="I49">
         <v>-8594.35</v>
       </c>
       <c r="J49">
-        <v>1.8</v>
+        <v>-16.41</v>
       </c>
       <c r="K49">
-        <v>1.8</v>
+        <v>-7.63</v>
       </c>
       <c r="L49">
-        <v>-46.47</v>
+        <v>-78.97</v>
       </c>
       <c r="M49">
         <v>56683</v>
@@ -2428,40 +2428,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>502.3</v>
+        <v>493.79</v>
       </c>
       <c r="B50">
         <v>500</v>
       </c>
       <c r="C50">
-        <v>87.79</v>
+        <v>87.52</v>
       </c>
       <c r="D50">
-        <v>86.87</v>
+        <v>86.37</v>
       </c>
       <c r="E50">
-        <v>-587.42999999999995</v>
+        <v>-665.8</v>
       </c>
       <c r="F50">
-        <v>-687.55</v>
+        <v>-678.95</v>
       </c>
       <c r="G50">
-        <v>-21.54</v>
+        <v>-26.43</v>
       </c>
       <c r="H50">
-        <v>-27.5</v>
+        <v>-26.82</v>
       </c>
       <c r="I50">
         <v>-8594.35</v>
       </c>
       <c r="J50">
-        <v>1.8</v>
+        <v>-20.64</v>
       </c>
       <c r="K50">
-        <v>1.8</v>
+        <v>-10.119999999999999</v>
       </c>
       <c r="L50">
-        <v>-54.99</v>
+        <v>-37.97</v>
       </c>
       <c r="M50">
         <v>57599</v>
@@ -2469,40 +2469,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>510.82</v>
+        <v>502.3</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
       <c r="C51">
-        <v>92.84</v>
+        <v>92.56</v>
       </c>
       <c r="D51">
-        <v>86.87</v>
+        <v>90.37</v>
       </c>
       <c r="E51">
-        <v>-664.09</v>
+        <v>-707.52</v>
       </c>
       <c r="F51">
-        <v>-696.14</v>
+        <v>-687.55</v>
       </c>
       <c r="G51">
-        <v>-27.76</v>
+        <v>-33.42</v>
       </c>
       <c r="H51">
-        <v>-27.5</v>
+        <v>-32.31</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.8</v>
+        <v>8.98</v>
       </c>
       <c r="K51">
-        <v>1.8</v>
+        <v>-7</v>
       </c>
       <c r="L51">
-        <v>-83.35</v>
+        <v>8.66</v>
       </c>
       <c r="M51">
         <v>57712</v>
@@ -2510,40 +2510,40 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>502.3</v>
+        <v>493.79</v>
       </c>
       <c r="B52">
         <v>500</v>
       </c>
       <c r="C52">
-        <v>97.92</v>
+        <v>97.09</v>
       </c>
       <c r="D52">
-        <v>91.37</v>
+        <v>94.87</v>
       </c>
       <c r="E52">
-        <v>-674.16</v>
+        <v>-679.93</v>
       </c>
       <c r="F52">
         <v>-687.55</v>
       </c>
       <c r="G52">
-        <v>-34.54</v>
+        <v>-39.659999999999997</v>
       </c>
       <c r="H52">
-        <v>-33.69</v>
+        <v>-38.5</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1.8</v>
+        <v>-4.6100000000000003</v>
       </c>
       <c r="K52">
-        <v>1.8</v>
+        <v>-0.25</v>
       </c>
       <c r="L52">
-        <v>-16.510000000000002</v>
+        <v>19.89</v>
       </c>
       <c r="M52">
         <v>55902</v>
@@ -2551,40 +2551,40 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B53">
         <v>500</v>
       </c>
       <c r="C53">
-        <v>102.91</v>
+        <v>102.1</v>
       </c>
       <c r="D53">
-        <v>96.37</v>
+        <v>99.87</v>
       </c>
       <c r="E53">
-        <v>-684.57</v>
+        <v>-687.84</v>
       </c>
       <c r="F53">
         <v>-687.55</v>
       </c>
       <c r="G53">
-        <v>-41.34</v>
+        <v>-46.38</v>
       </c>
       <c r="H53">
-        <v>-40.57</v>
+        <v>-45.38</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>-8.9600000000000009</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>-4.72</v>
       </c>
       <c r="L53">
-        <v>7.56</v>
+        <v>-10.48</v>
       </c>
       <c r="M53">
         <v>57846</v>
@@ -2592,40 +2592,40 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B54">
         <v>500</v>
       </c>
       <c r="C54">
-        <v>107.94</v>
+        <v>107.14</v>
       </c>
       <c r="D54">
-        <v>101.37</v>
+        <v>104.87</v>
       </c>
       <c r="E54">
-        <v>-689.45</v>
+        <v>-677.86</v>
       </c>
       <c r="F54">
         <v>-687.55</v>
       </c>
       <c r="G54">
-        <v>-48.22</v>
+        <v>-53.27</v>
       </c>
       <c r="H54">
-        <v>-47.44</v>
+        <v>-52.25</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>-4.87</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L54">
-        <v>6.61</v>
+        <v>-7.48</v>
       </c>
       <c r="M54">
         <v>58096</v>
@@ -2639,34 +2639,34 @@
         <v>500</v>
       </c>
       <c r="C55">
-        <v>113.01</v>
+        <v>112.23</v>
       </c>
       <c r="D55">
-        <v>106.37</v>
+        <v>109.87</v>
       </c>
       <c r="E55">
-        <v>-685.49</v>
+        <v>-668.43</v>
       </c>
       <c r="F55">
         <v>-687.55</v>
       </c>
       <c r="G55">
-        <v>-55.12</v>
+        <v>-59.98</v>
       </c>
       <c r="H55">
-        <v>-54.32</v>
+        <v>-59.13</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>-20.170000000000002</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
       <c r="L55">
-        <v>-20.9</v>
+        <v>-25.59</v>
       </c>
       <c r="M55">
         <v>55982</v>
@@ -2674,40 +2674,40 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>519.33000000000004</v>
+        <v>502.3</v>
       </c>
       <c r="B56">
         <v>500</v>
       </c>
       <c r="C56">
-        <v>118.03</v>
+        <v>117.33</v>
       </c>
       <c r="D56">
-        <v>111.37</v>
+        <v>114.87</v>
       </c>
       <c r="E56">
-        <v>-699.65</v>
+        <v>-673.89</v>
       </c>
       <c r="F56">
         <v>-687.55</v>
       </c>
       <c r="G56">
-        <v>-62.01</v>
+        <v>-66.69</v>
       </c>
       <c r="H56">
-        <v>-61.19</v>
+        <v>-66</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>-21.66</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>-9.61</v>
       </c>
       <c r="L56">
-        <v>-72.680000000000007</v>
+        <v>-30.18</v>
       </c>
       <c r="M56">
         <v>56625</v>
@@ -2721,34 +2721,34 @@
         <v>500</v>
       </c>
       <c r="C57">
-        <v>123.03</v>
+        <v>122.31</v>
       </c>
       <c r="D57">
-        <v>116.37</v>
+        <v>119.87</v>
       </c>
       <c r="E57">
-        <v>-704.35</v>
+        <v>-690.86</v>
       </c>
       <c r="F57">
         <v>-687.55</v>
       </c>
       <c r="G57">
-        <v>-69.040000000000006</v>
+        <v>-73.56</v>
       </c>
       <c r="H57">
-        <v>-68.069999999999993</v>
+        <v>-72.88</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="L57">
-        <v>-47.06</v>
+        <v>-28.1</v>
       </c>
       <c r="M57">
         <v>58008</v>
@@ -2756,40 +2756,40 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>510.82</v>
+        <v>493.79</v>
       </c>
       <c r="B58">
         <v>500</v>
       </c>
       <c r="C58">
-        <v>128.12</v>
+        <v>127.32</v>
       </c>
       <c r="D58">
-        <v>121.37</v>
+        <v>124.87</v>
       </c>
       <c r="E58">
-        <v>-701.51</v>
+        <v>-670.01</v>
       </c>
       <c r="F58">
         <v>-687.55</v>
       </c>
       <c r="G58">
-        <v>-76.09</v>
+        <v>-80.38</v>
       </c>
       <c r="H58">
-        <v>-74.94</v>
+        <v>-79.760000000000005</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>-13.43</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>-0.92</v>
       </c>
       <c r="L58">
-        <v>-49.8</v>
+        <v>4.07</v>
       </c>
       <c r="M58">
         <v>56610</v>
@@ -2797,40 +2797,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>493.79</v>
+        <v>519.33000000000004</v>
       </c>
       <c r="B59">
         <v>500</v>
       </c>
       <c r="C59">
-        <v>133.19</v>
+        <v>132.36000000000001</v>
       </c>
       <c r="D59">
-        <v>126.37</v>
+        <v>129.87</v>
       </c>
       <c r="E59">
-        <v>-692.41</v>
+        <v>-674.93</v>
       </c>
       <c r="F59">
         <v>-687.55</v>
       </c>
       <c r="G59">
-        <v>-83.05</v>
+        <v>-87.11</v>
       </c>
       <c r="H59">
-        <v>-81.819999999999993</v>
+        <v>-86.63</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>-13.9</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>-5.42</v>
       </c>
       <c r="L59">
-        <v>-0.7</v>
+        <v>-74.319999999999993</v>
       </c>
       <c r="M59">
         <v>56373</v>
@@ -2838,40 +2838,40 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>519.33000000000004</v>
+        <v>493.79</v>
       </c>
       <c r="B60">
         <v>500</v>
       </c>
       <c r="C60">
-        <v>138.24</v>
+        <v>137.38999999999999</v>
       </c>
       <c r="D60">
-        <v>131.37</v>
+        <v>134.87</v>
       </c>
       <c r="E60">
-        <v>-701.45</v>
+        <v>-685.73</v>
       </c>
       <c r="F60">
         <v>-687.55</v>
       </c>
       <c r="G60">
-        <v>-90.04</v>
+        <v>-93.89</v>
       </c>
       <c r="H60">
-        <v>-88.69</v>
+        <v>-93.51</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>-10.86</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>-8.18</v>
       </c>
       <c r="L60">
-        <v>-78.78</v>
+        <v>4.34</v>
       </c>
       <c r="M60">
         <v>57109</v>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>493.79</v>
+        <v>510.82</v>
       </c>
       <c r="B61">
         <v>500</v>
       </c>
       <c r="C61">
-        <v>143.25</v>
+        <v>142.43</v>
       </c>
       <c r="D61">
-        <v>136.37</v>
+        <v>139.87</v>
       </c>
       <c r="E61">
-        <v>-698.03</v>
+        <v>-680.45</v>
       </c>
       <c r="F61">
         <v>-687.55</v>
       </c>
       <c r="G61">
-        <v>-97.02</v>
+        <v>-100.77</v>
       </c>
       <c r="H61">
-        <v>-95.57</v>
+        <v>-100.38</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>-12.29</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>-8.08</v>
       </c>
       <c r="L61">
-        <v>-2.59</v>
+        <v>-49.33</v>
       </c>
       <c r="M61">
         <v>60770</v>
@@ -2926,34 +2926,34 @@
         <v>500</v>
       </c>
       <c r="C62">
-        <v>148.29</v>
+        <v>147.47</v>
       </c>
       <c r="D62">
-        <v>141.37</v>
+        <v>144.87</v>
       </c>
       <c r="E62">
-        <v>-688.48</v>
+        <v>-673.22</v>
       </c>
       <c r="F62">
         <v>-687.55</v>
       </c>
       <c r="G62">
-        <v>-103.94</v>
+        <v>-107.51</v>
       </c>
       <c r="H62">
-        <v>-102.44</v>
+        <v>-107.26</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>8594.35</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>-23.43</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>-12.06</v>
       </c>
       <c r="L62">
-        <v>21.74</v>
+        <v>14.05</v>
       </c>
       <c r="M62">
         <v>362</v>
@@ -2961,40 +2961,40 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>485.27</v>
+        <v>502.3</v>
       </c>
       <c r="B63">
         <v>500</v>
       </c>
       <c r="C63">
-        <v>153.24</v>
+        <v>152.49</v>
       </c>
       <c r="D63">
-        <v>146.37</v>
+        <v>149.37</v>
       </c>
       <c r="E63">
-        <v>-701.66</v>
+        <v>-659.58</v>
       </c>
       <c r="F63">
-        <v>-661.76</v>
+        <v>-610.20000000000005</v>
       </c>
       <c r="G63">
-        <v>-110.88</v>
+        <v>-114.24</v>
       </c>
       <c r="H63">
-        <v>-109.52</v>
+        <v>-113.34</v>
       </c>
       <c r="I63">
         <v>8594.35</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>36.26</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>-4.83</v>
       </c>
       <c r="L63">
-        <v>68.650000000000006</v>
+        <v>72.44</v>
       </c>
       <c r="M63">
         <v>2865</v>
@@ -3002,40 +3002,40 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>519.33000000000004</v>
+        <v>502.3</v>
       </c>
       <c r="B64">
         <v>500</v>
       </c>
       <c r="C64">
-        <v>158.29</v>
+        <v>157.46</v>
       </c>
       <c r="D64">
-        <v>151.37</v>
+        <v>154.37</v>
       </c>
       <c r="E64">
-        <v>-652.95000000000005</v>
+        <v>-485.14</v>
       </c>
       <c r="F64">
-        <v>-575.82000000000005</v>
+        <v>-524.26</v>
       </c>
       <c r="G64">
-        <v>-117.74</v>
+        <v>-120.02</v>
       </c>
       <c r="H64">
-        <v>-115.71</v>
+        <v>-119.01</v>
       </c>
       <c r="I64">
         <v>8594.35</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>-28.51</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="L64">
-        <v>-26.38</v>
+        <v>16.13</v>
       </c>
       <c r="M64">
         <v>4855</v>
@@ -3043,40 +3043,40 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>510.82</v>
+        <v>527.84</v>
       </c>
       <c r="B65">
         <v>500</v>
       </c>
       <c r="C65">
-        <v>163.30000000000001</v>
+        <v>162.44</v>
       </c>
       <c r="D65">
-        <v>156.37</v>
+        <v>159.37</v>
       </c>
       <c r="E65">
-        <v>-570.19000000000005</v>
+        <v>-478.73</v>
       </c>
       <c r="F65">
-        <v>-489.88</v>
+        <v>-438.31</v>
       </c>
       <c r="G65">
-        <v>-123.73</v>
+        <v>-124.84</v>
       </c>
       <c r="H65">
-        <v>-121.04</v>
+        <v>-123.82</v>
       </c>
       <c r="I65">
         <v>8594.35</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="L65">
-        <v>7.57</v>
+        <v>15.08</v>
       </c>
       <c r="M65">
         <v>4644</v>
@@ -3084,40 +3084,40 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>485.27</v>
+        <v>519.33000000000004</v>
       </c>
       <c r="B66">
         <v>500</v>
       </c>
       <c r="C66">
-        <v>168.26</v>
+        <v>167.35</v>
       </c>
       <c r="D66">
-        <v>161.37</v>
+        <v>164.37</v>
       </c>
       <c r="E66">
-        <v>-496.46</v>
+        <v>-288.02</v>
       </c>
       <c r="F66">
-        <v>-403.93</v>
+        <v>-352.37</v>
       </c>
       <c r="G66">
-        <v>-129.07</v>
+        <v>-129.02000000000001</v>
       </c>
       <c r="H66">
-        <v>-125.51</v>
+        <v>-127.78</v>
       </c>
       <c r="I66">
         <v>8594.35</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>-25.41</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>12.19</v>
       </c>
       <c r="L66">
-        <v>93.89</v>
+        <v>-13.32</v>
       </c>
       <c r="M66">
         <v>4532</v>
@@ -3125,40 +3125,40 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>476.76</v>
+        <v>485.27</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67">
-        <v>173.17</v>
+        <v>172.32</v>
       </c>
       <c r="D67">
-        <v>166.37</v>
+        <v>169.37</v>
       </c>
       <c r="E67">
-        <v>-434.45</v>
+        <v>-286.13</v>
       </c>
       <c r="F67">
-        <v>-317.99</v>
+        <v>-266.43</v>
       </c>
       <c r="G67">
-        <v>-133.74</v>
+        <v>-131.88</v>
       </c>
       <c r="H67">
-        <v>-129.12</v>
+        <v>-130.87</v>
       </c>
       <c r="I67">
         <v>8594.35</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>20.49</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="L67">
-        <v>130.66</v>
+        <v>142.84</v>
       </c>
       <c r="M67">
         <v>4942</v>
@@ -3172,34 +3172,34 @@
         <v>500</v>
       </c>
       <c r="C68">
-        <v>178.11</v>
+        <v>177.29</v>
       </c>
       <c r="D68">
-        <v>171.37</v>
+        <v>174.37</v>
       </c>
       <c r="E68">
-        <v>-362.7</v>
+        <v>-138.94999999999999</v>
       </c>
       <c r="F68">
-        <v>-232.05</v>
+        <v>-180.48</v>
       </c>
       <c r="G68">
-        <v>-137.81</v>
+        <v>-134.4</v>
       </c>
       <c r="H68">
-        <v>-131.87</v>
+        <v>-133.1</v>
       </c>
       <c r="I68">
         <v>8594.35</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>7.51</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="L68">
-        <v>90.05</v>
+        <v>113.3</v>
       </c>
       <c r="M68">
         <v>4881</v>
@@ -3207,40 +3207,40 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B69">
         <v>500</v>
       </c>
       <c r="C69">
-        <v>183.1</v>
+        <v>182.28</v>
       </c>
       <c r="D69">
-        <v>176.37</v>
+        <v>179.37</v>
       </c>
       <c r="E69">
-        <v>-284.94</v>
+        <v>-107.82</v>
       </c>
       <c r="F69">
-        <v>-146.1</v>
+        <v>-94.54</v>
       </c>
       <c r="G69">
-        <v>-141.06</v>
+        <v>-135.53</v>
       </c>
       <c r="H69">
-        <v>-133.76</v>
+        <v>-134.47999999999999</v>
       </c>
       <c r="I69">
         <v>8594.35</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>10.39</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="L69">
-        <v>98.97</v>
+        <v>98.01</v>
       </c>
       <c r="M69">
         <v>4755</v>
@@ -3248,40 +3248,40 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>510.82</v>
+        <v>519.33000000000004</v>
       </c>
       <c r="B70">
         <v>500</v>
       </c>
       <c r="C70">
-        <v>188.11</v>
+        <v>187.2</v>
       </c>
       <c r="D70">
-        <v>187.37</v>
+        <v>186.37</v>
       </c>
       <c r="E70">
-        <v>-189.21</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>-143.5</v>
+        <v>-136.11000000000001</v>
       </c>
       <c r="H70">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>33.4</v>
+        <v>4.01</v>
       </c>
       <c r="K70">
-        <v>13.31</v>
+        <v>5.62</v>
       </c>
       <c r="L70">
-        <v>86.24</v>
+        <v>8.56</v>
       </c>
       <c r="M70">
         <v>4862</v>
@@ -3289,40 +3289,40 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>502.3</v>
+        <v>510.82</v>
       </c>
       <c r="B71">
         <v>500</v>
       </c>
       <c r="C71">
-        <v>193.07</v>
+        <v>192.22</v>
       </c>
       <c r="D71">
-        <v>192.37</v>
+        <v>191.37</v>
       </c>
       <c r="E71">
-        <v>-55.33</v>
+        <v>7.45</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>-144.80000000000001</v>
+        <v>-136.03</v>
       </c>
       <c r="H71">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>33.26</v>
+        <v>-0.82</v>
       </c>
       <c r="K71">
-        <v>26.32</v>
+        <v>-0.35</v>
       </c>
       <c r="L71">
-        <v>126.69</v>
+        <v>28.5</v>
       </c>
       <c r="M71">
         <v>5307</v>
@@ -3336,34 +3336,34 @@
         <v>500</v>
       </c>
       <c r="C72">
-        <v>197.99</v>
+        <v>197.22</v>
       </c>
       <c r="D72">
-        <v>197.37</v>
+        <v>196.37</v>
       </c>
       <c r="E72">
-        <v>64.510000000000005</v>
+        <v>4.91</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>-144.87</v>
+        <v>-135.97</v>
       </c>
       <c r="H72">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>21.8</v>
+        <v>-1.48</v>
       </c>
       <c r="K72">
-        <v>27.06</v>
+        <v>-0.98</v>
       </c>
       <c r="L72">
-        <v>154.04</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="M72">
         <v>4765</v>
@@ -3377,34 +3377,34 @@
         <v>500</v>
       </c>
       <c r="C73">
-        <v>202.96</v>
+        <v>202.24</v>
       </c>
       <c r="D73">
-        <v>202.37</v>
+        <v>201.37</v>
       </c>
       <c r="E73">
-        <v>153.81</v>
+        <v>20.54</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>-143.85</v>
+        <v>-135.91</v>
       </c>
       <c r="H73">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1.79</v>
+        <v>-3.15</v>
       </c>
       <c r="K73">
-        <v>16.829999999999998</v>
+        <v>-1.64</v>
       </c>
       <c r="L73">
-        <v>167.46</v>
+        <v>102.04</v>
       </c>
       <c r="M73">
         <v>4534</v>
@@ -3412,40 +3412,40 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B74">
         <v>500</v>
       </c>
       <c r="C74">
-        <v>207.97</v>
+        <v>207.26</v>
       </c>
       <c r="D74">
-        <v>207.37</v>
+        <v>206.37</v>
       </c>
       <c r="E74">
-        <v>211.7</v>
+        <v>8.73</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>-142.06</v>
+        <v>-135.74</v>
       </c>
       <c r="H74">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>-21.94</v>
+        <v>-4.3499999999999996</v>
       </c>
       <c r="K74">
-        <v>-1.1200000000000001</v>
+        <v>-3.31</v>
       </c>
       <c r="L74">
-        <v>121.27</v>
+        <v>48.9</v>
       </c>
       <c r="M74">
         <v>4562</v>
@@ -3459,34 +3459,34 @@
         <v>500</v>
       </c>
       <c r="C75">
-        <v>212.94</v>
+        <v>212.26</v>
       </c>
       <c r="D75">
-        <v>212.37</v>
+        <v>211.37</v>
       </c>
       <c r="E75">
-        <v>235.26</v>
+        <v>4.18</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>-139.81</v>
+        <v>-135.66</v>
       </c>
       <c r="H75">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>-47.16</v>
+        <v>-4.53</v>
       </c>
       <c r="K75">
-        <v>-23.58</v>
+        <v>-4.09</v>
       </c>
       <c r="L75">
-        <v>122.26</v>
+        <v>99.81</v>
       </c>
       <c r="M75">
         <v>4936</v>
@@ -3494,40 +3494,40 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>510.82</v>
+        <v>502.3</v>
       </c>
       <c r="B76">
         <v>500</v>
       </c>
       <c r="C76">
-        <v>217.97</v>
+        <v>217.25</v>
       </c>
       <c r="D76">
-        <v>217.37</v>
+        <v>216.37</v>
       </c>
       <c r="E76">
-        <v>235.57</v>
+        <v>-1.68</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>-137.43</v>
+        <v>-135.63</v>
       </c>
       <c r="H76">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>-71.09</v>
+        <v>-4.3899999999999997</v>
       </c>
       <c r="K76">
-        <v>-47.4</v>
+        <v>-4.3899999999999997</v>
       </c>
       <c r="L76">
-        <v>17.829999999999998</v>
+        <v>49.16</v>
       </c>
       <c r="M76">
         <v>4776</v>
@@ -3535,40 +3535,40 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B77">
         <v>500</v>
       </c>
       <c r="C77">
-        <v>222.93</v>
+        <v>222.26</v>
       </c>
       <c r="D77">
-        <v>222.37</v>
+        <v>221.37</v>
       </c>
       <c r="E77">
-        <v>171.75</v>
+        <v>-3.72</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>-135.21</v>
+        <v>-135.66999999999999</v>
       </c>
       <c r="H77">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>-88.32</v>
+        <v>0.92</v>
       </c>
       <c r="K77">
-        <v>-69.58</v>
+        <v>0.39</v>
       </c>
       <c r="L77">
-        <v>48.28</v>
+        <v>54.08</v>
       </c>
       <c r="M77">
         <v>4919</v>
@@ -3582,34 +3582,34 @@
         <v>500</v>
       </c>
       <c r="C78">
-        <v>227.93</v>
+        <v>227.24</v>
       </c>
       <c r="D78">
-        <v>227.37</v>
+        <v>226.37</v>
       </c>
       <c r="E78">
-        <v>94.88</v>
+        <v>21.58</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>-133.77000000000001</v>
+        <v>-135.56</v>
       </c>
       <c r="H78">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>-95.48</v>
+        <v>-3.41</v>
       </c>
       <c r="K78">
-        <v>-83.96</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="L78">
-        <v>-46.11</v>
+        <v>50.48</v>
       </c>
       <c r="M78">
         <v>4865</v>
@@ -3617,40 +3617,40 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>493.79</v>
+        <v>485.27</v>
       </c>
       <c r="B79">
         <v>500</v>
       </c>
       <c r="C79">
-        <v>232.95</v>
+        <v>232.21</v>
       </c>
       <c r="D79">
-        <v>232.37</v>
+        <v>231.37</v>
       </c>
       <c r="E79">
-        <v>-70.31</v>
+        <v>10.01</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>-133.69999999999999</v>
+        <v>-135.41</v>
       </c>
       <c r="H79">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>-78.28</v>
+        <v>-3.59</v>
       </c>
       <c r="K79">
-        <v>-84.63</v>
+        <v>-2.62</v>
       </c>
       <c r="L79">
-        <v>-4.95</v>
+        <v>102.08</v>
       </c>
       <c r="M79">
         <v>4912</v>
@@ -3658,40 +3658,40 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>485.27</v>
+        <v>510.82</v>
       </c>
       <c r="B80">
         <v>500</v>
       </c>
       <c r="C80">
-        <v>237.92</v>
+        <v>237.21</v>
       </c>
       <c r="D80">
-        <v>237.37</v>
+        <v>236.37</v>
       </c>
       <c r="E80">
-        <v>-178.1</v>
+        <v>15.14</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>-134.86000000000001</v>
+        <v>-135.27000000000001</v>
       </c>
       <c r="H80">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>-55.69</v>
+        <v>-5.42</v>
       </c>
       <c r="K80">
-        <v>-73.06</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="L80">
-        <v>48.37</v>
+        <v>23.56</v>
       </c>
       <c r="M80">
         <v>4809</v>
@@ -3705,34 +3705,34 @@
         <v>500</v>
       </c>
       <c r="C81">
-        <v>242.89</v>
+        <v>242.2</v>
       </c>
       <c r="D81">
-        <v>242.37</v>
+        <v>241.37</v>
       </c>
       <c r="E81">
-        <v>-219.94</v>
+        <v>4.09</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>-136.78</v>
+        <v>-135.19</v>
       </c>
       <c r="H81">
-        <v>-134.27000000000001</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>-32.6</v>
+        <v>-5.22</v>
       </c>
       <c r="K81">
-        <v>-53.91</v>
+        <v>-4.8099999999999996</v>
       </c>
       <c r="L81">
-        <v>28.58</v>
+        <v>49.31</v>
       </c>
       <c r="M81">
         <v>5185</v>
@@ -3740,40 +3740,40 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>493.79</v>
+        <v>485.27</v>
       </c>
       <c r="B82">
         <v>500</v>
       </c>
       <c r="C82">
-        <v>0.49</v>
+        <v>247.15</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>246.37</v>
       </c>
       <c r="E82">
-        <v>-210.69</v>
+        <v>-3.6</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>-0.21</v>
+        <v>-135.19</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>-134.88999999999999</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>-0.36</v>
+        <v>0.82</v>
       </c>
       <c r="K82">
-        <v>-32.159999999999997</v>
+        <v>0.21</v>
       </c>
       <c r="L82">
-        <v>77.680000000000007</v>
+        <v>103.22</v>
       </c>
       <c r="M82">
         <v>4888</v>
@@ -3781,25 +3781,25 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>519.33000000000004</v>
+        <v>493.79</v>
       </c>
       <c r="B83">
         <v>500</v>
       </c>
       <c r="C83">
-        <v>5.57</v>
+        <v>4.47</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>-161.87</v>
+        <v>1.86</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>-2.21</v>
+        <v>-0.02</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3808,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>13.46</v>
+        <v>0.1</v>
       </c>
       <c r="K83">
-        <v>-12.18</v>
+        <v>0.22</v>
       </c>
       <c r="L83">
-        <v>19.97</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="M83">
         <v>4774</v>
@@ -3822,25 +3822,25 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>485.27</v>
+        <v>493.79</v>
       </c>
       <c r="B84">
         <v>500</v>
       </c>
       <c r="C84">
-        <v>10.57</v>
+        <v>9.44</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>-107.27</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>-3.52</v>
+        <v>-0.08</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3849,13 +3849,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>17.059999999999999</v>
+        <v>-0.21</v>
       </c>
       <c r="K84">
-        <v>0.96</v>
+        <v>-0.01</v>
       </c>
       <c r="L84">
-        <v>132.74</v>
+        <v>78.19</v>
       </c>
       <c r="M84">
         <v>4629</v>
@@ -3863,25 +3863,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>519.33000000000004</v>
+        <v>493.79</v>
       </c>
       <c r="B85">
         <v>500</v>
       </c>
       <c r="C85">
-        <v>15.55</v>
+        <v>14.47</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>-34.450000000000003</v>
+        <v>-4.3899999999999997</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>-4.2300000000000004</v>
+        <v>-0.11</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3890,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>13.39</v>
+        <v>1.01</v>
       </c>
       <c r="K85">
-        <v>8.0399999999999991</v>
+        <v>0.37</v>
       </c>
       <c r="L85">
-        <v>33.6</v>
+        <v>78.5</v>
       </c>
       <c r="M85">
         <v>4619</v>
@@ -3904,25 +3904,25 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>493.79</v>
+        <v>502.3</v>
       </c>
       <c r="B86">
         <v>500</v>
       </c>
       <c r="C86">
-        <v>20.49</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>18.190000000000001</v>
+        <v>-6.2</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>-4.42</v>
+        <v>-0.17</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3931,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>7.84</v>
+        <v>1.77</v>
       </c>
       <c r="K86">
-        <v>9.89</v>
+        <v>0.9</v>
       </c>
       <c r="L86">
-        <v>111.22</v>
+        <v>53.34</v>
       </c>
       <c r="M86">
         <v>4739</v>
@@ -3945,25 +3945,25 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>476.76</v>
+        <v>510.82</v>
       </c>
       <c r="B87">
-        <v>485.6</v>
+        <v>489.2</v>
       </c>
       <c r="C87">
-        <v>25.4</v>
+        <v>24.45</v>
       </c>
       <c r="D87">
-        <v>24.5</v>
+        <v>23.52</v>
       </c>
       <c r="E87">
-        <v>55.42</v>
+        <v>-6.62</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>-4.09</v>
+        <v>-0.23</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3972,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>-0.93</v>
+        <v>2.52</v>
       </c>
       <c r="K87">
-        <v>6.62</v>
+        <v>1.56</v>
       </c>
       <c r="L87">
-        <v>88.29</v>
+        <v>-29.55</v>
       </c>
       <c r="M87">
         <v>4696</v>
@@ -3986,25 +3986,25 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>459.73</v>
+        <v>476.76</v>
       </c>
       <c r="B88">
-        <v>467.6</v>
+        <v>471.2</v>
       </c>
       <c r="C88">
-        <v>30.14</v>
+        <v>29.23</v>
       </c>
       <c r="D88">
-        <v>29.26</v>
+        <v>28.33</v>
       </c>
       <c r="E88">
-        <v>88.23</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>-3.42</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4013,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>-12.55</v>
+        <v>-0.8</v>
       </c>
       <c r="K88">
-        <v>-0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="L88">
-        <v>72.459999999999994</v>
+        <v>52.77</v>
       </c>
       <c r="M88">
         <v>4681</v>
@@ -4027,25 +4027,25 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>451.22</v>
+        <v>468.25</v>
       </c>
       <c r="B89">
-        <v>449.6</v>
+        <v>453.2</v>
       </c>
       <c r="C89">
-        <v>34.68</v>
+        <v>33.92</v>
       </c>
       <c r="D89">
-        <v>33.85</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="E89">
-        <v>99.79</v>
+        <v>5.89</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>-2.5</v>
+        <v>-0.19</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4054,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>-23.61</v>
+        <v>-2.02</v>
       </c>
       <c r="K89">
-        <v>-9.2899999999999991</v>
+        <v>-0.88</v>
       </c>
       <c r="L89">
-        <v>30.67</v>
+        <v>16.66</v>
       </c>
       <c r="M89">
         <v>4818</v>
@@ -4068,25 +4068,25 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>442.71</v>
+        <v>434.19</v>
       </c>
       <c r="B90">
-        <v>431.6</v>
+        <v>435.2</v>
       </c>
       <c r="C90">
-        <v>39.03</v>
+        <v>38.43</v>
       </c>
       <c r="D90">
-        <v>38.26</v>
+        <v>37.39</v>
       </c>
       <c r="E90">
-        <v>92.22</v>
+        <v>-16.63</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>-1.53</v>
+        <v>-0.26</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4095,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>-32.96</v>
+        <v>3.66</v>
       </c>
       <c r="K90">
-        <v>-19.03</v>
+        <v>0.76</v>
       </c>
       <c r="L90">
-        <v>-9.98</v>
+        <v>64.17</v>
       </c>
       <c r="M90">
         <v>5278</v>
@@ -4109,25 +4109,25 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>425.68</v>
+        <v>417.17</v>
       </c>
       <c r="B91">
-        <v>413.6</v>
+        <v>417.2</v>
       </c>
       <c r="C91">
-        <v>43.27</v>
+        <v>42.76</v>
       </c>
       <c r="D91">
-        <v>42.48</v>
+        <v>41.65</v>
       </c>
       <c r="E91">
-        <v>63.05</v>
+        <v>9.77</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>-0.71</v>
+        <v>-0.34</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4136,13 +4136,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>-36.869999999999997</v>
+        <v>-1.54</v>
       </c>
       <c r="K91">
-        <v>-27.22</v>
+        <v>-0.16</v>
       </c>
       <c r="L91">
-        <v>-22.59</v>
+        <v>50</v>
       </c>
       <c r="M91">
         <v>4999</v>
@@ -4150,25 +4150,25 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>391.63</v>
+        <v>417.17</v>
       </c>
       <c r="B92">
-        <v>395.6</v>
+        <v>399.2</v>
       </c>
       <c r="C92">
-        <v>47.33</v>
+        <v>46.93</v>
       </c>
       <c r="D92">
-        <v>46.53</v>
+        <v>45.73</v>
       </c>
       <c r="E92">
-        <v>43.64</v>
+        <v>-4.79</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>-0.06</v>
+        <v>-0.36</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>-41.08</v>
+        <v>1.64</v>
       </c>
       <c r="K92">
-        <v>-33.65</v>
+        <v>0.42</v>
       </c>
       <c r="L92">
-        <v>-11.28</v>
+        <v>-0.18</v>
       </c>
       <c r="M92">
         <v>4966</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>408.65</v>
+        <v>383.11</v>
       </c>
       <c r="B93">
-        <v>377.6</v>
+        <v>381.2</v>
       </c>
       <c r="C93">
-        <v>51.29</v>
+        <v>50.9</v>
       </c>
       <c r="D93">
-        <v>50.39</v>
+        <v>49.64</v>
       </c>
       <c r="E93">
-        <v>-10.56</v>
+        <v>6.35</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.09</v>
+        <v>-0.34</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4218,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1.0900000000000001</v>
+        <v>-1.06</v>
       </c>
       <c r="K93">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="L93">
-        <v>-41.26</v>
+        <v>38.74</v>
       </c>
       <c r="M93">
         <v>4925</v>
@@ -4232,25 +4232,25 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>366.08</v>
+        <v>383.11</v>
       </c>
       <c r="B94">
-        <v>359.6</v>
+        <v>363.2</v>
       </c>
       <c r="C94">
-        <v>55</v>
+        <v>54.68</v>
       </c>
       <c r="D94">
-        <v>54.08</v>
+        <v>53.36</v>
       </c>
       <c r="E94">
-        <v>-29.3</v>
+        <v>11.35</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>-0.16</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4259,13 +4259,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>6.93</v>
+        <v>-2.11</v>
       </c>
       <c r="K94">
-        <v>2.62</v>
+        <v>-0.82</v>
       </c>
       <c r="L94">
-        <v>34.26</v>
+        <v>-22.33</v>
       </c>
       <c r="M94">
         <v>4967</v>
@@ -4273,25 +4273,25 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>340.54</v>
+        <v>366.08</v>
       </c>
       <c r="B95">
-        <v>341.6</v>
+        <v>345.2</v>
       </c>
       <c r="C95">
-        <v>58.52</v>
+        <v>58.28</v>
       </c>
       <c r="D95">
-        <v>57.59</v>
+        <v>56.9</v>
       </c>
       <c r="E95">
-        <v>-24.63</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>-0.47</v>
+        <v>-0.23</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4300,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>9.65</v>
+        <v>0.44</v>
       </c>
       <c r="K95">
-        <v>5.62</v>
+        <v>0.05</v>
       </c>
       <c r="L95">
-        <v>58.58</v>
+        <v>-19.88</v>
       </c>
       <c r="M95">
         <v>4960</v>
@@ -4314,25 +4314,25 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>340.54</v>
+        <v>323.52</v>
       </c>
       <c r="B96">
-        <v>323.60000000000002</v>
+        <v>327.2</v>
       </c>
       <c r="C96">
-        <v>61.9</v>
+        <v>61.67</v>
       </c>
       <c r="D96">
-        <v>60.91</v>
+        <v>60.26</v>
       </c>
       <c r="E96">
-        <v>10.01</v>
+        <v>-0.67</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>-0.53</v>
+        <v>-0.2</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4341,13 +4341,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>5.13</v>
+        <v>-0.37</v>
       </c>
       <c r="K96">
-        <v>6.26</v>
+        <v>-0.37</v>
       </c>
       <c r="L96">
-        <v>-5.0199999999999996</v>
+        <v>47.85</v>
       </c>
       <c r="M96">
         <v>4920</v>
@@ -4355,25 +4355,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>306.49</v>
+        <v>297.98</v>
       </c>
       <c r="B97">
-        <v>305.60000000000002</v>
+        <v>309.2</v>
       </c>
       <c r="C97">
-        <v>65.06</v>
+        <v>64.88</v>
       </c>
       <c r="D97">
-        <v>64.06</v>
+        <v>63.44</v>
       </c>
       <c r="E97">
-        <v>13.55</v>
+        <v>1.53</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>-0.43</v>
+        <v>-0.21</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4382,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>3.46</v>
+        <v>-0.53</v>
       </c>
       <c r="K97">
-        <v>5.24</v>
+        <v>-0.1</v>
       </c>
       <c r="L97">
-        <v>37.32</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="M97">
         <v>4875</v>
@@ -4396,25 +4396,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>263.92</v>
+        <v>306.49</v>
       </c>
       <c r="B98">
-        <v>287.60000000000002</v>
+        <v>291.2</v>
       </c>
       <c r="C98">
-        <v>68.02</v>
+        <v>67.91</v>
       </c>
       <c r="D98">
-        <v>67.02</v>
+        <v>66.45</v>
       </c>
       <c r="E98">
-        <v>28.23</v>
+        <v>-0.92</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>-0.19</v>
+        <v>-0.24</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4423,13 +4423,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>-1.48</v>
+        <v>1.03</v>
       </c>
       <c r="K98">
-        <v>2.85</v>
+        <v>0.35</v>
       </c>
       <c r="L98">
-        <v>103.94</v>
+        <v>-14.16</v>
       </c>
       <c r="M98">
         <v>4882</v>
@@ -4440,22 +4440,22 @@
         <v>280.95</v>
       </c>
       <c r="B99">
-        <v>269.60000000000002</v>
+        <v>273.2</v>
       </c>
       <c r="C99">
-        <v>70.89</v>
+        <v>70.739999999999995</v>
       </c>
       <c r="D99">
-        <v>69.81</v>
+        <v>69.27</v>
       </c>
       <c r="E99">
-        <v>19.32</v>
+        <v>-2.84</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>-0.02</v>
+        <v>-0.23</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4464,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>-0.69</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K99">
-        <v>1.1499999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="L99">
-        <v>-8.06</v>
+        <v>4.67</v>
       </c>
       <c r="M99">
         <v>4869</v>
@@ -4478,25 +4478,25 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>272.43</v>
+        <v>246.89</v>
       </c>
       <c r="B100">
-        <v>251.6</v>
+        <v>255.2</v>
       </c>
       <c r="C100">
-        <v>73.540000000000006</v>
+        <v>73.39</v>
       </c>
       <c r="D100">
-        <v>72.42</v>
+        <v>71.91</v>
       </c>
       <c r="E100">
-        <v>6.1</v>
+        <v>-0.89</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.16</v>
+        <v>-0.25</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4505,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>-1.51</v>
+        <v>-0.27</v>
       </c>
       <c r="K100">
-        <v>-0.61</v>
+        <v>-0.09</v>
       </c>
       <c r="L100">
-        <v>-39.619999999999997</v>
+        <v>49.32</v>
       </c>
       <c r="M100">
         <v>4848</v>
@@ -4519,25 +4519,25 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>229.87</v>
+        <v>246.89</v>
       </c>
       <c r="B101">
-        <v>233.6</v>
+        <v>237.2</v>
       </c>
       <c r="C101">
-        <v>75.989999999999995</v>
+        <v>75.89</v>
       </c>
       <c r="D101">
-        <v>74.84</v>
+        <v>74.37</v>
       </c>
       <c r="E101">
-        <v>15.41</v>
+        <v>-2.99</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.28999999999999998</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4546,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>-4.9000000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="K101">
-        <v>-1.95</v>
+        <v>0.4</v>
       </c>
       <c r="L101">
-        <v>25.48</v>
+        <v>-8.76</v>
       </c>
       <c r="M101">
         <v>4851</v>
@@ -4560,25 +4560,25 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>212.84</v>
+        <v>195.81</v>
       </c>
       <c r="B102">
-        <v>215.6</v>
+        <v>219.2</v>
       </c>
       <c r="C102">
-        <v>78.239999999999995</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="D102">
-        <v>77.09</v>
+        <v>76.650000000000006</v>
       </c>
       <c r="E102">
-        <v>5.31</v>
+        <v>-4.88</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.36</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4587,13 +4587,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>-3.23</v>
+        <v>0.42</v>
       </c>
       <c r="K102">
-        <v>-2.61</v>
+        <v>-0.09</v>
       </c>
       <c r="L102">
-        <v>21.72</v>
+        <v>88.45</v>
       </c>
       <c r="M102">
         <v>4849</v>
@@ -4604,22 +4604,22 @@
         <v>187.3</v>
       </c>
       <c r="B103">
-        <v>197.6</v>
+        <v>201.2</v>
       </c>
       <c r="C103">
-        <v>80.33</v>
+        <v>80.27</v>
       </c>
       <c r="D103">
-        <v>79.150000000000006</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="E103">
-        <v>13.52</v>
+        <v>-4.21</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.48</v>
+        <v>-0.32</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4628,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>-5.82</v>
+        <v>0.76</v>
       </c>
       <c r="K103">
-        <v>-3.79</v>
+        <v>0.1</v>
       </c>
       <c r="L103">
-        <v>36.090000000000003</v>
+        <v>55.84</v>
       </c>
       <c r="M103">
         <v>4844</v>
@@ -4645,22 +4645,22 @@
         <v>178.79</v>
       </c>
       <c r="B104">
-        <v>179.6</v>
+        <v>183.2</v>
       </c>
       <c r="C104">
-        <v>82.21</v>
+        <v>82.2</v>
       </c>
       <c r="D104">
-        <v>81.040000000000006</v>
+        <v>80.680000000000007</v>
       </c>
       <c r="E104">
-        <v>-2.87</v>
+        <v>-8.73</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.49</v>
+        <v>-0.33</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0.54</v>
+        <v>1.28</v>
       </c>
       <c r="K104">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="L104">
-        <v>11.3</v>
+        <v>24.69</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -4683,25 +4683,25 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>161.76</v>
+        <v>178.79</v>
       </c>
       <c r="B105">
-        <v>161.6</v>
+        <v>165.2</v>
       </c>
       <c r="C105">
-        <v>83.9</v>
+        <v>83.96</v>
       </c>
       <c r="D105">
-        <v>82.75</v>
+        <v>82.42</v>
       </c>
       <c r="E105">
-        <v>1.59</v>
+        <v>-4.67</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.47</v>
+        <v>-0.36</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4710,13 +4710,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>-0.25</v>
+        <v>0.18</v>
       </c>
       <c r="K105">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L105">
-        <v>3.77</v>
+        <v>-34.99</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -4724,25 +4724,25 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>144.72999999999999</v>
+        <v>153.24</v>
       </c>
       <c r="B106">
-        <v>143.6</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="C106">
-        <v>85.41</v>
+        <v>85.52</v>
       </c>
       <c r="D106">
-        <v>84.27</v>
+        <v>83.98</v>
       </c>
       <c r="E106">
-        <v>-4.3600000000000003</v>
+        <v>5.37</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0.47</v>
+        <v>-0.37</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.81</v>
+        <v>-0.98</v>
       </c>
       <c r="K106">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="L106">
-        <v>-1.98</v>
+        <v>-17.239999999999998</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -4765,25 +4765,25 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>119.19</v>
+        <v>136.22</v>
       </c>
       <c r="B107">
-        <v>125.6</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="C107">
-        <v>86.74</v>
+        <v>86.9</v>
       </c>
       <c r="D107">
-        <v>85.62</v>
+        <v>85.36</v>
       </c>
       <c r="E107">
-        <v>-5.74</v>
+        <v>5.52</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.45</v>
+        <v>-0.36</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4792,13 +4792,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0.96</v>
+        <v>-0.72</v>
       </c>
       <c r="K107">
-        <v>0.1</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L107">
-        <v>17.16</v>
+        <v>-23.67</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -4806,25 +4806,25 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>93.65</v>
+        <v>119.19</v>
       </c>
       <c r="B108">
-        <v>107.6</v>
+        <v>111.2</v>
       </c>
       <c r="C108">
-        <v>87.89</v>
+        <v>88.1</v>
       </c>
       <c r="D108">
-        <v>86.78</v>
+        <v>86.57</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.38</v>
+        <v>-0.34</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4833,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.81</v>
+        <v>-0.27</v>
       </c>
       <c r="K108">
-        <v>0.81</v>
+        <v>-0.02</v>
       </c>
       <c r="L108">
-        <v>35.869999999999997</v>
+        <v>-29.07</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -4847,25 +4847,25 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>76.62</v>
+        <v>102.16</v>
       </c>
       <c r="B109">
-        <v>89.6</v>
+        <v>93.2</v>
       </c>
       <c r="C109">
-        <v>88.86</v>
+        <v>89.13</v>
       </c>
       <c r="D109">
-        <v>87.77</v>
+        <v>87.59</v>
       </c>
       <c r="E109">
-        <v>-8.5399999999999991</v>
+        <v>7.23</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.35</v>
+        <v>-0.32</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>1.63</v>
+        <v>-0.94</v>
       </c>
       <c r="K109">
-        <v>0.34</v>
+        <v>-0.11</v>
       </c>
       <c r="L109">
-        <v>30.47</v>
+        <v>-36.840000000000003</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -4888,25 +4888,25 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>59.6</v>
+        <v>68.11</v>
       </c>
       <c r="B110">
-        <v>71.599999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="C110">
-        <v>89.63</v>
+        <v>89.95</v>
       </c>
       <c r="D110">
-        <v>88.58</v>
+        <v>88.43</v>
       </c>
       <c r="E110">
-        <v>-2.96</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0.3</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4915,13 +4915,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>24.27</v>
+        <v>9.24</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -4929,25 +4929,25 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>51.08</v>
+        <v>59.6</v>
       </c>
       <c r="B111">
-        <v>53.6</v>
+        <v>57.2</v>
       </c>
       <c r="C111">
-        <v>90.24</v>
+        <v>90.55</v>
       </c>
       <c r="D111">
-        <v>89.2</v>
+        <v>89.09</v>
       </c>
       <c r="E111">
-        <v>1.22</v>
+        <v>-1.65</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0.27</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -4956,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>-0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K111">
-        <v>-0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L111">
-        <v>-6.38</v>
+        <v>-20.75</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -4970,25 +4970,25 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <v>34.049999999999997</v>
+        <v>42.57</v>
       </c>
       <c r="B112">
-        <v>35.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C112">
-        <v>90.68</v>
+        <v>91</v>
       </c>
       <c r="D112">
-        <v>89.65</v>
+        <v>89.57</v>
       </c>
       <c r="E112">
-        <v>1.43</v>
+        <v>-0.7</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.28999999999999998</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4997,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>-0.24</v>
+        <v>0.11</v>
       </c>
       <c r="K112">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L112">
-        <v>-13.15</v>
+        <v>-28.34</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -5014,22 +5014,22 @@
         <v>17.03</v>
       </c>
       <c r="B113">
-        <v>17.600000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="C113">
-        <v>90.93</v>
+        <v>91.27</v>
       </c>
       <c r="D113">
-        <v>89.91</v>
+        <v>89.88</v>
       </c>
       <c r="E113">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.32</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5038,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>-0.73</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>-20.7</v>
+        <v>-8.6300000000000008</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -5055,22 +5055,22 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <v>-0.4</v>
+        <v>3.2</v>
       </c>
       <c r="C114">
-        <v>91.01</v>
+        <v>91.38</v>
       </c>
       <c r="D114">
         <v>90</v>
       </c>
       <c r="E114">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0.34</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5079,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>-0.54</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>-27.63</v>
+        <v>-14.71</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -5099,19 +5099,19 @@
         <v>-0.4</v>
       </c>
       <c r="C115">
-        <v>90.99</v>
+        <v>91.37</v>
       </c>
       <c r="D115">
         <v>90</v>
       </c>
       <c r="E115">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.36</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5120,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>-1.06</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>-0.71</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>-27.76</v>
+        <v>-27.22</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -5134,25 +5134,25 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <v>0</v>
+        <v>-8.51</v>
       </c>
       <c r="B116">
         <v>-0.4</v>
       </c>
       <c r="C116">
-        <v>90.96</v>
+        <v>91.32</v>
       </c>
       <c r="D116">
         <v>90</v>
       </c>
       <c r="E116">
-        <v>5.28</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0.4</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5161,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>-1.94</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>-1.1399999999999999</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>-28.94</v>
+        <v>-0.87</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -5181,19 +5181,19 @@
         <v>-0.4</v>
       </c>
       <c r="C117">
-        <v>90.93</v>
+        <v>91.27</v>
       </c>
       <c r="D117">
         <v>90</v>
       </c>
       <c r="E117">
-        <v>5.95</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0.46</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5202,13 +5202,13 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>-2.61</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>-1.72</v>
+        <v>0</v>
       </c>
       <c r="L117">
-        <v>-30.56</v>
+        <v>-26.1</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -5216,25 +5216,25 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <v>-8.51</v>
+        <v>0</v>
       </c>
       <c r="B118">
         <v>-0.4</v>
       </c>
       <c r="C118">
-        <v>90.9</v>
+        <v>91.21</v>
       </c>
       <c r="D118">
         <v>90</v>
       </c>
       <c r="E118">
-        <v>6.04</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.52</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5243,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>-3.23</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>-2.33</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>-5.85</v>
+        <v>-25.8</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
-        <v>-8.51</v>
+        <v>0</v>
       </c>
       <c r="B119">
         <v>-0.4</v>
       </c>
       <c r="C119">
-        <v>90.86</v>
+        <v>91.16</v>
       </c>
       <c r="D119">
         <v>90</v>
       </c>
       <c r="E119">
-        <v>5.13</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0.57999999999999996</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5284,13 +5284,13 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>-3.66</v>
+        <v>0</v>
       </c>
       <c r="K119">
-        <v>-2.89</v>
+        <v>0</v>
       </c>
       <c r="L119">
-        <v>-6.74</v>
+        <v>-25.49</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -5301,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>90.83</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>-29.4</v>
+        <v>0</v>
       </c>
       <c r="M120">
         <v>0</v>

--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOSEIDenken\Desktop\halfmouse\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22543B5F-A836-42F7-8ED7-25547C4B8335}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2E564A-6D71-42BB-AADD-418C25B12382}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2390" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>23.72</v>
       </c>
       <c r="K1">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="L1">
-        <v>29.68</v>
+        <v>41.72</v>
       </c>
       <c r="M1">
         <v>4854</v>
@@ -444,19 +444,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>25.54</v>
+        <v>16.95</v>
       </c>
       <c r="B2">
-        <v>21.6</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-2.08</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.26</v>
+        <v>25.18</v>
       </c>
       <c r="M2">
         <v>4887</v>
@@ -485,40 +485,40 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>34.049999999999997</v>
+        <v>33.9</v>
       </c>
       <c r="B3">
-        <v>39.6</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.74</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>-0.16</v>
+      </c>
+      <c r="K3">
         <v>-0.01</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="K3">
-        <v>0.19</v>
-      </c>
       <c r="L3">
-        <v>44.36</v>
+        <v>31.4</v>
       </c>
       <c r="M3">
         <v>4929</v>
@@ -526,10 +526,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>51.08</v>
+        <v>59.33</v>
       </c>
       <c r="B4">
-        <v>57.6</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>0.75</v>
@@ -538,13 +538,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-6.62</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L4">
-        <v>53.56</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="M4">
         <v>4828</v>
@@ -567,19 +567,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>59.6</v>
+        <v>67.8</v>
       </c>
       <c r="B5">
-        <v>75.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.95</v>
+        <v>-9.06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.59</v>
+        <v>1.6</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>83.41</v>
+        <v>46.93</v>
       </c>
       <c r="M5">
         <v>4722</v>
@@ -608,25 +608,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>102.16</v>
+        <v>101.7</v>
       </c>
       <c r="B6">
-        <v>93.6</v>
+        <v>90</v>
       </c>
       <c r="C6">
-        <v>2.2000000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-3.94</v>
+        <v>-9.92</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.1</v>
+        <v>-0.15</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="K6">
-        <v>0.67</v>
+        <v>0.1</v>
       </c>
       <c r="L6">
-        <v>14.88</v>
+        <v>3.28</v>
       </c>
       <c r="M6">
         <v>4736</v>
@@ -649,25 +649,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>102.16</v>
+        <v>93.23</v>
       </c>
       <c r="B7">
-        <v>111.6</v>
+        <v>108</v>
       </c>
       <c r="C7">
-        <v>3.18</v>
+        <v>3.09</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-1.71</v>
+        <v>-9.77</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.15</v>
+        <v>-0.21</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="K7">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="L7">
-        <v>74.290000000000006</v>
+        <v>87.54</v>
       </c>
       <c r="M7">
         <v>4478</v>
@@ -690,25 +690,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>127.7</v>
+        <v>118.65</v>
       </c>
       <c r="B8">
-        <v>129.6</v>
+        <v>126</v>
       </c>
       <c r="C8">
-        <v>4.3499999999999996</v>
+        <v>4.16</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-5.92</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>-0.17</v>
+        <v>-0.25</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L8">
-        <v>55.15</v>
+        <v>69.69</v>
       </c>
       <c r="M8">
         <v>4201</v>
@@ -731,25 +731,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>170.27</v>
+        <v>135.6</v>
       </c>
       <c r="B9">
-        <v>147.6</v>
+        <v>144</v>
       </c>
       <c r="C9">
-        <v>5.72</v>
+        <v>5.43</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-0.79</v>
+        <v>-7.35</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-0.2</v>
+        <v>-0.32</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="K9">
-        <v>0.33</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L9">
-        <v>-13.74</v>
+        <v>79.459999999999994</v>
       </c>
       <c r="M9">
         <v>4505</v>
@@ -772,25 +772,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>161.76</v>
+        <v>161.03</v>
       </c>
       <c r="B10">
-        <v>165.6</v>
+        <v>162</v>
       </c>
       <c r="C10">
-        <v>7.29</v>
+        <v>6.99</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-6.68</v>
+        <v>-5.19</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.25</v>
+        <v>-0.4</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.48</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K10">
-        <v>0.48</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L10">
-        <v>64.05</v>
+        <v>54.7</v>
       </c>
       <c r="M10">
         <v>4494</v>
@@ -813,25 +813,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>170.27</v>
+        <v>186.46</v>
       </c>
       <c r="B11">
-        <v>183.6</v>
+        <v>180</v>
       </c>
       <c r="C11">
-        <v>9.02</v>
+        <v>8.68</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-0.95</v>
+        <v>-5.25</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.25</v>
+        <v>-0.42</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.15</v>
+        <v>0.79</v>
       </c>
       <c r="K11">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="L11">
-        <v>95.58</v>
+        <v>37.07</v>
       </c>
       <c r="M11">
         <v>4584</v>
@@ -854,25 +854,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>204.33</v>
+        <v>220.36</v>
       </c>
       <c r="B12">
-        <v>201.6</v>
+        <v>198</v>
       </c>
       <c r="C12">
-        <v>10.95</v>
+        <v>10.61</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.96</v>
+        <v>-6.62</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-0.25</v>
+        <v>-0.45</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -881,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.57999999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="K12">
-        <v>-0.13</v>
+        <v>0.06</v>
       </c>
       <c r="L12">
-        <v>50.21</v>
+        <v>-7.45</v>
       </c>
       <c r="M12">
         <v>4824</v>
@@ -895,25 +895,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>229.87</v>
+        <v>203.41</v>
       </c>
       <c r="B13">
-        <v>219.6</v>
+        <v>216</v>
       </c>
       <c r="C13">
-        <v>13.09</v>
+        <v>12.7</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.58</v>
+        <v>-1.01</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.26</v>
+        <v>-0.47</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -922,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>-1.19</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>29.65</v>
+        <v>100.74</v>
       </c>
       <c r="M13">
         <v>5023</v>
@@ -936,25 +936,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>229.87</v>
+        <v>228.83</v>
       </c>
       <c r="B14">
-        <v>237.6</v>
+        <v>234</v>
       </c>
       <c r="C14">
-        <v>15.36</v>
+        <v>14.97</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-1.1599999999999999</v>
+        <v>2.59</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.25</v>
+        <v>-0.47</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.17</v>
+        <v>-0.5</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L14">
-        <v>89.52</v>
+        <v>81.59</v>
       </c>
       <c r="M14">
         <v>5084</v>
@@ -977,25 +977,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>238.38</v>
+        <v>237.31</v>
       </c>
       <c r="B15">
-        <v>255.6</v>
+        <v>252</v>
       </c>
       <c r="C15">
-        <v>17.84</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.12</v>
+        <v>8.06</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.27</v>
+        <v>-0.41</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1004,13 +1004,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>-0.43</v>
+        <v>-1.33</v>
       </c>
       <c r="K15">
-        <v>0.19</v>
+        <v>-0.08</v>
       </c>
       <c r="L15">
-        <v>120.67</v>
+        <v>113.02</v>
       </c>
       <c r="M15">
         <v>4887</v>
@@ -1018,25 +1018,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>272.43</v>
+        <v>279.68</v>
       </c>
       <c r="B16">
-        <v>273.60000000000002</v>
+        <v>270</v>
       </c>
       <c r="C16">
-        <v>20.52</v>
+        <v>20.04</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-4.1500000000000004</v>
+        <v>5.62</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.27</v>
+        <v>-0.35</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.73</v>
+        <v>-0.37</v>
       </c>
       <c r="K16">
-        <v>0.11</v>
+        <v>-0.02</v>
       </c>
       <c r="L16">
-        <v>76.709999999999994</v>
+        <v>44.52</v>
       </c>
       <c r="M16">
         <v>4668</v>
@@ -1059,25 +1059,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>280.95</v>
+        <v>271.20999999999998</v>
       </c>
       <c r="B17">
-        <v>291.60000000000002</v>
+        <v>288</v>
       </c>
       <c r="C17">
-        <v>23.36</v>
+        <v>22.82</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.66</v>
+        <v>8.91</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1086,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>-0.96</v>
+        <v>-1.74</v>
       </c>
       <c r="K17">
-        <v>-0.41</v>
+        <v>-0.11</v>
       </c>
       <c r="L17">
-        <v>106.8</v>
+        <v>123.55</v>
       </c>
       <c r="M17">
         <v>4463</v>
@@ -1100,25 +1100,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>306.49</v>
+        <v>305.11</v>
       </c>
       <c r="B18">
-        <v>309.60000000000002</v>
+        <v>306</v>
       </c>
       <c r="C18">
-        <v>26.43</v>
+        <v>25.86</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.99</v>
+        <v>12.21</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.25</v>
+        <v>-0.21</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>-1.1599999999999999</v>
+        <v>-1.91</v>
       </c>
       <c r="K18">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="L18">
-        <v>86.09</v>
+        <v>79.02</v>
       </c>
       <c r="M18">
         <v>4623</v>
@@ -1141,25 +1141,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>332.03</v>
+        <v>330.53</v>
       </c>
       <c r="B19">
-        <v>327.60000000000002</v>
+        <v>324</v>
       </c>
       <c r="C19">
-        <v>29.66</v>
+        <v>29.04</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-4.49</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1168,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.83</v>
+        <v>0.38</v>
       </c>
       <c r="K19">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="L19">
-        <v>71.23</v>
+        <v>61.78</v>
       </c>
       <c r="M19">
         <v>4822</v>
@@ -1182,25 +1182,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>349.06</v>
+        <v>347.48</v>
       </c>
       <c r="B20">
-        <v>345.6</v>
+        <v>342</v>
       </c>
       <c r="C20">
-        <v>33.08</v>
+        <v>32.43</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>-4.5199999999999996</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-0.17</v>
+        <v>-0.12</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>-1.66</v>
+        <v>0.42</v>
       </c>
       <c r="K20">
-        <v>-0.46</v>
+        <v>0.03</v>
       </c>
       <c r="L20">
-        <v>74.03</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="M20">
         <v>4665</v>
@@ -1223,25 +1223,25 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>357.57</v>
+        <v>364.44</v>
       </c>
       <c r="B21">
-        <v>363.6</v>
+        <v>360</v>
       </c>
       <c r="C21">
-        <v>36.69</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.57</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>-2.73</v>
+        <v>-0.27</v>
       </c>
       <c r="K21">
-        <v>-0.85</v>
+        <v>-0.02</v>
       </c>
       <c r="L21">
-        <v>103.33</v>
+        <v>71.53</v>
       </c>
       <c r="M21">
         <v>4732</v>
@@ -1264,19 +1264,19 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>383.11</v>
+        <v>381.39</v>
       </c>
       <c r="B22">
-        <v>381.6</v>
+        <v>378</v>
       </c>
       <c r="C22">
-        <v>40.47</v>
+        <v>39.74</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.28</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>-3</v>
+        <v>-0.81</v>
       </c>
       <c r="K22">
-        <v>-0.86</v>
+        <v>-0.05</v>
       </c>
       <c r="L22">
-        <v>82.69</v>
+        <v>76.62</v>
       </c>
       <c r="M22">
         <v>4756</v>
@@ -1305,25 +1305,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>391.63</v>
+        <v>398.34</v>
       </c>
       <c r="B23">
-        <v>399.6</v>
+        <v>396</v>
       </c>
       <c r="C23">
-        <v>44.44</v>
+        <v>43.66</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.14000000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>-0.79</v>
+        <v>0.3</v>
       </c>
       <c r="K23">
-        <v>-0.79</v>
+        <v>0.02</v>
       </c>
       <c r="L23">
-        <v>119.36</v>
+        <v>83.18</v>
       </c>
       <c r="M23">
         <v>4463</v>
@@ -1346,25 +1346,25 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>408.65</v>
+        <v>423.76</v>
       </c>
       <c r="B24">
-        <v>417.6</v>
+        <v>414</v>
       </c>
       <c r="C24">
-        <v>48.61</v>
+        <v>47.79</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-10.01</v>
+        <v>-9.31</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-0.15</v>
+        <v>-0.2</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.66</v>
+        <v>2.15</v>
       </c>
       <c r="K24">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="L24">
-        <v>126.05</v>
+        <v>64.33</v>
       </c>
       <c r="M24">
         <v>4601</v>
@@ -1387,25 +1387,25 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>425.68</v>
+        <v>440.71</v>
       </c>
       <c r="B25">
-        <v>435.6</v>
+        <v>432</v>
       </c>
       <c r="C25">
-        <v>52.95</v>
+        <v>52.08</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-17.3</v>
+        <v>-6.41</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>-0.21</v>
+        <v>-0.24</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.1</v>
+        <v>1.17</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L25">
-        <v>132.05000000000001</v>
+        <v>68.64</v>
       </c>
       <c r="M25">
         <v>4699</v>
@@ -1428,25 +1428,25 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>451.22</v>
+        <v>440.71</v>
       </c>
       <c r="B26">
-        <v>453.6</v>
+        <v>450</v>
       </c>
       <c r="C26">
-        <v>57.48</v>
+        <v>56.56</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-11.2</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>-0.28000000000000003</v>
+        <v>-0.23</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>110.87</v>
+        <v>134.94</v>
       </c>
       <c r="M26">
         <v>4688</v>
@@ -1469,25 +1469,25 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>451.22</v>
+        <v>483.09</v>
       </c>
       <c r="B27">
-        <v>471.6</v>
+        <v>468</v>
       </c>
       <c r="C27">
-        <v>62.17</v>
+        <v>61.28</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-6.84</v>
+        <v>2.23</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>-0.33</v>
+        <v>-0.21</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.45</v>
+        <v>-0.21</v>
       </c>
       <c r="K27">
-        <v>0.43</v>
+        <v>-0.01</v>
       </c>
       <c r="L27">
-        <v>165.45</v>
+        <v>61.79</v>
       </c>
       <c r="M27">
         <v>4609</v>
@@ -1510,25 +1510,25 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>510.82</v>
+        <v>483.09</v>
       </c>
       <c r="B28">
-        <v>489.6</v>
+        <v>486</v>
       </c>
       <c r="C28">
-        <v>67.08</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-1.62</v>
+        <v>2.56</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.35</v>
+        <v>-0.2</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1.1499999999999999</v>
+        <v>-0.21</v>
       </c>
       <c r="K28">
-        <v>0.57999999999999996</v>
+        <v>-0.01</v>
       </c>
       <c r="L28">
-        <v>41.06</v>
+        <v>116.54</v>
       </c>
       <c r="M28">
         <v>4796</v>
@@ -1551,25 +1551,25 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>519.33000000000004</v>
+        <v>508.51</v>
       </c>
       <c r="B29">
         <v>500</v>
       </c>
       <c r="C29">
-        <v>72.12</v>
+        <v>71.17</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3.75</v>
+        <v>-2.29</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.37</v>
+        <v>-0.19</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1578,47 +1578,47 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>-0.42</v>
+        <v>0.45</v>
       </c>
       <c r="K29">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
       <c r="L29">
-        <v>27.3</v>
+        <v>65.760000000000005</v>
       </c>
       <c r="M29">
         <v>5053</v>
       </c>
       <c r="N29">
         <f>AVERAGE(K30:K36)</f>
-        <v>1.4000000000000001</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="O29">
         <f>AVERAGE(L30:L36)</f>
-        <v>50.591428571428573</v>
+        <v>62.761428571428574</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>493.79</v>
+        <v>508.51</v>
       </c>
       <c r="B30">
         <v>500</v>
       </c>
       <c r="C30">
-        <v>77.180000000000007</v>
+        <v>76.25</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-1.19</v>
+        <v>-5.34</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.4</v>
+        <v>-0.23</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1627,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="K30">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="L30">
-        <v>102.97</v>
+        <v>73.75</v>
       </c>
       <c r="M30">
         <v>4943</v>
@@ -1641,25 +1641,25 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>510.82</v>
+        <v>483.09</v>
       </c>
       <c r="B31">
         <v>500</v>
       </c>
       <c r="C31">
-        <v>82.23</v>
+        <v>81.33</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-9.31</v>
+        <v>-10.130000000000001</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.96</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K31">
-        <v>0.47</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L31">
-        <v>50.88</v>
+        <v>149.88999999999999</v>
       </c>
       <c r="M31">
         <v>5026</v>
@@ -1682,25 +1682,25 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>527.84</v>
+        <v>525.46</v>
       </c>
       <c r="B32">
         <v>500</v>
       </c>
       <c r="C32">
-        <v>87.33</v>
+        <v>86.47</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>-18.25</v>
+        <v>-5.83</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>-0.57999999999999996</v>
+        <v>-0.4</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>4.32</v>
+        <v>1.54</v>
       </c>
       <c r="K32">
-        <v>1.79</v>
+        <v>0.19</v>
       </c>
       <c r="L32">
-        <v>0.28999999999999998</v>
+        <v>24.67</v>
       </c>
       <c r="M32">
         <v>5120</v>
@@ -1723,25 +1723,25 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>493.79</v>
+        <v>516.99</v>
       </c>
       <c r="B33">
         <v>500</v>
       </c>
       <c r="C33">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="D33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>-19.59</v>
+        <v>-5.65</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>-0.09</v>
+        <v>-0.01</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>5.97</v>
+        <v>0.62</v>
       </c>
       <c r="K33">
-        <v>3.87</v>
+        <v>0.06</v>
       </c>
       <c r="L33">
-        <v>101.6</v>
+        <v>47.83</v>
       </c>
       <c r="M33">
         <v>5319</v>
@@ -1764,25 +1764,25 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>519.33000000000004</v>
+        <v>508.51</v>
       </c>
       <c r="B34">
         <v>500</v>
       </c>
       <c r="C34">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="D34">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>-3.78</v>
+        <v>-4.97</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>-0.17</v>
+        <v>-0.05</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1791,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>5.07</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K34">
-        <v>4.6900000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="L34">
-        <v>21.67</v>
+        <v>73.97</v>
       </c>
       <c r="M34">
         <v>4781</v>
@@ -1805,25 +1805,25 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>510.82</v>
+        <v>525.46</v>
       </c>
       <c r="B35">
         <v>500</v>
       </c>
       <c r="C35">
-        <v>12.17</v>
+        <v>11.84</v>
       </c>
       <c r="D35">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>3.36</v>
+        <v>-4.7</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>-0.78</v>
+        <v>0.52</v>
       </c>
       <c r="K35">
-        <v>-0.45</v>
+        <v>0.05</v>
       </c>
       <c r="L35">
-        <v>39.340000000000003</v>
+        <v>21.35</v>
       </c>
       <c r="M35">
         <v>4557</v>
@@ -1846,25 +1846,25 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>510.82</v>
+        <v>516.99</v>
       </c>
       <c r="B36">
         <v>500</v>
       </c>
       <c r="C36">
-        <v>17.21</v>
+        <v>16.98</v>
       </c>
       <c r="D36">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E36">
-        <v>6.04</v>
+        <v>-4.82</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>-0.08</v>
+        <v>-0.17</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1873,13 +1873,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>-1.49</v>
+        <v>0.53</v>
       </c>
       <c r="K36">
-        <v>-0.88</v>
+        <v>0.05</v>
       </c>
       <c r="L36">
-        <v>37.39</v>
+        <v>47.87</v>
       </c>
       <c r="M36">
         <v>5105</v>
@@ -1887,25 +1887,25 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>502.3</v>
+        <v>516.99</v>
       </c>
       <c r="B37">
         <v>500</v>
       </c>
       <c r="C37">
-        <v>22.25</v>
+        <v>22.11</v>
       </c>
       <c r="D37">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>-5.46</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>-0.05</v>
+        <v>-0.23</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>-1.19</v>
+        <v>0.6</v>
       </c>
       <c r="K37">
-        <v>-1.19</v>
+        <v>0.05</v>
       </c>
       <c r="L37">
-        <v>61.73</v>
+        <v>49.27</v>
       </c>
       <c r="M37">
         <v>5091</v>
@@ -1928,25 +1928,25 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>510.82</v>
+        <v>516.99</v>
       </c>
       <c r="B38">
         <v>500</v>
       </c>
       <c r="C38">
-        <v>27.27</v>
+        <v>27.23</v>
       </c>
       <c r="D38">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="E38">
-        <v>-3.33</v>
+        <v>-10.8</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>-0.06</v>
+        <v>-0.33</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1955,13 +1955,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.37</v>
+        <v>1.9</v>
       </c>
       <c r="K38">
-        <v>0.03</v>
+        <v>0.82</v>
       </c>
       <c r="L38">
-        <v>37.32</v>
+        <v>50.22</v>
       </c>
       <c r="M38">
         <v>1691</v>
@@ -1969,25 +1969,25 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>493.79</v>
+        <v>491.56</v>
       </c>
       <c r="B39">
         <v>500</v>
       </c>
       <c r="C39">
-        <v>32.28</v>
+        <v>32.31</v>
       </c>
       <c r="D39">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="E39">
-        <v>-11.69</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>-0.1</v>
+        <v>-0.38</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.39</v>
+        <v>0.47</v>
       </c>
       <c r="K39">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="L39">
-        <v>89.29</v>
+        <v>125.46</v>
       </c>
       <c r="M39">
         <v>63590</v>
@@ -2010,25 +2010,25 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>510.82</v>
+        <v>516.99</v>
       </c>
       <c r="B40">
         <v>500</v>
       </c>
       <c r="C40">
-        <v>37.299999999999997</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="D40">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <v>-4.21</v>
+        <v>0.82</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>-0.19</v>
+        <v>-0.34</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.46</v>
+        <v>-0.09</v>
       </c>
       <c r="K40">
-        <v>1.04</v>
+        <v>-0.01</v>
       </c>
       <c r="L40">
-        <v>37.659999999999997</v>
+        <v>49.95</v>
       </c>
       <c r="M40">
         <v>58995</v>
@@ -2051,25 +2051,25 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>502.3</v>
+        <v>516.99</v>
       </c>
       <c r="B41">
         <v>500</v>
       </c>
       <c r="C41">
-        <v>42.33</v>
+        <v>42.56</v>
       </c>
       <c r="D41">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E41">
-        <v>-5.98</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>-0.25</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2078,47 +2078,47 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>2.2599999999999998</v>
+        <v>-1.02</v>
       </c>
       <c r="K41">
-        <v>1.66</v>
+        <v>-0.09</v>
       </c>
       <c r="L41">
-        <v>63.12</v>
+        <v>47.15</v>
       </c>
       <c r="M41">
         <v>55859</v>
       </c>
       <c r="N41">
         <f>AVERAGE(K41:K57)</f>
-        <v>-6.4705882352941178</v>
+        <v>-5.5888235294117647</v>
       </c>
       <c r="O41">
         <f>AVERAGE(L41:L57)</f>
-        <v>-18.345294117647057</v>
+        <v>-4.1176470588235281</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>502.3</v>
+        <v>508.51</v>
       </c>
       <c r="B42">
         <v>500</v>
       </c>
       <c r="C42">
-        <v>47.35</v>
+        <v>47.71</v>
       </c>
       <c r="D42">
-        <v>46.5</v>
+        <v>46.87</v>
       </c>
       <c r="E42">
-        <v>1.92</v>
+        <v>7.14</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>-0.28000000000000003</v>
+        <v>-0.21</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2127,13 +2127,13 @@
         <v>-8594.35</v>
       </c>
       <c r="J42">
-        <v>1.84</v>
+        <v>-2.29</v>
       </c>
       <c r="K42">
-        <v>2.0299999999999998</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="L42">
-        <v>62.04</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M42">
         <v>56727</v>
@@ -2141,40 +2141,40 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>519.33000000000004</v>
+        <v>508.51</v>
       </c>
       <c r="B43">
         <v>500</v>
       </c>
       <c r="C43">
-        <v>52.36</v>
+        <v>52.74</v>
       </c>
       <c r="D43">
-        <v>51.37</v>
+        <v>51.87</v>
       </c>
       <c r="E43">
-        <v>-17.91</v>
+        <v>-36.5</v>
       </c>
       <c r="F43">
-        <v>-77.349999999999994</v>
+        <v>-85.94</v>
       </c>
       <c r="G43">
         <v>-0.28000000000000003</v>
       </c>
       <c r="H43">
-        <v>-0.35</v>
+        <v>-0.43</v>
       </c>
       <c r="I43">
         <v>-8594.35</v>
       </c>
       <c r="J43">
-        <v>-57.35</v>
+        <v>-22.92</v>
       </c>
       <c r="K43">
-        <v>-9.8000000000000007</v>
+        <v>-8.09</v>
       </c>
       <c r="L43">
-        <v>-97.94</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="M43">
         <v>58153</v>
@@ -2182,40 +2182,40 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>519.33000000000004</v>
+        <v>508.51</v>
       </c>
       <c r="B44">
         <v>500</v>
       </c>
       <c r="C44">
-        <v>57.41</v>
+        <v>57.89</v>
       </c>
       <c r="D44">
-        <v>56.37</v>
+        <v>56.87</v>
       </c>
       <c r="E44">
-        <v>-166.6</v>
+        <v>-133.97</v>
       </c>
       <c r="F44">
-        <v>-163.29</v>
+        <v>-171.89</v>
       </c>
       <c r="G44">
-        <v>-1.62</v>
+        <v>-1.33</v>
       </c>
       <c r="H44">
-        <v>-1.55</v>
+        <v>-1.72</v>
       </c>
       <c r="I44">
         <v>-8594.35</v>
       </c>
       <c r="J44">
-        <v>-4.1100000000000003</v>
+        <v>-25.14</v>
       </c>
       <c r="K44">
-        <v>-6.75</v>
+        <v>-13.77</v>
       </c>
       <c r="L44">
-        <v>-52.88</v>
+        <v>-0.09</v>
       </c>
       <c r="M44">
         <v>56094</v>
@@ -2223,40 +2223,40 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>493.79</v>
+        <v>516.99</v>
       </c>
       <c r="B45">
         <v>500</v>
       </c>
       <c r="C45">
-        <v>62.46</v>
+        <v>63</v>
       </c>
       <c r="D45">
-        <v>61.37</v>
+        <v>61.87</v>
       </c>
       <c r="E45">
-        <v>-223.33</v>
+        <v>-222.75</v>
       </c>
       <c r="F45">
-        <v>-249.24</v>
+        <v>-257.83</v>
       </c>
       <c r="G45">
-        <v>-3.37</v>
+        <v>-3.21</v>
       </c>
       <c r="H45">
-        <v>-3.61</v>
+        <v>-3.87</v>
       </c>
       <c r="I45">
         <v>-8594.35</v>
       </c>
       <c r="J45">
-        <v>-38.19</v>
+        <v>-30.57</v>
       </c>
       <c r="K45">
-        <v>-17.46</v>
+        <v>-20.04</v>
       </c>
       <c r="L45">
-        <v>-19.25</v>
+        <v>-39.159999999999997</v>
       </c>
       <c r="M45">
         <v>56744</v>
@@ -2264,40 +2264,40 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>485.27</v>
+        <v>533.94000000000005</v>
       </c>
       <c r="B46">
         <v>500</v>
       </c>
       <c r="C46">
-        <v>67.459999999999994</v>
+        <v>68.22</v>
       </c>
       <c r="D46">
-        <v>66.37</v>
+        <v>66.87</v>
       </c>
       <c r="E46">
-        <v>-310.76</v>
+        <v>-323.82</v>
       </c>
       <c r="F46">
-        <v>-335.18</v>
+        <v>-343.77</v>
       </c>
       <c r="G46">
-        <v>-6.43</v>
+        <v>-5.99</v>
       </c>
       <c r="H46">
-        <v>-6.54</v>
+        <v>-6.88</v>
       </c>
       <c r="I46">
         <v>-8594.35</v>
       </c>
       <c r="J46">
-        <v>-34.32</v>
+        <v>-31.35</v>
       </c>
       <c r="K46">
-        <v>-14.78</v>
+        <v>-25.36</v>
       </c>
       <c r="L46">
-        <v>3.49</v>
+        <v>-104.03</v>
       </c>
       <c r="M46">
         <v>57627</v>
@@ -2305,40 +2305,40 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>493.79</v>
+        <v>508.51</v>
       </c>
       <c r="B47">
         <v>500</v>
       </c>
       <c r="C47">
-        <v>72.489999999999995</v>
+        <v>73.34</v>
       </c>
       <c r="D47">
-        <v>71.37</v>
+        <v>71.87</v>
       </c>
       <c r="E47">
-        <v>-430.24</v>
+        <v>-432.01</v>
       </c>
       <c r="F47">
-        <v>-421.12</v>
+        <v>-429.72</v>
       </c>
       <c r="G47">
-        <v>-10.130000000000001</v>
+        <v>-9.75</v>
       </c>
       <c r="H47">
-        <v>-10.32</v>
+        <v>-10.74</v>
       </c>
       <c r="I47">
         <v>-8594.35</v>
       </c>
       <c r="J47">
-        <v>-11.12</v>
+        <v>0.73</v>
       </c>
       <c r="K47">
-        <v>-18.420000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="L47">
-        <v>-6.76</v>
+        <v>1.6</v>
       </c>
       <c r="M47">
         <v>57038</v>
@@ -2346,40 +2346,40 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>510.82</v>
+        <v>500.04</v>
       </c>
       <c r="B48">
         <v>500</v>
       </c>
       <c r="C48">
-        <v>77.53</v>
+        <v>78.45</v>
       </c>
       <c r="D48">
-        <v>76.37</v>
+        <v>76.87</v>
       </c>
       <c r="E48">
-        <v>-488.56</v>
+        <v>-484.77</v>
       </c>
       <c r="F48">
-        <v>-507.07</v>
+        <v>-515.66</v>
       </c>
       <c r="G48">
-        <v>-14.69</v>
+        <v>-14.36</v>
       </c>
       <c r="H48">
-        <v>-14.96</v>
+        <v>-15.47</v>
       </c>
       <c r="I48">
         <v>-8594.35</v>
       </c>
       <c r="J48">
-        <v>-18.59</v>
+        <v>-12.35</v>
       </c>
       <c r="K48">
-        <v>-3.79</v>
+        <v>-3.08</v>
       </c>
       <c r="L48">
-        <v>-73.47</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="M48">
         <v>56385</v>
@@ -2387,40 +2387,40 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>510.82</v>
+        <v>516.99</v>
       </c>
       <c r="B49">
         <v>500</v>
       </c>
       <c r="C49">
-        <v>82.56</v>
+        <v>83.57</v>
       </c>
       <c r="D49">
-        <v>81.37</v>
+        <v>81.87</v>
       </c>
       <c r="E49">
-        <v>-582.03</v>
+        <v>-566.16</v>
       </c>
       <c r="F49">
-        <v>-593.01</v>
+        <v>-601.6</v>
       </c>
       <c r="G49">
-        <v>-20.11</v>
+        <v>-19.739999999999998</v>
       </c>
       <c r="H49">
-        <v>-20.46</v>
+        <v>-21.06</v>
       </c>
       <c r="I49">
         <v>-8594.35</v>
       </c>
       <c r="J49">
-        <v>-16.41</v>
+        <v>-18.690000000000001</v>
       </c>
       <c r="K49">
-        <v>-7.63</v>
+        <v>-8.06</v>
       </c>
       <c r="L49">
-        <v>-78.97</v>
+        <v>-60.16</v>
       </c>
       <c r="M49">
         <v>56683</v>
@@ -2428,40 +2428,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>493.79</v>
+        <v>508.51</v>
       </c>
       <c r="B50">
         <v>500</v>
       </c>
       <c r="C50">
-        <v>87.52</v>
+        <v>88.72</v>
       </c>
       <c r="D50">
-        <v>86.37</v>
+        <v>86.87</v>
       </c>
       <c r="E50">
-        <v>-665.8</v>
+        <v>-659.45</v>
       </c>
       <c r="F50">
-        <v>-678.95</v>
+        <v>-687.55</v>
       </c>
       <c r="G50">
-        <v>-26.43</v>
+        <v>-25.85</v>
       </c>
       <c r="H50">
-        <v>-26.82</v>
+        <v>-27.5</v>
       </c>
       <c r="I50">
         <v>-8594.35</v>
       </c>
       <c r="J50">
-        <v>-20.64</v>
+        <v>-24</v>
       </c>
       <c r="K50">
-        <v>-10.119999999999999</v>
+        <v>-15.57</v>
       </c>
       <c r="L50">
-        <v>-37.97</v>
+        <v>-49.87</v>
       </c>
       <c r="M50">
         <v>57599</v>
@@ -2469,40 +2469,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>502.3</v>
+        <v>508.51</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
       <c r="C51">
-        <v>92.56</v>
+        <v>93.88</v>
       </c>
       <c r="D51">
-        <v>90.37</v>
+        <v>89.87</v>
       </c>
       <c r="E51">
-        <v>-707.52</v>
+        <v>-715.27</v>
       </c>
       <c r="F51">
         <v>-687.55</v>
       </c>
       <c r="G51">
-        <v>-33.42</v>
+        <v>-32.86</v>
       </c>
       <c r="H51">
-        <v>-32.31</v>
+        <v>-31.63</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>8.98</v>
+        <v>11.31</v>
       </c>
       <c r="K51">
-        <v>-7</v>
+        <v>2.99</v>
       </c>
       <c r="L51">
-        <v>8.66</v>
+        <v>21.17</v>
       </c>
       <c r="M51">
         <v>57712</v>
@@ -2510,25 +2510,25 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>493.79</v>
+        <v>508.51</v>
       </c>
       <c r="B52">
         <v>500</v>
       </c>
       <c r="C52">
-        <v>97.09</v>
+        <v>98.99</v>
       </c>
       <c r="D52">
         <v>94.87</v>
       </c>
       <c r="E52">
-        <v>-679.93</v>
+        <v>-703.22</v>
       </c>
       <c r="F52">
         <v>-687.55</v>
       </c>
       <c r="G52">
-        <v>-39.659999999999997</v>
+        <v>-39.89</v>
       </c>
       <c r="H52">
         <v>-38.5</v>
@@ -2537,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>-4.6100000000000003</v>
+        <v>5.26</v>
       </c>
       <c r="K52">
-        <v>-0.25</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L52">
-        <v>19.89</v>
+        <v>22.59</v>
       </c>
       <c r="M52">
         <v>55902</v>
@@ -2551,25 +2551,25 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>502.3</v>
+        <v>516.99</v>
       </c>
       <c r="B53">
         <v>500</v>
       </c>
       <c r="C53">
-        <v>102.1</v>
+        <v>104.14</v>
       </c>
       <c r="D53">
         <v>99.87</v>
       </c>
       <c r="E53">
-        <v>-687.84</v>
+        <v>-699.1</v>
       </c>
       <c r="F53">
         <v>-687.55</v>
       </c>
       <c r="G53">
-        <v>-46.38</v>
+        <v>-46.95</v>
       </c>
       <c r="H53">
         <v>-45.38</v>
@@ -2578,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>-8.9600000000000009</v>
+        <v>7.76</v>
       </c>
       <c r="K53">
-        <v>-4.72</v>
+        <v>4.29</v>
       </c>
       <c r="L53">
-        <v>-10.48</v>
+        <v>-2.82</v>
       </c>
       <c r="M53">
         <v>57846</v>
@@ -2592,25 +2592,25 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>502.3</v>
+        <v>508.51</v>
       </c>
       <c r="B54">
         <v>500</v>
       </c>
       <c r="C54">
-        <v>107.14</v>
+        <v>109.28</v>
       </c>
       <c r="D54">
         <v>104.87</v>
       </c>
       <c r="E54">
-        <v>-677.86</v>
+        <v>-674.9</v>
       </c>
       <c r="F54">
         <v>-687.55</v>
       </c>
       <c r="G54">
-        <v>-53.27</v>
+        <v>-53.79</v>
       </c>
       <c r="H54">
         <v>-52.25</v>
@@ -2619,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>-4.87</v>
+        <v>-4.26</v>
       </c>
       <c r="K54">
-        <v>0.35</v>
+        <v>-0.47</v>
       </c>
       <c r="L54">
-        <v>-7.48</v>
+        <v>7.74</v>
       </c>
       <c r="M54">
         <v>58096</v>
@@ -2633,25 +2633,25 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>502.3</v>
+        <v>500.04</v>
       </c>
       <c r="B55">
         <v>500</v>
       </c>
       <c r="C55">
-        <v>112.23</v>
+        <v>114.39</v>
       </c>
       <c r="D55">
         <v>109.87</v>
       </c>
       <c r="E55">
-        <v>-668.43</v>
+        <v>-676.39</v>
       </c>
       <c r="F55">
         <v>-687.55</v>
       </c>
       <c r="G55">
-        <v>-59.98</v>
+        <v>-60.45</v>
       </c>
       <c r="H55">
         <v>-59.13</v>
@@ -2660,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>-20.170000000000002</v>
+        <v>-8.23</v>
       </c>
       <c r="K55">
-        <v>-4.55</v>
+        <v>-4.88</v>
       </c>
       <c r="L55">
-        <v>-25.59</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="M55">
         <v>55982</v>
@@ -2674,25 +2674,25 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>502.3</v>
+        <v>516.99</v>
       </c>
       <c r="B56">
         <v>500</v>
       </c>
       <c r="C56">
-        <v>117.33</v>
+        <v>119.54</v>
       </c>
       <c r="D56">
         <v>114.87</v>
       </c>
       <c r="E56">
-        <v>-673.89</v>
+        <v>-685.67</v>
       </c>
       <c r="F56">
         <v>-687.55</v>
       </c>
       <c r="G56">
-        <v>-66.69</v>
+        <v>-67.36</v>
       </c>
       <c r="H56">
         <v>-66</v>
@@ -2701,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>-21.66</v>
+        <v>-0.6</v>
       </c>
       <c r="K56">
-        <v>-9.61</v>
+        <v>-0.04</v>
       </c>
       <c r="L56">
-        <v>-30.18</v>
+        <v>-5.52</v>
       </c>
       <c r="M56">
         <v>56625</v>
@@ -2715,25 +2715,25 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>510.82</v>
+        <v>508.51</v>
       </c>
       <c r="B57">
         <v>500</v>
       </c>
       <c r="C57">
-        <v>122.31</v>
+        <v>124.71</v>
       </c>
       <c r="D57">
         <v>119.87</v>
       </c>
       <c r="E57">
-        <v>-690.86</v>
+        <v>-663.76</v>
       </c>
       <c r="F57">
         <v>-687.55</v>
       </c>
       <c r="G57">
-        <v>-73.56</v>
+        <v>-74.06</v>
       </c>
       <c r="H57">
         <v>-72.88</v>
@@ -2742,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>5.05</v>
+        <v>-10.45</v>
       </c>
       <c r="K57">
-        <v>0.84</v>
+        <v>-3.31</v>
       </c>
       <c r="L57">
-        <v>-28.1</v>
+        <v>5.87</v>
       </c>
       <c r="M57">
         <v>58008</v>
@@ -2756,25 +2756,25 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>493.79</v>
+        <v>508.51</v>
       </c>
       <c r="B58">
         <v>500</v>
       </c>
       <c r="C58">
-        <v>127.32</v>
+        <v>129.86000000000001</v>
       </c>
       <c r="D58">
         <v>124.87</v>
       </c>
       <c r="E58">
-        <v>-670.01</v>
+        <v>-669.95</v>
       </c>
       <c r="F58">
         <v>-687.55</v>
       </c>
       <c r="G58">
-        <v>-80.38</v>
+        <v>-80.760000000000005</v>
       </c>
       <c r="H58">
         <v>-79.760000000000005</v>
@@ -2783,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>-13.43</v>
+        <v>-12.18</v>
       </c>
       <c r="K58">
-        <v>-0.92</v>
+        <v>-6.91</v>
       </c>
       <c r="L58">
-        <v>4.07</v>
+        <v>0.5</v>
       </c>
       <c r="M58">
         <v>56610</v>
@@ -2797,25 +2797,25 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>519.33000000000004</v>
+        <v>516.99</v>
       </c>
       <c r="B59">
         <v>500</v>
       </c>
       <c r="C59">
-        <v>132.36000000000001</v>
+        <v>134.93</v>
       </c>
       <c r="D59">
         <v>129.87</v>
       </c>
       <c r="E59">
-        <v>-674.93</v>
+        <v>-688.11</v>
       </c>
       <c r="F59">
         <v>-687.55</v>
       </c>
       <c r="G59">
-        <v>-87.11</v>
+        <v>-87.55</v>
       </c>
       <c r="H59">
         <v>-86.63</v>
@@ -2824,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>-13.9</v>
+        <v>0.18</v>
       </c>
       <c r="K59">
-        <v>-5.42</v>
+        <v>0.01</v>
       </c>
       <c r="L59">
-        <v>-74.319999999999993</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M59">
         <v>56373</v>
@@ -2838,25 +2838,25 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>493.79</v>
+        <v>508.51</v>
       </c>
       <c r="B60">
         <v>500</v>
       </c>
       <c r="C60">
-        <v>137.38999999999999</v>
+        <v>140.09</v>
       </c>
       <c r="D60">
         <v>134.87</v>
       </c>
       <c r="E60">
-        <v>-685.73</v>
+        <v>-674.13</v>
       </c>
       <c r="F60">
         <v>-687.55</v>
       </c>
       <c r="G60">
-        <v>-93.89</v>
+        <v>-94.36</v>
       </c>
       <c r="H60">
         <v>-93.51</v>
@@ -2865,13 +2865,13 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>-10.86</v>
+        <v>-4.51</v>
       </c>
       <c r="K60">
-        <v>-8.18</v>
+        <v>-0.49</v>
       </c>
       <c r="L60">
-        <v>4.34</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M60">
         <v>57109</v>
@@ -2879,25 +2879,25 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>510.82</v>
+        <v>516.99</v>
       </c>
       <c r="B61">
         <v>500</v>
       </c>
       <c r="C61">
-        <v>142.43</v>
+        <v>145.22</v>
       </c>
       <c r="D61">
         <v>139.87</v>
       </c>
       <c r="E61">
-        <v>-680.45</v>
+        <v>-657.71</v>
       </c>
       <c r="F61">
         <v>-687.55</v>
       </c>
       <c r="G61">
-        <v>-100.77</v>
+        <v>-101</v>
       </c>
       <c r="H61">
         <v>-100.38</v>
@@ -2906,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>-12.29</v>
+        <v>-14.29</v>
       </c>
       <c r="K61">
-        <v>-8.08</v>
+        <v>-5.34</v>
       </c>
       <c r="L61">
-        <v>-49.33</v>
+        <v>-19.149999999999999</v>
       </c>
       <c r="M61">
         <v>60770</v>
@@ -2920,25 +2920,25 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>485.27</v>
+        <v>516.99</v>
       </c>
       <c r="B62">
         <v>500</v>
       </c>
       <c r="C62">
-        <v>147.47</v>
+        <v>150.35</v>
       </c>
       <c r="D62">
         <v>144.87</v>
       </c>
       <c r="E62">
-        <v>-673.22</v>
+        <v>-683.04</v>
       </c>
       <c r="F62">
         <v>-687.55</v>
       </c>
       <c r="G62">
-        <v>-107.51</v>
+        <v>-107.66</v>
       </c>
       <c r="H62">
         <v>-107.26</v>
@@ -2947,13 +2947,13 @@
         <v>8594.35</v>
       </c>
       <c r="J62">
-        <v>-23.43</v>
+        <v>-1.44</v>
       </c>
       <c r="K62">
-        <v>-12.06</v>
+        <v>-0.09</v>
       </c>
       <c r="L62">
-        <v>14.05</v>
+        <v>-3.71</v>
       </c>
       <c r="M62">
         <v>362</v>
@@ -2961,25 +2961,25 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>502.3</v>
+        <v>542.41999999999996</v>
       </c>
       <c r="B63">
         <v>500</v>
       </c>
       <c r="C63">
-        <v>152.49</v>
+        <v>155.54</v>
       </c>
       <c r="D63">
         <v>149.37</v>
       </c>
       <c r="E63">
-        <v>-659.58</v>
+        <v>-661.68</v>
       </c>
       <c r="F63">
         <v>-610.20000000000005</v>
       </c>
       <c r="G63">
-        <v>-114.24</v>
+        <v>-114.46</v>
       </c>
       <c r="H63">
         <v>-113.34</v>
@@ -2988,13 +2988,13 @@
         <v>8594.35</v>
       </c>
       <c r="J63">
-        <v>36.26</v>
+        <v>21.44</v>
       </c>
       <c r="K63">
-        <v>-4.83</v>
+        <v>6</v>
       </c>
       <c r="L63">
-        <v>72.44</v>
+        <v>-11.28</v>
       </c>
       <c r="M63">
         <v>2865</v>
@@ -3002,25 +3002,25 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>502.3</v>
+        <v>508.51</v>
       </c>
       <c r="B64">
         <v>500</v>
       </c>
       <c r="C64">
-        <v>157.46</v>
+        <v>160.66</v>
       </c>
       <c r="D64">
         <v>154.37</v>
       </c>
       <c r="E64">
-        <v>-485.14</v>
+        <v>-511.69</v>
       </c>
       <c r="F64">
         <v>-524.26</v>
       </c>
       <c r="G64">
-        <v>-120.02</v>
+        <v>-120.13</v>
       </c>
       <c r="H64">
         <v>-119.01</v>
@@ -3029,13 +3029,13 @@
         <v>8594.35</v>
       </c>
       <c r="J64">
-        <v>-28.51</v>
+        <v>-5.12</v>
       </c>
       <c r="K64">
-        <v>-0.34</v>
+        <v>-1.35</v>
       </c>
       <c r="L64">
-        <v>16.13</v>
+        <v>90.13</v>
       </c>
       <c r="M64">
         <v>4855</v>
@@ -3043,25 +3043,25 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>527.84</v>
+        <v>516.99</v>
       </c>
       <c r="B65">
         <v>500</v>
       </c>
       <c r="C65">
-        <v>162.44</v>
+        <v>165.79</v>
       </c>
       <c r="D65">
         <v>159.37</v>
       </c>
       <c r="E65">
-        <v>-478.73</v>
+        <v>-408.84</v>
       </c>
       <c r="F65">
         <v>-438.31</v>
       </c>
       <c r="G65">
-        <v>-124.84</v>
+        <v>-124.82</v>
       </c>
       <c r="H65">
         <v>-123.82</v>
@@ -3070,13 +3070,13 @@
         <v>8594.35</v>
       </c>
       <c r="J65">
-        <v>39.020000000000003</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="K65">
-        <v>3.95</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="L65">
-        <v>15.08</v>
+        <v>73.08</v>
       </c>
       <c r="M65">
         <v>4644</v>
@@ -3084,25 +3084,25 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>519.33000000000004</v>
+        <v>500.04</v>
       </c>
       <c r="B66">
         <v>500</v>
       </c>
       <c r="C66">
-        <v>167.35</v>
+        <v>170.86</v>
       </c>
       <c r="D66">
         <v>164.37</v>
       </c>
       <c r="E66">
-        <v>-288.02</v>
+        <v>-326.72000000000003</v>
       </c>
       <c r="F66">
         <v>-352.37</v>
       </c>
       <c r="G66">
-        <v>-129.02000000000001</v>
+        <v>-128.38999999999999</v>
       </c>
       <c r="H66">
         <v>-127.78</v>
@@ -3111,13 +3111,13 @@
         <v>8594.35</v>
       </c>
       <c r="J66">
-        <v>-25.41</v>
+        <v>-15.62</v>
       </c>
       <c r="K66">
-        <v>12.19</v>
+        <v>-7.92</v>
       </c>
       <c r="L66">
-        <v>-13.32</v>
+        <v>130.07</v>
       </c>
       <c r="M66">
         <v>4532</v>
@@ -3125,25 +3125,25 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>485.27</v>
+        <v>516.99</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67">
-        <v>172.32</v>
+        <v>175.97</v>
       </c>
       <c r="D67">
         <v>169.37</v>
       </c>
       <c r="E67">
-        <v>-286.13</v>
+        <v>-234.16</v>
       </c>
       <c r="F67">
         <v>-266.43</v>
       </c>
       <c r="G67">
-        <v>-131.88</v>
+        <v>-131.13999999999999</v>
       </c>
       <c r="H67">
         <v>-130.87</v>
@@ -3152,13 +3152,13 @@
         <v>8594.35</v>
       </c>
       <c r="J67">
-        <v>20.49</v>
+        <v>-23.56</v>
       </c>
       <c r="K67">
-        <v>6.23</v>
+        <v>-13.88</v>
       </c>
       <c r="L67">
-        <v>142.84</v>
+        <v>86.91</v>
       </c>
       <c r="M67">
         <v>4942</v>
@@ -3166,25 +3166,25 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>493.79</v>
+        <v>525.46</v>
       </c>
       <c r="B68">
         <v>500</v>
       </c>
       <c r="C68">
-        <v>177.29</v>
+        <v>181.07</v>
       </c>
       <c r="D68">
         <v>174.37</v>
       </c>
       <c r="E68">
-        <v>-138.94999999999999</v>
+        <v>-198.46</v>
       </c>
       <c r="F68">
         <v>-180.48</v>
       </c>
       <c r="G68">
-        <v>-134.4</v>
+        <v>-133.21</v>
       </c>
       <c r="H68">
         <v>-133.1</v>
@@ -3193,13 +3193,13 @@
         <v>8594.35</v>
       </c>
       <c r="J68">
-        <v>7.51</v>
+        <v>6.23</v>
       </c>
       <c r="K68">
-        <v>16.149999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="L68">
-        <v>113.3</v>
+        <v>43.82</v>
       </c>
       <c r="M68">
         <v>4881</v>
@@ -3207,40 +3207,40 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>502.3</v>
+        <v>516.99</v>
       </c>
       <c r="B69">
         <v>500</v>
       </c>
       <c r="C69">
-        <v>182.28</v>
+        <v>186.18</v>
       </c>
       <c r="D69">
-        <v>179.37</v>
+        <v>184.87</v>
       </c>
       <c r="E69">
-        <v>-107.82</v>
+        <v>-126.19</v>
       </c>
       <c r="F69">
-        <v>-94.54</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>-135.53</v>
+        <v>-134.94999999999999</v>
       </c>
       <c r="H69">
-        <v>-134.47999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I69">
-        <v>8594.35</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>10.39</v>
+        <v>22.17</v>
       </c>
       <c r="K69">
-        <v>0.52</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="L69">
-        <v>98.01</v>
+        <v>64.650000000000006</v>
       </c>
       <c r="M69">
         <v>4755</v>
@@ -3248,40 +3248,40 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>519.33000000000004</v>
+        <v>525.46</v>
       </c>
       <c r="B70">
         <v>500</v>
       </c>
       <c r="C70">
-        <v>187.2</v>
+        <v>191.34</v>
       </c>
       <c r="D70">
-        <v>186.37</v>
+        <v>189.87</v>
       </c>
       <c r="E70">
-        <v>20.170000000000002</v>
+        <v>-70.25</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>-136.11000000000001</v>
+        <v>-135.79</v>
       </c>
       <c r="H70">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>4.01</v>
+        <v>24.99</v>
       </c>
       <c r="K70">
-        <v>5.62</v>
+        <v>17.97</v>
       </c>
       <c r="L70">
-        <v>8.56</v>
+        <v>48.8</v>
       </c>
       <c r="M70">
         <v>4862</v>
@@ -3289,40 +3289,40 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>510.82</v>
+        <v>508.51</v>
       </c>
       <c r="B71">
         <v>500</v>
       </c>
       <c r="C71">
-        <v>192.22</v>
+        <v>196.46</v>
       </c>
       <c r="D71">
-        <v>191.37</v>
+        <v>194.87</v>
       </c>
       <c r="E71">
-        <v>7.45</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>-136.03</v>
+        <v>-136.16999999999999</v>
       </c>
       <c r="H71">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>-0.82</v>
+        <v>22.72</v>
       </c>
       <c r="K71">
-        <v>-0.35</v>
+        <v>21.73</v>
       </c>
       <c r="L71">
-        <v>28.5</v>
+        <v>95.59</v>
       </c>
       <c r="M71">
         <v>5307</v>
@@ -3330,40 +3330,40 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>493.79</v>
+        <v>500.04</v>
       </c>
       <c r="B72">
         <v>500</v>
       </c>
       <c r="C72">
-        <v>197.22</v>
+        <v>201.55</v>
       </c>
       <c r="D72">
-        <v>196.37</v>
+        <v>199.87</v>
       </c>
       <c r="E72">
-        <v>4.91</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>-135.97</v>
+        <v>-136.19999999999999</v>
       </c>
       <c r="H72">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>-1.48</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>-0.98</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>78.930000000000007</v>
+        <v>106.75</v>
       </c>
       <c r="M72">
         <v>4765</v>
@@ -3371,40 +3371,40 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>485.27</v>
+        <v>516.99</v>
       </c>
       <c r="B73">
         <v>500</v>
       </c>
       <c r="C73">
-        <v>202.24</v>
+        <v>206.62</v>
       </c>
       <c r="D73">
-        <v>201.37</v>
+        <v>204.87</v>
       </c>
       <c r="E73">
-        <v>20.54</v>
+        <v>8.06</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>-135.91</v>
+        <v>-136.15</v>
       </c>
       <c r="H73">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-3.15</v>
+        <v>-0.89</v>
       </c>
       <c r="K73">
-        <v>-1.64</v>
+        <v>-0.08</v>
       </c>
       <c r="L73">
-        <v>102.04</v>
+        <v>57.51</v>
       </c>
       <c r="M73">
         <v>4534</v>
@@ -3412,40 +3412,40 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>502.3</v>
+        <v>533.94000000000005</v>
       </c>
       <c r="B74">
         <v>500</v>
       </c>
       <c r="C74">
-        <v>207.26</v>
+        <v>211.75</v>
       </c>
       <c r="D74">
-        <v>206.37</v>
+        <v>209.87</v>
       </c>
       <c r="E74">
-        <v>8.73</v>
+        <v>20.2</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>-135.74</v>
+        <v>-136</v>
       </c>
       <c r="H74">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>-4.3499999999999996</v>
+        <v>-3.53</v>
       </c>
       <c r="K74">
-        <v>-3.31</v>
+        <v>-1.51</v>
       </c>
       <c r="L74">
-        <v>48.9</v>
+        <v>1.46</v>
       </c>
       <c r="M74">
         <v>4562</v>
@@ -3453,40 +3453,40 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>485.27</v>
+        <v>491.56</v>
       </c>
       <c r="B75">
         <v>500</v>
       </c>
       <c r="C75">
-        <v>212.26</v>
+        <v>216.86</v>
       </c>
       <c r="D75">
-        <v>211.37</v>
+        <v>214.87</v>
       </c>
       <c r="E75">
-        <v>4.18</v>
+        <v>29.6</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>-135.66</v>
+        <v>-135.74</v>
       </c>
       <c r="H75">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>-4.53</v>
+        <v>-7.11</v>
       </c>
       <c r="K75">
-        <v>-4.09</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="L75">
-        <v>99.81</v>
+        <v>129.53</v>
       </c>
       <c r="M75">
         <v>4936</v>
@@ -3494,40 +3494,40 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>502.3</v>
+        <v>525.46</v>
       </c>
       <c r="B76">
         <v>500</v>
       </c>
       <c r="C76">
-        <v>217.25</v>
+        <v>221.99</v>
       </c>
       <c r="D76">
-        <v>216.37</v>
+        <v>219.87</v>
       </c>
       <c r="E76">
-        <v>-1.68</v>
+        <v>29.94</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>-135.63</v>
+        <v>-135.44999999999999</v>
       </c>
       <c r="H76">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>-4.3899999999999997</v>
+        <v>-10.01</v>
       </c>
       <c r="K76">
-        <v>-4.3899999999999997</v>
+        <v>-7.02</v>
       </c>
       <c r="L76">
-        <v>49.16</v>
+        <v>21.74</v>
       </c>
       <c r="M76">
         <v>4776</v>
@@ -3535,40 +3535,40 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>502.3</v>
+        <v>525.46</v>
       </c>
       <c r="B77">
         <v>500</v>
       </c>
       <c r="C77">
-        <v>222.26</v>
+        <v>227.14</v>
       </c>
       <c r="D77">
-        <v>221.37</v>
+        <v>224.87</v>
       </c>
       <c r="E77">
-        <v>-3.72</v>
+        <v>29.27</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>-135.66999999999999</v>
+        <v>-135.15</v>
       </c>
       <c r="H77">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.92</v>
+        <v>-12.92</v>
       </c>
       <c r="K77">
-        <v>0.39</v>
+        <v>-10</v>
       </c>
       <c r="L77">
-        <v>54.08</v>
+        <v>23</v>
       </c>
       <c r="M77">
         <v>4919</v>
@@ -3576,40 +3576,40 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>502.3</v>
+        <v>533.94000000000005</v>
       </c>
       <c r="B78">
         <v>500</v>
       </c>
       <c r="C78">
-        <v>227.24</v>
+        <v>232.31</v>
       </c>
       <c r="D78">
-        <v>226.37</v>
+        <v>229.87</v>
       </c>
       <c r="E78">
-        <v>21.58</v>
+        <v>28.56</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>-135.56</v>
+        <v>-134.87</v>
       </c>
       <c r="H78">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>-3.41</v>
+        <v>-15.67</v>
       </c>
       <c r="K78">
-        <v>-1.1200000000000001</v>
+        <v>-12.82</v>
       </c>
       <c r="L78">
-        <v>50.48</v>
+        <v>-7.41</v>
       </c>
       <c r="M78">
         <v>4865</v>
@@ -3617,40 +3617,40 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>485.27</v>
+        <v>508.51</v>
       </c>
       <c r="B79">
         <v>500</v>
       </c>
       <c r="C79">
-        <v>232.21</v>
+        <v>237.43</v>
       </c>
       <c r="D79">
-        <v>231.37</v>
+        <v>234.87</v>
       </c>
       <c r="E79">
-        <v>10.01</v>
+        <v>28.44</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>-135.41</v>
+        <v>-134.59</v>
       </c>
       <c r="H79">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>-3.59</v>
+        <v>-18.43</v>
       </c>
       <c r="K79">
-        <v>-2.62</v>
+        <v>-15.59</v>
       </c>
       <c r="L79">
-        <v>102.08</v>
+        <v>53.2</v>
       </c>
       <c r="M79">
         <v>4912</v>
@@ -3658,40 +3658,40 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>510.82</v>
+        <v>525.46</v>
       </c>
       <c r="B80">
         <v>500</v>
       </c>
       <c r="C80">
-        <v>237.21</v>
+        <v>242.5</v>
       </c>
       <c r="D80">
-        <v>236.37</v>
+        <v>239.87</v>
       </c>
       <c r="E80">
-        <v>15.14</v>
+        <v>-13.7</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>-135.27000000000001</v>
+        <v>-134.52000000000001</v>
       </c>
       <c r="H80">
-        <v>-134.88999999999999</v>
+        <v>-134.38</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>-5.42</v>
+        <v>1.63</v>
       </c>
       <c r="K80">
-        <v>-4.0199999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="L80">
-        <v>23.56</v>
+        <v>23.34</v>
       </c>
       <c r="M80">
         <v>4809</v>
@@ -3699,40 +3699,40 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>502.3</v>
+        <v>0</v>
       </c>
       <c r="B81">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>242.2</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>241.37</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>4.09</v>
+        <v>-148.22</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>-135.19</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>-134.88999999999999</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>-5.22</v>
+        <v>-0.21</v>
       </c>
       <c r="K81">
-        <v>-4.8099999999999996</v>
+        <v>-0.02</v>
       </c>
       <c r="L81">
-        <v>49.31</v>
+        <v>-7.71</v>
       </c>
       <c r="M81">
         <v>5185</v>
@@ -3740,40 +3740,40 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>485.27</v>
+        <v>500.04</v>
       </c>
       <c r="B82">
         <v>500</v>
       </c>
       <c r="C82">
-        <v>247.15</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="D82">
-        <v>246.37</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>-3.6</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>-135.19</v>
+        <v>0.08</v>
       </c>
       <c r="H82">
-        <v>-134.88999999999999</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.82</v>
+        <v>-1.46</v>
       </c>
       <c r="K82">
-        <v>0.21</v>
+        <v>-0.09</v>
       </c>
       <c r="L82">
-        <v>103.22</v>
+        <v>96.3</v>
       </c>
       <c r="M82">
         <v>4888</v>
@@ -3781,25 +3781,25 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>493.79</v>
+        <v>525.46</v>
       </c>
       <c r="B83">
         <v>500</v>
       </c>
       <c r="C83">
-        <v>4.47</v>
+        <v>10.25</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>-0.02</v>
+        <v>0.11</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3808,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>77.599999999999994</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="M83">
         <v>4774</v>
@@ -3822,25 +3822,25 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>493.79</v>
+        <v>533.94000000000005</v>
       </c>
       <c r="B84">
         <v>500</v>
       </c>
       <c r="C84">
-        <v>9.44</v>
+        <v>15.4</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-6.04</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>-0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3849,13 +3849,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>-0.21</v>
+        <v>0.97</v>
       </c>
       <c r="K84">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
       <c r="L84">
-        <v>78.19</v>
+        <v>-2.46</v>
       </c>
       <c r="M84">
         <v>4629</v>
@@ -3863,25 +3863,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>493.79</v>
+        <v>508.51</v>
       </c>
       <c r="B85">
         <v>500</v>
       </c>
       <c r="C85">
-        <v>14.47</v>
+        <v>20.52</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>-4.3899999999999997</v>
+        <v>-10.38</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3890,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="K85">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="L85">
-        <v>78.5</v>
+        <v>75.86</v>
       </c>
       <c r="M85">
         <v>4619</v>
@@ -3904,19 +3904,19 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>502.3</v>
+        <v>491.56</v>
       </c>
       <c r="B86">
-        <v>500</v>
+        <v>485.6</v>
       </c>
       <c r="C86">
-        <v>19.489999999999998</v>
+        <v>25.54</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="E86">
-        <v>-6.2</v>
+        <v>-17.64</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3931,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1.77</v>
+        <v>4.46</v>
       </c>
       <c r="K86">
-        <v>0.9</v>
+        <v>1.81</v>
       </c>
       <c r="L86">
-        <v>53.34</v>
+        <v>57.94</v>
       </c>
       <c r="M86">
         <v>4739</v>
@@ -3945,25 +3945,25 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>510.82</v>
+        <v>474.61</v>
       </c>
       <c r="B87">
-        <v>489.2</v>
+        <v>467.6</v>
       </c>
       <c r="C87">
-        <v>24.45</v>
+        <v>30.38</v>
       </c>
       <c r="D87">
-        <v>23.52</v>
+        <v>29.26</v>
       </c>
       <c r="E87">
-        <v>-6.62</v>
+        <v>-8.61</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>-0.23</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3972,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>2.52</v>
+        <v>1.38</v>
       </c>
       <c r="K87">
-        <v>1.56</v>
+        <v>0.09</v>
       </c>
       <c r="L87">
-        <v>-29.55</v>
+        <v>45.33</v>
       </c>
       <c r="M87">
         <v>4696</v>
@@ -3986,25 +3986,25 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>476.76</v>
+        <v>466.14</v>
       </c>
       <c r="B88">
-        <v>471.2</v>
+        <v>449.6</v>
       </c>
       <c r="C88">
-        <v>29.23</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="D88">
-        <v>28.33</v>
+        <v>33.85</v>
       </c>
       <c r="E88">
-        <v>9.4600000000000009</v>
+        <v>5.34</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>-0.28000000000000003</v>
+        <v>-0.3</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4013,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>-0.8</v>
+        <v>-0.85</v>
       </c>
       <c r="K88">
         <v>-0.05</v>
       </c>
       <c r="L88">
-        <v>52.77</v>
+        <v>8.82</v>
       </c>
       <c r="M88">
         <v>4681</v>
@@ -4027,25 +4027,25 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>468.25</v>
+        <v>432.24</v>
       </c>
       <c r="B89">
-        <v>453.2</v>
+        <v>431.6</v>
       </c>
       <c r="C89">
-        <v>33.92</v>
+        <v>39.54</v>
       </c>
       <c r="D89">
-        <v>32.950000000000003</v>
+        <v>38.26</v>
       </c>
       <c r="E89">
-        <v>5.89</v>
+        <v>-18.77</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>-0.19</v>
+        <v>-0.27</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4054,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>-2.02</v>
+        <v>3.31</v>
       </c>
       <c r="K89">
-        <v>-0.88</v>
+        <v>0.52</v>
       </c>
       <c r="L89">
-        <v>16.66</v>
+        <v>52.53</v>
       </c>
       <c r="M89">
         <v>4818</v>
@@ -4068,25 +4068,25 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>434.19</v>
+        <v>415.29</v>
       </c>
       <c r="B90">
-        <v>435.2</v>
+        <v>413.6</v>
       </c>
       <c r="C90">
-        <v>38.43</v>
+        <v>43.86</v>
       </c>
       <c r="D90">
-        <v>37.39</v>
+        <v>42.48</v>
       </c>
       <c r="E90">
-        <v>-16.63</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>-0.26</v>
+        <v>-0.31</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4095,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>3.66</v>
+        <v>1.7</v>
       </c>
       <c r="K90">
-        <v>0.76</v>
+        <v>0.11</v>
       </c>
       <c r="L90">
-        <v>64.17</v>
+        <v>53.38</v>
       </c>
       <c r="M90">
         <v>5278</v>
@@ -4109,25 +4109,25 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>417.17</v>
+        <v>398.34</v>
       </c>
       <c r="B91">
-        <v>417.2</v>
+        <v>395.6</v>
       </c>
       <c r="C91">
-        <v>42.76</v>
+        <v>48</v>
       </c>
       <c r="D91">
-        <v>41.65</v>
+        <v>46.53</v>
       </c>
       <c r="E91">
-        <v>9.77</v>
+        <v>-7.84</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4136,13 +4136,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>-1.54</v>
+        <v>1.54</v>
       </c>
       <c r="K91">
-        <v>-0.16</v>
+        <v>0.1</v>
       </c>
       <c r="L91">
-        <v>50</v>
+        <v>43.31</v>
       </c>
       <c r="M91">
         <v>4999</v>
@@ -4150,25 +4150,25 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>417.17</v>
+        <v>364.44</v>
       </c>
       <c r="B92">
-        <v>399.2</v>
+        <v>377.6</v>
       </c>
       <c r="C92">
-        <v>46.93</v>
+        <v>51.89</v>
       </c>
       <c r="D92">
-        <v>45.73</v>
+        <v>50.39</v>
       </c>
       <c r="E92">
-        <v>-4.79</v>
+        <v>-2.66</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>-0.36</v>
+        <v>-0.31</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1.64</v>
+        <v>0.11</v>
       </c>
       <c r="K92">
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="L92">
-        <v>-0.18</v>
+        <v>84.83</v>
       </c>
       <c r="M92">
         <v>4966</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>383.11</v>
+        <v>355.96</v>
       </c>
       <c r="B93">
-        <v>381.2</v>
+        <v>359.6</v>
       </c>
       <c r="C93">
-        <v>50.9</v>
+        <v>55.62</v>
       </c>
       <c r="D93">
-        <v>49.64</v>
+        <v>54.08</v>
       </c>
       <c r="E93">
-        <v>6.35</v>
+        <v>-10.56</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>-0.34</v>
+        <v>-0.31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4218,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>-1.06</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K93">
-        <v>-0.3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L93">
-        <v>38.74</v>
+        <v>52.16</v>
       </c>
       <c r="M93">
         <v>4925</v>
@@ -4232,25 +4232,25 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>383.11</v>
+        <v>347.48</v>
       </c>
       <c r="B94">
-        <v>363.2</v>
+        <v>341.6</v>
       </c>
       <c r="C94">
-        <v>54.68</v>
+        <v>59.15</v>
       </c>
       <c r="D94">
-        <v>53.36</v>
+        <v>57.59</v>
       </c>
       <c r="E94">
-        <v>11.35</v>
+        <v>1.28</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>-0.28999999999999998</v>
+        <v>-0.33</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4259,13 +4259,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>-2.11</v>
+        <v>-0.37</v>
       </c>
       <c r="K94">
-        <v>-0.82</v>
+        <v>-0.02</v>
       </c>
       <c r="L94">
-        <v>-22.33</v>
+        <v>24.72</v>
       </c>
       <c r="M94">
         <v>4967</v>
@@ -4273,25 +4273,25 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>366.08</v>
+        <v>322.06</v>
       </c>
       <c r="B95">
-        <v>345.2</v>
+        <v>323.60000000000002</v>
       </c>
       <c r="C95">
-        <v>58.28</v>
+        <v>62.51</v>
       </c>
       <c r="D95">
-        <v>56.9</v>
+        <v>60.91</v>
       </c>
       <c r="E95">
-        <v>-4.0599999999999996</v>
+        <v>5.83</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>-0.23</v>
+        <v>-0.35</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4300,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0.44</v>
+        <v>-0.88</v>
       </c>
       <c r="K95">
-        <v>0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="L95">
-        <v>-19.88</v>
+        <v>42.37</v>
       </c>
       <c r="M95">
         <v>4960</v>
@@ -4314,25 +4314,25 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>323.52</v>
+        <v>322.06</v>
       </c>
       <c r="B96">
-        <v>327.2</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="C96">
-        <v>61.67</v>
+        <v>65.7</v>
       </c>
       <c r="D96">
-        <v>60.26</v>
+        <v>64.06</v>
       </c>
       <c r="E96">
-        <v>-0.67</v>
+        <v>5</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>-0.2</v>
+        <v>-0.36</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4341,13 +4341,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>47.85</v>
+        <v>-15.73</v>
       </c>
       <c r="M96">
         <v>4920</v>
@@ -4355,25 +4355,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>297.98</v>
+        <v>288.16000000000003</v>
       </c>
       <c r="B97">
-        <v>309.2</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="C97">
-        <v>64.88</v>
+        <v>68.7</v>
       </c>
       <c r="D97">
-        <v>63.44</v>
+        <v>67.02</v>
       </c>
       <c r="E97">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>-0.21</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4382,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>-0.53</v>
+        <v>0.24</v>
       </c>
       <c r="K97">
-        <v>-0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L97">
-        <v>65.459999999999994</v>
+        <v>25.04</v>
       </c>
       <c r="M97">
         <v>4875</v>
@@ -4396,25 +4396,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>306.49</v>
+        <v>279.68</v>
       </c>
       <c r="B98">
-        <v>291.2</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="C98">
-        <v>67.91</v>
+        <v>71.510000000000005</v>
       </c>
       <c r="D98">
-        <v>66.45</v>
+        <v>69.81</v>
       </c>
       <c r="E98">
-        <v>-0.92</v>
+        <v>10.31</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>-0.24</v>
+        <v>-0.15</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4423,13 +4423,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1.03</v>
+        <v>-3.41</v>
       </c>
       <c r="K98">
-        <v>0.35</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="L98">
-        <v>-14.16</v>
+        <v>-8.1</v>
       </c>
       <c r="M98">
         <v>4882</v>
@@ -4437,25 +4437,25 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>280.95</v>
+        <v>271.20999999999998</v>
       </c>
       <c r="B99">
-        <v>273.2</v>
+        <v>251.6</v>
       </c>
       <c r="C99">
-        <v>70.739999999999995</v>
+        <v>74.13</v>
       </c>
       <c r="D99">
-        <v>69.27</v>
+        <v>72.42</v>
       </c>
       <c r="E99">
-        <v>-2.84</v>
+        <v>11.63</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>-0.23</v>
+        <v>-0.12</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4464,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0.28000000000000003</v>
+        <v>-1.33</v>
       </c>
       <c r="K99">
-        <v>0.02</v>
+        <v>-0.08</v>
       </c>
       <c r="L99">
-        <v>4.67</v>
+        <v>-38.69</v>
       </c>
       <c r="M99">
         <v>4869</v>
@@ -4478,25 +4478,25 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>246.89</v>
+        <v>237.31</v>
       </c>
       <c r="B100">
-        <v>255.2</v>
+        <v>233.6</v>
       </c>
       <c r="C100">
-        <v>73.39</v>
+        <v>76.55</v>
       </c>
       <c r="D100">
-        <v>71.91</v>
+        <v>74.84</v>
       </c>
       <c r="E100">
-        <v>-0.89</v>
+        <v>-5.68</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>-0.25</v>
+        <v>-0.03</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4505,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>-0.27</v>
+        <v>0.23</v>
       </c>
       <c r="K100">
-        <v>-0.09</v>
+        <v>0.01</v>
       </c>
       <c r="L100">
-        <v>49.32</v>
+        <v>7.47</v>
       </c>
       <c r="M100">
         <v>4848</v>
@@ -4519,25 +4519,25 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>246.89</v>
+        <v>220.36</v>
       </c>
       <c r="B101">
-        <v>237.2</v>
+        <v>215.6</v>
       </c>
       <c r="C101">
-        <v>75.89</v>
+        <v>78.790000000000006</v>
       </c>
       <c r="D101">
-        <v>74.37</v>
+        <v>77.09</v>
       </c>
       <c r="E101">
-        <v>-2.99</v>
+        <v>18.25</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>-0.28999999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4546,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0.95</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="K101">
-        <v>0.4</v>
+        <v>-0.13</v>
       </c>
       <c r="L101">
-        <v>-8.76</v>
+        <v>-1.82</v>
       </c>
       <c r="M101">
         <v>4851</v>
@@ -4560,25 +4560,25 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>195.81</v>
+        <v>211.88</v>
       </c>
       <c r="B102">
-        <v>219.2</v>
+        <v>197.6</v>
       </c>
       <c r="C102">
-        <v>78.150000000000006</v>
+        <v>80.86</v>
       </c>
       <c r="D102">
-        <v>76.650000000000006</v>
+        <v>79.150000000000006</v>
       </c>
       <c r="E102">
-        <v>-4.88</v>
+        <v>-9.1199999999999992</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>-0.28000000000000003</v>
+        <v>0.01</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4587,13 +4587,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0.42</v>
+        <v>0.86</v>
       </c>
       <c r="K102">
-        <v>-0.09</v>
+        <v>0.05</v>
       </c>
       <c r="L102">
-        <v>88.45</v>
+        <v>-30.32</v>
       </c>
       <c r="M102">
         <v>4849</v>
@@ -4601,25 +4601,25 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>187.3</v>
+        <v>161.03</v>
       </c>
       <c r="B103">
-        <v>201.2</v>
+        <v>179.6</v>
       </c>
       <c r="C103">
-        <v>80.27</v>
+        <v>82.74</v>
       </c>
       <c r="D103">
-        <v>78.760000000000005</v>
+        <v>81.040000000000006</v>
       </c>
       <c r="E103">
-        <v>-4.21</v>
+        <v>12.21</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>-0.32</v>
+        <v>0.03</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4628,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.76</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="K103">
-        <v>0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="L103">
-        <v>55.84</v>
+        <v>61.72</v>
       </c>
       <c r="M103">
         <v>4844</v>
@@ -4642,25 +4642,25 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>178.79</v>
+        <v>152.55000000000001</v>
       </c>
       <c r="B104">
-        <v>183.2</v>
+        <v>161.6</v>
       </c>
       <c r="C104">
-        <v>82.2</v>
+        <v>84.44</v>
       </c>
       <c r="D104">
-        <v>80.680000000000007</v>
+        <v>82.75</v>
       </c>
       <c r="E104">
-        <v>-8.73</v>
+        <v>5.37</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>-0.33</v>
+        <v>0.08</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1.28</v>
+        <v>-0.59</v>
       </c>
       <c r="K104">
-        <v>0.13</v>
+        <v>-0.04</v>
       </c>
       <c r="L104">
-        <v>24.69</v>
+        <v>30.43</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -4683,25 +4683,25 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>178.79</v>
+        <v>127.13</v>
       </c>
       <c r="B105">
-        <v>165.2</v>
+        <v>143.6</v>
       </c>
       <c r="C105">
-        <v>83.96</v>
+        <v>85.96</v>
       </c>
       <c r="D105">
-        <v>82.42</v>
+        <v>84.27</v>
       </c>
       <c r="E105">
-        <v>-4.67</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>-0.36</v>
+        <v>0.12</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4710,13 +4710,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="K105">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="L105">
-        <v>-34.99</v>
+        <v>49.59</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -4724,25 +4724,25 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>153.24</v>
+        <v>127.13</v>
       </c>
       <c r="B106">
-        <v>147.19999999999999</v>
+        <v>125.6</v>
       </c>
       <c r="C106">
-        <v>85.52</v>
+        <v>87.29</v>
       </c>
       <c r="D106">
-        <v>83.98</v>
+        <v>85.62</v>
       </c>
       <c r="E106">
-        <v>5.37</v>
+        <v>1.8</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>-0.37</v>
+        <v>0.16</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>-0.98</v>
+        <v>-0.11</v>
       </c>
       <c r="K106">
-        <v>0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="L106">
-        <v>-17.239999999999998</v>
+        <v>-7.86</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -4765,25 +4765,25 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>136.22</v>
+        <v>93.23</v>
       </c>
       <c r="B107">
-        <v>129.19999999999999</v>
+        <v>107.6</v>
       </c>
       <c r="C107">
-        <v>86.9</v>
+        <v>88.44</v>
       </c>
       <c r="D107">
-        <v>85.36</v>
+        <v>86.78</v>
       </c>
       <c r="E107">
-        <v>5.52</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>-0.36</v>
+        <v>0.22</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4792,13 +4792,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>-0.72</v>
+        <v>-0.37</v>
       </c>
       <c r="K107">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="L107">
-        <v>-23.67</v>
+        <v>36.43</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -4806,25 +4806,25 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>119.19</v>
+        <v>93.23</v>
       </c>
       <c r="B108">
-        <v>111.2</v>
+        <v>89.6</v>
       </c>
       <c r="C108">
-        <v>88.1</v>
+        <v>89.42</v>
       </c>
       <c r="D108">
-        <v>86.57</v>
+        <v>87.77</v>
       </c>
       <c r="E108">
-        <v>2.84</v>
+        <v>-3.54</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>-0.34</v>
+        <v>0.22</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4833,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>-0.27</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K108">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L108">
-        <v>-29.07</v>
+        <v>-20.41</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -4847,25 +4847,25 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>102.16</v>
+        <v>59.33</v>
       </c>
       <c r="B109">
-        <v>93.2</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="C109">
-        <v>89.13</v>
+        <v>90.2</v>
       </c>
       <c r="D109">
-        <v>87.59</v>
+        <v>88.58</v>
       </c>
       <c r="E109">
-        <v>7.23</v>
+        <v>-1.19</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>-0.32</v>
+        <v>0.22</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>-0.94</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>-36.840000000000003</v>
+        <v>23.81</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -4888,25 +4888,25 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>68.11</v>
+        <v>50.85</v>
       </c>
       <c r="B110">
-        <v>75.2</v>
+        <v>53.6</v>
       </c>
       <c r="C110">
-        <v>89.95</v>
+        <v>90.8</v>
       </c>
       <c r="D110">
-        <v>88.43</v>
+        <v>89.2</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>-0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4915,13 +4915,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>-0.43</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="L110">
-        <v>9.24</v>
+        <v>-9.16</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -4929,25 +4929,25 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>59.6</v>
+        <v>33.9</v>
       </c>
       <c r="B111">
-        <v>57.2</v>
+        <v>35.6</v>
       </c>
       <c r="C111">
-        <v>90.55</v>
+        <v>91.24</v>
       </c>
       <c r="D111">
-        <v>89.09</v>
+        <v>89.65</v>
       </c>
       <c r="E111">
-        <v>-1.65</v>
+        <v>1.4</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>-0.28000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -4956,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0.28000000000000003</v>
+        <v>-0.22</v>
       </c>
       <c r="K111">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="L111">
-        <v>-20.75</v>
+        <v>-15.77</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -4970,25 +4970,25 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <v>42.57</v>
+        <v>16.95</v>
       </c>
       <c r="B112">
-        <v>39.200000000000003</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C112">
-        <v>91</v>
+        <v>91.47</v>
       </c>
       <c r="D112">
-        <v>89.57</v>
+        <v>89.91</v>
       </c>
       <c r="E112">
-        <v>-0.7</v>
+        <v>1.59</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>-0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4997,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.11</v>
+        <v>-0.25</v>
       </c>
       <c r="K112">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="L112">
-        <v>-28.34</v>
+        <v>-21.81</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -5011,16 +5011,16 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
-        <v>17.03</v>
+        <v>0</v>
       </c>
       <c r="B113">
-        <v>21.2</v>
+        <v>-0.4</v>
       </c>
       <c r="C113">
-        <v>91.27</v>
+        <v>91.53</v>
       </c>
       <c r="D113">
-        <v>89.88</v>
+        <v>90</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>-0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>-8.6300000000000008</v>
+        <v>-27.62</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -5055,22 +5055,22 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <v>3.2</v>
+        <v>-0.4</v>
       </c>
       <c r="C114">
-        <v>91.38</v>
+        <v>91.5</v>
       </c>
       <c r="D114">
         <v>90</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>-0.98</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>-0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5079,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L114">
-        <v>-14.71</v>
+        <v>-27.93</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>-0.4</v>
       </c>
       <c r="C115">
-        <v>91.37</v>
+        <v>91.45</v>
       </c>
       <c r="D115">
         <v>90</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>-0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>-27.22</v>
+        <v>-27.77</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -5134,13 +5134,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <v>-8.51</v>
+        <v>-8.48</v>
       </c>
       <c r="B116">
         <v>-0.4</v>
       </c>
       <c r="C116">
-        <v>91.32</v>
+        <v>91.4</v>
       </c>
       <c r="D116">
         <v>90</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>-0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>-0.87</v>
+        <v>-2.27</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>-0.4</v>
       </c>
       <c r="C117">
-        <v>91.27</v>
+        <v>91.35</v>
       </c>
       <c r="D117">
         <v>90</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>-0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>-26.1</v>
+        <v>-27.21</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -5216,25 +5216,25 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <v>0</v>
+        <v>-8.48</v>
       </c>
       <c r="B118">
         <v>-0.4</v>
       </c>
       <c r="C118">
-        <v>91.21</v>
+        <v>91.3</v>
       </c>
       <c r="D118">
         <v>90</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>-2.23</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>-0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5243,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L118">
-        <v>-25.8</v>
+        <v>-1.3</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -5260,13 +5260,13 @@
         <v>0</v>
       </c>
       <c r="B119">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>91.16</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>-0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <v>-25.49</v>
+        <v>0</v>
       </c>
       <c r="M119">
         <v>0</v>

--- a/MATLAB/logexcel.xlsx
+++ b/MATLAB/logexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOSEIDenken\Desktop\halfmouse\mouse\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2E564A-6D71-42BB-AADD-418C25B12382}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0087F7-7505-4FC4-94E8-90D65F3CDCE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2390" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1400" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,13 +403,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>0</v>
+        <v>8.48</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <v>23.72</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>41.72</v>
+        <v>38.56</v>
       </c>
       <c r="M1">
         <v>4854</v>
@@ -444,25 +444,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>16.95</v>
+        <v>42.38</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>32.4</v>
       </c>
       <c r="C2">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-1.37</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
-        <v>25.18</v>
+        <v>-5.68</v>
       </c>
       <c r="M2">
         <v>4887</v>
@@ -485,25 +485,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>33.9</v>
+        <v>25.43</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>50.4</v>
       </c>
       <c r="C3">
-        <v>0.39</v>
+        <v>0.69</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.5299999999999998</v>
+        <v>16.91</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.16</v>
+        <v>-2.34</v>
       </c>
       <c r="K3">
-        <v>-0.01</v>
+        <v>-0.25</v>
       </c>
       <c r="L3">
-        <v>31.4</v>
+        <v>101.7</v>
       </c>
       <c r="M3">
         <v>4929</v>
@@ -529,22 +529,22 @@
         <v>59.33</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-6.62</v>
+        <v>1.62</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.27</v>
+        <v>0.54</v>
       </c>
       <c r="K4">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="L4">
-        <v>17.010000000000002</v>
+        <v>63.6</v>
       </c>
       <c r="M4">
         <v>4828</v>
@@ -567,25 +567,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>67.8</v>
+        <v>76.28</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>86.4</v>
       </c>
       <c r="C5">
-        <v>1.36</v>
+        <v>1.94</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-9.06</v>
+        <v>-8.42</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.6</v>
+        <v>2.44</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
       <c r="L5">
-        <v>46.93</v>
+        <v>73.430000000000007</v>
       </c>
       <c r="M5">
         <v>4722</v>
@@ -611,22 +611,22 @@
         <v>101.7</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>104.4</v>
       </c>
       <c r="C6">
-        <v>2.16</v>
+        <v>2.84</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-9.92</v>
+        <v>-15.47</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.55</v>
+        <v>3.19</v>
       </c>
       <c r="K6">
-        <v>0.1</v>
+        <v>0.73</v>
       </c>
       <c r="L6">
-        <v>3.28</v>
+        <v>57.57</v>
       </c>
       <c r="M6">
         <v>4736</v>
@@ -649,25 +649,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>93.23</v>
+        <v>101.7</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>122.4</v>
       </c>
       <c r="C7">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-9.77</v>
+        <v>-10.59</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.21</v>
+        <v>-0.27</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="K7">
         <v>0.1</v>
       </c>
       <c r="L7">
-        <v>87.54</v>
+        <v>106.85</v>
       </c>
       <c r="M7">
         <v>4478</v>
@@ -690,25 +690,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>118.65</v>
+        <v>135.6</v>
       </c>
       <c r="B8">
-        <v>126</v>
+        <v>140.4</v>
       </c>
       <c r="C8">
-        <v>4.16</v>
+        <v>5.25</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-5.92</v>
+        <v>-4.76</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>-0.25</v>
+        <v>-0.32</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="K8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L8">
-        <v>69.69</v>
+        <v>61.74</v>
       </c>
       <c r="M8">
         <v>4201</v>
@@ -731,25 +731,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>135.6</v>
+        <v>177.98</v>
       </c>
       <c r="B9">
-        <v>144</v>
+        <v>158.4</v>
       </c>
       <c r="C9">
-        <v>5.43</v>
+        <v>6.75</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-7.35</v>
+        <v>-5.19</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-0.32</v>
+        <v>-0.38</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.05</v>
+        <v>0.41</v>
       </c>
       <c r="K9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="L9">
-        <v>79.459999999999994</v>
+        <v>-7.41</v>
       </c>
       <c r="M9">
         <v>4505</v>
@@ -772,25 +772,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>161.03</v>
+        <v>169.5</v>
       </c>
       <c r="B10">
-        <v>162</v>
+        <v>176.4</v>
       </c>
       <c r="C10">
-        <v>6.99</v>
+        <v>8.42</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-5.19</v>
+        <v>-1.92</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.4</v>
+        <v>-0.48</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.1499999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="K10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="L10">
-        <v>54.7</v>
+        <v>76.55</v>
       </c>
       <c r="M10">
         <v>4494</v>
@@ -813,25 +813,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>186.46</v>
+        <v>194.93</v>
       </c>
       <c r="B11">
-        <v>180</v>
+        <v>194.4</v>
       </c>
       <c r="C11">
-        <v>8.68</v>
+        <v>10.33</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-5.25</v>
+        <v>-10.96</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.42</v>
+        <v>-0.53</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.79</v>
+        <v>1.89</v>
       </c>
       <c r="K11">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="L11">
-        <v>37.07</v>
+        <v>58.32</v>
       </c>
       <c r="M11">
         <v>4584</v>
@@ -857,22 +857,22 @@
         <v>220.36</v>
       </c>
       <c r="B12">
-        <v>198</v>
+        <v>212.4</v>
       </c>
       <c r="C12">
-        <v>10.61</v>
+        <v>12.38</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-6.62</v>
+        <v>-13.95</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-0.45</v>
+        <v>-0.61</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -881,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9</v>
+        <v>2.16</v>
       </c>
       <c r="K12">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="L12">
-        <v>-7.45</v>
+        <v>40.340000000000003</v>
       </c>
       <c r="M12">
         <v>4824</v>
@@ -895,25 +895,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>203.41</v>
+        <v>220.36</v>
       </c>
       <c r="B13">
-        <v>216</v>
+        <v>230.4</v>
       </c>
       <c r="C13">
-        <v>12.7</v>
+        <v>14.59</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-1.01</v>
+        <v>-6.32</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.47</v>
+        <v>-0.64</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -922,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L13">
-        <v>100.74</v>
+        <v>97.65</v>
       </c>
       <c r="M13">
         <v>5023</v>
@@ -939,22 +939,22 @@
         <v>228.83</v>
       </c>
       <c r="B14">
-        <v>234</v>
+        <v>248.4</v>
       </c>
       <c r="C14">
-        <v>14.97</v>
+        <v>16.98</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.59</v>
+        <v>-8.94</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.47</v>
+        <v>-0.67</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="K14">
-        <v>-0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L14">
-        <v>81.59</v>
+        <v>131.09</v>
       </c>
       <c r="M14">
         <v>5084</v>
@@ -977,25 +977,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>237.31</v>
+        <v>271.20999999999998</v>
       </c>
       <c r="B15">
-        <v>252</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="C15">
-        <v>17.420000000000002</v>
+        <v>19.57</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.06</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-0.41</v>
+        <v>-0.68</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1004,13 +1004,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>-1.33</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>113.02</v>
+        <v>62.51</v>
       </c>
       <c r="M15">
         <v>4887</v>
@@ -1021,22 +1021,22 @@
         <v>279.68</v>
       </c>
       <c r="B16">
-        <v>270</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="C16">
-        <v>20.04</v>
+        <v>22.37</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.62</v>
+        <v>6.87</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.35</v>
+        <v>-0.68</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>-0.37</v>
+        <v>-0.69</v>
       </c>
       <c r="K16">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="L16">
-        <v>44.52</v>
+        <v>93.66</v>
       </c>
       <c r="M16">
         <v>4668</v>
@@ -1059,25 +1059,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>271.20999999999998</v>
+        <v>313.58</v>
       </c>
       <c r="B17">
-        <v>288</v>
+        <v>302.39999999999998</v>
       </c>
       <c r="C17">
-        <v>22.82</v>
+        <v>25.33</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.91</v>
+        <v>5.65</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-0.25</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1086,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>-1.74</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="K17">
-        <v>-0.11</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L17">
-        <v>123.55</v>
+        <v>49.37</v>
       </c>
       <c r="M17">
         <v>4463</v>
@@ -1100,25 +1100,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>305.11</v>
+        <v>322.06</v>
       </c>
       <c r="B18">
-        <v>306</v>
+        <v>320.39999999999998</v>
       </c>
       <c r="C18">
-        <v>25.86</v>
+        <v>28.49</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.21</v>
+        <v>19.38</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-0.21</v>
+        <v>-0.42</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>-1.91</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="K18">
-        <v>-0.12</v>
+        <v>-1.43</v>
       </c>
       <c r="L18">
-        <v>79.02</v>
+        <v>77.2</v>
       </c>
       <c r="M18">
         <v>4623</v>
@@ -1144,22 +1144,22 @@
         <v>330.53</v>
       </c>
       <c r="B19">
-        <v>324</v>
+        <v>338.4</v>
       </c>
       <c r="C19">
-        <v>29.04</v>
+        <v>31.84</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.2000000000000002</v>
+        <v>28.53</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.18</v>
+        <v>-0.26</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1168,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.38</v>
+        <v>-4.92</v>
       </c>
       <c r="K19">
-        <v>0.02</v>
+        <v>-0.81</v>
       </c>
       <c r="L19">
-        <v>61.78</v>
+        <v>101.75</v>
       </c>
       <c r="M19">
         <v>4822</v>
@@ -1182,25 +1182,25 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>347.48</v>
+        <v>364.44</v>
       </c>
       <c r="B20">
-        <v>342</v>
+        <v>356.4</v>
       </c>
       <c r="C20">
-        <v>32.43</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-4.5199999999999996</v>
+        <v>7.63</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.42</v>
+        <v>-0.45</v>
       </c>
       <c r="K20">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="L20">
-        <v>66.959999999999994</v>
+        <v>63.61</v>
       </c>
       <c r="M20">
         <v>4665</v>
@@ -1223,25 +1223,25 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>364.44</v>
+        <v>406.81</v>
       </c>
       <c r="B21">
-        <v>360</v>
+        <v>374.4</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>39.11</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>-4.33</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.11</v>
+        <v>0.02</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>-0.27</v>
+        <v>0.45</v>
       </c>
       <c r="K21">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L21">
-        <v>71.53</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="M21">
         <v>4732</v>
@@ -1264,25 +1264,25 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>381.39</v>
+        <v>406.81</v>
       </c>
       <c r="B22">
-        <v>378</v>
+        <v>392.4</v>
       </c>
       <c r="C22">
-        <v>39.74</v>
+        <v>43.01</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4.9400000000000004</v>
+        <v>-2.69</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>-0.81</v>
+        <v>-0.38</v>
       </c>
       <c r="K22">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="L22">
-        <v>76.62</v>
+        <v>50.11</v>
       </c>
       <c r="M22">
         <v>4756</v>
@@ -1305,25 +1305,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>398.34</v>
+        <v>406.81</v>
       </c>
       <c r="B23">
-        <v>396</v>
+        <v>410.4</v>
       </c>
       <c r="C23">
-        <v>43.66</v>
+        <v>47.11</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-0.18</v>
+        <v>0.13</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3</v>
+        <v>-0.83</v>
       </c>
       <c r="K23">
-        <v>0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="L23">
-        <v>83.18</v>
+        <v>105.12</v>
       </c>
       <c r="M23">
         <v>4463</v>
@@ -1349,22 +1349,22 @@
         <v>423.76</v>
       </c>
       <c r="B24">
-        <v>414</v>
+        <v>428.4</v>
       </c>
       <c r="C24">
-        <v>47.79</v>
+        <v>51.4</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-9.31</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-0.2</v>
+        <v>0.13</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2.15</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="K24">
-        <v>0.35</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L24">
-        <v>64.33</v>
+        <v>108.78</v>
       </c>
       <c r="M24">
         <v>4601</v>
@@ -1387,25 +1387,25 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>440.71</v>
+        <v>432.24</v>
       </c>
       <c r="B25">
-        <v>432</v>
+        <v>446.4</v>
       </c>
       <c r="C25">
-        <v>52.08</v>
+        <v>55.82</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-6.41</v>
+        <v>0.92</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>-0.24</v>
+        <v>0.13</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.17</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="K25">
-        <v>7.0000000000000007E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L25">
-        <v>68.64</v>
+        <v>139.94</v>
       </c>
       <c r="M25">
         <v>4699</v>
@@ -1428,25 +1428,25 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>440.71</v>
+        <v>466.14</v>
       </c>
       <c r="B26">
-        <v>450</v>
+        <v>464.4</v>
       </c>
       <c r="C26">
-        <v>56.56</v>
+        <v>60.45</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>-3.27</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>-0.23</v>
+        <v>0.13</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L26">
-        <v>134.94</v>
+        <v>94.56</v>
       </c>
       <c r="M26">
         <v>4688</v>
@@ -1469,25 +1469,25 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>483.09</v>
+        <v>508.51</v>
       </c>
       <c r="B27">
-        <v>468</v>
+        <v>482.4</v>
       </c>
       <c r="C27">
-        <v>61.28</v>
+        <v>65.28</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>2.23</v>
+        <v>-3.66</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>-0.21</v>
+        <v>0.13</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>-0.21</v>
+        <v>0.41</v>
       </c>
       <c r="K27">
-        <v>-0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L27">
-        <v>61.79</v>
+        <v>23.02</v>
       </c>
       <c r="M27">
         <v>4609</v>
@@ -1510,25 +1510,25 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>483.09</v>
+        <v>525.46</v>
       </c>
       <c r="B28">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="C28">
-        <v>66.150000000000006</v>
+        <v>70.290000000000006</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2.56</v>
+        <v>-9.16</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.2</v>
+        <v>0.12</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>-0.21</v>
+        <v>1.49</v>
       </c>
       <c r="K28">
-        <v>-0.01</v>
+        <v>0.09</v>
       </c>
       <c r="L28">
-        <v>116.54</v>
+        <v>9.25</v>
       </c>
       <c r="M28">
         <v>4796</v>
@@ -1551,25 +1551,25 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>508.51</v>
+        <v>483.09</v>
       </c>
       <c r="B29">
         <v>500</v>
       </c>
       <c r="C29">
-        <v>71.17</v>
+        <v>75.3</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-2.29</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.19</v>
+        <v>0.1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1578,47 +1578,47 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.45</v>
+        <v>0.16</v>
       </c>
       <c r="K29">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L29">
-        <v>65.760000000000005</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="M29">
         <v>5053</v>
       </c>
       <c r="N29">
         <f>AVERAGE(K30:K36)</f>
-        <v>6.9999999999999993E-2</v>
+        <v>-3.2857142857142863E-2</v>
       </c>
       <c r="O29">
         <f>AVERAGE(L30:L36)</f>
-        <v>62.761428571428574</v>
+        <v>58.567142857142862</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>508.51</v>
+        <v>500.04</v>
       </c>
       <c r="B30">
         <v>500</v>
       </c>
       <c r="C30">
-        <v>76.25</v>
+        <v>80.34</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-5.34</v>
+        <v>9.77</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1627,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.32</v>
+        <v>-1.32</v>
       </c>
       <c r="K30">
-        <v>0.02</v>
+        <v>-0.08</v>
       </c>
       <c r="L30">
-        <v>73.75</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="M30">
         <v>4943</v>
@@ -1641,25 +1641,25 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>483.09</v>
+        <v>525.46</v>
       </c>
       <c r="B31">
         <v>500</v>
       </c>
       <c r="C31">
-        <v>81.33</v>
+        <v>85.49</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-10.130000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.1200000000000001</v>
+        <v>-0.84</v>
       </c>
       <c r="K31">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="L31">
-        <v>149.88999999999999</v>
+        <v>19.48</v>
       </c>
       <c r="M31">
         <v>5026</v>
@@ -1682,25 +1682,25 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>525.46</v>
+        <v>508.51</v>
       </c>
       <c r="B32">
         <v>500</v>
       </c>
       <c r="C32">
-        <v>86.47</v>
+        <v>90.61</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>-5.83</v>
+        <v>-2.78</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.54</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K32">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="L32">
-        <v>24.67</v>
+        <v>72.739999999999995</v>
       </c>
       <c r="M32">
         <v>5120</v>
@@ -1723,25 +1723,25 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>516.99</v>
+        <v>525.46</v>
       </c>
       <c r="B33">
         <v>500</v>
       </c>
       <c r="C33">
-        <v>1.56</v>
+        <v>95.72</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>-5.65</v>
+        <v>-6.23</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>-0.01</v>
+        <v>0.18</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="K33">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L33">
-        <v>47.83</v>
+        <v>23.17</v>
       </c>
       <c r="M33">
         <v>5319</v>
@@ -1770,19 +1770,19 @@
         <v>500</v>
       </c>
       <c r="C34">
-        <v>6.7</v>
+        <v>100.86</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>-4.97</v>
+        <v>1.92</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>-0.05</v>
+        <v>0.17</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1791,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.55000000000000004</v>
+        <v>-0.37</v>
       </c>
       <c r="K34">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="L34">
-        <v>73.97</v>
+        <v>70.34</v>
       </c>
       <c r="M34">
         <v>4781</v>
@@ -1805,25 +1805,25 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>525.46</v>
+        <v>500.04</v>
       </c>
       <c r="B35">
         <v>500</v>
       </c>
       <c r="C35">
-        <v>11.84</v>
+        <v>106</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>-4.7</v>
+        <v>7.14</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>-0.11</v>
+        <v>0.22</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.52</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="K35">
-        <v>0.05</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L35">
-        <v>21.35</v>
+        <v>96.47</v>
       </c>
       <c r="M35">
         <v>4557</v>
@@ -1852,19 +1852,19 @@
         <v>500</v>
       </c>
       <c r="C36">
-        <v>16.98</v>
+        <v>111.14</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>-4.82</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>-0.17</v>
+        <v>0.3</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1873,13 +1873,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.53</v>
+        <v>-1.31</v>
       </c>
       <c r="K36">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="L36">
-        <v>47.87</v>
+        <v>46.62</v>
       </c>
       <c r="M36">
         <v>5105</v>
@@ -1887,25 +1887,25 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>516.99</v>
+        <v>525.46</v>
       </c>
       <c r="B37">
         <v>500</v>
       </c>
       <c r="C37">
-        <v>22.11</v>
+        <v>116.28</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>-5.46</v>
+        <v>-1.5</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>-0.23</v>
+        <v>0.32</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="K37">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L37">
-        <v>49.27</v>
+        <v>22.44</v>
       </c>
       <c r="M37">
         <v>5091</v>
@@ -1928,25 +1928,25 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>516.99</v>
+        <v>483.09</v>
       </c>
       <c r="B38">
         <v>500</v>
       </c>
       <c r="C38">
-        <v>27.23</v>
+        <v>121.35</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>-10.8</v>
+        <v>-5.4</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>-0.33</v>
+        <v>0.35</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1955,13 +1955,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.9</v>
+        <v>0.86</v>
       </c>
       <c r="K38">
-        <v>0.82</v>
+        <v>0.05</v>
       </c>
       <c r="L38">
-        <v>50.22</v>
+        <v>151.1</v>
       </c>
       <c r="M38">
         <v>1691</v>
@@ -1969,25 +1969,25 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>491.56</v>
+        <v>525.46</v>
       </c>
       <c r="B39">
         <v>500</v>
       </c>
       <c r="C39">
-        <v>32.31</v>
+        <v>126.48</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>-4.2699999999999996</v>
+        <v>-5.37</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>-0.38</v>
+        <v>0.3</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.47</v>
+        <v>0.86</v>
       </c>
       <c r="K39">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L39">
-        <v>125.46</v>
+        <v>20.9</v>
       </c>
       <c r="M39">
         <v>63590</v>
@@ -2010,25 +2010,25 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>516.99</v>
+        <v>525.46</v>
       </c>
       <c r="B40">
         <v>500</v>
       </c>
       <c r="C40">
-        <v>37.409999999999997</v>
+        <v>4.12</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>3.5</v>
       </c>
       <c r="E40">
-        <v>0.82</v>
+        <v>-9.4600000000000009</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>-0.34</v>
+        <v>-0.05</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>-0.09</v>
+        <v>1.04</v>
       </c>
       <c r="K40">
-        <v>-0.01</v>
+        <v>0.09</v>
       </c>
       <c r="L40">
-        <v>49.95</v>
+        <v>23.88</v>
       </c>
       <c r="M40">
         <v>58995</v>
@@ -2057,19 +2057,19 @@
         <v>500</v>
       </c>
       <c r="C41">
-        <v>42.56</v>
+        <v>9.25</v>
       </c>
       <c r="D41">
-        <v>41</v>
+        <v>8.5</v>
       </c>
       <c r="E41">
-        <v>9.2799999999999994</v>
+        <v>-5.19</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>-0.28999999999999998</v>
+        <v>-0.11</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2078,24 +2078,24 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>-1.02</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K41">
-        <v>-0.09</v>
+        <v>0.05</v>
       </c>
       <c r="L41">
-        <v>47.15</v>
+        <v>44.8</v>
       </c>
       <c r="M41">
         <v>55859</v>
       </c>
       <c r="N41">
         <f>AVERAGE(K41:K57)</f>
-        <v>-5.5888235294117647</v>
+        <v>8.2670588235294105</v>
       </c>
       <c r="O41">
         <f>AVERAGE(L41:L57)</f>
-        <v>-4.1176470588235281</v>
+        <v>111.63470588235295</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2106,34 +2106,34 @@
         <v>500</v>
       </c>
       <c r="C42">
-        <v>47.71</v>
+        <v>14.44</v>
       </c>
       <c r="D42">
-        <v>46.87</v>
+        <v>13.44</v>
       </c>
       <c r="E42">
-        <v>7.14</v>
+        <v>14.71</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>91.67</v>
       </c>
       <c r="G42">
-        <v>-0.21</v>
+        <v>-0.11</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="I42">
-        <v>-8594.35</v>
+        <v>11459.13</v>
       </c>
       <c r="J42">
-        <v>-2.29</v>
+        <v>31.1</v>
       </c>
       <c r="K42">
-        <v>-0.14000000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="L42">
-        <v>32.799999999999997</v>
+        <v>135.09</v>
       </c>
       <c r="M42">
         <v>56727</v>
@@ -2141,40 +2141,40 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>508.51</v>
+        <v>516.99</v>
       </c>
       <c r="B43">
         <v>500</v>
       </c>
       <c r="C43">
-        <v>52.74</v>
+        <v>19.55</v>
       </c>
       <c r="D43">
-        <v>51.87</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="E43">
-        <v>-36.5</v>
+        <v>130.94999999999999</v>
       </c>
       <c r="F43">
-        <v>-85.94</v>
+        <v>206.26</v>
       </c>
       <c r="G43">
-        <v>-0.28000000000000003</v>
+        <v>0.72</v>
       </c>
       <c r="H43">
-        <v>-0.43</v>
+        <v>1.86</v>
       </c>
       <c r="I43">
-        <v>-8594.35</v>
+        <v>11459.13</v>
       </c>
       <c r="J43">
-        <v>-22.92</v>
+        <v>44.97</v>
       </c>
       <c r="K43">
-        <v>-8.09</v>
+        <v>22.38</v>
       </c>
       <c r="L43">
-        <v>9.6199999999999992</v>
+        <v>137.53</v>
       </c>
       <c r="M43">
         <v>58153</v>
@@ -2188,34 +2188,34 @@
         <v>500</v>
       </c>
       <c r="C44">
-        <v>57.89</v>
+        <v>24.69</v>
       </c>
       <c r="D44">
-        <v>56.87</v>
+        <v>23.44</v>
       </c>
       <c r="E44">
-        <v>-133.97</v>
+        <v>264.74</v>
       </c>
       <c r="F44">
-        <v>-171.89</v>
+        <v>320.86</v>
       </c>
       <c r="G44">
-        <v>-1.33</v>
+        <v>2.67</v>
       </c>
       <c r="H44">
-        <v>-1.72</v>
+        <v>4.49</v>
       </c>
       <c r="I44">
-        <v>-8594.35</v>
+        <v>11459.13</v>
       </c>
       <c r="J44">
-        <v>-25.14</v>
+        <v>54.08</v>
       </c>
       <c r="K44">
-        <v>-13.77</v>
+        <v>37.24</v>
       </c>
       <c r="L44">
-        <v>-0.09</v>
+        <v>196.77</v>
       </c>
       <c r="M44">
         <v>56094</v>
@@ -2229,34 +2229,34 @@
         <v>500</v>
       </c>
       <c r="C45">
-        <v>63</v>
+        <v>29.77</v>
       </c>
       <c r="D45">
-        <v>61.87</v>
+        <v>28.44</v>
       </c>
       <c r="E45">
-        <v>-222.75</v>
+        <v>398.01</v>
       </c>
       <c r="F45">
-        <v>-257.83</v>
+        <v>435.45</v>
       </c>
       <c r="G45">
-        <v>-3.21</v>
+        <v>6.15</v>
       </c>
       <c r="H45">
-        <v>-3.87</v>
+        <v>8.27</v>
       </c>
       <c r="I45">
-        <v>-8594.35</v>
+        <v>11459.13</v>
       </c>
       <c r="J45">
-        <v>-30.57</v>
+        <v>55.78</v>
       </c>
       <c r="K45">
-        <v>-20.04</v>
+        <v>44.55</v>
       </c>
       <c r="L45">
-        <v>-39.159999999999997</v>
+        <v>197.36</v>
       </c>
       <c r="M45">
         <v>56744</v>
@@ -2264,40 +2264,40 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>533.94000000000005</v>
+        <v>525.46</v>
       </c>
       <c r="B46">
         <v>500</v>
       </c>
       <c r="C46">
-        <v>68.22</v>
+        <v>34.93</v>
       </c>
       <c r="D46">
-        <v>66.87</v>
+        <v>33.44</v>
       </c>
       <c r="E46">
-        <v>-323.82</v>
+        <v>562.32000000000005</v>
       </c>
       <c r="F46">
-        <v>-343.77</v>
+        <v>550.04</v>
       </c>
       <c r="G46">
-        <v>-5.99</v>
+        <v>11.01</v>
       </c>
       <c r="H46">
-        <v>-6.88</v>
+        <v>13.2</v>
       </c>
       <c r="I46">
-        <v>-8594.35</v>
+        <v>11459.13</v>
       </c>
       <c r="J46">
-        <v>-31.35</v>
+        <v>-3.93</v>
       </c>
       <c r="K46">
-        <v>-25.36</v>
+        <v>-0.25</v>
       </c>
       <c r="L46">
-        <v>-104.03</v>
+        <v>132.08000000000001</v>
       </c>
       <c r="M46">
         <v>57627</v>
@@ -2305,40 +2305,40 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>508.51</v>
+        <v>525.46</v>
       </c>
       <c r="B47">
         <v>500</v>
       </c>
       <c r="C47">
-        <v>73.34</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="D47">
-        <v>71.87</v>
+        <v>38.44</v>
       </c>
       <c r="E47">
-        <v>-432.01</v>
+        <v>638.49</v>
       </c>
       <c r="F47">
-        <v>-429.72</v>
+        <v>664.63</v>
       </c>
       <c r="G47">
-        <v>-9.75</v>
+        <v>17.05</v>
       </c>
       <c r="H47">
-        <v>-10.74</v>
+        <v>19.27</v>
       </c>
       <c r="I47">
-        <v>-8594.35</v>
+        <v>11459.13</v>
       </c>
       <c r="J47">
-        <v>0.73</v>
+        <v>10.19</v>
       </c>
       <c r="K47">
-        <v>0.05</v>
+        <v>2.35</v>
       </c>
       <c r="L47">
-        <v>1.6</v>
+        <v>165.11</v>
       </c>
       <c r="M47">
         <v>57038</v>
@@ -2346,40 +2346,40 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>500.04</v>
+        <v>533.94000000000005</v>
       </c>
       <c r="B48">
         <v>500</v>
       </c>
       <c r="C48">
-        <v>78.45</v>
+        <v>45.22</v>
       </c>
       <c r="D48">
-        <v>76.87</v>
+        <v>43.44</v>
       </c>
       <c r="E48">
-        <v>-484.77</v>
+        <v>761.87</v>
       </c>
       <c r="F48">
-        <v>-515.66</v>
+        <v>779.22</v>
       </c>
       <c r="G48">
-        <v>-14.36</v>
+        <v>24.14</v>
       </c>
       <c r="H48">
-        <v>-15.47</v>
+        <v>26.49</v>
       </c>
       <c r="I48">
-        <v>-8594.35</v>
+        <v>11459.13</v>
       </c>
       <c r="J48">
-        <v>-12.35</v>
+        <v>11.17</v>
       </c>
       <c r="K48">
-        <v>-3.08</v>
+        <v>5.96</v>
       </c>
       <c r="L48">
-        <v>4.2699999999999996</v>
+        <v>162.6</v>
       </c>
       <c r="M48">
         <v>56385</v>
@@ -2387,40 +2387,40 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>516.99</v>
+        <v>508.51</v>
       </c>
       <c r="B49">
         <v>500</v>
       </c>
       <c r="C49">
-        <v>83.57</v>
+        <v>50.38</v>
       </c>
       <c r="D49">
-        <v>81.87</v>
+        <v>46.44</v>
       </c>
       <c r="E49">
-        <v>-566.16</v>
+        <v>844.36</v>
       </c>
       <c r="F49">
-        <v>-601.6</v>
+        <v>802.14</v>
       </c>
       <c r="G49">
-        <v>-19.739999999999998</v>
+        <v>32.28</v>
       </c>
       <c r="H49">
-        <v>-21.06</v>
+        <v>31.28</v>
       </c>
       <c r="I49">
-        <v>-8594.35</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>-18.690000000000001</v>
+        <v>-15.93</v>
       </c>
       <c r="K49">
-        <v>-8.06</v>
+        <v>-3.27</v>
       </c>
       <c r="L49">
-        <v>-60.16</v>
+        <v>109.73</v>
       </c>
       <c r="M49">
         <v>56683</v>
@@ -2428,40 +2428,40 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>508.51</v>
+        <v>516.99</v>
       </c>
       <c r="B50">
         <v>500</v>
       </c>
       <c r="C50">
-        <v>88.72</v>
+        <v>55.52</v>
       </c>
       <c r="D50">
-        <v>86.87</v>
+        <v>51.44</v>
       </c>
       <c r="E50">
-        <v>-659.45</v>
+        <v>815</v>
       </c>
       <c r="F50">
-        <v>-687.55</v>
+        <v>802.14</v>
       </c>
       <c r="G50">
-        <v>-25.85</v>
+        <v>40.61</v>
       </c>
       <c r="H50">
-        <v>-27.5</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="I50">
-        <v>-8594.35</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>-24</v>
+        <v>-13.46</v>
       </c>
       <c r="K50">
-        <v>-15.57</v>
+        <v>-9.6</v>
       </c>
       <c r="L50">
-        <v>-49.87</v>
+        <v>82.21</v>
       </c>
       <c r="M50">
         <v>57599</v>
@@ -2469,40 +2469,40 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>508.51</v>
+        <v>500.04</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
       <c r="C51">
-        <v>93.88</v>
+        <v>60.68</v>
       </c>
       <c r="D51">
-        <v>89.87</v>
+        <v>56.44</v>
       </c>
       <c r="E51">
-        <v>-715.27</v>
+        <v>741</v>
       </c>
       <c r="F51">
-        <v>-687.55</v>
+        <v>802.14</v>
       </c>
       <c r="G51">
-        <v>-32.86</v>
+        <v>48.27</v>
       </c>
       <c r="H51">
-        <v>-31.63</v>
+        <v>47.33</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>11.31</v>
+        <v>25.66</v>
       </c>
       <c r="K51">
-        <v>2.99</v>
+        <v>7.32</v>
       </c>
       <c r="L51">
-        <v>21.17</v>
+        <v>163.71</v>
       </c>
       <c r="M51">
         <v>57712</v>
@@ -2510,40 +2510,40 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>508.51</v>
+        <v>516.99</v>
       </c>
       <c r="B52">
         <v>500</v>
       </c>
       <c r="C52">
-        <v>98.99</v>
+        <v>65.84</v>
       </c>
       <c r="D52">
-        <v>94.87</v>
+        <v>61.44</v>
       </c>
       <c r="E52">
-        <v>-703.22</v>
+        <v>746.49</v>
       </c>
       <c r="F52">
-        <v>-687.55</v>
+        <v>802.14</v>
       </c>
       <c r="G52">
-        <v>-39.89</v>
+        <v>55.6</v>
       </c>
       <c r="H52">
-        <v>-38.5</v>
+        <v>55.35</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>5.26</v>
+        <v>37.85</v>
       </c>
       <c r="K52">
-        <v>0.56000000000000005</v>
+        <v>21.15</v>
       </c>
       <c r="L52">
-        <v>22.59</v>
+        <v>131.77000000000001</v>
       </c>
       <c r="M52">
         <v>55902</v>
@@ -2557,34 +2557,34 @@
         <v>500</v>
       </c>
       <c r="C53">
-        <v>104.14</v>
+        <v>71.08</v>
       </c>
       <c r="D53">
-        <v>99.87</v>
+        <v>65.44</v>
       </c>
       <c r="E53">
-        <v>-699.1</v>
+        <v>754.46</v>
       </c>
       <c r="F53">
-        <v>-687.55</v>
+        <v>802.14</v>
       </c>
       <c r="G53">
-        <v>-46.95</v>
+        <v>63.14</v>
       </c>
       <c r="H53">
-        <v>-45.38</v>
+        <v>61.93</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>-11459.13</v>
       </c>
       <c r="J53">
-        <v>7.76</v>
+        <v>45.01</v>
       </c>
       <c r="K53">
-        <v>4.29</v>
+        <v>30.7</v>
       </c>
       <c r="L53">
-        <v>-2.82</v>
+        <v>118.98</v>
       </c>
       <c r="M53">
         <v>57846</v>
@@ -2592,40 +2592,40 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>508.51</v>
+        <v>491.56</v>
       </c>
       <c r="B54">
         <v>500</v>
       </c>
       <c r="C54">
-        <v>109.28</v>
+        <v>76.23</v>
       </c>
       <c r="D54">
-        <v>104.87</v>
+        <v>70.44</v>
       </c>
       <c r="E54">
-        <v>-674.9</v>
+        <v>759.74</v>
       </c>
       <c r="F54">
-        <v>-687.55</v>
+        <v>687.55</v>
       </c>
       <c r="G54">
-        <v>-53.79</v>
+        <v>70.84</v>
       </c>
       <c r="H54">
-        <v>-52.25</v>
+        <v>69.37</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>-11459.13</v>
       </c>
       <c r="J54">
-        <v>-4.26</v>
+        <v>-28.77</v>
       </c>
       <c r="K54">
-        <v>-0.47</v>
+        <v>-7.12</v>
       </c>
       <c r="L54">
-        <v>7.74</v>
+        <v>96.18</v>
       </c>
       <c r="M54">
         <v>58096</v>
@@ -2633,40 +2633,40 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>500.04</v>
+        <v>491.56</v>
       </c>
       <c r="B55">
         <v>500</v>
       </c>
       <c r="C55">
-        <v>114.39</v>
+        <v>81.290000000000006</v>
       </c>
       <c r="D55">
-        <v>109.87</v>
+        <v>75.44</v>
       </c>
       <c r="E55">
-        <v>-676.39</v>
+        <v>602.16999999999996</v>
       </c>
       <c r="F55">
-        <v>-687.55</v>
+        <v>572.96</v>
       </c>
       <c r="G55">
-        <v>-60.45</v>
+        <v>77.72</v>
       </c>
       <c r="H55">
-        <v>-59.13</v>
+        <v>75.680000000000007</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>-11459.13</v>
       </c>
       <c r="J55">
-        <v>-8.23</v>
+        <v>-28.54</v>
       </c>
       <c r="K55">
-        <v>-4.88</v>
+        <v>-19.77</v>
       </c>
       <c r="L55">
-        <v>38.840000000000003</v>
+        <v>81.53</v>
       </c>
       <c r="M55">
         <v>55982</v>
@@ -2674,40 +2674,40 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>516.99</v>
+        <v>533.94000000000005</v>
       </c>
       <c r="B56">
         <v>500</v>
       </c>
       <c r="C56">
-        <v>119.54</v>
+        <v>86.45</v>
       </c>
       <c r="D56">
-        <v>114.87</v>
+        <v>80.44</v>
       </c>
       <c r="E56">
-        <v>-685.67</v>
+        <v>454.5</v>
       </c>
       <c r="F56">
-        <v>-687.55</v>
+        <v>458.37</v>
       </c>
       <c r="G56">
-        <v>-67.36</v>
+        <v>82.94</v>
       </c>
       <c r="H56">
-        <v>-66</v>
+        <v>80.83</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>-11459.13</v>
       </c>
       <c r="J56">
-        <v>-0.6</v>
+        <v>1.24</v>
       </c>
       <c r="K56">
-        <v>-0.04</v>
+        <v>0.08</v>
       </c>
       <c r="L56">
-        <v>-5.52</v>
+        <v>-43.8</v>
       </c>
       <c r="M56">
         <v>56625</v>
@@ -2715,40 +2715,40 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>508.51</v>
+        <v>516.99</v>
       </c>
       <c r="B57">
         <v>500</v>
       </c>
       <c r="C57">
-        <v>124.71</v>
+        <v>91.58</v>
       </c>
       <c r="D57">
-        <v>119.87</v>
+        <v>85.44</v>
       </c>
       <c r="E57">
-        <v>-663.76</v>
+        <v>328.4</v>
       </c>
       <c r="F57">
-        <v>-687.55</v>
+        <v>343.77</v>
       </c>
       <c r="G57">
-        <v>-74.06</v>
+        <v>86.8</v>
       </c>
       <c r="H57">
-        <v>-72.88</v>
+        <v>84.84</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>-11459.13</v>
       </c>
       <c r="J57">
-        <v>-10.45</v>
+        <v>5.38</v>
       </c>
       <c r="K57">
-        <v>-3.31</v>
+        <v>0.76</v>
       </c>
       <c r="L57">
-        <v>5.87</v>
+        <v>-13.86</v>
       </c>
       <c r="M57">
         <v>58008</v>
@@ -2762,34 +2762,34 @@
         <v>500</v>
       </c>
       <c r="C58">
-        <v>129.86000000000001</v>
+        <v>96.69</v>
       </c>
       <c r="D58">
-        <v>124.87</v>
+        <v>90.44</v>
       </c>
       <c r="E58">
-        <v>-669.95</v>
+        <v>197.14</v>
       </c>
       <c r="F58">
-        <v>-687.55</v>
+        <v>229.18</v>
       </c>
       <c r="G58">
-        <v>-80.760000000000005</v>
+        <v>89.33</v>
       </c>
       <c r="H58">
-        <v>-79.760000000000005</v>
+        <v>87.71</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>-11459.13</v>
       </c>
       <c r="J58">
-        <v>-12.18</v>
+        <v>15.97</v>
       </c>
       <c r="K58">
-        <v>-6.91</v>
+        <v>6.36</v>
       </c>
       <c r="L58">
-        <v>0.5</v>
+        <v>1.46</v>
       </c>
       <c r="M58">
         <v>56610</v>
@@ -2797,40 +2797,40 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>516.99</v>
+        <v>508.51</v>
       </c>
       <c r="B59">
         <v>500</v>
       </c>
       <c r="C59">
-        <v>134.93</v>
+        <v>101.8</v>
       </c>
       <c r="D59">
-        <v>129.87</v>
+        <v>100.94</v>
       </c>
       <c r="E59">
-        <v>-688.11</v>
+        <v>67.959999999999994</v>
       </c>
       <c r="F59">
-        <v>-687.55</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>-87.55</v>
+        <v>90.56</v>
       </c>
       <c r="H59">
-        <v>-86.63</v>
+        <v>89.17</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.18</v>
+        <v>4.82</v>
       </c>
       <c r="K59">
-        <v>0.01</v>
+        <v>11.62</v>
       </c>
       <c r="L59">
-        <v>-7.0000000000000007E-2</v>
+        <v>-9.1300000000000008</v>
       </c>
       <c r="M59">
         <v>56373</v>
@@ -2838,40 +2838,40 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>508.51</v>
+        <v>550.89</v>
       </c>
       <c r="B60">
         <v>500</v>
       </c>
       <c r="C60">
-        <v>140.09</v>
+        <v>1.55</v>
       </c>
       <c r="D60">
-        <v>134.87</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>-674.13</v>
+        <v>-52.15</v>
       </c>
       <c r="F60">
-        <v>-687.55</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>-94.36</v>
+        <v>-0.12</v>
       </c>
       <c r="H60">
-        <v>-93.51</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>-4.51</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="K60">
-        <v>-0.49</v>
+        <v>1.4</v>
       </c>
       <c r="L60">
-        <v>19.899999999999999</v>
+        <v>-46.88</v>
       </c>
       <c r="M60">
         <v>57109</v>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>516.99</v>
+        <v>491.56</v>
       </c>
       <c r="B61">
         <v>500</v>
       </c>
       <c r="C61">
-        <v>145.22</v>
+        <v>6.67</v>
       </c>
       <c r="D61">
-        <v>139.87</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>-657.71</v>
+        <v>-53.65</v>
       </c>
       <c r="F61">
-        <v>-687.55</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>-101</v>
+        <v>-0.71</v>
       </c>
       <c r="H61">
-        <v>-100.38</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>-14.29</v>
+        <v>15.3</v>
       </c>
       <c r="K61">
-        <v>-5.34</v>
+        <v>7.26</v>
       </c>
       <c r="L61">
-        <v>-19.149999999999999</v>
+        <v>134.59</v>
       </c>
       <c r="M61">
         <v>60770</v>
@@ -2926,34 +2926,34 @@
         <v>500</v>
       </c>
       <c r="C62">
-        <v>150.35</v>
+        <v>11.83</v>
       </c>
       <c r="D62">
-        <v>144.87</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>-683.04</v>
+        <v>-2.81</v>
       </c>
       <c r="F62">
-        <v>-687.55</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>-107.66</v>
+        <v>-0.98</v>
       </c>
       <c r="H62">
-        <v>-107.26</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>8594.35</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>-1.44</v>
+        <v>0.45</v>
       </c>
       <c r="K62">
-        <v>-0.09</v>
+        <v>0.03</v>
       </c>
       <c r="L62">
-        <v>-3.71</v>
+        <v>51.26</v>
       </c>
       <c r="M62">
         <v>362</v>
@@ -2961,40 +2961,40 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>542.41999999999996</v>
+        <v>500.04</v>
       </c>
       <c r="B63">
         <v>500</v>
       </c>
       <c r="C63">
-        <v>155.54</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="D63">
-        <v>149.37</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>-661.68</v>
+        <v>5.16</v>
       </c>
       <c r="F63">
-        <v>-610.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>-114.46</v>
+        <v>-0.98</v>
       </c>
       <c r="H63">
-        <v>-113.34</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>8594.35</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>21.44</v>
+        <v>-0.83</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>-0.05</v>
       </c>
       <c r="L63">
-        <v>-11.28</v>
+        <v>102.35</v>
       </c>
       <c r="M63">
         <v>2865</v>
@@ -3002,40 +3002,40 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>508.51</v>
+        <v>516.99</v>
       </c>
       <c r="B64">
         <v>500</v>
       </c>
       <c r="C64">
-        <v>160.66</v>
+        <v>22.06</v>
       </c>
       <c r="D64">
-        <v>154.37</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>-511.69</v>
+        <v>15.96</v>
       </c>
       <c r="F64">
-        <v>-524.26</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>-120.13</v>
+        <v>-0.86</v>
       </c>
       <c r="H64">
-        <v>-119.01</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>8594.35</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>-5.12</v>
+        <v>-3.34</v>
       </c>
       <c r="K64">
-        <v>-1.35</v>
+        <v>-0.95</v>
       </c>
       <c r="L64">
-        <v>90.13</v>
+        <v>49.29</v>
       </c>
       <c r="M64">
         <v>4855</v>
@@ -3043,40 +3043,40 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>516.99</v>
+        <v>508.51</v>
       </c>
       <c r="B65">
         <v>500</v>
       </c>
       <c r="C65">
-        <v>165.79</v>
+        <v>27.13</v>
       </c>
       <c r="D65">
-        <v>159.37</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>-408.84</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F65">
-        <v>-438.31</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>-124.82</v>
+        <v>-0.85</v>
       </c>
       <c r="H65">
-        <v>-123.82</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>8594.35</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>-9.9700000000000006</v>
+        <v>-1.42</v>
       </c>
       <c r="K65">
-        <v>-1.1299999999999999</v>
+        <v>-0.09</v>
       </c>
       <c r="L65">
-        <v>73.08</v>
+        <v>76.95</v>
       </c>
       <c r="M65">
         <v>4644</v>
@@ -3084,40 +3084,40 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>500.04</v>
+        <v>491.56</v>
       </c>
       <c r="B66">
         <v>500</v>
       </c>
       <c r="C66">
-        <v>170.86</v>
+        <v>32.22</v>
       </c>
       <c r="D66">
-        <v>164.37</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>-326.72000000000003</v>
+        <v>3.2</v>
       </c>
       <c r="F66">
-        <v>-352.37</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>-128.38999999999999</v>
+        <v>-0.74</v>
       </c>
       <c r="H66">
-        <v>-127.78</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>8594.35</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>-15.62</v>
+        <v>-0.51</v>
       </c>
       <c r="K66">
-        <v>-7.92</v>
+        <v>-0.03</v>
       </c>
       <c r="L66">
-        <v>130.07</v>
+        <v>127.1</v>
       </c>
       <c r="M66">
         <v>4532</v>
@@ -3125,40 +3125,40 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>516.99</v>
+        <v>508.51</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67">
-        <v>175.97</v>
+        <v>37.33</v>
       </c>
       <c r="D67">
-        <v>169.37</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>-234.16</v>
+        <v>16.97</v>
       </c>
       <c r="F67">
-        <v>-266.43</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>-131.13999999999999</v>
+        <v>-0.67</v>
       </c>
       <c r="H67">
-        <v>-130.87</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>8594.35</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>-23.56</v>
+        <v>-2.96</v>
       </c>
       <c r="K67">
-        <v>-13.88</v>
+        <v>-0.42</v>
       </c>
       <c r="L67">
-        <v>86.91</v>
+        <v>76.22</v>
       </c>
       <c r="M67">
         <v>4942</v>
@@ -3166,40 +3166,40 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>525.46</v>
+        <v>508.51</v>
       </c>
       <c r="B68">
         <v>500</v>
       </c>
       <c r="C68">
-        <v>181.07</v>
+        <v>42.48</v>
       </c>
       <c r="D68">
-        <v>174.37</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>-198.46</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="F68">
-        <v>-180.48</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>-133.21</v>
+        <v>-0.52</v>
       </c>
       <c r="H68">
-        <v>-133.1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>8594.35</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>6.23</v>
+        <v>-4.38</v>
       </c>
       <c r="K68">
-        <v>0.84</v>
+        <v>-1.92</v>
       </c>
       <c r="L68">
-        <v>43.82</v>
+        <v>76.52</v>
       </c>
       <c r="M68">
         <v>4881</v>
@@ -3207,40 +3207,40 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>516.99</v>
+        <v>525.46</v>
       </c>
       <c r="B69">
         <v>500</v>
       </c>
       <c r="C69">
-        <v>186.18</v>
+        <v>47.64</v>
       </c>
       <c r="D69">
-        <v>184.87</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>-126.19</v>
+        <v>13.64</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>-134.94999999999999</v>
+        <v>-0.39</v>
       </c>
       <c r="H69">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>22.17</v>
+        <v>-5.32</v>
       </c>
       <c r="K69">
-        <v>9.5500000000000007</v>
+        <v>-3.28</v>
       </c>
       <c r="L69">
-        <v>64.650000000000006</v>
+        <v>23.51</v>
       </c>
       <c r="M69">
         <v>4755</v>
@@ -3248,40 +3248,40 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>525.46</v>
+        <v>508.51</v>
       </c>
       <c r="B70">
         <v>500</v>
       </c>
       <c r="C70">
-        <v>191.34</v>
+        <v>52.77</v>
       </c>
       <c r="D70">
-        <v>189.87</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>-70.25</v>
+        <v>19.71</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>-135.79</v>
+        <v>-0.21</v>
       </c>
       <c r="H70">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>24.99</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="K70">
-        <v>17.97</v>
+        <v>-5.07</v>
       </c>
       <c r="L70">
-        <v>48.8</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="M70">
         <v>4862</v>
@@ -3295,34 +3295,34 @@
         <v>500</v>
       </c>
       <c r="C71">
-        <v>196.46</v>
+        <v>57.91</v>
       </c>
       <c r="D71">
-        <v>194.87</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>-9.9499999999999993</v>
+        <v>15.96</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>-136.16999999999999</v>
+        <v>-0.03</v>
       </c>
       <c r="H71">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>22.72</v>
+        <v>-9.2200000000000006</v>
       </c>
       <c r="K71">
-        <v>21.73</v>
+        <v>-6.83</v>
       </c>
       <c r="L71">
-        <v>95.59</v>
+        <v>62.21</v>
       </c>
       <c r="M71">
         <v>5307</v>
@@ -3330,40 +3330,40 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>500.04</v>
+        <v>491.56</v>
       </c>
       <c r="B72">
-        <v>500</v>
+        <v>483.8</v>
       </c>
       <c r="C72">
-        <v>201.55</v>
+        <v>62.88</v>
       </c>
       <c r="D72">
-        <v>199.87</v>
+        <v>62.26</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>-5.83</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>-136.19999999999999</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H72">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L72">
-        <v>106.75</v>
+        <v>51.36</v>
       </c>
       <c r="M72">
         <v>4765</v>
@@ -3371,40 +3371,40 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>516.99</v>
+        <v>466.14</v>
       </c>
       <c r="B73">
-        <v>500</v>
+        <v>465.8</v>
       </c>
       <c r="C73">
-        <v>206.62</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="D73">
-        <v>204.87</v>
+        <v>67.010000000000005</v>
       </c>
       <c r="E73">
-        <v>8.06</v>
+        <v>-2.14</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>-136.15</v>
+        <v>-0.12</v>
       </c>
       <c r="H73">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-0.89</v>
+        <v>0.34</v>
       </c>
       <c r="K73">
-        <v>-0.08</v>
+        <v>0.02</v>
       </c>
       <c r="L73">
-        <v>57.51</v>
+        <v>67.16</v>
       </c>
       <c r="M73">
         <v>4534</v>
@@ -3412,40 +3412,40 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>533.94000000000005</v>
+        <v>449.19</v>
       </c>
       <c r="B74">
-        <v>500</v>
+        <v>447.8</v>
       </c>
       <c r="C74">
-        <v>211.75</v>
+        <v>72.34</v>
       </c>
       <c r="D74">
-        <v>209.87</v>
+        <v>71.58</v>
       </c>
       <c r="E74">
-        <v>20.2</v>
+        <v>11.66</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>-136</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H74">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>-3.53</v>
+        <v>-2.09</v>
       </c>
       <c r="K74">
-        <v>-1.51</v>
+        <v>-0.34</v>
       </c>
       <c r="L74">
-        <v>1.46</v>
+        <v>57.72</v>
       </c>
       <c r="M74">
         <v>4562</v>
@@ -3453,40 +3453,40 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>491.56</v>
+        <v>440.71</v>
       </c>
       <c r="B75">
-        <v>500</v>
+        <v>429.8</v>
       </c>
       <c r="C75">
-        <v>216.86</v>
+        <v>76.86</v>
       </c>
       <c r="D75">
-        <v>214.87</v>
+        <v>75.97</v>
       </c>
       <c r="E75">
-        <v>29.6</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>-135.74</v>
+        <v>-0.08</v>
       </c>
       <c r="H75">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>-7.11</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>-4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>129.53</v>
+        <v>22.72</v>
       </c>
       <c r="M75">
         <v>4936</v>
@@ -3494,40 +3494,40 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>525.46</v>
+        <v>423.76</v>
       </c>
       <c r="B76">
-        <v>500</v>
+        <v>411.8</v>
       </c>
       <c r="C76">
-        <v>221.99</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="D76">
-        <v>219.87</v>
+        <v>80.17</v>
       </c>
       <c r="E76">
-        <v>29.94</v>
+        <v>7.66</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>-135.44999999999999</v>
+        <v>-0.06</v>
       </c>
       <c r="H76">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>-10.01</v>
+        <v>-1.23</v>
       </c>
       <c r="K76">
-        <v>-7.02</v>
+        <v>-0.08</v>
       </c>
       <c r="L76">
-        <v>21.74</v>
+        <v>11.56</v>
       </c>
       <c r="M76">
         <v>4776</v>
@@ -3535,40 +3535,40 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>525.46</v>
+        <v>381.39</v>
       </c>
       <c r="B77">
-        <v>500</v>
+        <v>393.8</v>
       </c>
       <c r="C77">
-        <v>227.14</v>
+        <v>85.21</v>
       </c>
       <c r="D77">
-        <v>224.87</v>
+        <v>84.2</v>
       </c>
       <c r="E77">
-        <v>29.27</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>-135.15</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>-12.92</v>
+        <v>-3.39</v>
       </c>
       <c r="K77">
-        <v>-10</v>
+        <v>-0.68</v>
       </c>
       <c r="L77">
-        <v>23</v>
+        <v>77.44</v>
       </c>
       <c r="M77">
         <v>4919</v>
@@ -3576,40 +3576,40 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>533.94000000000005</v>
+        <v>372.91</v>
       </c>
       <c r="B78">
-        <v>500</v>
+        <v>375.8</v>
       </c>
       <c r="C78">
-        <v>232.31</v>
+        <v>89.08</v>
       </c>
       <c r="D78">
-        <v>229.87</v>
+        <v>88.05</v>
       </c>
       <c r="E78">
-        <v>28.56</v>
+        <v>7.02</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>-134.87</v>
+        <v>0.06</v>
       </c>
       <c r="H78">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>-15.67</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="K78">
-        <v>-12.82</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L78">
-        <v>-7.41</v>
+        <v>58.1</v>
       </c>
       <c r="M78">
         <v>4865</v>
@@ -3617,40 +3617,40 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>508.51</v>
+        <v>355.96</v>
       </c>
       <c r="B79">
-        <v>500</v>
+        <v>357.8</v>
       </c>
       <c r="C79">
-        <v>237.43</v>
+        <v>92.76</v>
       </c>
       <c r="D79">
-        <v>234.87</v>
+        <v>91.72</v>
       </c>
       <c r="E79">
-        <v>28.44</v>
+        <v>6.53</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>-134.59</v>
+        <v>0.11</v>
       </c>
       <c r="H79">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>-18.43</v>
+        <v>-1.04</v>
       </c>
       <c r="K79">
-        <v>-15.59</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L79">
-        <v>53.2</v>
+        <v>50.73</v>
       </c>
       <c r="M79">
         <v>4912</v>
@@ -3658,40 +3658,40 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>525.46</v>
+        <v>339.01</v>
       </c>
       <c r="B80">
-        <v>500</v>
+        <v>339.8</v>
       </c>
       <c r="C80">
-        <v>242.5</v>
+        <v>96.28</v>
       </c>
       <c r="D80">
-        <v>239.87</v>
+        <v>95.21</v>
       </c>
       <c r="E80">
-        <v>-13.7</v>
+        <v>6.04</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>-134.52000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="H80">
-        <v>-134.38</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1.63</v>
+        <v>-0.97</v>
       </c>
       <c r="K80">
-        <v>0.26</v>
+        <v>-0.06</v>
       </c>
       <c r="L80">
-        <v>23.34</v>
+        <v>42.66</v>
       </c>
       <c r="M80">
         <v>4809</v>
@@ -3699,25 +3699,25 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>0</v>
+        <v>322.06</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>321.8</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>99.61</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>98.51</v>
       </c>
       <c r="E81">
-        <v>-148.22</v>
+        <v>-2.9</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>-0.21</v>
+        <v>0.46</v>
       </c>
       <c r="K81">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L81">
-        <v>-7.71</v>
+        <v>38.74</v>
       </c>
       <c r="M81">
         <v>5185</v>
@@ -3740,25 +3740,25 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>500.04</v>
+        <v>322.06</v>
       </c>
       <c r="B82">
-        <v>500</v>
+        <v>303.8</v>
       </c>
       <c r="C82">
-        <v>5.1100000000000003</v>
+        <v>102.8</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>101.64</v>
       </c>
       <c r="E82">
-        <v>9.1199999999999992</v>
+        <v>3.02</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>-1.46</v>
+        <v>-0.48</v>
       </c>
       <c r="K82">
-        <v>-0.09</v>
+        <v>-0.03</v>
       </c>
       <c r="L82">
-        <v>96.3</v>
+        <v>-21.65</v>
       </c>
       <c r="M82">
         <v>4888</v>
@@ -3781,16 +3781,16 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>525.46</v>
+        <v>279.68</v>
       </c>
       <c r="B83">
-        <v>500</v>
+        <v>285.8</v>
       </c>
       <c r="C83">
-        <v>10.25</v>
+        <v>105.78</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>104.59</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>19.399999999999999</v>
+        <v>46.86</v>
       </c>
       <c r="M83">
         <v>4774</v>
@@ -3822,19 +3822,19 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>533.94000000000005</v>
+        <v>271.20999999999998</v>
       </c>
       <c r="B84">
-        <v>500</v>
+        <v>267.8</v>
       </c>
       <c r="C84">
-        <v>15.4</v>
+        <v>108.58</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>107.36</v>
       </c>
       <c r="E84">
-        <v>-6.04</v>
+        <v>-3.33</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3849,13 +3849,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.97</v>
+        <v>1.82</v>
       </c>
       <c r="K84">
-        <v>0.06</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L84">
-        <v>-2.46</v>
+        <v>19.62</v>
       </c>
       <c r="M84">
         <v>4629</v>
@@ -3863,25 +3863,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>508.51</v>
+        <v>228.83</v>
       </c>
       <c r="B85">
-        <v>500</v>
+        <v>249.8</v>
       </c>
       <c r="C85">
-        <v>20.52</v>
+        <v>111.2</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>109.95</v>
       </c>
       <c r="E85">
-        <v>-10.38</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3890,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1.66</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K85">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L85">
-        <v>75.86</v>
+        <v>87.05</v>
       </c>
       <c r="M85">
         <v>4619</v>
@@ -3904,25 +3904,25 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>491.56</v>
+        <v>228.83</v>
       </c>
       <c r="B86">
-        <v>485.6</v>
+        <v>231.8</v>
       </c>
       <c r="C86">
-        <v>25.54</v>
+        <v>113.61</v>
       </c>
       <c r="D86">
-        <v>24.5</v>
+        <v>112.35</v>
       </c>
       <c r="E86">
-        <v>-17.64</v>
+        <v>7.93</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>-0.17</v>
+        <v>0.06</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3931,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>4.46</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="K86">
-        <v>1.81</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L86">
-        <v>57.94</v>
+        <v>26.69</v>
       </c>
       <c r="M86">
         <v>4739</v>
@@ -3945,25 +3945,25 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>474.61</v>
+        <v>203.41</v>
       </c>
       <c r="B87">
-        <v>467.6</v>
+        <v>213.8</v>
       </c>
       <c r="C87">
-        <v>30.38</v>
+        <v>115.83</v>
       </c>
       <c r="D87">
-        <v>29.26</v>
+        <v>114.58</v>
       </c>
       <c r="E87">
-        <v>-8.61</v>
+        <v>-4.33</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>-0.28999999999999998</v>
+        <v>0.09</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3972,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K87">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="L87">
-        <v>45.33</v>
+        <v>46.77</v>
       </c>
       <c r="M87">
         <v>4696</v>
@@ -3986,25 +3986,25 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>466.14</v>
+        <v>194.93</v>
       </c>
       <c r="B88">
-        <v>449.6</v>
+        <v>195.8</v>
       </c>
       <c r="C88">
-        <v>35.020000000000003</v>
+        <v>117.91</v>
       </c>
       <c r="D88">
-        <v>33.85</v>
+        <v>116.63</v>
       </c>
       <c r="E88">
-        <v>5.34</v>
+        <v>5.46</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>-0.3</v>
+        <v>0.09</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4013,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>-0.85</v>
+        <v>-0.81</v>
       </c>
       <c r="K88">
         <v>-0.05</v>
       </c>
       <c r="L88">
-        <v>8.82</v>
+        <v>12.19</v>
       </c>
       <c r="M88">
         <v>4681</v>
@@ -4027,25 +4027,25 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>432.24</v>
+        <v>177.98</v>
       </c>
       <c r="B89">
-        <v>431.6</v>
+        <v>177.8</v>
       </c>
       <c r="C89">
-        <v>39.54</v>
+        <v>119.78</v>
       </c>
       <c r="D89">
-        <v>38.26</v>
+        <v>118.5</v>
       </c>
       <c r="E89">
-        <v>-18.77</v>
+        <v>-6.38</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>-0.27</v>
+        <v>0.1</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4054,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3.31</v>
+        <v>0.87</v>
       </c>
       <c r="K89">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="L89">
-        <v>52.53</v>
+        <v>10.1</v>
       </c>
       <c r="M89">
         <v>4818</v>
@@ -4068,25 +4068,25 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>415.29</v>
+        <v>152.55000000000001</v>
       </c>
       <c r="B90">
-        <v>413.6</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="C90">
-        <v>43.86</v>
+        <v>121.44</v>
       </c>
       <c r="D90">
-        <v>42.48</v>
+        <v>120.19</v>
       </c>
       <c r="E90">
-        <v>-9.6999999999999993</v>
+        <v>-1.04</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>-0.31</v>
+        <v>0.06</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4095,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>53.38</v>
+        <v>28.63</v>
       </c>
       <c r="M90">
         <v>5278</v>
@@ -4109,25 +4109,25 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>398.34</v>
+        <v>127.13</v>
       </c>
       <c r="B91">
-        <v>395.6</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="C91">
-        <v>48</v>
+        <v>122.92</v>
       </c>
       <c r="D91">
-        <v>46.53</v>
+        <v>121.69</v>
       </c>
       <c r="E91">
-        <v>-7.84</v>
+        <v>-3.72</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>-0.33</v>
+        <v>0.03</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4136,13 +4136,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1.54</v>
+        <v>0.46</v>
       </c>
       <c r="K91">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="L91">
-        <v>43.31</v>
+        <v>47.87</v>
       </c>
       <c r="M91">
         <v>4999</v>
@@ -4150,25 +4150,25 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>364.44</v>
+        <v>118.65</v>
       </c>
       <c r="B92">
-        <v>377.6</v>
+        <v>123.8</v>
       </c>
       <c r="C92">
-        <v>51.89</v>
+        <v>124.25</v>
       </c>
       <c r="D92">
-        <v>50.39</v>
+        <v>123.02</v>
       </c>
       <c r="E92">
-        <v>-2.66</v>
+        <v>-7.6</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>-0.31</v>
+        <v>-0.04</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.11</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K92">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L92">
-        <v>84.83</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="M92">
         <v>4966</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>355.96</v>
+        <v>127.13</v>
       </c>
       <c r="B93">
-        <v>359.6</v>
+        <v>105.8</v>
       </c>
       <c r="C93">
-        <v>55.62</v>
+        <v>125.41</v>
       </c>
       <c r="D93">
-        <v>54.08</v>
+        <v>124.17</v>
       </c>
       <c r="E93">
-        <v>-10.56</v>
+        <v>-4.12</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>-0.31</v>
+        <v>-0.1</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4218,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1.1100000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="K93">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="L93">
-        <v>52.16</v>
+        <v>-67.83</v>
       </c>
       <c r="M93">
         <v>4925</v>
@@ -4232,25 +4232,25 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>347.48</v>
+        <v>84.75</v>
       </c>
       <c r="B94">
-        <v>341.6</v>
+        <v>87.8</v>
       </c>
       <c r="C94">
-        <v>59.15</v>
+        <v>126.36</v>
       </c>
       <c r="D94">
-        <v>57.59</v>
+        <v>125.14</v>
       </c>
       <c r="E94">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>-0.33</v>
+        <v>-0.15</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4259,13 +4259,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>-0.37</v>
+        <v>0.36</v>
       </c>
       <c r="K94">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="L94">
-        <v>24.72</v>
+        <v>1.92</v>
       </c>
       <c r="M94">
         <v>4967</v>
@@ -4273,25 +4273,25 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>322.06</v>
+        <v>67.8</v>
       </c>
       <c r="B95">
-        <v>323.60000000000002</v>
+        <v>69.8</v>
       </c>
       <c r="C95">
-        <v>62.51</v>
+        <v>127.1</v>
       </c>
       <c r="D95">
-        <v>60.91</v>
+        <v>125.93</v>
       </c>
       <c r="E95">
-        <v>5.83</v>
+        <v>-4.33</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>-0.35</v>
+        <v>-0.17</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4300,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>-0.88</v>
+        <v>0.78</v>
       </c>
       <c r="K95">
-        <v>-0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L95">
-        <v>42.37</v>
+        <v>-3.15</v>
       </c>
       <c r="M95">
         <v>4960</v>
@@ -4314,25 +4314,25 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>322.06</v>
+        <v>59.33</v>
       </c>
       <c r="B96">
-        <v>305.60000000000002</v>
+        <v>51.8</v>
       </c>
       <c r="C96">
-        <v>65.7</v>
+        <v>127.69</v>
       </c>
       <c r="D96">
-        <v>64.06</v>
+        <v>126.53</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>-4.21</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>-0.36</v>
+        <v>-0.2</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4341,13 +4341,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L96">
-        <v>-15.73</v>
+        <v>-36.090000000000003</v>
       </c>
       <c r="M96">
         <v>4920</v>
@@ -4355,25 +4355,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>288.16000000000003</v>
+        <v>33.9</v>
       </c>
       <c r="B97">
-        <v>287.60000000000002</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C97">
-        <v>68.7</v>
+        <v>128.11000000000001</v>
       </c>
       <c r="D97">
-        <v>67.02</v>
+        <v>126.96</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-1.74</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>-0.28000000000000003</v>
+        <v>-0.22</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4382,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="K97">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L97">
-        <v>25.04</v>
+        <v>-18.190000000000001</v>
       </c>
       <c r="M97">
         <v>4875</v>
@@ -4396,25 +4396,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>279.68</v>
+        <v>25.43</v>
       </c>
       <c r="B98">
-        <v>269.60000000000002</v>
+        <v>15.8</v>
       </c>
       <c r="C98">
-        <v>71.510000000000005</v>
+        <v>128.36000000000001</v>
       </c>
       <c r="D98">
-        <v>69.81</v>
+        <v>127.21</v>
       </c>
       <c r="E98">
-        <v>10.31</v>
+        <v>-1.65</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>-0.15</v>
+        <v>-0.23</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4423,13 +4423,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>-3.41</v>
+        <v>0.17</v>
       </c>
       <c r="K98">
-        <v>-1.1599999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="L98">
-        <v>-8.1</v>
+        <v>-50.38</v>
       </c>
       <c r="M98">
         <v>4882</v>
@@ -4437,25 +4437,25 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>271.20999999999998</v>
+        <v>0</v>
       </c>
       <c r="B99">
-        <v>251.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C99">
-        <v>74.13</v>
+        <v>128.41</v>
       </c>
       <c r="D99">
-        <v>72.42</v>
+        <v>127.28</v>
       </c>
       <c r="E99">
-        <v>11.63</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>-0.12</v>
+        <v>-0.24</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4464,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>-1.33</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>-38.69</v>
+        <v>-25.8</v>
       </c>
       <c r="M99">
         <v>4869</v>
@@ -4478,25 +4478,25 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>237.31</v>
+        <v>0</v>
       </c>
       <c r="B100">
-        <v>233.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C100">
-        <v>76.55</v>
+        <v>128.38</v>
       </c>
       <c r="D100">
-        <v>74.84</v>
+        <v>127.28</v>
       </c>
       <c r="E100">
-        <v>-5.68</v>
+        <v>0.64</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>-0.03</v>
+        <v>-0.24</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4505,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>7.47</v>
+        <v>-25.15</v>
       </c>
       <c r="M100">
         <v>4848</v>
@@ -4519,25 +4519,25 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>220.36</v>
+        <v>0</v>
       </c>
       <c r="B101">
-        <v>215.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C101">
-        <v>78.790000000000006</v>
+        <v>128.35</v>
       </c>
       <c r="D101">
-        <v>77.09</v>
+        <v>127.28</v>
       </c>
       <c r="E101">
-        <v>18.25</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>-0.05</v>
+        <v>-0.24</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4546,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>-2.0699999999999998</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>-1.82</v>
+        <v>-25.44</v>
       </c>
       <c r="M101">
         <v>4851</v>
@@ -4560,40 +4560,40 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>211.88</v>
+        <v>0</v>
       </c>
       <c r="B102">
-        <v>197.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C102">
-        <v>80.86</v>
+        <v>128.31</v>
       </c>
       <c r="D102">
-        <v>79.150000000000006</v>
+        <v>127.28</v>
       </c>
       <c r="E102">
-        <v>-9.1199999999999992</v>
+        <v>-0.73</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
+        <v>-0.24</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0.11</v>
+      </c>
+      <c r="K102">
         <v>0.01</v>
       </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0.86</v>
-      </c>
-      <c r="K102">
-        <v>0.05</v>
-      </c>
       <c r="L102">
-        <v>-30.32</v>
+        <v>-25.08</v>
       </c>
       <c r="M102">
         <v>4849</v>
@@ -4601,25 +4601,25 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>161.03</v>
+        <v>0</v>
       </c>
       <c r="B103">
-        <v>179.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C103">
-        <v>82.74</v>
+        <v>128.26</v>
       </c>
       <c r="D103">
-        <v>81.040000000000006</v>
+        <v>127.28</v>
       </c>
       <c r="E103">
-        <v>12.21</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.03</v>
+        <v>-0.24</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4628,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>-2.2200000000000002</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>61.72</v>
+        <v>-24.44</v>
       </c>
       <c r="M103">
         <v>4844</v>
@@ -4642,25 +4642,25 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>152.55000000000001</v>
+        <v>-8.48</v>
       </c>
       <c r="B104">
-        <v>161.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C104">
-        <v>84.44</v>
+        <v>128.22999999999999</v>
       </c>
       <c r="D104">
-        <v>82.75</v>
+        <v>127.28</v>
       </c>
       <c r="E104">
-        <v>5.37</v>
+        <v>0.7</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.08</v>
+        <v>-0.24</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>-0.59</v>
+        <v>-0.12</v>
       </c>
       <c r="K104">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="L104">
-        <v>30.43</v>
+        <v>0.83</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -4683,25 +4683,25 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>127.13</v>
+        <v>0</v>
       </c>
       <c r="B105">
-        <v>143.6</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>85.96</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>84.27</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>2.5299999999999998</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4710,13 +4710,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>49.59</v>
+        <v>0</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -4724,25 +4724,25 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>127.13</v>
+        <v>0</v>
       </c>
       <c r="B106">
-        <v>125.6</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>87.29</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>85.62</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>-7.86</v>
+        <v>0</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -4765,16 +4765,16 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>93.23</v>
+        <v>0</v>
       </c>
       <c r="B107">
-        <v>107.6</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>88.44</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>86.78</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4792,13 +4792,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>36.43</v>
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -4806,25 +4806,25 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>93.23</v>
+        <v>0</v>
       </c>
       <c r="B108">
-        <v>89.6</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>89.42</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>87.77</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>-3.54</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4833,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>-20.41</v>
+        <v>0</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -4847,25 +4847,25 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>59.33</v>
+        <v>0</v>
       </c>
       <c r="B109">
-        <v>71.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>90.2</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>88.58</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>-1.19</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>23.81</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -4888,25 +4888,25 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>50.85</v>
+        <v>0</v>
       </c>
       <c r="B110">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>90.8</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>89.2</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4915,13 +4915,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>-0.43</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>-9.16</v>
+        <v>0</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -4929,25 +4929,25 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>33.9</v>
+        <v>0</v>
       </c>
       <c r="B111">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>91.24</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>89.65</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -4956,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>-0.22</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>-15.77</v>
+        <v>0</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -4970,25 +4970,25 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <v>16.95</v>
+        <v>0</v>
       </c>
       <c r="B112">
-        <v>17.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>91.47</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>89.91</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4997,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>-21.81</v>
+        <v>0</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -5014,13 +5014,13 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>91.53</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>-27.62</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -5055,22 +5055,22 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>91.5</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>-0.98</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5079,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>-27.93</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -5096,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>91.45</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>-27.77</v>
+        <v>0</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -5134,16 +5134,16 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <v>-8.48</v>
+        <v>0</v>
       </c>
       <c r="B116">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>91.4</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>-2.27</v>
+        <v>0</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -5178,13 +5178,13 @@
         <v>0</v>
       </c>
       <c r="B117">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>91.35</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>-27.21</v>
+        <v>0</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -5216,25 +5216,25 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <v>-8.48</v>
+        <v>0</v>
       </c>
       <c r="B118">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>91.3</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>-2.23</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5243,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="M118">
         <v>0</v>
